--- a/test-results/Cointegration/Cointegration_results_fixed.xlsx
+++ b/test-results/Cointegration/Cointegration_results_fixed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18200" windowHeight="17620" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="18200" windowHeight="17620"/>
   </bookViews>
   <sheets>
     <sheet name="PctPopUrbanGDPPerCapRealLCU" sheetId="1" r:id="rId1"/>
@@ -569,27 +569,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -935,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P150"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1043,4552 +1023,4552 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
-        <v>-8.3192374981597919</v>
+        <v>-4.7485493573411404</v>
       </c>
       <c r="C3" s="1">
-        <v>-7.1599762540229852</v>
+        <v>-3.7286354208048369</v>
       </c>
       <c r="D3" s="1">
-        <v>-1.1925386154498789</v>
+        <v>-2.8732743691081679</v>
       </c>
       <c r="E3" s="1">
-        <v>-1.672225490306952</v>
+        <v>-2.908740623150627</v>
       </c>
       <c r="F3" s="1">
-        <v>-0.85435652751555002</v>
+        <v>-2.9498581564881681</v>
       </c>
       <c r="G3" s="1">
-        <v>-3.85513612267457</v>
+        <v>-4.51670816750614</v>
       </c>
       <c r="H3" s="1">
-        <v>2.4529040856500501E-2</v>
+        <v>-3.8038934371266828</v>
       </c>
       <c r="I3" s="1">
-        <v>0.77493775737746895</v>
+        <v>-2.8866420870996512</v>
       </c>
       <c r="J3" s="1">
-        <v>0.49400007099957338</v>
+        <v>-2.9279048197083921</v>
       </c>
       <c r="K3" s="1">
-        <v>0.46899152727369159</v>
+        <v>-2.9648957284579138</v>
       </c>
       <c r="L3" s="1">
-        <v>-6.2619703041785479</v>
+        <v>-6.2920161444510532</v>
       </c>
       <c r="M3" s="1">
-        <v>-5.4620043926928261</v>
+        <v>-3.8072460157407728</v>
       </c>
       <c r="N3" s="1">
-        <v>-2.1451029061237201</v>
+        <v>-3.3354123106602489</v>
       </c>
       <c r="O3" s="1">
-        <v>-2.713455626190822</v>
+        <v>-3.439528743956596</v>
       </c>
       <c r="P3" s="1">
-        <v>-3.6464062015080101</v>
+        <v>-3.6567138120320548</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1">
-        <v>-6.5006308147196341</v>
+        <v>-8.3192374981597919</v>
       </c>
       <c r="C4" s="1">
-        <v>-3.0986659681075901</v>
+        <v>-7.1599762540229852</v>
       </c>
       <c r="D4" s="1">
-        <v>-3.3925697371428809</v>
+        <v>-1.1925386154498789</v>
       </c>
       <c r="E4" s="1">
-        <v>-3.5373750485508841</v>
+        <v>-1.672225490306952</v>
       </c>
       <c r="F4" s="1">
-        <v>-3.6116206109011828</v>
+        <v>-0.85435652751555002</v>
       </c>
       <c r="G4" s="1">
-        <v>-4.1725718352477559</v>
+        <v>-3.85513612267457</v>
       </c>
       <c r="H4" s="1">
-        <v>-2.156718366406277</v>
+        <v>2.4529040856500501E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>-2.206735495013505</v>
+        <v>0.77493775737746895</v>
       </c>
       <c r="J4" s="1">
-        <v>-2.121694665612841</v>
+        <v>0.49400007099957338</v>
       </c>
       <c r="K4" s="1">
-        <v>-1.9746204470545961</v>
+        <v>0.46899152727369159</v>
       </c>
       <c r="L4" s="1">
-        <v>-0.43722552237274798</v>
+        <v>-6.2619703041785479</v>
       </c>
       <c r="M4" s="1">
-        <v>-2.4240961230847642</v>
+        <v>-5.4620043926928261</v>
       </c>
       <c r="N4" s="1">
-        <v>-2.5847423944013199</v>
+        <v>-2.1451029061237201</v>
       </c>
       <c r="O4" s="1">
-        <v>-2.7058528244577298</v>
+        <v>-2.713455626190822</v>
       </c>
       <c r="P4" s="1">
-        <v>-2.8174547419290299</v>
+        <v>-3.6464062015080101</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1">
-        <v>-5.8828279903028724</v>
+        <v>-4.5175264309322181</v>
       </c>
       <c r="C5" s="1">
-        <v>-3.611939715909827</v>
+        <v>-2.802439703457476</v>
       </c>
       <c r="D5" s="1">
-        <v>-3.2917999117473871</v>
+        <v>-2.3211356215226302</v>
       </c>
       <c r="E5" s="1">
-        <v>-2.702940348163239</v>
+        <v>-2.383958779019435</v>
       </c>
       <c r="F5" s="1">
-        <v>-2.1074709922356618</v>
+        <v>-2.4941919769516852</v>
       </c>
       <c r="G5" s="1">
-        <v>-4.584019905852287</v>
+        <v>-4.3757065938769744</v>
       </c>
       <c r="H5" s="1">
-        <v>-2.3773300315630568</v>
+        <v>-2.7228910207722272</v>
       </c>
       <c r="I5" s="1">
-        <v>-2.098950948604144</v>
+        <v>-2.2718427930934708</v>
       </c>
       <c r="J5" s="1">
-        <v>-1.5609980876134271</v>
+        <v>-2.3960117169799791</v>
       </c>
       <c r="K5" s="1">
-        <v>-0.93472840188573825</v>
+        <v>-2.529978835111673</v>
       </c>
       <c r="L5" s="1">
-        <v>-4.5401637564282904</v>
+        <v>-5.3534969917293429</v>
       </c>
       <c r="M5" s="1">
-        <v>-4.2784628193618941</v>
+        <v>-3.93213149780357</v>
       </c>
       <c r="N5" s="1">
-        <v>-5.0734286190952291</v>
+        <v>-3.6009328061357668</v>
       </c>
       <c r="O5" s="1">
-        <v>-5.3206486502874579</v>
+        <v>-3.535167663738366</v>
       </c>
       <c r="P5" s="1">
-        <v>-5.0543710131250501</v>
+        <v>-3.673183130800926</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1">
-        <v>-5.8287398800819892</v>
+        <v>-4.5824187741019573</v>
       </c>
       <c r="C6" s="1">
-        <v>-3.3730161060104491</v>
+        <v>-3.6741915332010451</v>
       </c>
       <c r="D6" s="1">
-        <v>-5.0789882867305929</v>
+        <v>-2.667237483052872</v>
       </c>
       <c r="E6" s="1">
-        <v>-3.8756748845570601</v>
+        <v>-2.6632795765742099</v>
       </c>
       <c r="F6" s="1">
-        <v>-2.4647308010606381</v>
+        <v>-2.5717377040817739</v>
       </c>
       <c r="G6" s="1">
-        <v>-5.4157994968791066</v>
+        <v>-4.3831270592453384</v>
       </c>
       <c r="H6" s="1">
-        <v>-3.0859331990809009</v>
+        <v>-3.5340681482241312</v>
       </c>
       <c r="I6" s="1">
-        <v>-3.9358511534720422</v>
+        <v>-2.5638702981823731</v>
       </c>
       <c r="J6" s="1">
-        <v>-2.9610331907726422</v>
+        <v>-2.559515021463671</v>
       </c>
       <c r="K6" s="1">
-        <v>-1.729702222869006</v>
+        <v>-2.474159639317195</v>
       </c>
       <c r="L6" s="1">
-        <v>-4.8513460669581043</v>
+        <v>-4.9675839522721406</v>
       </c>
       <c r="M6" s="1">
-        <v>-3.2868209725563098</v>
+        <v>-4.1634706306766791</v>
       </c>
       <c r="N6" s="1">
-        <v>-5.0981931113167276</v>
+        <v>-3.0893991113486088</v>
       </c>
       <c r="O6" s="1">
-        <v>-3.867996690595449</v>
+        <v>-3.1508206308039259</v>
       </c>
       <c r="P6" s="1">
-        <v>-2.532883982542002</v>
+        <v>-3.147932968280394</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1">
-        <v>-5.6356123317987166</v>
+        <v>-5.8287398800819892</v>
       </c>
       <c r="C7" s="1">
-        <v>-2.428536255336315</v>
+        <v>-3.3730161060104491</v>
       </c>
       <c r="D7" s="1">
-        <v>-2.336825670552622</v>
+        <v>-5.0789882867305929</v>
       </c>
       <c r="E7" s="1">
-        <v>-2.215488022490411</v>
+        <v>-3.8756748845570601</v>
       </c>
       <c r="F7" s="1">
-        <v>-2.1424052540119352</v>
+        <v>-2.4647308010606381</v>
       </c>
       <c r="G7" s="1">
-        <v>-4.7789437050288637</v>
+        <v>-5.4157994968791066</v>
       </c>
       <c r="H7" s="1">
-        <v>-2.0465005926521029</v>
+        <v>-3.0859331990809009</v>
       </c>
       <c r="I7" s="1">
-        <v>-1.9491200447091961</v>
+        <v>-3.9358511534720422</v>
       </c>
       <c r="J7" s="1">
-        <v>-1.9226059113566021</v>
+        <v>-2.9610331907726422</v>
       </c>
       <c r="K7" s="1">
-        <v>-1.814072346490629</v>
+        <v>-1.729702222869006</v>
       </c>
       <c r="L7" s="1">
-        <v>-1.811557537625005</v>
+        <v>-4.8513460669581043</v>
       </c>
       <c r="M7" s="1">
-        <v>-1.841125651917086</v>
+        <v>-3.2868209725563098</v>
       </c>
       <c r="N7" s="1">
-        <v>-1.8242856008503281</v>
+        <v>-5.0981931113167276</v>
       </c>
       <c r="O7" s="1">
-        <v>-1.9849511239040929</v>
+        <v>-3.867996690595449</v>
       </c>
       <c r="P7" s="1">
-        <v>-1.864489240097132</v>
+        <v>-2.532883982542002</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="B8" s="1">
-        <v>-4.7485493573411404</v>
+        <v>-5.8828279903028724</v>
       </c>
       <c r="C8" s="1">
-        <v>-3.7286354208048369</v>
+        <v>-3.611939715909827</v>
       </c>
       <c r="D8" s="1">
-        <v>-2.8732743691081679</v>
+        <v>-3.2917999117473871</v>
       </c>
       <c r="E8" s="1">
-        <v>-2.908740623150627</v>
+        <v>-2.702940348163239</v>
       </c>
       <c r="F8" s="1">
-        <v>-2.9498581564881681</v>
+        <v>-2.1074709922356618</v>
       </c>
       <c r="G8" s="1">
-        <v>-4.51670816750614</v>
+        <v>-4.584019905852287</v>
       </c>
       <c r="H8" s="1">
-        <v>-3.8038934371266828</v>
+        <v>-2.3773300315630568</v>
       </c>
       <c r="I8" s="1">
-        <v>-2.8866420870996512</v>
+        <v>-2.098950948604144</v>
       </c>
       <c r="J8" s="1">
-        <v>-2.9279048197083921</v>
+        <v>-1.5609980876134271</v>
       </c>
       <c r="K8" s="1">
-        <v>-2.9648957284579138</v>
+        <v>-0.93472840188573825</v>
       </c>
       <c r="L8" s="1">
-        <v>-6.2920161444510532</v>
+        <v>-4.5401637564282904</v>
       </c>
       <c r="M8" s="1">
-        <v>-3.8072460157407728</v>
+        <v>-4.2784628193618941</v>
       </c>
       <c r="N8" s="1">
-        <v>-3.3354123106602489</v>
+        <v>-5.0734286190952291</v>
       </c>
       <c r="O8" s="1">
-        <v>-3.439528743956596</v>
+        <v>-5.3206486502874579</v>
       </c>
       <c r="P8" s="1">
-        <v>-3.6567138120320548</v>
+        <v>-5.0543710131250501</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>-4.5824187741019573</v>
+        <v>-3.855734004801362</v>
       </c>
       <c r="C9" s="1">
-        <v>-3.6741915332010451</v>
+        <v>-2.3431873945506529</v>
       </c>
       <c r="D9" s="1">
-        <v>-2.667237483052872</v>
+        <v>-2.062501629371603</v>
       </c>
       <c r="E9" s="1">
-        <v>-2.6632795765742099</v>
+        <v>-2.4496564923125228</v>
       </c>
       <c r="F9" s="1">
-        <v>-2.5717377040817739</v>
+        <v>-3.089536359431925</v>
       </c>
       <c r="G9" s="1">
-        <v>-4.3831270592453384</v>
+        <v>-3.7481356756702899</v>
       </c>
       <c r="H9" s="1">
-        <v>-3.5340681482241312</v>
+        <v>-2.2749157179078612</v>
       </c>
       <c r="I9" s="1">
-        <v>-2.5638702981823731</v>
+        <v>-2.037521162690429</v>
       </c>
       <c r="J9" s="1">
-        <v>-2.559515021463671</v>
+        <v>-2.4491496664734869</v>
       </c>
       <c r="K9" s="1">
-        <v>-2.474159639317195</v>
+        <v>-3.1231352389579929</v>
       </c>
       <c r="L9" s="1">
-        <v>-4.9675839522721406</v>
+        <v>-4.2753966517613167</v>
       </c>
       <c r="M9" s="1">
-        <v>-4.1634706306766791</v>
+        <v>-2.5643599210721768</v>
       </c>
       <c r="N9" s="1">
-        <v>-3.0893991113486088</v>
+        <v>-2.1005275852557741</v>
       </c>
       <c r="O9" s="1">
-        <v>-3.1508206308039259</v>
+        <v>-2.3937654266134198</v>
       </c>
       <c r="P9" s="1">
-        <v>-3.147932968280394</v>
+        <v>-2.9180303723467809</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1">
-        <v>-4.5175264309322181</v>
+        <v>-4.2609358824426273</v>
       </c>
       <c r="C10" s="1">
-        <v>-2.802439703457476</v>
+        <v>-5.4799240421328488</v>
       </c>
       <c r="D10" s="1">
-        <v>-2.3211356215226302</v>
+        <v>-5.3487824510906092</v>
       </c>
       <c r="E10" s="1">
-        <v>-2.383958779019435</v>
+        <v>-4.040025192914249</v>
       </c>
       <c r="F10" s="1">
-        <v>-2.4941919769516852</v>
+        <v>-4.3658948445509429</v>
       </c>
       <c r="G10" s="1">
-        <v>-4.3757065938769744</v>
+        <v>-4.1329188562127266</v>
       </c>
       <c r="H10" s="1">
-        <v>-2.7228910207722272</v>
+        <v>-5.402651359722741</v>
       </c>
       <c r="I10" s="1">
-        <v>-2.2718427930934708</v>
+        <v>-5.1217126589396056</v>
       </c>
       <c r="J10" s="1">
-        <v>-2.3960117169799791</v>
+        <v>-3.9027164982215692</v>
       </c>
       <c r="K10" s="1">
-        <v>-2.529978835111673</v>
+        <v>-4.1092819370669771</v>
       </c>
       <c r="L10" s="1">
-        <v>-5.3534969917293429</v>
+        <v>-4.2556949098715089</v>
       </c>
       <c r="M10" s="1">
-        <v>-3.93213149780357</v>
+        <v>-5.5765269261841146</v>
       </c>
       <c r="N10" s="1">
-        <v>-3.6009328061357668</v>
+        <v>-5.794774652436832</v>
       </c>
       <c r="O10" s="1">
-        <v>-3.535167663738366</v>
+        <v>-4.3049101199199393</v>
       </c>
       <c r="P10" s="1">
-        <v>-3.673183130800926</v>
+        <v>-5.0209534875794128</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1">
-        <v>-4.2609358824426273</v>
+        <v>-3.8408239024527919</v>
       </c>
       <c r="C11" s="1">
-        <v>-5.4799240421328488</v>
+        <v>-3.2751495972280451</v>
       </c>
       <c r="D11" s="1">
-        <v>-5.3487824510906092</v>
+        <v>-3.2409457858589308</v>
       </c>
       <c r="E11" s="1">
-        <v>-4.040025192914249</v>
+        <v>-2.7683449183141389</v>
       </c>
       <c r="F11" s="1">
-        <v>-4.3658948445509429</v>
+        <v>-2.5588306722065601</v>
       </c>
       <c r="G11" s="1">
-        <v>-4.1329188562127266</v>
+        <v>-3.7345030010820048</v>
       </c>
       <c r="H11" s="1">
-        <v>-5.402651359722741</v>
+        <v>-3.1858839297462929</v>
       </c>
       <c r="I11" s="1">
-        <v>-5.1217126589396056</v>
+        <v>-3.1384982863305888</v>
       </c>
       <c r="J11" s="1">
-        <v>-3.9027164982215692</v>
+        <v>-2.7120145598807062</v>
       </c>
       <c r="K11" s="1">
-        <v>-4.1092819370669771</v>
+        <v>-2.5100742796973781</v>
       </c>
       <c r="L11" s="1">
-        <v>-4.2556949098715089</v>
+        <v>-4.2036332473343876</v>
       </c>
       <c r="M11" s="1">
-        <v>-5.5765269261841146</v>
+        <v>-3.592283743083839</v>
       </c>
       <c r="N11" s="1">
-        <v>-5.794774652436832</v>
+        <v>-3.6684496619367368</v>
       </c>
       <c r="O11" s="1">
-        <v>-4.3049101199199393</v>
+        <v>-2.9589857048264139</v>
       </c>
       <c r="P11" s="1">
-        <v>-5.0209534875794128</v>
+        <v>-2.7170724723000972</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
-        <v>-4.1441602591680047</v>
+        <v>-3.725111357294403</v>
       </c>
       <c r="C12" s="1">
-        <v>-2.8094513732254001</v>
+        <v>-3.1352370374743401</v>
       </c>
       <c r="D12" s="1">
-        <v>-2.2038520963799479</v>
+        <v>-2.650050070600372</v>
       </c>
       <c r="E12" s="1">
-        <v>-1.451696237962387</v>
+        <v>-2.1609801823262722</v>
       </c>
       <c r="F12" s="1">
-        <v>-1.0199455739467711</v>
+        <v>-1.548890338760661</v>
       </c>
       <c r="G12" s="1">
-        <v>-3.9238434629298471</v>
+        <v>-3.5645225603056261</v>
       </c>
       <c r="H12" s="1">
-        <v>-2.665274743974833</v>
+        <v>-3.1311820772232859</v>
       </c>
       <c r="I12" s="1">
-        <v>-2.2915391393352138</v>
+        <v>-2.640699187865986</v>
       </c>
       <c r="J12" s="1">
-        <v>-1.898474024504895</v>
+        <v>-2.240889072942327</v>
       </c>
       <c r="K12" s="1">
-        <v>-1.55784647802344</v>
+        <v>-1.8278071454892719</v>
       </c>
       <c r="L12" s="1">
-        <v>-3.2457272263557462</v>
+        <v>-3.9792506350899881</v>
       </c>
       <c r="M12" s="1">
-        <v>-4.4436895407522456</v>
+        <v>-3.8132929322001878</v>
       </c>
       <c r="N12" s="1">
-        <v>-4.2753046737698339</v>
+        <v>-3.777085396283189</v>
       </c>
       <c r="O12" s="1">
-        <v>-2.663955478568599</v>
+        <v>-3.552192417614827</v>
       </c>
       <c r="P12" s="1">
-        <v>-2.1328223537865081</v>
+        <v>-2.6033160831940489</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
-        <v>-3.9886261350201409</v>
+        <v>-3.5312263930339141</v>
       </c>
       <c r="C13" s="1">
-        <v>-1.880072574345788</v>
+        <v>-3.206139119874269</v>
       </c>
       <c r="D13" s="1">
-        <v>-1.89714664953168</v>
+        <v>-3.104544254245504</v>
       </c>
       <c r="E13" s="1">
-        <v>-2.4507455929362001</v>
+        <v>-3.0766873595825901</v>
       </c>
       <c r="F13" s="1">
-        <v>-1.4845297734068039</v>
+        <v>-3.2346881424151781</v>
       </c>
       <c r="G13" s="1">
-        <v>-3.877711080717841</v>
+        <v>-3.505127957061855</v>
       </c>
       <c r="H13" s="1">
-        <v>-1.895409808925999</v>
+        <v>-3.1747712874885612</v>
       </c>
       <c r="I13" s="1">
-        <v>-1.9805035405311491</v>
+        <v>-3.0707980525726799</v>
       </c>
       <c r="J13" s="1">
-        <v>-2.5702869957865291</v>
+        <v>-3.0651623575706282</v>
       </c>
       <c r="K13" s="1">
-        <v>-1.6279971203044019</v>
+        <v>-3.2376780904823592</v>
       </c>
       <c r="L13" s="1">
-        <v>-0.24309165765598309</v>
+        <v>-3.682156715051442</v>
       </c>
       <c r="M13" s="1">
-        <v>-0.75473241256978207</v>
+        <v>-3.3421264511266209</v>
       </c>
       <c r="N13" s="1">
-        <v>-1.0508009412965029</v>
+        <v>-3.2676667526137608</v>
       </c>
       <c r="O13" s="1">
-        <v>-1.7035391643258371</v>
+        <v>-3.1701714947842161</v>
       </c>
       <c r="P13" s="1">
-        <v>-0.68296007740950859</v>
+        <v>-3.292820291555298</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B14" s="1">
-        <v>-3.9258877068461291</v>
+        <v>-3.0364432192334538</v>
       </c>
       <c r="C14" s="1">
-        <v>-3.3690355361397808</v>
+        <v>-2.6441093530389601</v>
       </c>
       <c r="D14" s="1">
-        <v>-1.797165496106597</v>
+        <v>-1.5716393850204939</v>
       </c>
       <c r="E14" s="1">
-        <v>-2.1945578519588889</v>
+        <v>-1.603539005828845</v>
       </c>
       <c r="F14" s="1">
-        <v>-2.297448119523267</v>
+        <v>-1.86084417251032</v>
       </c>
       <c r="G14" s="1">
-        <v>-3.748627251527711</v>
+        <v>-2.9678098460168281</v>
       </c>
       <c r="H14" s="1">
-        <v>-3.122858847392564</v>
+        <v>-2.5685791698430571</v>
       </c>
       <c r="I14" s="1">
-        <v>-1.663656344141768</v>
+        <v>-1.581677533749362</v>
       </c>
       <c r="J14" s="1">
-        <v>-1.9998348979469649</v>
+        <v>-1.6744324999464419</v>
       </c>
       <c r="K14" s="1">
-        <v>-2.088174562486492</v>
+        <v>-1.9766568572226031</v>
       </c>
       <c r="L14" s="1">
-        <v>-3.1614580248175979</v>
+        <v>-3.5767017866398998</v>
       </c>
       <c r="M14" s="1">
-        <v>-3.20703509888309</v>
+        <v>-3.8678727545201039</v>
       </c>
       <c r="N14" s="1">
-        <v>-1.7496618976105069</v>
+        <v>-2.6443239991860499</v>
       </c>
       <c r="O14" s="1">
-        <v>-2.153358614792515</v>
+        <v>-2.4950721425937439</v>
       </c>
       <c r="P14" s="1">
-        <v>-2.266656957496032</v>
+        <v>-2.604366902126241</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B15" s="1">
-        <v>-3.8673313455753289</v>
+        <v>-3.7916720621948499</v>
       </c>
       <c r="C15" s="1">
-        <v>-2.274000068011905</v>
+        <v>-3.7213898053785068</v>
       </c>
       <c r="D15" s="1">
-        <v>-2.4148233000882371</v>
+        <v>-3.1487359126552019</v>
       </c>
       <c r="E15" s="1">
-        <v>-2.1013909333511691</v>
+        <v>-2.7819505526115171</v>
       </c>
       <c r="F15" s="1">
-        <v>-2.2961732881105452</v>
+        <v>-2.524155074609665</v>
       </c>
       <c r="G15" s="1">
-        <v>-3.0347407014045831</v>
+        <v>-3.6184774409819509</v>
       </c>
       <c r="H15" s="1">
-        <v>-1.6743397388870249</v>
+        <v>-3.4482002223849961</v>
       </c>
       <c r="I15" s="1">
-        <v>-1.833804566037212</v>
+        <v>-2.8902941616686131</v>
       </c>
       <c r="J15" s="1">
-        <v>-1.572169143795177</v>
+        <v>-2.5977544383439661</v>
       </c>
       <c r="K15" s="1">
-        <v>-1.700870677743747</v>
+        <v>-2.3512940271599181</v>
       </c>
       <c r="L15" s="1">
-        <v>1.814407350731736</v>
+        <v>-3.5134436877663568</v>
       </c>
       <c r="M15" s="1">
-        <v>1.0035528657110101E-2</v>
+        <v>-3.8485955971863759</v>
       </c>
       <c r="N15" s="1">
-        <v>-0.40719461563317522</v>
+        <v>-3.2683647419074111</v>
       </c>
       <c r="O15" s="1">
-        <v>-0.37418855641720961</v>
+        <v>-2.5030804458869742</v>
       </c>
       <c r="P15" s="1">
-        <v>-0.38136329086674159</v>
+        <v>-2.0239180807200681</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>-3.855734004801362</v>
+        <v>-3.1521889508546002</v>
       </c>
       <c r="C16" s="1">
-        <v>-2.3431873945506529</v>
+        <v>-2.0059123635490099</v>
       </c>
       <c r="D16" s="1">
-        <v>-2.062501629371603</v>
+        <v>-2.204272694462857</v>
       </c>
       <c r="E16" s="1">
-        <v>-2.4496564923125228</v>
+        <v>-2.3525318735054062</v>
       </c>
       <c r="F16" s="1">
-        <v>-3.089536359431925</v>
+        <v>-2.7134087500359549</v>
       </c>
       <c r="G16" s="1">
-        <v>-3.7481356756702899</v>
+        <v>-3.1133201037357798</v>
       </c>
       <c r="H16" s="1">
-        <v>-2.2749157179078612</v>
+        <v>-1.9771841822022711</v>
       </c>
       <c r="I16" s="1">
-        <v>-2.037521162690429</v>
+        <v>-2.1673292404734239</v>
       </c>
       <c r="J16" s="1">
-        <v>-2.4491496664734869</v>
+        <v>-2.3173803601782348</v>
       </c>
       <c r="K16" s="1">
-        <v>-3.1231352389579929</v>
+        <v>-2.6667155770011881</v>
       </c>
       <c r="L16" s="1">
-        <v>-4.2753966517613167</v>
+        <v>-3.344176195819935</v>
       </c>
       <c r="M16" s="1">
-        <v>-2.5643599210721768</v>
+        <v>-2.090220265308488</v>
       </c>
       <c r="N16" s="1">
-        <v>-2.1005275852557741</v>
+        <v>-2.2589456921917361</v>
       </c>
       <c r="O16" s="1">
-        <v>-2.3937654266134198</v>
+        <v>-2.3009056168204309</v>
       </c>
       <c r="P16" s="1">
-        <v>-2.9180303723467809</v>
+        <v>-2.6065177305310172</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1">
-        <v>-3.8408239024527919</v>
+        <v>-4.1441602591680047</v>
       </c>
       <c r="C17" s="1">
-        <v>-3.2751495972280451</v>
+        <v>-2.8094513732254001</v>
       </c>
       <c r="D17" s="1">
-        <v>-3.2409457858589308</v>
+        <v>-2.2038520963799479</v>
       </c>
       <c r="E17" s="1">
-        <v>-2.7683449183141389</v>
+        <v>-1.451696237962387</v>
       </c>
       <c r="F17" s="1">
-        <v>-2.5588306722065601</v>
+        <v>-1.0199455739467711</v>
       </c>
       <c r="G17" s="1">
-        <v>-3.7345030010820048</v>
+        <v>-3.9238434629298471</v>
       </c>
       <c r="H17" s="1">
-        <v>-3.1858839297462929</v>
+        <v>-2.665274743974833</v>
       </c>
       <c r="I17" s="1">
-        <v>-3.1384982863305888</v>
+        <v>-2.2915391393352138</v>
       </c>
       <c r="J17" s="1">
-        <v>-2.7120145598807062</v>
+        <v>-1.898474024504895</v>
       </c>
       <c r="K17" s="1">
-        <v>-2.5100742796973781</v>
+        <v>-1.55784647802344</v>
       </c>
       <c r="L17" s="1">
-        <v>-4.2036332473343876</v>
+        <v>-3.2457272263557462</v>
       </c>
       <c r="M17" s="1">
-        <v>-3.592283743083839</v>
+        <v>-4.4436895407522456</v>
       </c>
       <c r="N17" s="1">
-        <v>-3.6684496619367368</v>
+        <v>-4.2753046737698339</v>
       </c>
       <c r="O17" s="1">
-        <v>-2.9589857048264139</v>
+        <v>-2.663955478568599</v>
       </c>
       <c r="P17" s="1">
-        <v>-2.7170724723000972</v>
+        <v>-2.1328223537865081</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1">
-        <v>-3.818557716397716</v>
+        <v>-3.7142539264670211</v>
       </c>
       <c r="C18" s="1">
-        <v>-2.9040547642197829</v>
+        <v>-2.0539296260189461</v>
       </c>
       <c r="D18" s="1">
-        <v>-2.818461288188097</v>
+        <v>-2.315640568065787</v>
       </c>
       <c r="E18" s="1">
-        <v>-2.6621035672500279</v>
+        <v>-1.8847417473444299</v>
       </c>
       <c r="F18" s="1">
-        <v>-1.8674590214849609</v>
+        <v>-1.9752302065959519</v>
       </c>
       <c r="G18" s="1">
-        <v>-2.589591225370361</v>
+        <v>-3.6574777198287389</v>
       </c>
       <c r="H18" s="1">
-        <v>-1.7646038828642989</v>
+        <v>-2.094074119484755</v>
       </c>
       <c r="I18" s="1">
-        <v>-1.578635435168483</v>
+        <v>-2.3076951342364671</v>
       </c>
       <c r="J18" s="1">
-        <v>-1.3909472303543089</v>
+        <v>-1.906017715319444</v>
       </c>
       <c r="K18" s="1">
-        <v>-0.82757398901657431</v>
+        <v>-1.974448916476903</v>
       </c>
       <c r="L18" s="1">
-        <v>-2.3791685858261928</v>
+        <v>-3.2078722534659132</v>
       </c>
       <c r="M18" s="1">
-        <v>-2.2931880129657798</v>
+        <v>-1.974732379036074</v>
       </c>
       <c r="N18" s="1">
-        <v>-2.3735595710675019</v>
+        <v>-2.279577810081685</v>
       </c>
       <c r="O18" s="1">
-        <v>-2.6269649831652249</v>
+        <v>-1.9041854419923381</v>
       </c>
       <c r="P18" s="1">
-        <v>-2.7707471419310288</v>
+        <v>-2.065082292327717</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
-        <v>-3.7916720621948499</v>
+        <v>-3.9258877068461291</v>
       </c>
       <c r="C19" s="1">
-        <v>-3.7213898053785068</v>
+        <v>-3.3690355361397808</v>
       </c>
       <c r="D19" s="1">
-        <v>-3.1487359126552019</v>
+        <v>-1.797165496106597</v>
       </c>
       <c r="E19" s="1">
-        <v>-2.7819505526115171</v>
+        <v>-2.1945578519588889</v>
       </c>
       <c r="F19" s="1">
-        <v>-2.524155074609665</v>
+        <v>-2.297448119523267</v>
       </c>
       <c r="G19" s="1">
-        <v>-3.6184774409819509</v>
+        <v>-3.748627251527711</v>
       </c>
       <c r="H19" s="1">
-        <v>-3.4482002223849961</v>
+        <v>-3.122858847392564</v>
       </c>
       <c r="I19" s="1">
-        <v>-2.8902941616686131</v>
+        <v>-1.663656344141768</v>
       </c>
       <c r="J19" s="1">
-        <v>-2.5977544383439661</v>
+        <v>-1.9998348979469649</v>
       </c>
       <c r="K19" s="1">
-        <v>-2.3512940271599181</v>
+        <v>-2.088174562486492</v>
       </c>
       <c r="L19" s="1">
-        <v>-3.5134436877663568</v>
+        <v>-3.1614580248175979</v>
       </c>
       <c r="M19" s="1">
-        <v>-3.8485955971863759</v>
+        <v>-3.20703509888309</v>
       </c>
       <c r="N19" s="1">
-        <v>-3.2683647419074111</v>
+        <v>-1.7496618976105069</v>
       </c>
       <c r="O19" s="1">
-        <v>-2.5030804458869742</v>
+        <v>-2.153358614792515</v>
       </c>
       <c r="P19" s="1">
-        <v>-2.0239180807200681</v>
+        <v>-2.266656957496032</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1">
-        <v>-3.725111357294403</v>
+        <v>-2.9832959964369641</v>
       </c>
       <c r="C20" s="1">
-        <v>-3.1352370374743401</v>
+        <v>-2.4597627635509891</v>
       </c>
       <c r="D20" s="1">
-        <v>-2.650050070600372</v>
+        <v>-2.9460039392802608</v>
       </c>
       <c r="E20" s="1">
-        <v>-2.1609801823262722</v>
+        <v>-2.9414534620806201</v>
       </c>
       <c r="F20" s="1">
-        <v>-1.548890338760661</v>
+        <v>-2.9433960011460889</v>
       </c>
       <c r="G20" s="1">
-        <v>-3.5645225603056261</v>
+        <v>-3.0202868873914559</v>
       </c>
       <c r="H20" s="1">
-        <v>-3.1311820772232859</v>
+        <v>-2.4998810573857502</v>
       </c>
       <c r="I20" s="1">
-        <v>-2.640699187865986</v>
+        <v>-2.991848235144642</v>
       </c>
       <c r="J20" s="1">
-        <v>-2.240889072942327</v>
+        <v>-2.9977209915819611</v>
       </c>
       <c r="K20" s="1">
-        <v>-1.8278071454892719</v>
+        <v>-3.0010339231051191</v>
       </c>
       <c r="L20" s="1">
-        <v>-3.9792506350899881</v>
+        <v>-3.0937324363491672</v>
       </c>
       <c r="M20" s="1">
-        <v>-3.8132929322001878</v>
+        <v>-2.5655266387165221</v>
       </c>
       <c r="N20" s="1">
-        <v>-3.777085396283189</v>
+        <v>-3.0380737151937001</v>
       </c>
       <c r="O20" s="1">
-        <v>-3.552192417614827</v>
+        <v>-3.001261416717115</v>
       </c>
       <c r="P20" s="1">
-        <v>-2.6033160831940489</v>
+        <v>-3.0045107750612852</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="B21" s="1">
-        <v>-3.7142539264670211</v>
+        <v>-1.9462785691573949</v>
       </c>
       <c r="C21" s="1">
-        <v>-2.0539296260189461</v>
+        <v>-1.5973841042982251</v>
       </c>
       <c r="D21" s="1">
-        <v>-2.315640568065787</v>
+        <v>-1.2835564199622209</v>
       </c>
       <c r="E21" s="1">
-        <v>-1.8847417473444299</v>
+        <v>-0.92929711764515854</v>
       </c>
       <c r="F21" s="1">
-        <v>-1.9752302065959519</v>
+        <v>-1.104924205903502</v>
       </c>
       <c r="G21" s="1">
-        <v>-3.6574777198287389</v>
+        <v>-1.999298991222193</v>
       </c>
       <c r="H21" s="1">
-        <v>-2.094074119484755</v>
+        <v>-1.6592211961262331</v>
       </c>
       <c r="I21" s="1">
-        <v>-2.3076951342364671</v>
+        <v>-1.3480641662482591</v>
       </c>
       <c r="J21" s="1">
-        <v>-1.906017715319444</v>
+        <v>-1.019322131850994</v>
       </c>
       <c r="K21" s="1">
-        <v>-1.974448916476903</v>
+        <v>-1.2328859824771241</v>
       </c>
       <c r="L21" s="1">
-        <v>-3.2078722534659132</v>
+        <v>-3.063223859472072</v>
       </c>
       <c r="M21" s="1">
-        <v>-1.974732379036074</v>
+        <v>-2.37038896517875</v>
       </c>
       <c r="N21" s="1">
-        <v>-2.279577810081685</v>
+        <v>-2.153732889185366</v>
       </c>
       <c r="O21" s="1">
-        <v>-1.9041854419923381</v>
+        <v>-1.827011285993746</v>
       </c>
       <c r="P21" s="1">
-        <v>-2.065082292327717</v>
+        <v>-1.7643215659464899</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1">
-        <v>-3.5963168282526148</v>
+        <v>1.0418311551581281</v>
       </c>
       <c r="C22" s="1">
-        <v>-3.0564620200963808</v>
+        <v>1.1047914539659629</v>
       </c>
       <c r="D22" s="1">
-        <v>-2.461891553902376</v>
+        <v>1.2643024652649</v>
       </c>
       <c r="E22" s="1">
-        <v>-2.3931173289004581</v>
+        <v>0.73774060989256929</v>
       </c>
       <c r="F22" s="1">
-        <v>-1.7149357845685631</v>
+        <v>0.56783731239375679</v>
       </c>
       <c r="G22" s="1">
-        <v>-3.367191087943846</v>
+        <v>0.61523243710825315</v>
       </c>
       <c r="H22" s="1">
-        <v>-2.6157408884257878</v>
+        <v>0.27450782760691272</v>
       </c>
       <c r="I22" s="1">
-        <v>-2.0340001206000928</v>
+        <v>8.7425641487687E-3</v>
       </c>
       <c r="J22" s="1">
-        <v>-1.881689919624622</v>
+        <v>-0.3235354644247419</v>
       </c>
       <c r="K22" s="1">
-        <v>-1.233780451151465</v>
+        <v>-0.5374919058089791</v>
       </c>
       <c r="L22" s="1">
-        <v>-2.9022260366530999</v>
+        <v>-3.0047403699116022</v>
       </c>
       <c r="M22" s="1">
-        <v>-2.981852297041649</v>
+        <v>-3.477504540396994</v>
       </c>
       <c r="N22" s="1">
-        <v>-2.2573490138680712</v>
+        <v>-3.4884296695168859</v>
       </c>
       <c r="O22" s="1">
-        <v>-2.0501726136686411</v>
+        <v>-3.7613246451760829</v>
       </c>
       <c r="P22" s="1">
-        <v>-1.245536156597177</v>
+        <v>-3.6502349830032959</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="B23" s="1">
-        <v>-3.5312263930339141</v>
+        <v>-3.1737221476400959</v>
       </c>
       <c r="C23" s="1">
-        <v>-3.206139119874269</v>
+        <v>-2.0350004690066079</v>
       </c>
       <c r="D23" s="1">
-        <v>-3.104544254245504</v>
+        <v>-1.540395436438051</v>
       </c>
       <c r="E23" s="1">
-        <v>-3.0766873595825901</v>
+        <v>-1.387739838369209</v>
       </c>
       <c r="F23" s="1">
-        <v>-3.2346881424151781</v>
+        <v>-1.703968536646145</v>
       </c>
       <c r="G23" s="1">
-        <v>-3.505127957061855</v>
+        <v>-1.703269300248538</v>
       </c>
       <c r="H23" s="1">
-        <v>-3.1747712874885612</v>
+        <v>-0.68690840166851397</v>
       </c>
       <c r="I23" s="1">
-        <v>-3.0707980525726799</v>
+        <v>-0.41630465710929782</v>
       </c>
       <c r="J23" s="1">
-        <v>-3.0651623575706282</v>
+        <v>-0.23681875598313101</v>
       </c>
       <c r="K23" s="1">
-        <v>-3.2376780904823592</v>
+        <v>-0.28860646223460529</v>
       </c>
       <c r="L23" s="1">
-        <v>-3.682156715051442</v>
+        <v>-2.9735016014728859</v>
       </c>
       <c r="M23" s="1">
-        <v>-3.3421264511266209</v>
+        <v>-3.450640486044219</v>
       </c>
       <c r="N23" s="1">
-        <v>-3.2676667526137608</v>
+        <v>-3.656356509367062</v>
       </c>
       <c r="O23" s="1">
-        <v>-3.1701714947842161</v>
+        <v>-3.6875281379815119</v>
       </c>
       <c r="P23" s="1">
-        <v>-3.292820291555298</v>
+        <v>-4.1400876324854403</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1">
-        <v>-3.528057692347133</v>
+        <v>-2.554735798305626</v>
       </c>
       <c r="C24" s="1">
-        <v>-2.1525340206630759</v>
+        <v>-1.4732500528583521</v>
       </c>
       <c r="D24" s="1">
-        <v>-2.0883380712617519</v>
+        <v>-1.382045083722333</v>
       </c>
       <c r="E24" s="1">
-        <v>-2.0822266966228939</v>
+        <v>-1.266592536475037</v>
       </c>
       <c r="F24" s="1">
-        <v>-1.921103025483651</v>
+        <v>-1.143697703397325</v>
       </c>
       <c r="G24" s="1">
-        <v>-3.4342260806379499</v>
+        <v>-2.5336384196680131</v>
       </c>
       <c r="H24" s="1">
-        <v>-2.0785886726384031</v>
+        <v>-1.470112507171518</v>
       </c>
       <c r="I24" s="1">
-        <v>-2.0102535597452662</v>
+        <v>-1.384778371902649</v>
       </c>
       <c r="J24" s="1">
-        <v>-2.0451884011434491</v>
+        <v>-1.3134737959812179</v>
       </c>
       <c r="K24" s="1">
-        <v>-1.884598027970269</v>
+        <v>-1.228573914445185</v>
       </c>
       <c r="L24" s="1">
-        <v>-2.0102062510075029</v>
+        <v>-2.9162560988032422</v>
       </c>
       <c r="M24" s="1">
-        <v>-1.826916371836</v>
+        <v>-2.2361345643561168</v>
       </c>
       <c r="N24" s="1">
-        <v>-1.9468327742752061</v>
+        <v>-2.4630161725931878</v>
       </c>
       <c r="O24" s="1">
-        <v>-2.0908278862356449</v>
+        <v>-2.3694648500783879</v>
       </c>
       <c r="P24" s="1">
-        <v>-2.058709940619408</v>
+        <v>-2.3160326540242808</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
-        <v>-3.4783417067858688</v>
+        <v>-3.5963168282526148</v>
       </c>
       <c r="C25" s="1">
-        <v>-3.2722017124105558</v>
+        <v>-3.0564620200963808</v>
       </c>
       <c r="D25" s="1">
-        <v>-3.1429176828692991</v>
+        <v>-2.461891553902376</v>
       </c>
       <c r="E25" s="1">
-        <v>-2.5745735192476982</v>
+        <v>-2.3931173289004581</v>
       </c>
       <c r="F25" s="1">
-        <v>-2.1811772004131522</v>
+        <v>-1.7149357845685631</v>
       </c>
       <c r="G25" s="1">
-        <v>-3.355378298202834</v>
+        <v>-3.367191087943846</v>
       </c>
       <c r="H25" s="1">
-        <v>-2.9296617388034871</v>
+        <v>-2.6157408884257878</v>
       </c>
       <c r="I25" s="1">
-        <v>-2.5941124295911289</v>
+        <v>-2.0340001206000928</v>
       </c>
       <c r="J25" s="1">
-        <v>-2.011696025423277</v>
+        <v>-1.881689919624622</v>
       </c>
       <c r="K25" s="1">
-        <v>-1.695037423373039</v>
+        <v>-1.233780451151465</v>
       </c>
       <c r="L25" s="1">
-        <v>-1.49798898658089</v>
+        <v>-2.9022260366530999</v>
       </c>
       <c r="M25" s="1">
-        <v>-1.763457279366069</v>
+        <v>-2.981852297041649</v>
       </c>
       <c r="N25" s="1">
-        <v>-1.759796363776627</v>
+        <v>-2.2573490138680712</v>
       </c>
       <c r="O25" s="1">
-        <v>-1.493491512264759</v>
+        <v>-2.0501726136686411</v>
       </c>
       <c r="P25" s="1">
-        <v>-1.342495271672661</v>
+        <v>-1.245536156597177</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
-        <v>-3.1737221476400959</v>
+        <v>-2.8228200221521398</v>
       </c>
       <c r="C26" s="1">
-        <v>-2.0350004690066079</v>
+        <v>-2.2172193165652891</v>
       </c>
       <c r="D26" s="1">
-        <v>-1.540395436438051</v>
+        <v>-2.1596035254875972</v>
       </c>
       <c r="E26" s="1">
-        <v>-1.387739838369209</v>
+        <v>-1.832653554088292</v>
       </c>
       <c r="F26" s="1">
-        <v>-1.703968536646145</v>
+        <v>-2.3428647414346329</v>
       </c>
       <c r="G26" s="1">
-        <v>-1.703269300248538</v>
+        <v>-2.7698260510622248</v>
       </c>
       <c r="H26" s="1">
-        <v>-0.68690840166851397</v>
+        <v>-2.1464740756840541</v>
       </c>
       <c r="I26" s="1">
-        <v>-0.41630465710929782</v>
+        <v>-2.0877066809732092</v>
       </c>
       <c r="J26" s="1">
-        <v>-0.23681875598313101</v>
+        <v>-1.7832528478062111</v>
       </c>
       <c r="K26" s="1">
-        <v>-0.28860646223460529</v>
+        <v>-2.2906342221951999</v>
       </c>
       <c r="L26" s="1">
-        <v>-2.9735016014728859</v>
+        <v>-2.858513070684165</v>
       </c>
       <c r="M26" s="1">
-        <v>-3.450640486044219</v>
+        <v>-2.3645921155667411</v>
       </c>
       <c r="N26" s="1">
-        <v>-3.656356509367062</v>
+        <v>-2.3464716657502338</v>
       </c>
       <c r="O26" s="1">
-        <v>-3.6875281379815119</v>
+        <v>-1.9480810214454529</v>
       </c>
       <c r="P26" s="1">
-        <v>-4.1400876324854403</v>
+        <v>-2.4558603680164821</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
-        <v>-3.1521889508546002</v>
+        <v>-1.1423967591797679</v>
       </c>
       <c r="C27" s="1">
-        <v>-2.0059123635490099</v>
+        <v>-0.55887804766342875</v>
       </c>
       <c r="D27" s="1">
-        <v>-2.204272694462857</v>
+        <v>0.73079547124066668</v>
       </c>
       <c r="E27" s="1">
-        <v>-2.3525318735054062</v>
+        <v>0.69306740753864915</v>
       </c>
       <c r="F27" s="1">
-        <v>-2.7134087500359549</v>
+        <v>1.215594832651109</v>
       </c>
       <c r="G27" s="1">
-        <v>-3.1133201037357798</v>
+        <v>-0.97844371175488698</v>
       </c>
       <c r="H27" s="1">
-        <v>-1.9771841822022711</v>
+        <v>0.26173233445560928</v>
       </c>
       <c r="I27" s="1">
-        <v>-2.1673292404734239</v>
+        <v>1.711536819454311</v>
       </c>
       <c r="J27" s="1">
-        <v>-2.3173803601782348</v>
+        <v>1.5618616347263581</v>
       </c>
       <c r="K27" s="1">
-        <v>-2.6667155770011881</v>
+        <v>2.1153149180472299</v>
       </c>
       <c r="L27" s="1">
-        <v>-3.344176195819935</v>
+        <v>-2.8471298912157188</v>
       </c>
       <c r="M27" s="1">
-        <v>-2.090220265308488</v>
+        <v>-3.1349018230374042</v>
       </c>
       <c r="N27" s="1">
-        <v>-2.2589456921917361</v>
+        <v>-1.494768432893492</v>
       </c>
       <c r="O27" s="1">
-        <v>-2.3009056168204309</v>
+        <v>-2.0028500448129969</v>
       </c>
       <c r="P27" s="1">
-        <v>-2.6065177305310172</v>
+        <v>-1.518765729068112</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1">
-        <v>-3.0364432192334538</v>
+        <v>-2.9967878129563208</v>
       </c>
       <c r="C28" s="1">
-        <v>-2.6441093530389601</v>
+        <v>-2.7057339432396761</v>
       </c>
       <c r="D28" s="1">
-        <v>-1.5716393850204939</v>
+        <v>-2.5518297909773171</v>
       </c>
       <c r="E28" s="1">
-        <v>-1.603539005828845</v>
+        <v>-2.5630810013836132</v>
       </c>
       <c r="F28" s="1">
-        <v>-1.86084417251032</v>
+        <v>-1.9519233627226531</v>
       </c>
       <c r="G28" s="1">
-        <v>-2.9678098460168281</v>
+        <v>-2.8133455669718681</v>
       </c>
       <c r="H28" s="1">
-        <v>-2.5685791698430571</v>
+        <v>-2.315112781999821</v>
       </c>
       <c r="I28" s="1">
-        <v>-1.581677533749362</v>
+        <v>-1.9412914405429109</v>
       </c>
       <c r="J28" s="1">
-        <v>-1.6744324999464419</v>
+        <v>-1.8345832210328541</v>
       </c>
       <c r="K28" s="1">
-        <v>-1.9766568572226031</v>
+        <v>-1.210244012554436</v>
       </c>
       <c r="L28" s="1">
-        <v>-3.5767017866398998</v>
+        <v>-2.70138694769794</v>
       </c>
       <c r="M28" s="1">
-        <v>-3.8678727545201039</v>
+        <v>-3.0240612476753892</v>
       </c>
       <c r="N28" s="1">
-        <v>-2.6443239991860499</v>
+        <v>-2.727779603928576</v>
       </c>
       <c r="O28" s="1">
-        <v>-2.4950721425937439</v>
+        <v>-3.0245392784876279</v>
       </c>
       <c r="P28" s="1">
-        <v>-2.604366902126241</v>
+        <v>-2.4703596582740071</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1">
-        <v>-2.9967878129563208</v>
+        <v>-2.9297256814037089</v>
       </c>
       <c r="C29" s="1">
-        <v>-2.7057339432396761</v>
+        <v>-1.770352915917935</v>
       </c>
       <c r="D29" s="1">
-        <v>-2.5518297909773171</v>
+        <v>-1.978646821788121</v>
       </c>
       <c r="E29" s="1">
-        <v>-2.5630810013836132</v>
+        <v>-1.175081629191552</v>
       </c>
       <c r="F29" s="1">
-        <v>-1.9519233627226531</v>
+        <v>-0.77219446619903365</v>
       </c>
       <c r="G29" s="1">
-        <v>-2.8133455669718681</v>
+        <v>-2.6259303238063492</v>
       </c>
       <c r="H29" s="1">
-        <v>-2.315112781999821</v>
+        <v>-1.3409166482755981</v>
       </c>
       <c r="I29" s="1">
-        <v>-1.9412914405429109</v>
+        <v>-1.456526681505665</v>
       </c>
       <c r="J29" s="1">
-        <v>-1.8345832210328541</v>
+        <v>-0.69769197491891599</v>
       </c>
       <c r="K29" s="1">
-        <v>-1.210244012554436</v>
+        <v>-0.2038660154370604</v>
       </c>
       <c r="L29" s="1">
-        <v>-2.70138694769794</v>
+        <v>-2.6580780716956882</v>
       </c>
       <c r="M29" s="1">
-        <v>-3.0240612476753892</v>
+        <v>-2.3060233854822472</v>
       </c>
       <c r="N29" s="1">
-        <v>-2.727779603928576</v>
+        <v>-2.6997104732752142</v>
       </c>
       <c r="O29" s="1">
-        <v>-3.0245392784876279</v>
+        <v>-2.208820276360254</v>
       </c>
       <c r="P29" s="1">
-        <v>-2.4703596582740071</v>
+        <v>-1.6540885509219869</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B30" s="1">
-        <v>-2.9832959964369641</v>
+        <v>2.8280441432243002E-2</v>
       </c>
       <c r="C30" s="1">
-        <v>-2.4597627635509891</v>
+        <v>-0.68131126257463492</v>
       </c>
       <c r="D30" s="1">
-        <v>-2.9460039392802608</v>
+        <v>-0.62481797380923443</v>
       </c>
       <c r="E30" s="1">
-        <v>-2.9414534620806201</v>
+        <v>-0.76867445310653215</v>
       </c>
       <c r="F30" s="1">
-        <v>-2.9433960011460889</v>
+        <v>-0.83163308105467848</v>
       </c>
       <c r="G30" s="1">
-        <v>-3.0202868873914559</v>
+        <v>1.17752693538397E-2</v>
       </c>
       <c r="H30" s="1">
-        <v>-2.4998810573857502</v>
+        <v>-0.70639064168462351</v>
       </c>
       <c r="I30" s="1">
-        <v>-2.991848235144642</v>
+        <v>-0.66318410117598414</v>
       </c>
       <c r="J30" s="1">
-        <v>-2.9977209915819611</v>
+        <v>-0.8239966417000264</v>
       </c>
       <c r="K30" s="1">
-        <v>-3.0010339231051191</v>
+        <v>-0.90832719464185963</v>
       </c>
       <c r="L30" s="1">
-        <v>-3.0937324363491672</v>
+        <v>-2.6399361697779948</v>
       </c>
       <c r="M30" s="1">
-        <v>-2.5655266387165221</v>
+        <v>-2.8661860909549262</v>
       </c>
       <c r="N30" s="1">
-        <v>-3.0380737151937001</v>
+        <v>-2.8101262944433132</v>
       </c>
       <c r="O30" s="1">
-        <v>-3.001261416717115</v>
+        <v>-2.7804591785606712</v>
       </c>
       <c r="P30" s="1">
-        <v>-3.0045107750612852</v>
+        <v>-2.627554327965484</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1">
-        <v>-2.9297256814037089</v>
+        <v>-2.552710073811391</v>
       </c>
       <c r="C31" s="1">
-        <v>-1.770352915917935</v>
+        <v>-2.2145521159279702</v>
       </c>
       <c r="D31" s="1">
-        <v>-1.978646821788121</v>
+        <v>-2.0899733170166921</v>
       </c>
       <c r="E31" s="1">
-        <v>-1.175081629191552</v>
+        <v>-2.36346655835092</v>
       </c>
       <c r="F31" s="1">
-        <v>-0.77219446619903365</v>
+        <v>-2.411566199867937</v>
       </c>
       <c r="G31" s="1">
-        <v>-2.6259303238063492</v>
+        <v>-2.4945078629551261</v>
       </c>
       <c r="H31" s="1">
-        <v>-1.3409166482755981</v>
+        <v>-2.1515740230922882</v>
       </c>
       <c r="I31" s="1">
-        <v>-1.456526681505665</v>
+        <v>-2.024426385828844</v>
       </c>
       <c r="J31" s="1">
-        <v>-0.69769197491891599</v>
+        <v>-2.321750225063</v>
       </c>
       <c r="K31" s="1">
-        <v>-0.2038660154370604</v>
+        <v>-2.3840607870167809</v>
       </c>
       <c r="L31" s="1">
-        <v>-2.6580780716956882</v>
+        <v>-2.5652828540907628</v>
       </c>
       <c r="M31" s="1">
-        <v>-2.3060233854822472</v>
+        <v>-2.2536806789045412</v>
       </c>
       <c r="N31" s="1">
-        <v>-2.6997104732752142</v>
+        <v>-2.1325191719535739</v>
       </c>
       <c r="O31" s="1">
-        <v>-2.208820276360254</v>
+        <v>-2.2615635784837829</v>
       </c>
       <c r="P31" s="1">
-        <v>-1.6540885509219869</v>
+        <v>-2.1197427202538508</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="B32" s="1">
-        <v>-2.8228200221521398</v>
+        <v>-2.6394435437385551</v>
       </c>
       <c r="C32" s="1">
-        <v>-2.2172193165652891</v>
+        <v>-2.487639580981837</v>
       </c>
       <c r="D32" s="1">
-        <v>-2.1596035254875972</v>
+        <v>-3.2273897557745448</v>
       </c>
       <c r="E32" s="1">
-        <v>-1.832653554088292</v>
+        <v>-3.499692864588416</v>
       </c>
       <c r="F32" s="1">
-        <v>-2.3428647414346329</v>
+        <v>-3.9213277302960341</v>
       </c>
       <c r="G32" s="1">
-        <v>-2.7698260510622248</v>
+        <v>-2.6651042480607039</v>
       </c>
       <c r="H32" s="1">
-        <v>-2.1464740756840541</v>
+        <v>-2.5013133345472962</v>
       </c>
       <c r="I32" s="1">
-        <v>-2.0877066809732092</v>
+        <v>-3.216863576554065</v>
       </c>
       <c r="J32" s="1">
-        <v>-1.7832528478062111</v>
+        <v>-3.4986585243157688</v>
       </c>
       <c r="K32" s="1">
-        <v>-2.2906342221951999</v>
+        <v>-3.9195635842694898</v>
       </c>
       <c r="L32" s="1">
-        <v>-2.858513070684165</v>
+        <v>-2.544976527537318</v>
       </c>
       <c r="M32" s="1">
-        <v>-2.3645921155667411</v>
+        <v>-2.3564392053499899</v>
       </c>
       <c r="N32" s="1">
-        <v>-2.3464716657502338</v>
+        <v>-3.0223709525958138</v>
       </c>
       <c r="O32" s="1">
-        <v>-1.9480810214454529</v>
+        <v>-3.425468191193572</v>
       </c>
       <c r="P32" s="1">
-        <v>-2.4558603680164821</v>
+        <v>-3.8634339411740202</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1">
-        <v>-2.7849253731314878</v>
+        <v>-2.3466135160070452</v>
       </c>
       <c r="C33" s="1">
-        <v>-2.1884326148731499</v>
+        <v>-2.732369576131235</v>
       </c>
       <c r="D33" s="1">
-        <v>-2.859215064014883</v>
+        <v>-2.182485220321039</v>
       </c>
       <c r="E33" s="1">
-        <v>-1.765462611114851</v>
+        <v>-2.254927127336698</v>
       </c>
       <c r="F33" s="1">
-        <v>-1.131730164022309</v>
+        <v>-2.450464590144998</v>
       </c>
       <c r="G33" s="1">
-        <v>-2.699958231690009</v>
+        <v>-2.3944802801880689</v>
       </c>
       <c r="H33" s="1">
-        <v>-2.0479048513079152</v>
+        <v>-2.785694604597599</v>
       </c>
       <c r="I33" s="1">
-        <v>-2.4716797085149391</v>
+        <v>-2.2343944379117011</v>
       </c>
       <c r="J33" s="1">
-        <v>-1.723702571936339</v>
+        <v>-2.3078043325033128</v>
       </c>
       <c r="K33" s="1">
-        <v>-1.1261308242191681</v>
+        <v>-2.519670528682433</v>
       </c>
       <c r="L33" s="1">
-        <v>0.12954277076300311</v>
+        <v>-2.4715895726164092</v>
       </c>
       <c r="M33" s="1">
-        <v>-0.15259200605865589</v>
+        <v>-2.866961645199507</v>
       </c>
       <c r="N33" s="1">
-        <v>0.1220486354547575</v>
+        <v>-2.366382297317696</v>
       </c>
       <c r="O33" s="1">
-        <v>-0.1041443686153502</v>
+        <v>-2.5284952165379821</v>
       </c>
       <c r="P33" s="1">
-        <v>1.024979467952438</v>
+        <v>-2.6846925962292638</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1">
-        <v>-2.6705075185442881</v>
+        <v>-2.4614661563214768</v>
       </c>
       <c r="C34" s="1">
-        <v>-2.5059493421429102</v>
+        <v>-2.9565511016484489</v>
       </c>
       <c r="D34" s="1">
-        <v>-2.329313603726292</v>
+        <v>-2.604368527645613</v>
       </c>
       <c r="E34" s="1">
-        <v>-2.1700184877011282</v>
+        <v>-2.4723168064320689</v>
       </c>
       <c r="F34" s="1">
-        <v>-1.9963706813228761</v>
+        <v>-2.465484355501192</v>
       </c>
       <c r="G34" s="1">
-        <v>-2.6752572763333728</v>
+        <v>-2.4845571832463009</v>
       </c>
       <c r="H34" s="1">
-        <v>-2.460031927688219</v>
+        <v>-2.986478927772839</v>
       </c>
       <c r="I34" s="1">
-        <v>-2.2497063704330782</v>
+        <v>-2.6336855896658009</v>
       </c>
       <c r="J34" s="1">
-        <v>-2.0767537477900242</v>
+        <v>-2.501684751617121</v>
       </c>
       <c r="K34" s="1">
-        <v>-1.897454567519087</v>
+        <v>-2.4921466835586101</v>
       </c>
       <c r="L34" s="1">
-        <v>-2.1623460087834858</v>
+        <v>-2.4010531228466432</v>
       </c>
       <c r="M34" s="1">
-        <v>-1.970863677203968</v>
+        <v>-2.9420474588032079</v>
       </c>
       <c r="N34" s="1">
-        <v>-1.9064581166141219</v>
+        <v>-2.6101600157894702</v>
       </c>
       <c r="O34" s="1">
-        <v>-1.8592405485905941</v>
+        <v>-2.4783373155155788</v>
       </c>
       <c r="P34" s="1">
-        <v>-1.767523419719887</v>
+        <v>-2.4288139399525899</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1">
-        <v>-2.6596289998311411</v>
+        <v>-3.818557716397716</v>
       </c>
       <c r="C35" s="1">
-        <v>-4.6002777689998702</v>
+        <v>-2.9040547642197829</v>
       </c>
       <c r="D35" s="1">
-        <v>-3.0284719499577721</v>
+        <v>-2.818461288188097</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.98693397961087082</v>
+        <v>-2.6621035672500279</v>
       </c>
       <c r="F35" s="1">
-        <v>-0.46406402094147647</v>
+        <v>-1.8674590214849609</v>
       </c>
       <c r="G35" s="1">
-        <v>-2.552019773646343</v>
+        <v>-2.589591225370361</v>
       </c>
       <c r="H35" s="1">
-        <v>-4.5639051210764814</v>
+        <v>-1.7646038828642989</v>
       </c>
       <c r="I35" s="1">
-        <v>-3.174450241118846</v>
+        <v>-1.578635435168483</v>
       </c>
       <c r="J35" s="1">
-        <v>-1.4807829324470649</v>
+        <v>-1.3909472303543089</v>
       </c>
       <c r="K35" s="1">
-        <v>-1.0108533197763301</v>
+        <v>-0.82757398901657431</v>
       </c>
       <c r="L35" s="1">
-        <v>1.410645231465961</v>
+        <v>-2.3791685858261928</v>
       </c>
       <c r="M35" s="1">
-        <v>-1.541942197142617</v>
+        <v>-2.2931880129657798</v>
       </c>
       <c r="N35" s="1">
-        <v>-1.9818341412475109</v>
+        <v>-2.3735595710675019</v>
       </c>
       <c r="O35" s="1">
-        <v>-0.90956123896998142</v>
+        <v>-2.6269649831652249</v>
       </c>
       <c r="P35" s="1">
-        <v>-0.77800031766821909</v>
+        <v>-2.7707471419310288</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1">
-        <v>-2.6394435437385551</v>
+        <v>-2.231425943215926</v>
       </c>
       <c r="C36" s="1">
-        <v>-2.487639580981837</v>
+        <v>-1.8813749700080431</v>
       </c>
       <c r="D36" s="1">
-        <v>-3.2273897557745448</v>
+        <v>-1.616455357682659</v>
       </c>
       <c r="E36" s="1">
-        <v>-3.499692864588416</v>
+        <v>-1.3700514023220871</v>
       </c>
       <c r="F36" s="1">
-        <v>-3.9213277302960341</v>
+        <v>-0.85790119256393083</v>
       </c>
       <c r="G36" s="1">
-        <v>-2.6651042480607039</v>
+        <v>-2.1388172919255881</v>
       </c>
       <c r="H36" s="1">
-        <v>-2.5013133345472962</v>
+        <v>-1.666177500278289</v>
       </c>
       <c r="I36" s="1">
-        <v>-3.216863576554065</v>
+        <v>-1.3225917742566791</v>
       </c>
       <c r="J36" s="1">
-        <v>-3.4986585243157688</v>
+        <v>-1.1404498853396829</v>
       </c>
       <c r="K36" s="1">
-        <v>-3.9195635842694898</v>
+        <v>-0.61811873783443683</v>
       </c>
       <c r="L36" s="1">
-        <v>-2.544976527537318</v>
+        <v>-2.2594819317793431</v>
       </c>
       <c r="M36" s="1">
-        <v>-2.3564392053499899</v>
+        <v>-2.398603531171593</v>
       </c>
       <c r="N36" s="1">
-        <v>-3.0223709525958138</v>
+        <v>-2.153382834035499</v>
       </c>
       <c r="O36" s="1">
-        <v>-3.425468191193572</v>
+        <v>-2.4087504391408769</v>
       </c>
       <c r="P36" s="1">
-        <v>-3.8634339411740202</v>
+        <v>-1.9382781438942061</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1">
-        <v>-2.554735798305626</v>
+        <v>-2.387422624684989</v>
       </c>
       <c r="C37" s="1">
-        <v>-1.4732500528583521</v>
+        <v>-2.2098566375457169</v>
       </c>
       <c r="D37" s="1">
-        <v>-1.382045083722333</v>
+        <v>-2.751488211746171</v>
       </c>
       <c r="E37" s="1">
-        <v>-1.266592536475037</v>
+        <v>-3.5217649622873188</v>
       </c>
       <c r="F37" s="1">
-        <v>-1.143697703397325</v>
+        <v>-2.3782561886147842</v>
       </c>
       <c r="G37" s="1">
-        <v>-2.5336384196680131</v>
+        <v>-2.414858042570041</v>
       </c>
       <c r="H37" s="1">
-        <v>-1.470112507171518</v>
+        <v>-2.178812818266501</v>
       </c>
       <c r="I37" s="1">
-        <v>-1.384778371902649</v>
+        <v>-2.5925033546427398</v>
       </c>
       <c r="J37" s="1">
-        <v>-1.3134737959812179</v>
+        <v>-3.1130976916820021</v>
       </c>
       <c r="K37" s="1">
-        <v>-1.228573914445185</v>
+        <v>-2.5723334677356529</v>
       </c>
       <c r="L37" s="1">
-        <v>-2.9162560988032422</v>
+        <v>-2.1934516898596441</v>
       </c>
       <c r="M37" s="1">
-        <v>-2.2361345643561168</v>
+        <v>-2.1828040285028392</v>
       </c>
       <c r="N37" s="1">
-        <v>-2.4630161725931878</v>
+        <v>-3.0974127893187999</v>
       </c>
       <c r="O37" s="1">
-        <v>-2.3694648500783879</v>
+        <v>-5.9162418654339008</v>
       </c>
       <c r="P37" s="1">
-        <v>-2.3160326540242808</v>
+        <v>-2.358103146124348</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B38" s="1">
-        <v>-2.552710073811391</v>
+        <v>-1.740393712654317</v>
       </c>
       <c r="C38" s="1">
-        <v>-2.2145521159279702</v>
+        <v>-3.6329451404433919</v>
       </c>
       <c r="D38" s="1">
-        <v>-2.0899733170166921</v>
+        <v>-2.8493818720910582</v>
       </c>
       <c r="E38" s="1">
-        <v>-2.36346655835092</v>
+        <v>-2.252168426728649</v>
       </c>
       <c r="F38" s="1">
-        <v>-2.411566199867937</v>
+        <v>-2.385587085495938</v>
       </c>
       <c r="G38" s="1">
-        <v>-2.4945078629551261</v>
+        <v>-1.7678735969997359</v>
       </c>
       <c r="H38" s="1">
-        <v>-2.1515740230922882</v>
+        <v>-3.666790856009944</v>
       </c>
       <c r="I38" s="1">
-        <v>-2.024426385828844</v>
+        <v>-2.903251651131912</v>
       </c>
       <c r="J38" s="1">
-        <v>-2.321750225063</v>
+        <v>-2.3884861729612581</v>
       </c>
       <c r="K38" s="1">
-        <v>-2.3840607870167809</v>
+        <v>-2.5456929335128309</v>
       </c>
       <c r="L38" s="1">
-        <v>-2.5652828540907628</v>
+        <v>-2.191845982681579</v>
       </c>
       <c r="M38" s="1">
-        <v>-2.2536806789045412</v>
+        <v>-4.1806016930034708</v>
       </c>
       <c r="N38" s="1">
-        <v>-2.1325191719535739</v>
+        <v>-3.4023029124598301</v>
       </c>
       <c r="O38" s="1">
-        <v>-2.2615635784837829</v>
+        <v>-2.609786007563959</v>
       </c>
       <c r="P38" s="1">
-        <v>-2.1197427202538508</v>
+        <v>-2.7353046925492359</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1">
-        <v>-2.494944477715892</v>
+        <v>-0.66967665620730055</v>
       </c>
       <c r="C39" s="1">
-        <v>-1.9674135241213531</v>
+        <v>-0.98932171097239674</v>
       </c>
       <c r="D39" s="1">
-        <v>-2.30314888953848</v>
+        <v>-0.83705974430426677</v>
       </c>
       <c r="E39" s="1">
-        <v>-1.838678329430649</v>
+        <v>-0.68980574437406839</v>
       </c>
       <c r="F39" s="1">
-        <v>-1.7615931504933791</v>
+        <v>-0.62695369466764406</v>
       </c>
       <c r="G39" s="1">
-        <v>-2.4430880430538142</v>
+        <v>-0.69449226424903443</v>
       </c>
       <c r="H39" s="1">
-        <v>-1.902972455849459</v>
+        <v>-1.0168571251508269</v>
       </c>
       <c r="I39" s="1">
-        <v>-2.1758261604007521</v>
+        <v>-0.86945670354459892</v>
       </c>
       <c r="J39" s="1">
-        <v>-1.686467926462293</v>
+        <v>-0.73343722783614551</v>
       </c>
       <c r="K39" s="1">
-        <v>-1.609492683348561</v>
+        <v>-0.68560323087146824</v>
       </c>
       <c r="L39" s="1">
-        <v>-0.33722013930015471</v>
+        <v>-2.1908275111204989</v>
       </c>
       <c r="M39" s="1">
-        <v>-1.0680737885799709</v>
+        <v>-2.8611433759229241</v>
       </c>
       <c r="N39" s="1">
-        <v>-1.075483097163646</v>
+        <v>-2.6115461819382251</v>
       </c>
       <c r="O39" s="1">
-        <v>-0.59633106403403502</v>
+        <v>-2.314273941374557</v>
       </c>
       <c r="P39" s="1">
-        <v>-0.67256519811260773</v>
+        <v>-2.229259893003658</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1">
-        <v>-2.4695773038081068</v>
+        <v>-2.6705075185442881</v>
       </c>
       <c r="C40" s="1">
-        <v>-2.075556903282386</v>
+        <v>-2.5059493421429102</v>
       </c>
       <c r="D40" s="1">
-        <v>-2.1372483323420268</v>
+        <v>-2.329313603726292</v>
       </c>
       <c r="E40" s="1">
-        <v>-2.1447312522184458</v>
+        <v>-2.1700184877011282</v>
       </c>
       <c r="F40" s="1">
-        <v>-2.0202904413701841</v>
+        <v>-1.9963706813228761</v>
       </c>
       <c r="G40" s="1">
-        <v>-2.3847611725607591</v>
+        <v>-2.6752572763333728</v>
       </c>
       <c r="H40" s="1">
-        <v>-1.9071710057666349</v>
+        <v>-2.460031927688219</v>
       </c>
       <c r="I40" s="1">
-        <v>-1.8825056860933049</v>
+        <v>-2.2497063704330782</v>
       </c>
       <c r="J40" s="1">
-        <v>-1.8437489918171539</v>
+        <v>-2.0767537477900242</v>
       </c>
       <c r="K40" s="1">
-        <v>-1.7124975559339619</v>
+        <v>-1.897454567519087</v>
       </c>
       <c r="L40" s="1">
-        <v>0.9451601589150177</v>
+        <v>-2.1623460087834858</v>
       </c>
       <c r="M40" s="1">
-        <v>0.22793692793578249</v>
+        <v>-1.970863677203968</v>
       </c>
       <c r="N40" s="1">
-        <v>0.70292648199011531</v>
+        <v>-1.9064581166141219</v>
       </c>
       <c r="O40" s="1">
-        <v>0.7676695313799794</v>
+        <v>-1.8592405485905941</v>
       </c>
       <c r="P40" s="1">
-        <v>0.91991679074547639</v>
+        <v>-1.767523419719887</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1">
-        <v>-2.4614661563214768</v>
+        <v>-2.3896161561959302</v>
       </c>
       <c r="C41" s="1">
-        <v>-2.9565511016484489</v>
+        <v>-2.712390927112533</v>
       </c>
       <c r="D41" s="1">
-        <v>-2.604368527645613</v>
+        <v>-2.4162359506778719</v>
       </c>
       <c r="E41" s="1">
-        <v>-2.4723168064320689</v>
+        <v>-2.5374448091072459</v>
       </c>
       <c r="F41" s="1">
-        <v>-2.465484355501192</v>
+        <v>-2.9152655695293439</v>
       </c>
       <c r="G41" s="1">
-        <v>-2.4845571832463009</v>
+        <v>-2.405998082101112</v>
       </c>
       <c r="H41" s="1">
-        <v>-2.986478927772839</v>
+        <v>-2.728521646183915</v>
       </c>
       <c r="I41" s="1">
-        <v>-2.6336855896658009</v>
+        <v>-2.4069245927321199</v>
       </c>
       <c r="J41" s="1">
-        <v>-2.501684751617121</v>
+        <v>-2.511122920279953</v>
       </c>
       <c r="K41" s="1">
-        <v>-2.4921466835586101</v>
+        <v>-2.8652506660263701</v>
       </c>
       <c r="L41" s="1">
-        <v>-2.4010531228466432</v>
+        <v>-2.1606861557702981</v>
       </c>
       <c r="M41" s="1">
-        <v>-2.9420474588032079</v>
+        <v>-2.5318268170452272</v>
       </c>
       <c r="N41" s="1">
-        <v>-2.6101600157894702</v>
+        <v>-2.1127634485669189</v>
       </c>
       <c r="O41" s="1">
-        <v>-2.4783373155155788</v>
+        <v>-2.215164309943439</v>
       </c>
       <c r="P41" s="1">
-        <v>-2.4288139399525899</v>
+        <v>-2.621780225341968</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B42" s="1">
-        <v>-2.4323544220855631</v>
+        <v>-0.12700936210017</v>
       </c>
       <c r="C42" s="1">
-        <v>-2.2087794592005778</v>
+        <v>0.55022754339439661</v>
       </c>
       <c r="D42" s="1">
-        <v>-3.9251636151802338</v>
+        <v>0.51029140555776176</v>
       </c>
       <c r="E42" s="1">
-        <v>-3.5472327644522492</v>
+        <v>0.70760003005043293</v>
       </c>
       <c r="F42" s="1">
-        <v>-2.2451760019563349</v>
+        <v>0.85067060845770481</v>
       </c>
       <c r="G42" s="1">
-        <v>-2.404585287824502</v>
+        <v>-0.20902663204462399</v>
       </c>
       <c r="H42" s="1">
-        <v>-2.1518343627814338</v>
+        <v>0.34526226148231509</v>
       </c>
       <c r="I42" s="1">
-        <v>-3.6694041032507418</v>
+        <v>0.1996526362768376</v>
       </c>
       <c r="J42" s="1">
-        <v>-3.2896637567590652</v>
+        <v>0.25608702005016609</v>
       </c>
       <c r="K42" s="1">
-        <v>-2.2314470915870941</v>
+        <v>0.34576145007562731</v>
       </c>
       <c r="L42" s="1">
-        <v>-1.416963996051708</v>
+        <v>-2.1483619993946008</v>
       </c>
       <c r="M42" s="1">
-        <v>-1.6973376008895711</v>
+        <v>-1.2221461891084979</v>
       </c>
       <c r="N42" s="1">
-        <v>-3.8109283177087261</v>
+        <v>-1.109413425062993</v>
       </c>
       <c r="O42" s="1">
-        <v>-4.6113126329641636</v>
+        <v>-0.77210066417633327</v>
       </c>
       <c r="P42" s="1">
-        <v>-3.5655529297948712</v>
+        <v>-0.75115706345613109</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B43" s="1">
-        <v>-2.3896161561959302</v>
+        <v>-2.1564138330616691</v>
       </c>
       <c r="C43" s="1">
-        <v>-2.712390927112533</v>
+        <v>-2.4431089168784919</v>
       </c>
       <c r="D43" s="1">
-        <v>-2.4162359506778719</v>
+        <v>-2.1171712746533831</v>
       </c>
       <c r="E43" s="1">
-        <v>-2.5374448091072459</v>
+        <v>-2.33943866139502</v>
       </c>
       <c r="F43" s="1">
-        <v>-2.9152655695293439</v>
+        <v>-1.970552391081507</v>
       </c>
       <c r="G43" s="1">
-        <v>-2.405998082101112</v>
+        <v>-2.1343302206551011</v>
       </c>
       <c r="H43" s="1">
-        <v>-2.728521646183915</v>
+        <v>-2.44117609751537</v>
       </c>
       <c r="I43" s="1">
-        <v>-2.4069245927321199</v>
+        <v>-2.1126323742225068</v>
       </c>
       <c r="J43" s="1">
-        <v>-2.511122920279953</v>
+        <v>-2.3341780761564408</v>
       </c>
       <c r="K43" s="1">
-        <v>-2.8652506660263701</v>
+        <v>-1.9743429087592821</v>
       </c>
       <c r="L43" s="1">
-        <v>-2.1606861557702981</v>
+        <v>-2.0697992405747851</v>
       </c>
       <c r="M43" s="1">
-        <v>-2.5318268170452272</v>
+        <v>-2.497181689595712</v>
       </c>
       <c r="N43" s="1">
-        <v>-2.1127634485669189</v>
+        <v>-2.2345840900719258</v>
       </c>
       <c r="O43" s="1">
-        <v>-2.215164309943439</v>
+        <v>-2.4921076506825122</v>
       </c>
       <c r="P43" s="1">
-        <v>-2.621780225341968</v>
+        <v>-2.115927945777293</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="B44" s="1">
-        <v>-2.387422624684989</v>
+        <v>-3.528057692347133</v>
       </c>
       <c r="C44" s="1">
-        <v>-2.2098566375457169</v>
+        <v>-2.1525340206630759</v>
       </c>
       <c r="D44" s="1">
-        <v>-2.751488211746171</v>
+        <v>-2.0883380712617519</v>
       </c>
       <c r="E44" s="1">
-        <v>-3.5217649622873188</v>
+        <v>-2.0822266966228939</v>
       </c>
       <c r="F44" s="1">
-        <v>-2.3782561886147842</v>
+        <v>-1.921103025483651</v>
       </c>
       <c r="G44" s="1">
-        <v>-2.414858042570041</v>
+        <v>-3.4342260806379499</v>
       </c>
       <c r="H44" s="1">
-        <v>-2.178812818266501</v>
+        <v>-2.0785886726384031</v>
       </c>
       <c r="I44" s="1">
-        <v>-2.5925033546427398</v>
+        <v>-2.0102535597452662</v>
       </c>
       <c r="J44" s="1">
-        <v>-3.1130976916820021</v>
+        <v>-2.0451884011434491</v>
       </c>
       <c r="K44" s="1">
-        <v>-2.5723334677356529</v>
+        <v>-1.884598027970269</v>
       </c>
       <c r="L44" s="1">
-        <v>-2.1934516898596441</v>
+        <v>-2.0102062510075029</v>
       </c>
       <c r="M44" s="1">
-        <v>-2.1828040285028392</v>
+        <v>-1.826916371836</v>
       </c>
       <c r="N44" s="1">
-        <v>-3.0974127893187999</v>
+        <v>-1.9468327742752061</v>
       </c>
       <c r="O44" s="1">
-        <v>-5.9162418654339008</v>
+        <v>-2.0908278862356449</v>
       </c>
       <c r="P44" s="1">
-        <v>-2.358103146124348</v>
+        <v>-2.058709940619408</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="B45" s="1">
-        <v>-2.3681987126945239</v>
+        <v>-1.657455023997584</v>
       </c>
       <c r="C45" s="1">
-        <v>-2.4505066760003098</v>
+        <v>-1.9514078771675969</v>
       </c>
       <c r="D45" s="1">
-        <v>-2.327890817649398</v>
+        <v>-2.109071096671935</v>
       </c>
       <c r="E45" s="1">
-        <v>-2.137807001805911</v>
+        <v>-2.1618766691501601</v>
       </c>
       <c r="F45" s="1">
-        <v>-2.0784516184322639</v>
+        <v>-1.383019993854891</v>
       </c>
       <c r="G45" s="1">
-        <v>-2.3752233725158161</v>
+        <v>-1.679847693319338</v>
       </c>
       <c r="H45" s="1">
-        <v>-2.5451762607443511</v>
+        <v>-1.9797944518896431</v>
       </c>
       <c r="I45" s="1">
-        <v>-2.3807945803800301</v>
+        <v>-2.1397254385195912</v>
       </c>
       <c r="J45" s="1">
-        <v>-2.200132123538896</v>
+        <v>-2.1949051450095101</v>
       </c>
       <c r="K45" s="1">
-        <v>-2.1400539380334549</v>
+        <v>-1.406828737529513</v>
       </c>
       <c r="L45" s="1">
-        <v>-1.785503318513588</v>
+        <v>-1.9783283736389889</v>
       </c>
       <c r="M45" s="1">
-        <v>-2.121630430429958</v>
+        <v>-2.3550156203555068</v>
       </c>
       <c r="N45" s="1">
-        <v>-1.9801665404237281</v>
+        <v>-2.6760279757290339</v>
       </c>
       <c r="O45" s="1">
-        <v>-1.9095024909112219</v>
+        <v>-2.8210394357479291</v>
       </c>
       <c r="P45" s="1">
-        <v>-1.889409927478275</v>
+        <v>-1.9976659120756199</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B46" s="1">
-        <v>-2.3466135160070452</v>
+        <v>-1.942565324422683</v>
       </c>
       <c r="C46" s="1">
-        <v>-2.732369576131235</v>
+        <v>-2.7356507850324219</v>
       </c>
       <c r="D46" s="1">
-        <v>-2.182485220321039</v>
+        <v>-3.0372233912984758</v>
       </c>
       <c r="E46" s="1">
-        <v>-2.254927127336698</v>
+        <v>-3.1398940515009688</v>
       </c>
       <c r="F46" s="1">
-        <v>-2.450464590144998</v>
+        <v>-3.107674298891177</v>
       </c>
       <c r="G46" s="1">
-        <v>-2.3944802801880689</v>
+        <v>-1.962675389626378</v>
       </c>
       <c r="H46" s="1">
-        <v>-2.785694604597599</v>
+        <v>-2.7636569537374811</v>
       </c>
       <c r="I46" s="1">
-        <v>-2.2343944379117011</v>
+        <v>-3.069599008027605</v>
       </c>
       <c r="J46" s="1">
-        <v>-2.3078043325033128</v>
+        <v>-3.1787407658285689</v>
       </c>
       <c r="K46" s="1">
-        <v>-2.519670528682433</v>
+        <v>-3.149544133669556</v>
       </c>
       <c r="L46" s="1">
-        <v>-2.4715895726164092</v>
+        <v>-1.9239142669942491</v>
       </c>
       <c r="M46" s="1">
-        <v>-2.866961645199507</v>
+        <v>-2.7186703470897311</v>
       </c>
       <c r="N46" s="1">
-        <v>-2.366382297317696</v>
+        <v>-3.0154145332664379</v>
       </c>
       <c r="O46" s="1">
-        <v>-2.5284952165379821</v>
+        <v>-3.106725300278073</v>
       </c>
       <c r="P46" s="1">
-        <v>-2.6846925962292638</v>
+        <v>-3.0735878643161909</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="B47" s="1">
-        <v>-2.3295887018721948</v>
+        <v>-2.262113220928633</v>
       </c>
       <c r="C47" s="1">
-        <v>-2.0594254074297709</v>
+        <v>-2.122121300251719</v>
       </c>
       <c r="D47" s="1">
-        <v>-2.408377847231288</v>
+        <v>-2.9209431802286119</v>
       </c>
       <c r="E47" s="1">
-        <v>-2.5877642132448901</v>
+        <v>-2.9959786594308362</v>
       </c>
       <c r="F47" s="1">
-        <v>-2.613821729161987</v>
+        <v>-2.151558984680054</v>
       </c>
       <c r="G47" s="1">
-        <v>-2.3385250628116689</v>
+        <v>-2.161783712266383</v>
       </c>
       <c r="H47" s="1">
-        <v>-2.056251741527495</v>
+        <v>-1.927349478096644</v>
       </c>
       <c r="I47" s="1">
-        <v>-2.3782775902644091</v>
+        <v>-2.7143034468581901</v>
       </c>
       <c r="J47" s="1">
-        <v>-2.5315642835960839</v>
+        <v>-2.7454872834136479</v>
       </c>
       <c r="K47" s="1">
-        <v>-2.5758079572237249</v>
+        <v>-1.9786916270157611</v>
       </c>
       <c r="L47" s="1">
-        <v>-1.680677844746113</v>
+        <v>-1.8660818827014951</v>
       </c>
       <c r="M47" s="1">
-        <v>-1.407678871140785</v>
+        <v>-2.0298620778846201</v>
       </c>
       <c r="N47" s="1">
-        <v>-1.638684292170054</v>
+        <v>-3.024244567332028</v>
       </c>
       <c r="O47" s="1">
-        <v>-1.8756362638866031</v>
+        <v>-3.2253802316832352</v>
       </c>
       <c r="P47" s="1">
-        <v>-2.0411997413114129</v>
+        <v>-2.775839642687441</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1">
-        <v>-2.262113220928633</v>
+        <v>-1.863389417067997</v>
       </c>
       <c r="C48" s="1">
-        <v>-2.122121300251719</v>
+        <v>-1.6406132386079391</v>
       </c>
       <c r="D48" s="1">
-        <v>-2.9209431802286119</v>
+        <v>-1.600661282482716</v>
       </c>
       <c r="E48" s="1">
-        <v>-2.9959786594308362</v>
+        <v>-1.6417785540889129</v>
       </c>
       <c r="F48" s="1">
-        <v>-2.151558984680054</v>
+        <v>-1.3558198603207789</v>
       </c>
       <c r="G48" s="1">
-        <v>-2.161783712266383</v>
+        <v>-1.881767909131929</v>
       </c>
       <c r="H48" s="1">
-        <v>-1.927349478096644</v>
+        <v>-1.6580683983679521</v>
       </c>
       <c r="I48" s="1">
-        <v>-2.7143034468581901</v>
+        <v>-1.6156923773137191</v>
       </c>
       <c r="J48" s="1">
-        <v>-2.7454872834136479</v>
+        <v>-1.6603066511188911</v>
       </c>
       <c r="K48" s="1">
-        <v>-1.9786916270157611</v>
+        <v>-1.374583492240486</v>
       </c>
       <c r="L48" s="1">
-        <v>-1.8660818827014951</v>
+        <v>-1.8655692833809081</v>
       </c>
       <c r="M48" s="1">
-        <v>-2.0298620778846201</v>
+        <v>-1.595605071594197</v>
       </c>
       <c r="N48" s="1">
-        <v>-3.024244567332028</v>
+        <v>-1.457578294064384</v>
       </c>
       <c r="O48" s="1">
-        <v>-3.2253802316832352</v>
+        <v>-1.565119563189266</v>
       </c>
       <c r="P48" s="1">
-        <v>-2.775839642687441</v>
+        <v>-1.228388865531499</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1">
-        <v>-2.231425943215926</v>
+        <v>-1.9794085386271281</v>
       </c>
       <c r="C49" s="1">
-        <v>-1.8813749700080431</v>
+        <v>-2.1548133497335278</v>
       </c>
       <c r="D49" s="1">
-        <v>-1.616455357682659</v>
+        <v>-2.2469743619767049</v>
       </c>
       <c r="E49" s="1">
-        <v>-1.3700514023220871</v>
+        <v>-2.377064721371382</v>
       </c>
       <c r="F49" s="1">
-        <v>-0.85790119256393083</v>
+        <v>-2.170563867545257</v>
       </c>
       <c r="G49" s="1">
-        <v>-2.1388172919255881</v>
+        <v>-1.983101642451528</v>
       </c>
       <c r="H49" s="1">
-        <v>-1.666177500278289</v>
+        <v>-2.1393914750507328</v>
       </c>
       <c r="I49" s="1">
-        <v>-1.3225917742566791</v>
+        <v>-2.230908996302611</v>
       </c>
       <c r="J49" s="1">
-        <v>-1.1404498853396829</v>
+        <v>-2.358663635281248</v>
       </c>
       <c r="K49" s="1">
-        <v>-0.61811873783443683</v>
+        <v>-2.1423518022995629</v>
       </c>
       <c r="L49" s="1">
-        <v>-2.2594819317793431</v>
+        <v>-1.8641094308055739</v>
       </c>
       <c r="M49" s="1">
-        <v>-2.398603531171593</v>
+        <v>-2.1324660584219619</v>
       </c>
       <c r="N49" s="1">
-        <v>-2.153382834035499</v>
+        <v>-2.2259009263994072</v>
       </c>
       <c r="O49" s="1">
-        <v>-2.4087504391408769</v>
+        <v>-2.3476619505201568</v>
       </c>
       <c r="P49" s="1">
-        <v>-1.9382781438942061</v>
+        <v>-2.136483423605068</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1">
-        <v>-2.1950824658489019</v>
+        <v>-2.0972963471157491</v>
       </c>
       <c r="C50" s="1">
-        <v>-2.3750337051694892</v>
+        <v>-2.0860130811347961</v>
       </c>
       <c r="D50" s="1">
-        <v>-2.7642643627206498</v>
+        <v>-1.985529159463495</v>
       </c>
       <c r="E50" s="1">
-        <v>-2.9648982043868841</v>
+        <v>-2.0513601647755881</v>
       </c>
       <c r="F50" s="1">
-        <v>-2.545462937681068</v>
+        <v>-1.924817898160962</v>
       </c>
       <c r="G50" s="1">
-        <v>-2.1872663412582201</v>
+        <v>-2.1026621144074822</v>
       </c>
       <c r="H50" s="1">
-        <v>-2.3506179114978121</v>
+        <v>-2.1028628716297191</v>
       </c>
       <c r="I50" s="1">
-        <v>-2.7306181045705111</v>
+        <v>-1.990281152079391</v>
       </c>
       <c r="J50" s="1">
-        <v>-2.91166463639007</v>
+        <v>-2.0582571730433759</v>
       </c>
       <c r="K50" s="1">
-        <v>-2.4525966165137301</v>
+        <v>-1.9088037859891389</v>
       </c>
       <c r="L50" s="1">
-        <v>-1.784775974453235</v>
+        <v>-1.8589176492942261</v>
       </c>
       <c r="M50" s="1">
-        <v>-2.192469439271417</v>
+        <v>-1.9841152504053481</v>
       </c>
       <c r="N50" s="1">
-        <v>-2.633984345775616</v>
+        <v>-1.8845259410992321</v>
       </c>
       <c r="O50" s="1">
-        <v>-2.852157798839249</v>
+        <v>-1.99914934774415</v>
       </c>
       <c r="P50" s="1">
-        <v>-2.417456503890131</v>
+        <v>-1.9242098750311329</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>-2.1564138330616691</v>
+        <v>-5.6356123317987166</v>
       </c>
       <c r="C51" s="1">
-        <v>-2.4431089168784919</v>
+        <v>-2.428536255336315</v>
       </c>
       <c r="D51" s="1">
-        <v>-2.1171712746533831</v>
+        <v>-2.336825670552622</v>
       </c>
       <c r="E51" s="1">
-        <v>-2.33943866139502</v>
+        <v>-2.215488022490411</v>
       </c>
       <c r="F51" s="1">
-        <v>-1.970552391081507</v>
+        <v>-2.1424052540119352</v>
       </c>
       <c r="G51" s="1">
-        <v>-2.1343302206551011</v>
+        <v>-4.7789437050288637</v>
       </c>
       <c r="H51" s="1">
-        <v>-2.44117609751537</v>
+        <v>-2.0465005926521029</v>
       </c>
       <c r="I51" s="1">
-        <v>-2.1126323742225068</v>
+        <v>-1.9491200447091961</v>
       </c>
       <c r="J51" s="1">
-        <v>-2.3341780761564408</v>
+        <v>-1.9226059113566021</v>
       </c>
       <c r="K51" s="1">
-        <v>-1.9743429087592821</v>
+        <v>-1.814072346490629</v>
       </c>
       <c r="L51" s="1">
-        <v>-2.0697992405747851</v>
+        <v>-1.811557537625005</v>
       </c>
       <c r="M51" s="1">
-        <v>-2.497181689595712</v>
+        <v>-1.841125651917086</v>
       </c>
       <c r="N51" s="1">
-        <v>-2.2345840900719258</v>
+        <v>-1.8242856008503281</v>
       </c>
       <c r="O51" s="1">
-        <v>-2.4921076506825122</v>
+        <v>-1.9849511239040929</v>
       </c>
       <c r="P51" s="1">
-        <v>-2.115927945777293</v>
+        <v>-1.864489240097132</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1">
-        <v>-2.1440209534625851</v>
+        <v>-2.3681987126945239</v>
       </c>
       <c r="C52" s="1">
-        <v>-2.388024539108315</v>
+        <v>-2.4505066760003098</v>
       </c>
       <c r="D52" s="1">
-        <v>-2.6968119086090039</v>
+        <v>-2.327890817649398</v>
       </c>
       <c r="E52" s="1">
-        <v>-4.1097224250607836</v>
+        <v>-2.137807001805911</v>
       </c>
       <c r="F52" s="1">
-        <v>-3.814704882580918</v>
+        <v>-2.0784516184322639</v>
       </c>
       <c r="G52" s="1">
-        <v>-2.0884951543890899</v>
+        <v>-2.3752233725158161</v>
       </c>
       <c r="H52" s="1">
-        <v>-2.2963435310414582</v>
+        <v>-2.5451762607443511</v>
       </c>
       <c r="I52" s="1">
-        <v>-2.5318386644150048</v>
+        <v>-2.3807945803800301</v>
       </c>
       <c r="J52" s="1">
-        <v>-3.714332230114477</v>
+        <v>-2.200132123538896</v>
       </c>
       <c r="K52" s="1">
-        <v>-3.3156648966755942</v>
+        <v>-2.1400539380334549</v>
       </c>
       <c r="L52" s="1">
-        <v>-1.350846192043587</v>
+        <v>-1.785503318513588</v>
       </c>
       <c r="M52" s="1">
-        <v>-2.230368212002491</v>
+        <v>-2.121630430429958</v>
       </c>
       <c r="N52" s="1">
-        <v>-2.5423672881760369</v>
+        <v>-1.9801665404237281</v>
       </c>
       <c r="O52" s="1">
-        <v>-4.063876386521887</v>
+        <v>-1.9095024909112219</v>
       </c>
       <c r="P52" s="1">
-        <v>-3.8838392763829712</v>
+        <v>-1.889409927478275</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B53" s="1">
-        <v>-2.1129843496659939</v>
+        <v>-2.1950824658489019</v>
       </c>
       <c r="C53" s="1">
-        <v>-1.9762843902470799</v>
+        <v>-2.3750337051694892</v>
       </c>
       <c r="D53" s="1">
-        <v>-2.0541530602357829</v>
+        <v>-2.7642643627206498</v>
       </c>
       <c r="E53" s="1">
-        <v>-1.8611059079846519</v>
+        <v>-2.9648982043868841</v>
       </c>
       <c r="F53" s="1">
-        <v>-1.9309028414985421</v>
+        <v>-2.545462937681068</v>
       </c>
       <c r="G53" s="1">
-        <v>-2.081595172287249</v>
+        <v>-2.1872663412582201</v>
       </c>
       <c r="H53" s="1">
-        <v>-1.9169524367700479</v>
+        <v>-2.3506179114978121</v>
       </c>
       <c r="I53" s="1">
-        <v>-1.9418662224741541</v>
+        <v>-2.7306181045705111</v>
       </c>
       <c r="J53" s="1">
-        <v>-1.726742224201298</v>
+        <v>-2.91166463639007</v>
       </c>
       <c r="K53" s="1">
-        <v>-1.7521728054693599</v>
+        <v>-2.4525966165137301</v>
       </c>
       <c r="L53" s="1">
-        <v>1.0466878065933469</v>
+        <v>-1.784775974453235</v>
       </c>
       <c r="M53" s="1">
-        <v>-9.6607426964856802E-2</v>
+        <v>-2.192469439271417</v>
       </c>
       <c r="N53" s="1">
-        <v>0.45344672683404802</v>
+        <v>-2.633984345775616</v>
       </c>
       <c r="O53" s="1">
-        <v>0.77685500844144395</v>
+        <v>-2.852157798839249</v>
       </c>
       <c r="P53" s="1">
-        <v>1.2416607424847179</v>
+        <v>-2.417456503890131</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B54" s="1">
-        <v>-2.1064549117158982</v>
+        <v>-1.711339435910785</v>
       </c>
       <c r="C54" s="1">
-        <v>-1.536963186704903</v>
+        <v>-1.5113136060500989</v>
       </c>
       <c r="D54" s="1">
-        <v>-1.806231846932169</v>
+        <v>-1.4439946123672569</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.81601948523769863</v>
+        <v>-1.375264627815117</v>
       </c>
       <c r="F54" s="1">
-        <v>-0.43008870620037248</v>
+        <v>-1.366043128777769</v>
       </c>
       <c r="G54" s="1">
-        <v>-2.1054011358180258</v>
+        <v>-1.726211105057442</v>
       </c>
       <c r="H54" s="1">
-        <v>-1.577822913992952</v>
+        <v>-1.524283220933365</v>
       </c>
       <c r="I54" s="1">
-        <v>-1.9151577264524671</v>
+        <v>-1.4533953380628699</v>
       </c>
       <c r="J54" s="1">
-        <v>-1.6481055159026401</v>
+        <v>-1.3870371378448709</v>
       </c>
       <c r="K54" s="1">
-        <v>-0.97724686865175037</v>
+        <v>-1.38284440432183</v>
       </c>
       <c r="L54" s="1">
-        <v>-0.99268522702182715</v>
+        <v>-1.7360361403187721</v>
       </c>
       <c r="M54" s="1">
-        <v>-0.63307658120116816</v>
+        <v>-1.582617001409695</v>
       </c>
       <c r="N54" s="1">
-        <v>-0.98557235807551824</v>
+        <v>-1.324080136888496</v>
       </c>
       <c r="O54" s="1">
-        <v>-0.51220846294648004</v>
+        <v>-1.4779703757183551</v>
       </c>
       <c r="P54" s="1">
-        <v>3.9593161610649002E-3</v>
+        <v>-1.7631570655026489</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B55" s="1">
-        <v>-2.0972963471157491</v>
+        <v>0.20568663526027059</v>
       </c>
       <c r="C55" s="1">
-        <v>-2.0860130811347961</v>
+        <v>-0.49863517593183648</v>
       </c>
       <c r="D55" s="1">
-        <v>-1.985529159463495</v>
+        <v>-0.39426121730494329</v>
       </c>
       <c r="E55" s="1">
-        <v>-2.0513601647755881</v>
+        <v>-0.64315082073006469</v>
       </c>
       <c r="F55" s="1">
-        <v>-1.924817898160962</v>
+        <v>-0.63873735138177867</v>
       </c>
       <c r="G55" s="1">
-        <v>-2.1026621144074822</v>
+        <v>2.3171678897392401E-2</v>
       </c>
       <c r="H55" s="1">
-        <v>-2.1028628716297191</v>
+        <v>-0.77093449533511604</v>
       </c>
       <c r="I55" s="1">
-        <v>-1.990281152079391</v>
+        <v>-0.55426390438525908</v>
       </c>
       <c r="J55" s="1">
-        <v>-2.0582571730433759</v>
+        <v>-0.70292465202319465</v>
       </c>
       <c r="K55" s="1">
-        <v>-1.9088037859891389</v>
+        <v>-0.61597625929028454</v>
       </c>
       <c r="L55" s="1">
-        <v>-1.8589176492942261</v>
+        <v>-1.721071379269749</v>
       </c>
       <c r="M55" s="1">
-        <v>-1.9841152504053481</v>
+        <v>-1.70857750311457</v>
       </c>
       <c r="N55" s="1">
-        <v>-1.8845259410992321</v>
+        <v>-1.662159151564244</v>
       </c>
       <c r="O55" s="1">
-        <v>-1.99914934774415</v>
+        <v>-2.0680965825858642</v>
       </c>
       <c r="P55" s="1">
-        <v>-1.9242098750311329</v>
+        <v>-2.5501156185614779</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B56" s="1">
-        <v>-2.0945130038929398</v>
+        <v>-2.3295887018721948</v>
       </c>
       <c r="C56" s="1">
-        <v>-1.9637181997306721</v>
+        <v>-2.0594254074297709</v>
       </c>
       <c r="D56" s="1">
-        <v>-1.3126987191697399</v>
+        <v>-2.408377847231288</v>
       </c>
       <c r="E56" s="1">
-        <v>-1.5937628289712891</v>
+        <v>-2.5877642132448901</v>
       </c>
       <c r="F56" s="1">
-        <v>-1.1866602351657241</v>
+        <v>-2.613821729161987</v>
       </c>
       <c r="G56" s="1">
-        <v>-1.882683985826958</v>
+        <v>-2.3385250628116689</v>
       </c>
       <c r="H56" s="1">
-        <v>-1.665094976483779</v>
+        <v>-2.056251741527495</v>
       </c>
       <c r="I56" s="1">
-        <v>-1.045920854909574</v>
+        <v>-2.3782775902644091</v>
       </c>
       <c r="J56" s="1">
-        <v>-1.0587990704435031</v>
+        <v>-2.5315642835960839</v>
       </c>
       <c r="K56" s="1">
-        <v>-0.52192503494037235</v>
+        <v>-2.5758079572237249</v>
       </c>
       <c r="L56" s="1">
-        <v>-0.8273292812470936</v>
+        <v>-1.680677844746113</v>
       </c>
       <c r="M56" s="1">
-        <v>-2.049345025967261</v>
+        <v>-1.407678871140785</v>
       </c>
       <c r="N56" s="1">
-        <v>-1.886143695779267</v>
+        <v>-1.638684292170054</v>
       </c>
       <c r="O56" s="1">
-        <v>-0.55895018829544085</v>
+        <v>-1.8756362638866031</v>
       </c>
       <c r="P56" s="1">
-        <v>0.150426732566324</v>
+        <v>-2.0411997413114129</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1">
-        <v>-1.9794085386271281</v>
+        <v>-1.746394396216743</v>
       </c>
       <c r="C57" s="1">
-        <v>-2.1548133497335278</v>
+        <v>-3.0653001313997441</v>
       </c>
       <c r="D57" s="1">
-        <v>-2.2469743619767049</v>
+        <v>-2.390298316011378</v>
       </c>
       <c r="E57" s="1">
-        <v>-2.377064721371382</v>
+        <v>-2.2930988779232289</v>
       </c>
       <c r="F57" s="1">
-        <v>-2.170563867545257</v>
+        <v>-1.956963622668844</v>
       </c>
       <c r="G57" s="1">
-        <v>-1.983101642451528</v>
+        <v>-1.780947729062246</v>
       </c>
       <c r="H57" s="1">
-        <v>-2.1393914750507328</v>
+        <v>-3.1444738938107739</v>
       </c>
       <c r="I57" s="1">
-        <v>-2.230908996302611</v>
+        <v>-2.4294156869162649</v>
       </c>
       <c r="J57" s="1">
-        <v>-2.358663635281248</v>
+        <v>-2.312419260068431</v>
       </c>
       <c r="K57" s="1">
-        <v>-2.1423518022995629</v>
+        <v>-1.98575042627617</v>
       </c>
       <c r="L57" s="1">
-        <v>-1.8641094308055739</v>
+        <v>-1.6517807563387219</v>
       </c>
       <c r="M57" s="1">
-        <v>-2.1324660584219619</v>
+        <v>-2.978555407042907</v>
       </c>
       <c r="N57" s="1">
-        <v>-2.2259009263994072</v>
+        <v>-2.3986661049872491</v>
       </c>
       <c r="O57" s="1">
-        <v>-2.3476619505201568</v>
+        <v>-2.4366090601904848</v>
       </c>
       <c r="P57" s="1">
-        <v>-2.136483423605068</v>
+        <v>-2.151816592556151</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1">
-        <v>-1.9467418430852801</v>
+        <v>-1.468028273490954</v>
       </c>
       <c r="C58" s="1">
-        <v>-1.94252470311462</v>
+        <v>-1.7979066131998289</v>
       </c>
       <c r="D58" s="1">
-        <v>-2.3752541605298192</v>
+        <v>-1.504505934397439</v>
       </c>
       <c r="E58" s="1">
-        <v>-2.5633641042320301</v>
+        <v>-1.5690736504904701</v>
       </c>
       <c r="F58" s="1">
-        <v>-2.50477943906724</v>
+        <v>-1.2061443776999241</v>
       </c>
       <c r="G58" s="1">
-        <v>-1.8877482434854389</v>
+        <v>-1.481911870869439</v>
       </c>
       <c r="H58" s="1">
-        <v>-1.829831159429717</v>
+        <v>-1.813674300747381</v>
       </c>
       <c r="I58" s="1">
-        <v>-2.0912272891758992</v>
+        <v>-1.5167895666933531</v>
       </c>
       <c r="J58" s="1">
-        <v>-2.0461849075398049</v>
+        <v>-1.581048552721227</v>
       </c>
       <c r="K58" s="1">
-        <v>-1.742386638721301</v>
+        <v>-1.215219912389069</v>
       </c>
       <c r="L58" s="1">
-        <v>-1.1370948092716919</v>
+        <v>-1.651488547250656</v>
       </c>
       <c r="M58" s="1">
-        <v>-2.1492446735482118</v>
+        <v>-2.467532111471419</v>
       </c>
       <c r="N58" s="1">
-        <v>-2.1276273266454111</v>
+        <v>-2.0035273340880702</v>
       </c>
       <c r="O58" s="1">
-        <v>-2.1440125516151669</v>
+        <v>-2.1192293704754528</v>
       </c>
       <c r="P58" s="1">
-        <v>-1.965270382402567</v>
+        <v>-1.782405985529216</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1">
-        <v>-1.9462785691573949</v>
+        <v>-1.5317341237107991</v>
       </c>
       <c r="C59" s="1">
-        <v>-1.5973841042982251</v>
+        <v>-2.7555565094137302</v>
       </c>
       <c r="D59" s="1">
-        <v>-1.2835564199622209</v>
+        <v>-1.549104595881502</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.92929711764515854</v>
+        <v>-1.819972307878158</v>
       </c>
       <c r="F59" s="1">
-        <v>-1.104924205903502</v>
+        <v>-1.3745332936811461</v>
       </c>
       <c r="G59" s="1">
-        <v>-1.999298991222193</v>
+        <v>-1.587737075175258</v>
       </c>
       <c r="H59" s="1">
-        <v>-1.6592211961262331</v>
+        <v>-2.850791903784514</v>
       </c>
       <c r="I59" s="1">
-        <v>-1.3480641662482591</v>
+        <v>-1.65143154946537</v>
       </c>
       <c r="J59" s="1">
-        <v>-1.019322131850994</v>
+        <v>-1.920084656270016</v>
       </c>
       <c r="K59" s="1">
-        <v>-1.2328859824771241</v>
+        <v>-1.472956654755851</v>
       </c>
       <c r="L59" s="1">
-        <v>-3.063223859472072</v>
+        <v>-1.6316783340897789</v>
       </c>
       <c r="M59" s="1">
-        <v>-2.37038896517875</v>
+        <v>-2.9467149089747728</v>
       </c>
       <c r="N59" s="1">
-        <v>-2.153732889185366</v>
+        <v>-1.6355162880485301</v>
       </c>
       <c r="O59" s="1">
-        <v>-1.827011285993746</v>
+        <v>-1.9975754731262569</v>
       </c>
       <c r="P59" s="1">
-        <v>-1.7643215659464899</v>
+        <v>-1.5933132715926299</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B60" s="1">
-        <v>-1.942565324422683</v>
+        <v>-1.69913110496157</v>
       </c>
       <c r="C60" s="1">
-        <v>-2.7356507850324219</v>
+        <v>-1.3242068358574239</v>
       </c>
       <c r="D60" s="1">
-        <v>-3.0372233912984758</v>
+        <v>-1.158712649168937</v>
       </c>
       <c r="E60" s="1">
-        <v>-3.1398940515009688</v>
+        <v>-1.3507766016139551</v>
       </c>
       <c r="F60" s="1">
-        <v>-3.107674298891177</v>
+        <v>-1.879816435622031</v>
       </c>
       <c r="G60" s="1">
-        <v>-1.962675389626378</v>
+        <v>-1.7135457215069421</v>
       </c>
       <c r="H60" s="1">
-        <v>-2.7636569537374811</v>
+        <v>-1.335464771363116</v>
       </c>
       <c r="I60" s="1">
-        <v>-3.069599008027605</v>
+        <v>-1.170013372725109</v>
       </c>
       <c r="J60" s="1">
-        <v>-3.1787407658285689</v>
+        <v>-1.3656414993084991</v>
       </c>
       <c r="K60" s="1">
-        <v>-3.149544133669556</v>
+        <v>-1.8980911230818429</v>
       </c>
       <c r="L60" s="1">
-        <v>-1.9239142669942491</v>
+        <v>-1.588854167254937</v>
       </c>
       <c r="M60" s="1">
-        <v>-2.7186703470897311</v>
+        <v>-1.496822958665619</v>
       </c>
       <c r="N60" s="1">
-        <v>-3.0154145332664379</v>
+        <v>-1.8404667026861961</v>
       </c>
       <c r="O60" s="1">
-        <v>-3.106725300278073</v>
+        <v>-1.722231503305736</v>
       </c>
       <c r="P60" s="1">
-        <v>-3.0735878643161909</v>
+        <v>-2.4059937306426078</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="B61" s="1">
-        <v>-1.9409612625666319</v>
+        <v>-0.1819115032606595</v>
       </c>
       <c r="C61" s="1">
-        <v>-2.1071210093777291</v>
+        <v>-1.091027711179096</v>
       </c>
       <c r="D61" s="1">
-        <v>-1.8855645128306291</v>
+        <v>-1.11184577880756</v>
       </c>
       <c r="E61" s="1">
-        <v>-1.8663648809647131</v>
+        <v>-1.6576334351401629</v>
       </c>
       <c r="F61" s="1">
-        <v>-1.7876414739611259</v>
+        <v>-1.5699699967277509</v>
       </c>
       <c r="G61" s="1">
-        <v>-1.9333367987250629</v>
+        <v>-0.22340681272726781</v>
       </c>
       <c r="H61" s="1">
-        <v>-2.0974564034331369</v>
+        <v>-1.1877640350473699</v>
       </c>
       <c r="I61" s="1">
-        <v>-1.8569850079335779</v>
+        <v>-1.2860249444529539</v>
       </c>
       <c r="J61" s="1">
-        <v>-1.817932924916801</v>
+        <v>-1.919985718576197</v>
       </c>
       <c r="K61" s="1">
-        <v>-1.7193562746019491</v>
+        <v>-1.96969912307787</v>
       </c>
       <c r="L61" s="1">
-        <v>-1.066141282049387</v>
+        <v>-1.5569370575173509</v>
       </c>
       <c r="M61" s="1">
-        <v>-1.6702226238969009</v>
+        <v>-1.9134708439400301</v>
       </c>
       <c r="N61" s="1">
-        <v>-1.444758435675557</v>
+        <v>-1.7067898310314189</v>
       </c>
       <c r="O61" s="1">
-        <v>-1.408027280301015</v>
+        <v>-1.991400677624112</v>
       </c>
       <c r="P61" s="1">
-        <v>-1.304707360608282</v>
+        <v>-1.7688676364274849</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B62" s="1">
-        <v>-1.863389417067997</v>
+        <v>-1.695358220046703</v>
       </c>
       <c r="C62" s="1">
-        <v>-1.6406132386079391</v>
+        <v>-3.6187817757014562</v>
       </c>
       <c r="D62" s="1">
-        <v>-1.600661282482716</v>
+        <v>-3.380657769378502</v>
       </c>
       <c r="E62" s="1">
-        <v>-1.6417785540889129</v>
+        <v>-3.7859826115241448</v>
       </c>
       <c r="F62" s="1">
-        <v>-1.3558198603207789</v>
+        <v>-1.9221286790169601</v>
       </c>
       <c r="G62" s="1">
-        <v>-1.881767909131929</v>
+        <v>-1.7357255203552031</v>
       </c>
       <c r="H62" s="1">
-        <v>-1.6580683983679521</v>
+        <v>-3.7242795113129028</v>
       </c>
       <c r="I62" s="1">
-        <v>-1.6156923773137191</v>
+        <v>-3.4339216614060022</v>
       </c>
       <c r="J62" s="1">
-        <v>-1.6603066511188911</v>
+        <v>-3.8929848628731341</v>
       </c>
       <c r="K62" s="1">
-        <v>-1.374583492240486</v>
+        <v>-1.9784856355818921</v>
       </c>
       <c r="L62" s="1">
-        <v>-1.8655692833809081</v>
+        <v>-1.5534453019540531</v>
       </c>
       <c r="M62" s="1">
-        <v>-1.595605071594197</v>
+        <v>-3.517607159321579</v>
       </c>
       <c r="N62" s="1">
-        <v>-1.457578294064384</v>
+        <v>-3.2261643034999632</v>
       </c>
       <c r="O62" s="1">
-        <v>-1.565119563189266</v>
+        <v>-3.6384044258275128</v>
       </c>
       <c r="P62" s="1">
-        <v>-1.228388865531499</v>
+        <v>-1.809773612486471</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="B63" s="1">
-        <v>-1.787568062864622</v>
+        <v>-1.544177149764185</v>
       </c>
       <c r="C63" s="1">
-        <v>-1.8936632425355731</v>
+        <v>-2.2971934552283022</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.728275926335952</v>
+        <v>-2.1373514828764941</v>
       </c>
       <c r="E63" s="1">
-        <v>-1.577835377894006</v>
+        <v>-1.840749611961908</v>
       </c>
       <c r="F63" s="1">
-        <v>-1.4979253493193441</v>
+        <v>-1.8594946756713919</v>
       </c>
       <c r="G63" s="1">
-        <v>-1.775913846306366</v>
+        <v>-1.5631945714495761</v>
       </c>
       <c r="H63" s="1">
-        <v>-1.8899599495567161</v>
+        <v>-2.3217214764451701</v>
       </c>
       <c r="I63" s="1">
-        <v>-1.724564813104974</v>
+        <v>-2.1649586544963588</v>
       </c>
       <c r="J63" s="1">
-        <v>-1.569527703001308</v>
+        <v>-1.866893871656123</v>
       </c>
       <c r="K63" s="1">
-        <v>-1.5071087757543129</v>
+        <v>-1.885783078239754</v>
       </c>
       <c r="L63" s="1">
-        <v>0.47678760702802792</v>
+        <v>-1.532735633848894</v>
       </c>
       <c r="M63" s="1">
-        <v>-0.9761312670028679</v>
+        <v>-2.264751400123981</v>
       </c>
       <c r="N63" s="1">
-        <v>-0.88065855671221027</v>
+        <v>-2.103484049012625</v>
       </c>
       <c r="O63" s="1">
-        <v>-0.63408462193277804</v>
+        <v>-1.7798482935144231</v>
       </c>
       <c r="P63" s="1">
-        <v>-0.7426901311761398</v>
+        <v>-1.7731718396697309</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1">
-        <v>-1.746394396216743</v>
+        <v>-1.697716419682781</v>
       </c>
       <c r="C64" s="1">
-        <v>-3.0653001313997441</v>
+        <v>-1.934846304778429</v>
       </c>
       <c r="D64" s="1">
-        <v>-2.390298316011378</v>
+        <v>-1.6863919599297419</v>
       </c>
       <c r="E64" s="1">
-        <v>-2.2930988779232289</v>
+        <v>-1.886538371017026</v>
       </c>
       <c r="F64" s="1">
-        <v>-1.956963622668844</v>
+        <v>-1.856374828100712</v>
       </c>
       <c r="G64" s="1">
-        <v>-1.780947729062246</v>
+        <v>-1.7017616251299581</v>
       </c>
       <c r="H64" s="1">
-        <v>-3.1444738938107739</v>
+        <v>-1.935736258314968</v>
       </c>
       <c r="I64" s="1">
-        <v>-2.4294156869162649</v>
+        <v>-1.6767056119548771</v>
       </c>
       <c r="J64" s="1">
-        <v>-2.312419260068431</v>
+        <v>-1.879057704032683</v>
       </c>
       <c r="K64" s="1">
-        <v>-1.98575042627617</v>
+        <v>-1.840730738851452</v>
       </c>
       <c r="L64" s="1">
-        <v>-1.6517807563387219</v>
+        <v>-1.51537293699165</v>
       </c>
       <c r="M64" s="1">
-        <v>-2.978555407042907</v>
+        <v>-1.8459358290108669</v>
       </c>
       <c r="N64" s="1">
-        <v>-2.3986661049872491</v>
+        <v>-1.610192925988934</v>
       </c>
       <c r="O64" s="1">
-        <v>-2.4366090601904848</v>
+        <v>-1.8336887710900009</v>
       </c>
       <c r="P64" s="1">
-        <v>-2.151816592556151</v>
+        <v>-1.7903942634426471</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B65" s="1">
-        <v>-1.740393712654317</v>
+        <v>-1.397979561031327</v>
       </c>
       <c r="C65" s="1">
-        <v>-3.6329451404433919</v>
+        <v>-2.212286164241807</v>
       </c>
       <c r="D65" s="1">
-        <v>-2.8493818720910582</v>
+        <v>-2.2142616647207731</v>
       </c>
       <c r="E65" s="1">
-        <v>-2.252168426728649</v>
+        <v>-1.677668310436919</v>
       </c>
       <c r="F65" s="1">
-        <v>-2.385587085495938</v>
+        <v>-1.5486971432194601</v>
       </c>
       <c r="G65" s="1">
-        <v>-1.7678735969997359</v>
+        <v>-1.412120743607052</v>
       </c>
       <c r="H65" s="1">
-        <v>-3.666790856009944</v>
+        <v>-2.231212646551489</v>
       </c>
       <c r="I65" s="1">
-        <v>-2.903251651131912</v>
+        <v>-2.2331843247262642</v>
       </c>
       <c r="J65" s="1">
-        <v>-2.3884861729612581</v>
+        <v>-1.692435076335566</v>
       </c>
       <c r="K65" s="1">
-        <v>-2.5456929335128309</v>
+        <v>-1.562465577606801</v>
       </c>
       <c r="L65" s="1">
-        <v>-2.191845982681579</v>
+        <v>-1.5089228742455221</v>
       </c>
       <c r="M65" s="1">
-        <v>-4.1806016930034708</v>
+        <v>-2.6103937441208078</v>
       </c>
       <c r="N65" s="1">
-        <v>-3.4023029124598301</v>
+        <v>-2.6863192372153271</v>
       </c>
       <c r="O65" s="1">
-        <v>-2.609786007563959</v>
+        <v>-2.276789066020855</v>
       </c>
       <c r="P65" s="1">
-        <v>-2.7353046925492359</v>
+        <v>-2.049869537117865</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1">
-        <v>-1.7269962023588079</v>
+        <v>-7.4809847882705005E-2</v>
       </c>
       <c r="C66" s="1">
-        <v>-2.2407226416897408</v>
+        <v>-0.28318110251764678</v>
       </c>
       <c r="D66" s="1">
-        <v>-2.0458560797949361</v>
+        <v>-0.80840221947644697</v>
       </c>
       <c r="E66" s="1">
-        <v>-2.259482382394602</v>
+        <v>-0.52487128718967391</v>
       </c>
       <c r="F66" s="1">
-        <v>-1.928921147747553</v>
+        <v>-7.7260907812927895E-2</v>
       </c>
       <c r="G66" s="1">
-        <v>-1.7393610192852429</v>
+        <v>-0.16791345557649409</v>
       </c>
       <c r="H66" s="1">
-        <v>-2.226505590226691</v>
+        <v>-0.4152948260302356</v>
       </c>
       <c r="I66" s="1">
-        <v>-1.9635611698208491</v>
+        <v>-0.95643161876202165</v>
       </c>
       <c r="J66" s="1">
-        <v>-2.1386398782242901</v>
+        <v>-0.63040618299935136</v>
       </c>
       <c r="K66" s="1">
-        <v>-1.73626051563493</v>
+        <v>-0.36175637449415349</v>
       </c>
       <c r="L66" s="1">
-        <v>-1.3795587423597391</v>
+        <v>-1.4998929529565159</v>
       </c>
       <c r="M66" s="1">
-        <v>-2.0401219486823341</v>
+        <v>-1.86397951793979</v>
       </c>
       <c r="N66" s="1">
-        <v>-1.665133860732952</v>
+        <v>-2.365981788306208</v>
       </c>
       <c r="O66" s="1">
-        <v>-2.0210509084637009</v>
+        <v>-4.3033614641270583</v>
       </c>
       <c r="P66" s="1">
-        <v>-1.539632554831903</v>
+        <v>-2.668839934539565</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B67" s="1">
-        <v>-1.718712542533287</v>
+        <v>-3.4783417067858688</v>
       </c>
       <c r="C67" s="1">
-        <v>-1.927280604364497</v>
+        <v>-3.2722017124105558</v>
       </c>
       <c r="D67" s="1">
-        <v>-1.62711101926052</v>
+        <v>-3.1429176828692991</v>
       </c>
       <c r="E67" s="1">
-        <v>-1.5230695600145321</v>
+        <v>-2.5745735192476982</v>
       </c>
       <c r="F67" s="1">
-        <v>-1.562478572116565</v>
+        <v>-2.1811772004131522</v>
       </c>
       <c r="G67" s="1">
-        <v>-1.7290229265123891</v>
+        <v>-3.355378298202834</v>
       </c>
       <c r="H67" s="1">
-        <v>-1.9326545344800481</v>
+        <v>-2.9296617388034871</v>
       </c>
       <c r="I67" s="1">
-        <v>-1.6242546150428709</v>
+        <v>-2.5941124295911289</v>
       </c>
       <c r="J67" s="1">
-        <v>-1.5266292569137561</v>
+        <v>-2.011696025423277</v>
       </c>
       <c r="K67" s="1">
-        <v>-1.5515907511985241</v>
+        <v>-1.695037423373039</v>
       </c>
       <c r="L67" s="1">
-        <v>-1.2499512533919881</v>
+        <v>-1.49798898658089</v>
       </c>
       <c r="M67" s="1">
-        <v>-1.583708419828237</v>
+        <v>-1.763457279366069</v>
       </c>
       <c r="N67" s="1">
-        <v>-1.178178352303098</v>
+        <v>-1.759796363776627</v>
       </c>
       <c r="O67" s="1">
-        <v>-1.321569008085739</v>
+        <v>-1.493491512264759</v>
       </c>
       <c r="P67" s="1">
-        <v>-1.086855797675145</v>
+        <v>-1.342495271672661</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B68" s="1">
-        <v>-1.7127682933796999</v>
+        <v>-1.5076495537654431</v>
       </c>
       <c r="C68" s="1">
-        <v>-1.5634920730493309</v>
+        <v>-2.1609248563083709</v>
       </c>
       <c r="D68" s="1">
-        <v>-2.7166211994372791</v>
+        <v>-1.684214713384693</v>
       </c>
       <c r="E68" s="1">
-        <v>-1.802968676520188</v>
+        <v>-1.8609631624651839</v>
       </c>
       <c r="F68" s="1">
-        <v>-2.1904937486196649</v>
+        <v>-1.8004744246788871</v>
       </c>
       <c r="G68" s="1">
-        <v>-1.713175804934997</v>
+        <v>-1.526402096460193</v>
       </c>
       <c r="H68" s="1">
-        <v>-1.686264903399199</v>
+        <v>-2.186908199954023</v>
       </c>
       <c r="I68" s="1">
-        <v>-2.7064405900193398</v>
+        <v>-1.7045839150673261</v>
       </c>
       <c r="J68" s="1">
-        <v>-1.8874926462550521</v>
+        <v>-1.885843032296838</v>
       </c>
       <c r="K68" s="1">
-        <v>-2.0058614642259398</v>
+        <v>-1.823515731832337</v>
       </c>
       <c r="L68" s="1">
-        <v>7.8029285741328998E-3</v>
+        <v>-1.465809706258121</v>
       </c>
       <c r="M68" s="1">
-        <v>-0.98639709532592545</v>
+        <v>-2.223866526492845</v>
       </c>
       <c r="N68" s="1">
-        <v>-1.4210345571861269</v>
+        <v>-1.6602057911777981</v>
       </c>
       <c r="O68" s="1">
-        <v>-0.95808749810459004</v>
+        <v>-1.918751612561379</v>
       </c>
       <c r="P68" s="1">
-        <v>-1.334359052749245</v>
+        <v>-1.9145049310002189</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B69" s="1">
-        <v>-1.711339435910785</v>
+        <v>-2.4323544220855631</v>
       </c>
       <c r="C69" s="1">
-        <v>-1.5113136060500989</v>
+        <v>-2.2087794592005778</v>
       </c>
       <c r="D69" s="1">
-        <v>-1.4439946123672569</v>
+        <v>-3.9251636151802338</v>
       </c>
       <c r="E69" s="1">
-        <v>-1.375264627815117</v>
+        <v>-3.5472327644522492</v>
       </c>
       <c r="F69" s="1">
-        <v>-1.366043128777769</v>
+        <v>-2.2451760019563349</v>
       </c>
       <c r="G69" s="1">
-        <v>-1.726211105057442</v>
+        <v>-2.404585287824502</v>
       </c>
       <c r="H69" s="1">
-        <v>-1.524283220933365</v>
+        <v>-2.1518343627814338</v>
       </c>
       <c r="I69" s="1">
-        <v>-1.4533953380628699</v>
+        <v>-3.6694041032507418</v>
       </c>
       <c r="J69" s="1">
-        <v>-1.3870371378448709</v>
+        <v>-3.2896637567590652</v>
       </c>
       <c r="K69" s="1">
-        <v>-1.38284440432183</v>
+        <v>-2.2314470915870941</v>
       </c>
       <c r="L69" s="1">
-        <v>-1.7360361403187721</v>
+        <v>-1.416963996051708</v>
       </c>
       <c r="M69" s="1">
-        <v>-1.582617001409695</v>
+        <v>-1.6973376008895711</v>
       </c>
       <c r="N69" s="1">
-        <v>-1.324080136888496</v>
+        <v>-3.8109283177087261</v>
       </c>
       <c r="O69" s="1">
-        <v>-1.4779703757183551</v>
+        <v>-4.6113126329641636</v>
       </c>
       <c r="P69" s="1">
-        <v>-1.7631570655026489</v>
+        <v>-3.5655529297948712</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1">
-        <v>-1.69913110496157</v>
+        <v>-1.427911568352322</v>
       </c>
       <c r="C70" s="1">
-        <v>-1.3242068358574239</v>
+        <v>-1.57664451301746</v>
       </c>
       <c r="D70" s="1">
-        <v>-1.158712649168937</v>
+        <v>-1.7231609905866481</v>
       </c>
       <c r="E70" s="1">
-        <v>-1.3507766016139551</v>
+        <v>-1.7814533872620399</v>
       </c>
       <c r="F70" s="1">
-        <v>-1.879816435622031</v>
+        <v>-2.00373861949778</v>
       </c>
       <c r="G70" s="1">
-        <v>-1.7135457215069421</v>
+        <v>-1.4360813477077441</v>
       </c>
       <c r="H70" s="1">
-        <v>-1.335464771363116</v>
+        <v>-1.5808221391611641</v>
       </c>
       <c r="I70" s="1">
-        <v>-1.170013372725109</v>
+        <v>-1.7268738721424519</v>
       </c>
       <c r="J70" s="1">
-        <v>-1.3656414993084991</v>
+        <v>-1.7895889210633831</v>
       </c>
       <c r="K70" s="1">
-        <v>-1.8980911230818429</v>
+        <v>-2.008610251899277</v>
       </c>
       <c r="L70" s="1">
-        <v>-1.588854167254937</v>
+        <v>-1.399745114561582</v>
       </c>
       <c r="M70" s="1">
-        <v>-1.496822958665619</v>
+        <v>-1.580410060953686</v>
       </c>
       <c r="N70" s="1">
-        <v>-1.8404667026861961</v>
+        <v>-1.7578833570867129</v>
       </c>
       <c r="O70" s="1">
-        <v>-1.722231503305736</v>
+        <v>-1.8195121298346859</v>
       </c>
       <c r="P70" s="1">
-        <v>-2.4059937306426078</v>
+        <v>-2.0343556790292312</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1">
-        <v>-1.697716419682781</v>
+        <v>-1.7269962023588079</v>
       </c>
       <c r="C71" s="1">
-        <v>-1.934846304778429</v>
+        <v>-2.2407226416897408</v>
       </c>
       <c r="D71" s="1">
-        <v>-1.6863919599297419</v>
+        <v>-2.0458560797949361</v>
       </c>
       <c r="E71" s="1">
-        <v>-1.886538371017026</v>
+        <v>-2.259482382394602</v>
       </c>
       <c r="F71" s="1">
-        <v>-1.856374828100712</v>
+        <v>-1.928921147747553</v>
       </c>
       <c r="G71" s="1">
-        <v>-1.7017616251299581</v>
+        <v>-1.7393610192852429</v>
       </c>
       <c r="H71" s="1">
-        <v>-1.935736258314968</v>
+        <v>-2.226505590226691</v>
       </c>
       <c r="I71" s="1">
-        <v>-1.6767056119548771</v>
+        <v>-1.9635611698208491</v>
       </c>
       <c r="J71" s="1">
-        <v>-1.879057704032683</v>
+        <v>-2.1386398782242901</v>
       </c>
       <c r="K71" s="1">
-        <v>-1.840730738851452</v>
+        <v>-1.73626051563493</v>
       </c>
       <c r="L71" s="1">
-        <v>-1.51537293699165</v>
+        <v>-1.3795587423597391</v>
       </c>
       <c r="M71" s="1">
-        <v>-1.8459358290108669</v>
+        <v>-2.0401219486823341</v>
       </c>
       <c r="N71" s="1">
-        <v>-1.610192925988934</v>
+        <v>-1.665133860732952</v>
       </c>
       <c r="O71" s="1">
-        <v>-1.8336887710900009</v>
+        <v>-2.0210509084637009</v>
       </c>
       <c r="P71" s="1">
-        <v>-1.7903942634426471</v>
+        <v>-1.539632554831903</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B72" s="1">
-        <v>-1.695358220046703</v>
+        <v>-2.1440209534625851</v>
       </c>
       <c r="C72" s="1">
-        <v>-3.6187817757014562</v>
+        <v>-2.388024539108315</v>
       </c>
       <c r="D72" s="1">
-        <v>-3.380657769378502</v>
+        <v>-2.6968119086090039</v>
       </c>
       <c r="E72" s="1">
-        <v>-3.7859826115241448</v>
+        <v>-4.1097224250607836</v>
       </c>
       <c r="F72" s="1">
-        <v>-1.9221286790169601</v>
+        <v>-3.814704882580918</v>
       </c>
       <c r="G72" s="1">
-        <v>-1.7357255203552031</v>
+        <v>-2.0884951543890899</v>
       </c>
       <c r="H72" s="1">
-        <v>-3.7242795113129028</v>
+        <v>-2.2963435310414582</v>
       </c>
       <c r="I72" s="1">
-        <v>-3.4339216614060022</v>
+        <v>-2.5318386644150048</v>
       </c>
       <c r="J72" s="1">
-        <v>-3.8929848628731341</v>
+        <v>-3.714332230114477</v>
       </c>
       <c r="K72" s="1">
-        <v>-1.9784856355818921</v>
+        <v>-3.3156648966755942</v>
       </c>
       <c r="L72" s="1">
-        <v>-1.5534453019540531</v>
+        <v>-1.350846192043587</v>
       </c>
       <c r="M72" s="1">
-        <v>-3.517607159321579</v>
+        <v>-2.230368212002491</v>
       </c>
       <c r="N72" s="1">
-        <v>-3.2261643034999632</v>
+        <v>-2.5423672881760369</v>
       </c>
       <c r="O72" s="1">
-        <v>-3.6384044258275128</v>
+        <v>-4.063876386521887</v>
       </c>
       <c r="P72" s="1">
-        <v>-1.809773612486471</v>
+        <v>-3.8838392763829712</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="B73" s="1">
-        <v>-1.657455023997584</v>
+        <v>-0.96591885408780576</v>
       </c>
       <c r="C73" s="1">
-        <v>-1.9514078771675969</v>
+        <v>-2.0985967889009212</v>
       </c>
       <c r="D73" s="1">
-        <v>-2.109071096671935</v>
+        <v>-2.1299269744381162</v>
       </c>
       <c r="E73" s="1">
-        <v>-2.1618766691501601</v>
+        <v>-2.3591654543784291</v>
       </c>
       <c r="F73" s="1">
-        <v>-1.383019993854891</v>
+        <v>-2.230281451948009</v>
       </c>
       <c r="G73" s="1">
-        <v>-1.679847693319338</v>
+        <v>-0.97547748094887343</v>
       </c>
       <c r="H73" s="1">
-        <v>-1.9797944518896431</v>
+        <v>-2.1168553197637761</v>
       </c>
       <c r="I73" s="1">
-        <v>-2.1397254385195912</v>
+        <v>-2.143978612589867</v>
       </c>
       <c r="J73" s="1">
-        <v>-2.1949051450095101</v>
+        <v>-2.3836265411400248</v>
       </c>
       <c r="K73" s="1">
-        <v>-1.406828737529513</v>
+        <v>-2.2432172096257701</v>
       </c>
       <c r="L73" s="1">
-        <v>-1.9783283736389889</v>
+        <v>-1.3206368724236941</v>
       </c>
       <c r="M73" s="1">
-        <v>-2.3550156203555068</v>
+        <v>-2.5080845965628882</v>
       </c>
       <c r="N73" s="1">
-        <v>-2.6760279757290339</v>
+        <v>-2.7003354979359262</v>
       </c>
       <c r="O73" s="1">
-        <v>-2.8210394357479291</v>
+        <v>-2.7644244179844928</v>
       </c>
       <c r="P73" s="1">
-        <v>-1.9976659120756199</v>
+        <v>-2.9417975245605028</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B74" s="1">
-        <v>-1.6293173723168961</v>
+        <v>-1.192237818950717</v>
       </c>
       <c r="C74" s="1">
-        <v>-1.365427558794164</v>
+        <v>-1.198982458962861</v>
       </c>
       <c r="D74" s="1">
-        <v>-1.6866321732639771</v>
+        <v>-1.3992780313268429</v>
       </c>
       <c r="E74" s="1">
-        <v>-1.4137663620256751</v>
+        <v>-1.1983516787842099</v>
       </c>
       <c r="F74" s="1">
-        <v>-1.398228579418036</v>
+        <v>-1.249001860060091</v>
       </c>
       <c r="G74" s="1">
-        <v>-1.637557280893968</v>
+        <v>-1.20361905488681</v>
       </c>
       <c r="H74" s="1">
-        <v>-1.3875962365464729</v>
+        <v>-1.2103023743562309</v>
       </c>
       <c r="I74" s="1">
-        <v>-1.680904750297658</v>
+        <v>-1.4134931827095301</v>
       </c>
       <c r="J74" s="1">
-        <v>-1.4204701037768741</v>
+        <v>-1.2125424967909451</v>
       </c>
       <c r="K74" s="1">
-        <v>-1.43028547773175</v>
+        <v>-1.264289775748374</v>
       </c>
       <c r="L74" s="1">
-        <v>-0.62242874360369238</v>
+        <v>-1.2836338561807441</v>
       </c>
       <c r="M74" s="1">
-        <v>-0.59065959356556774</v>
+        <v>-1.1974531307240139</v>
       </c>
       <c r="N74" s="1">
-        <v>-0.75249018547434265</v>
+        <v>-1.5846425942417941</v>
       </c>
       <c r="O74" s="1">
-        <v>-0.63551590544195435</v>
+        <v>-1.512830284714106</v>
       </c>
       <c r="P74" s="1">
-        <v>-0.80030614074292117</v>
+        <v>-1.659545312759739</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1">
-        <v>-1.5783802083640679</v>
+        <v>-0.1124867695709626</v>
       </c>
       <c r="C75" s="1">
-        <v>-2.536235745330913</v>
+        <v>-0.46558272916535498</v>
       </c>
       <c r="D75" s="1">
-        <v>-2.000167701357694</v>
+        <v>-0.4432907522413031</v>
       </c>
       <c r="E75" s="1">
-        <v>-2.1365751597166049</v>
+        <v>-0.47166877991953549</v>
       </c>
       <c r="F75" s="1">
-        <v>-1.938948882599254</v>
+        <v>-0.49740609794870788</v>
       </c>
       <c r="G75" s="1">
-        <v>-1.588904676021945</v>
+        <v>-0.216706104160898</v>
       </c>
       <c r="H75" s="1">
-        <v>-2.5378363471160972</v>
+        <v>-0.54617642847752157</v>
       </c>
       <c r="I75" s="1">
-        <v>-1.962296252833063</v>
+        <v>-0.51390274794594559</v>
       </c>
       <c r="J75" s="1">
-        <v>-2.0768466952866751</v>
+        <v>-0.50403309433503241</v>
       </c>
       <c r="K75" s="1">
-        <v>-1.7912444512977159</v>
+        <v>-0.51954698831144386</v>
       </c>
       <c r="L75" s="1">
-        <v>-0.34971615276849372</v>
+        <v>-1.2645911860684509</v>
       </c>
       <c r="M75" s="1">
-        <v>-2.4703104623582179</v>
+        <v>-1.9880114306337471</v>
       </c>
       <c r="N75" s="1">
-        <v>-1.255864275640707</v>
+        <v>-1.8710853689366089</v>
       </c>
       <c r="O75" s="1">
-        <v>-1.5253119879816071</v>
+        <v>-1.9657047345188849</v>
       </c>
       <c r="P75" s="1">
-        <v>-0.74442839501936897</v>
+        <v>-1.8912119752345999</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="B76" s="1">
-        <v>-1.544177149764185</v>
+        <v>-1.718712542533287</v>
       </c>
       <c r="C76" s="1">
-        <v>-2.2971934552283022</v>
+        <v>-1.927280604364497</v>
       </c>
       <c r="D76" s="1">
-        <v>-2.1373514828764941</v>
+        <v>-1.62711101926052</v>
       </c>
       <c r="E76" s="1">
-        <v>-1.840749611961908</v>
+        <v>-1.5230695600145321</v>
       </c>
       <c r="F76" s="1">
-        <v>-1.8594946756713919</v>
+        <v>-1.562478572116565</v>
       </c>
       <c r="G76" s="1">
-        <v>-1.5631945714495761</v>
+        <v>-1.7290229265123891</v>
       </c>
       <c r="H76" s="1">
-        <v>-2.3217214764451701</v>
+        <v>-1.9326545344800481</v>
       </c>
       <c r="I76" s="1">
-        <v>-2.1649586544963588</v>
+        <v>-1.6242546150428709</v>
       </c>
       <c r="J76" s="1">
-        <v>-1.866893871656123</v>
+        <v>-1.5266292569137561</v>
       </c>
       <c r="K76" s="1">
-        <v>-1.885783078239754</v>
+        <v>-1.5515907511985241</v>
       </c>
       <c r="L76" s="1">
-        <v>-1.532735633848894</v>
+        <v>-1.2499512533919881</v>
       </c>
       <c r="M76" s="1">
-        <v>-2.264751400123981</v>
+        <v>-1.583708419828237</v>
       </c>
       <c r="N76" s="1">
-        <v>-2.103484049012625</v>
+        <v>-1.178178352303098</v>
       </c>
       <c r="O76" s="1">
-        <v>-1.7798482935144231</v>
+        <v>-1.321569008085739</v>
       </c>
       <c r="P76" s="1">
-        <v>-1.7731718396697309</v>
+        <v>-1.086855797675145</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B77" s="1">
-        <v>-1.5329314641816041</v>
+        <v>-0.80225510273079748</v>
       </c>
       <c r="C77" s="1">
-        <v>-1.752205510695557</v>
+        <v>-0.99491188616687765</v>
       </c>
       <c r="D77" s="1">
-        <v>-1.245503598109992</v>
+        <v>-1.017793240925726</v>
       </c>
       <c r="E77" s="1">
-        <v>-1.2835417664891859</v>
+        <v>-1.4364669171190689</v>
       </c>
       <c r="F77" s="1">
-        <v>-1.5257009786170559</v>
+        <v>-1.590116937440252</v>
       </c>
       <c r="G77" s="1">
-        <v>-1.546678200335897</v>
+        <v>-0.82222966815394305</v>
       </c>
       <c r="H77" s="1">
-        <v>-1.7646798148694081</v>
+        <v>-1.007390875986913</v>
       </c>
       <c r="I77" s="1">
-        <v>-1.2669839311568201</v>
+        <v>-1.0337562098573281</v>
       </c>
       <c r="J77" s="1">
-        <v>-1.2941609271853129</v>
+        <v>-1.460106682423667</v>
       </c>
       <c r="K77" s="1">
-        <v>-1.527499116387844</v>
+        <v>-1.6209403367240161</v>
       </c>
       <c r="L77" s="1">
-        <v>-1.0245526557794411</v>
+        <v>-1.2448358242052411</v>
       </c>
       <c r="M77" s="1">
-        <v>-1.223335235051707</v>
+        <v>-1.871791833659294</v>
       </c>
       <c r="N77" s="1">
-        <v>-0.71189890292875735</v>
+        <v>-1.874630017643284</v>
       </c>
       <c r="O77" s="1">
-        <v>-0.56922398060114809</v>
+        <v>-2.7877834240238428</v>
       </c>
       <c r="P77" s="1">
-        <v>-0.74001210148459173</v>
+        <v>-3.2530708451771519</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B78" s="1">
-        <v>-1.5317341237107991</v>
+        <v>-1.3632851653028699</v>
       </c>
       <c r="C78" s="1">
-        <v>-2.7555565094137302</v>
+        <v>-2.0088160202457011</v>
       </c>
       <c r="D78" s="1">
-        <v>-1.549104595881502</v>
+        <v>-2.3283347005124839</v>
       </c>
       <c r="E78" s="1">
-        <v>-1.819972307878158</v>
+        <v>-2.2106965225149482</v>
       </c>
       <c r="F78" s="1">
-        <v>-1.3745332936811461</v>
+        <v>-1.9986528631705629</v>
       </c>
       <c r="G78" s="1">
-        <v>-1.587737075175258</v>
+        <v>-1.3752119066466559</v>
       </c>
       <c r="H78" s="1">
-        <v>-2.850791903784514</v>
+        <v>-2.0211285435481599</v>
       </c>
       <c r="I78" s="1">
-        <v>-1.65143154946537</v>
+        <v>-2.338649977912334</v>
       </c>
       <c r="J78" s="1">
-        <v>-1.920084656270016</v>
+        <v>-2.2264040344026488</v>
       </c>
       <c r="K78" s="1">
-        <v>-1.472956654755851</v>
+        <v>-2.01593414483516</v>
       </c>
       <c r="L78" s="1">
-        <v>-1.6316783340897789</v>
+        <v>-1.1909382596028359</v>
       </c>
       <c r="M78" s="1">
-        <v>-2.9467149089747728</v>
+        <v>-1.9543855271821331</v>
       </c>
       <c r="N78" s="1">
-        <v>-1.6355162880485301</v>
+        <v>-2.4118938138515631</v>
       </c>
       <c r="O78" s="1">
-        <v>-1.9975754731262569</v>
+        <v>-2.418183598710713</v>
       </c>
       <c r="P78" s="1">
-        <v>-1.5933132715926299</v>
+        <v>-2.247972895929244</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="B79" s="1">
-        <v>-1.5076495537654431</v>
+        <v>-0.67496221269932977</v>
       </c>
       <c r="C79" s="1">
-        <v>-2.1609248563083709</v>
+        <v>-0.80291765930175074</v>
       </c>
       <c r="D79" s="1">
-        <v>-1.684214713384693</v>
+        <v>-0.81150685834581127</v>
       </c>
       <c r="E79" s="1">
-        <v>-1.8609631624651839</v>
+        <v>-1.037913398652597</v>
       </c>
       <c r="F79" s="1">
-        <v>-1.8004744246788871</v>
+        <v>-0.95775970500023144</v>
       </c>
       <c r="G79" s="1">
-        <v>-1.526402096460193</v>
+        <v>-0.69354246384017459</v>
       </c>
       <c r="H79" s="1">
-        <v>-2.186908199954023</v>
+        <v>-0.81478306731037287</v>
       </c>
       <c r="I79" s="1">
-        <v>-1.7045839150673261</v>
+        <v>-0.821503266767733</v>
       </c>
       <c r="J79" s="1">
-        <v>-1.885843032296838</v>
+        <v>-1.0452281365395859</v>
       </c>
       <c r="K79" s="1">
-        <v>-1.823515731832337</v>
+        <v>-0.95431938954018358</v>
       </c>
       <c r="L79" s="1">
-        <v>-1.465809706258121</v>
+        <v>-1.184323817428647</v>
       </c>
       <c r="M79" s="1">
-        <v>-2.223866526492845</v>
+        <v>-1.6396405851203131</v>
       </c>
       <c r="N79" s="1">
-        <v>-1.6602057911777981</v>
+        <v>-1.5436268775458239</v>
       </c>
       <c r="O79" s="1">
-        <v>-1.918751612561379</v>
+        <v>-1.789715121048929</v>
       </c>
       <c r="P79" s="1">
-        <v>-1.9145049310002189</v>
+        <v>-1.4961776282049251</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>-1.468028273490954</v>
+        <v>-1.219087655694479</v>
       </c>
       <c r="C80" s="1">
-        <v>-1.7979066131998289</v>
+        <v>-1.382375272690237</v>
       </c>
       <c r="D80" s="1">
-        <v>-1.504505934397439</v>
+        <v>-1.6614033252667291</v>
       </c>
       <c r="E80" s="1">
-        <v>-1.5690736504904701</v>
+        <v>-2.2360204175863179</v>
       </c>
       <c r="F80" s="1">
-        <v>-1.2061443776999241</v>
+        <v>-1.983750483378466</v>
       </c>
       <c r="G80" s="1">
-        <v>-1.481911870869439</v>
+        <v>-1.436870363730806</v>
       </c>
       <c r="H80" s="1">
-        <v>-1.813674300747381</v>
+        <v>-1.6411467481329309</v>
       </c>
       <c r="I80" s="1">
-        <v>-1.5167895666933531</v>
+        <v>-1.863703826655867</v>
       </c>
       <c r="J80" s="1">
-        <v>-1.581048552721227</v>
+        <v>-2.5386148825041892</v>
       </c>
       <c r="K80" s="1">
-        <v>-1.215219912389069</v>
+        <v>-2.3949068975089429</v>
       </c>
       <c r="L80" s="1">
-        <v>-1.651488547250656</v>
+        <v>-1.1815451101167029</v>
       </c>
       <c r="M80" s="1">
-        <v>-2.467532111471419</v>
+        <v>-1.172341309686342</v>
       </c>
       <c r="N80" s="1">
-        <v>-2.0035273340880702</v>
+        <v>-0.98655948365699242</v>
       </c>
       <c r="O80" s="1">
-        <v>-2.1192293704754528</v>
+        <v>-1.00058318982157</v>
       </c>
       <c r="P80" s="1">
-        <v>-1.782405985529216</v>
+        <v>-0.92674415462939164</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B81" s="1">
-        <v>-1.427911568352322</v>
+        <v>-1.9467418430852801</v>
       </c>
       <c r="C81" s="1">
-        <v>-1.57664451301746</v>
+        <v>-1.94252470311462</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.7231609905866481</v>
+        <v>-2.3752541605298192</v>
       </c>
       <c r="E81" s="1">
-        <v>-1.7814533872620399</v>
+        <v>-2.5633641042320301</v>
       </c>
       <c r="F81" s="1">
-        <v>-2.00373861949778</v>
+        <v>-2.50477943906724</v>
       </c>
       <c r="G81" s="1">
-        <v>-1.4360813477077441</v>
+        <v>-1.8877482434854389</v>
       </c>
       <c r="H81" s="1">
-        <v>-1.5808221391611641</v>
+        <v>-1.829831159429717</v>
       </c>
       <c r="I81" s="1">
-        <v>-1.7268738721424519</v>
+        <v>-2.0912272891758992</v>
       </c>
       <c r="J81" s="1">
-        <v>-1.7895889210633831</v>
+        <v>-2.0461849075398049</v>
       </c>
       <c r="K81" s="1">
-        <v>-2.008610251899277</v>
+        <v>-1.742386638721301</v>
       </c>
       <c r="L81" s="1">
-        <v>-1.399745114561582</v>
+        <v>-1.1370948092716919</v>
       </c>
       <c r="M81" s="1">
-        <v>-1.580410060953686</v>
+        <v>-2.1492446735482118</v>
       </c>
       <c r="N81" s="1">
-        <v>-1.7578833570867129</v>
+        <v>-2.1276273266454111</v>
       </c>
       <c r="O81" s="1">
-        <v>-1.8195121298346859</v>
+        <v>-2.1440125516151669</v>
       </c>
       <c r="P81" s="1">
-        <v>-2.0343556790292312</v>
+        <v>-1.965270382402567</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="1">
-        <v>-1.405860278311631</v>
+        <v>7.5226417018104799E-2</v>
       </c>
       <c r="C82" s="1">
-        <v>-1.8029558223805371</v>
+        <v>0.46452659083169828</v>
       </c>
       <c r="D82" s="1">
-        <v>-1.6487257608581529</v>
+        <v>4.9066201154519998E-2</v>
       </c>
       <c r="E82" s="1">
-        <v>-1.537996986652431</v>
+        <v>0.56214674803582332</v>
       </c>
       <c r="F82" s="1">
-        <v>-1.476733246354947</v>
+        <v>0.82404765749445619</v>
       </c>
       <c r="G82" s="1">
-        <v>-1.42175936852428</v>
+        <v>-0.1172985674627936</v>
       </c>
       <c r="H82" s="1">
-        <v>-1.8280937773264141</v>
+        <v>1.19164756833547E-2</v>
       </c>
       <c r="I82" s="1">
-        <v>-1.673495435979047</v>
+        <v>-0.46479738264193038</v>
       </c>
       <c r="J82" s="1">
-        <v>-1.568425237457858</v>
+        <v>-0.1718034409799255</v>
       </c>
       <c r="K82" s="1">
-        <v>-1.507395492138639</v>
+        <v>-0.17047114547948131</v>
       </c>
       <c r="L82" s="1">
-        <v>-1.0769474474175591</v>
+        <v>-1.1101791459605199</v>
       </c>
       <c r="M82" s="1">
-        <v>-1.656064448380244</v>
+        <v>-0.76742404682901644</v>
       </c>
       <c r="N82" s="1">
-        <v>-1.415854288835672</v>
+        <v>-1.1477882712587011</v>
       </c>
       <c r="O82" s="1">
-        <v>-1.335849088880031</v>
+        <v>-0.74112701429268502</v>
       </c>
       <c r="P82" s="1">
-        <v>-1.230218675313117</v>
+        <v>-0.38894723903810141</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B83" s="1">
-        <v>-1.397979561031327</v>
+        <v>-1.405860278311631</v>
       </c>
       <c r="C83" s="1">
-        <v>-2.212286164241807</v>
+        <v>-1.8029558223805371</v>
       </c>
       <c r="D83" s="1">
-        <v>-2.2142616647207731</v>
+        <v>-1.6487257608581529</v>
       </c>
       <c r="E83" s="1">
-        <v>-1.677668310436919</v>
+        <v>-1.537996986652431</v>
       </c>
       <c r="F83" s="1">
-        <v>-1.5486971432194601</v>
+        <v>-1.476733246354947</v>
       </c>
       <c r="G83" s="1">
-        <v>-1.412120743607052</v>
+        <v>-1.42175936852428</v>
       </c>
       <c r="H83" s="1">
-        <v>-2.231212646551489</v>
+        <v>-1.8280937773264141</v>
       </c>
       <c r="I83" s="1">
-        <v>-2.2331843247262642</v>
+        <v>-1.673495435979047</v>
       </c>
       <c r="J83" s="1">
-        <v>-1.692435076335566</v>
+        <v>-1.568425237457858</v>
       </c>
       <c r="K83" s="1">
-        <v>-1.562465577606801</v>
+        <v>-1.507395492138639</v>
       </c>
       <c r="L83" s="1">
-        <v>-1.5089228742455221</v>
+        <v>-1.0769474474175591</v>
       </c>
       <c r="M83" s="1">
-        <v>-2.6103937441208078</v>
+        <v>-1.656064448380244</v>
       </c>
       <c r="N83" s="1">
-        <v>-2.6863192372153271</v>
+        <v>-1.415854288835672</v>
       </c>
       <c r="O83" s="1">
-        <v>-2.276789066020855</v>
+        <v>-1.335849088880031</v>
       </c>
       <c r="P83" s="1">
-        <v>-2.049869537117865</v>
+        <v>-1.230218675313117</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>-1.3632851653028699</v>
+        <v>-0.69055110346204929</v>
       </c>
       <c r="C84" s="1">
-        <v>-2.0088160202457011</v>
+        <v>-0.78792007212678228</v>
       </c>
       <c r="D84" s="1">
-        <v>-2.3283347005124839</v>
+        <v>-0.64148833698830032</v>
       </c>
       <c r="E84" s="1">
-        <v>-2.2106965225149482</v>
+        <v>-0.80269020886012754</v>
       </c>
       <c r="F84" s="1">
-        <v>-1.9986528631705629</v>
+        <v>-0.75576767649288656</v>
       </c>
       <c r="G84" s="1">
-        <v>-1.3752119066466559</v>
+        <v>-0.73682847681608654</v>
       </c>
       <c r="H84" s="1">
-        <v>-2.0211285435481599</v>
+        <v>-0.8611474934459159</v>
       </c>
       <c r="I84" s="1">
-        <v>-2.338649977912334</v>
+        <v>-0.74111498160234401</v>
       </c>
       <c r="J84" s="1">
-        <v>-2.2264040344026488</v>
+        <v>-0.93859455080806631</v>
       </c>
       <c r="K84" s="1">
-        <v>-2.01593414483516</v>
+        <v>-0.89536929565563672</v>
       </c>
       <c r="L84" s="1">
-        <v>-1.1909382596028359</v>
+        <v>-1.067931518180375</v>
       </c>
       <c r="M84" s="1">
-        <v>-1.9543855271821331</v>
+        <v>-1.123050813225648</v>
       </c>
       <c r="N84" s="1">
-        <v>-2.4118938138515631</v>
+        <v>-0.95202343003268908</v>
       </c>
       <c r="O84" s="1">
-        <v>-2.418183598710713</v>
+        <v>-1.016596000958331</v>
       </c>
       <c r="P84" s="1">
-        <v>-2.247972895929244</v>
+        <v>-0.96085293854441267</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B85" s="1">
-        <v>-1.340768426039542</v>
+        <v>-1.9409612625666319</v>
       </c>
       <c r="C85" s="1">
-        <v>-1.587178495076911</v>
+        <v>-2.1071210093777291</v>
       </c>
       <c r="D85" s="1">
-        <v>-1.3006508176343561</v>
+        <v>-1.8855645128306291</v>
       </c>
       <c r="E85" s="1">
-        <v>-1.5782587251015809</v>
+        <v>-1.8663648809647131</v>
       </c>
       <c r="F85" s="1">
-        <v>-1.4587895739887291</v>
+        <v>-1.7876414739611259</v>
       </c>
       <c r="G85" s="1">
-        <v>-1.359527650721194</v>
+        <v>-1.9333367987250629</v>
       </c>
       <c r="H85" s="1">
-        <v>-1.6150032754608321</v>
+        <v>-2.0974564034331369</v>
       </c>
       <c r="I85" s="1">
-        <v>-1.3320160609605589</v>
+        <v>-1.8569850079335779</v>
       </c>
       <c r="J85" s="1">
-        <v>-1.6303558916002989</v>
+        <v>-1.817932924916801</v>
       </c>
       <c r="K85" s="1">
-        <v>-1.5217486972336529</v>
+        <v>-1.7193562746019491</v>
       </c>
       <c r="L85" s="1">
-        <v>-0.68288013578018691</v>
+        <v>-1.066141282049387</v>
       </c>
       <c r="M85" s="1">
-        <v>-0.91291486081417772</v>
+        <v>-1.6702226238969009</v>
       </c>
       <c r="N85" s="1">
-        <v>-0.43863420779432782</v>
+        <v>-1.444758435675557</v>
       </c>
       <c r="O85" s="1">
-        <v>-0.83693470672252546</v>
+        <v>-1.408027280301015</v>
       </c>
       <c r="P85" s="1">
-        <v>-0.68783251240633669</v>
+        <v>-1.304707360608282</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B86" s="1">
-        <v>-1.2792838000405049</v>
+        <v>-1.1151003112432489</v>
       </c>
       <c r="C86" s="1">
-        <v>-3.492849253402166</v>
+        <v>-1.459182915990457</v>
       </c>
       <c r="D86" s="1">
-        <v>-3.0049603952053512</v>
+        <v>-1.7335822917207659</v>
       </c>
       <c r="E86" s="1">
-        <v>-2.4843790937937249</v>
+        <v>-2.423470584580051</v>
       </c>
       <c r="F86" s="1">
-        <v>-2.9919752503307619</v>
+        <v>-1.805793860548615</v>
       </c>
       <c r="G86" s="1">
-        <v>-1.280025171996926</v>
+        <v>-1.133464337833556</v>
       </c>
       <c r="H86" s="1">
-        <v>-3.481972056266426</v>
+        <v>-1.481903219364727</v>
       </c>
       <c r="I86" s="1">
-        <v>-3.0097742277557651</v>
+        <v>-1.7597879240441809</v>
       </c>
       <c r="J86" s="1">
-        <v>-2.4608626553199771</v>
+        <v>-2.449425225735907</v>
       </c>
       <c r="K86" s="1">
-        <v>-2.9513802432008651</v>
+        <v>-1.820312556581799</v>
       </c>
       <c r="L86" s="1">
-        <v>-0.948139390882203</v>
+        <v>-1.040853048983039</v>
       </c>
       <c r="M86" s="1">
-        <v>-3.3433090101660952</v>
+        <v>-1.4061827391715629</v>
       </c>
       <c r="N86" s="1">
-        <v>-2.8962574384060868</v>
+        <v>-1.7268330319671299</v>
       </c>
       <c r="O86" s="1">
-        <v>-2.3950771200879748</v>
+        <v>-2.3372708052902058</v>
       </c>
       <c r="P86" s="1">
-        <v>-2.9341967552874979</v>
+        <v>-1.768857874389961</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B87" s="1">
-        <v>-1.2280311960597441</v>
+        <v>-1.5329314641816041</v>
       </c>
       <c r="C87" s="1">
-        <v>-1.337586858025938</v>
+        <v>-1.752205510695557</v>
       </c>
       <c r="D87" s="1">
-        <v>-1.436740103999284</v>
+        <v>-1.245503598109992</v>
       </c>
       <c r="E87" s="1">
-        <v>-1.2197974641233491</v>
+        <v>-1.2835417664891859</v>
       </c>
       <c r="F87" s="1">
-        <v>-1.958571009451112</v>
+        <v>-1.5257009786170559</v>
       </c>
       <c r="G87" s="1">
-        <v>-1.2273901902590021</v>
+        <v>-1.546678200335897</v>
       </c>
       <c r="H87" s="1">
-        <v>-1.3330512688187841</v>
+        <v>-1.7646798148694081</v>
       </c>
       <c r="I87" s="1">
-        <v>-1.4344952176814381</v>
+        <v>-1.2669839311568201</v>
       </c>
       <c r="J87" s="1">
-        <v>-1.2633036913529949</v>
+        <v>-1.2941609271853129</v>
       </c>
       <c r="K87" s="1">
-        <v>-2.0101837843667019</v>
+        <v>-1.527499116387844</v>
       </c>
       <c r="L87" s="1">
-        <v>2.2694009221221019</v>
+        <v>-1.0245526557794411</v>
       </c>
       <c r="M87" s="1">
-        <v>1.883486702225547</v>
+        <v>-1.223335235051707</v>
       </c>
       <c r="N87" s="1">
-        <v>1.9182407949206459</v>
+        <v>-0.71189890292875735</v>
       </c>
       <c r="O87" s="1">
-        <v>1.600715388311883</v>
+        <v>-0.56922398060114809</v>
       </c>
       <c r="P87" s="1">
-        <v>1.3911201913560181</v>
+        <v>-0.74001210148459173</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B88" s="1">
-        <v>-1.219087655694479</v>
+        <v>-2.1064549117158982</v>
       </c>
       <c r="C88" s="1">
-        <v>-1.382375272690237</v>
+        <v>-1.536963186704903</v>
       </c>
       <c r="D88" s="1">
-        <v>-1.6614033252667291</v>
+        <v>-1.806231846932169</v>
       </c>
       <c r="E88" s="1">
-        <v>-2.2360204175863179</v>
+        <v>-0.81601948523769863</v>
       </c>
       <c r="F88" s="1">
-        <v>-1.983750483378466</v>
+        <v>-0.43008870620037248</v>
       </c>
       <c r="G88" s="1">
-        <v>-1.436870363730806</v>
+        <v>-2.1054011358180258</v>
       </c>
       <c r="H88" s="1">
-        <v>-1.6411467481329309</v>
+        <v>-1.577822913992952</v>
       </c>
       <c r="I88" s="1">
-        <v>-1.863703826655867</v>
+        <v>-1.9151577264524671</v>
       </c>
       <c r="J88" s="1">
-        <v>-2.5386148825041892</v>
+        <v>-1.6481055159026401</v>
       </c>
       <c r="K88" s="1">
-        <v>-2.3949068975089429</v>
+        <v>-0.97724686865175037</v>
       </c>
       <c r="L88" s="1">
-        <v>-1.1815451101167029</v>
+        <v>-0.99268522702182715</v>
       </c>
       <c r="M88" s="1">
-        <v>-1.172341309686342</v>
+        <v>-0.63307658120116816</v>
       </c>
       <c r="N88" s="1">
-        <v>-0.98655948365699242</v>
+        <v>-0.98557235807551824</v>
       </c>
       <c r="O88" s="1">
-        <v>-1.00058318982157</v>
+        <v>-0.51220846294648004</v>
       </c>
       <c r="P88" s="1">
-        <v>-0.92674415462939164</v>
+        <v>3.9593161610649002E-3</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B89" s="1">
-        <v>-1.2177870861509901</v>
+        <v>-1.2792838000405049</v>
       </c>
       <c r="C89" s="1">
-        <v>-1.0901844241829961</v>
+        <v>-3.492849253402166</v>
       </c>
       <c r="D89" s="1">
-        <v>-1.168182312498379</v>
+        <v>-3.0049603952053512</v>
       </c>
       <c r="E89" s="1">
-        <v>-1.5892111978347581</v>
+        <v>-2.4843790937937249</v>
       </c>
       <c r="F89" s="1">
-        <v>-1.858436871162418</v>
+        <v>-2.9919752503307619</v>
       </c>
       <c r="G89" s="1">
-        <v>-1.215032066854562</v>
+        <v>-1.280025171996926</v>
       </c>
       <c r="H89" s="1">
-        <v>-1.1008497674827551</v>
+        <v>-3.481972056266426</v>
       </c>
       <c r="I89" s="1">
-        <v>-1.204790465836143</v>
+        <v>-3.0097742277557651</v>
       </c>
       <c r="J89" s="1">
-        <v>-1.674464705550244</v>
+        <v>-2.4608626553199771</v>
       </c>
       <c r="K89" s="1">
-        <v>-1.9746657638730889</v>
+        <v>-2.9513802432008651</v>
       </c>
       <c r="L89" s="1">
-        <v>0.84084819189750559</v>
+        <v>-0.948139390882203</v>
       </c>
       <c r="M89" s="1">
-        <v>0.38368653134556591</v>
+        <v>-3.3433090101660952</v>
       </c>
       <c r="N89" s="1">
-        <v>0.12647425324793979</v>
+        <v>-2.8962574384060868</v>
       </c>
       <c r="O89" s="1">
-        <v>-0.56673424448604037</v>
+        <v>-2.3950771200879748</v>
       </c>
       <c r="P89" s="1">
-        <v>-0.85580129225960189</v>
+        <v>-2.9341967552874979</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B90" s="1">
-        <v>-1.192237818950717</v>
+        <v>-0.78360072393243019</v>
       </c>
       <c r="C90" s="1">
-        <v>-1.198982458962861</v>
+        <v>-1.5061247447828361</v>
       </c>
       <c r="D90" s="1">
-        <v>-1.3992780313268429</v>
+        <v>-2.2597707264438149</v>
       </c>
       <c r="E90" s="1">
-        <v>-1.1983516787842099</v>
+        <v>-1.836968321400527</v>
       </c>
       <c r="F90" s="1">
-        <v>-1.249001860060091</v>
+        <v>-2.8255046441802798</v>
       </c>
       <c r="G90" s="1">
-        <v>-1.20361905488681</v>
+        <v>-0.79547159683378665</v>
       </c>
       <c r="H90" s="1">
-        <v>-1.2103023743562309</v>
+        <v>-1.523138656058425</v>
       </c>
       <c r="I90" s="1">
-        <v>-1.4134931827095301</v>
+        <v>-2.2764117652300082</v>
       </c>
       <c r="J90" s="1">
-        <v>-1.2125424967909451</v>
+        <v>-1.809057933885458</v>
       </c>
       <c r="K90" s="1">
-        <v>-1.264289775748374</v>
+        <v>-2.715015431396099</v>
       </c>
       <c r="L90" s="1">
-        <v>-1.2836338561807441</v>
+        <v>-0.93394773330219949</v>
       </c>
       <c r="M90" s="1">
-        <v>-1.1974531307240139</v>
+        <v>-1.378675024309072</v>
       </c>
       <c r="N90" s="1">
-        <v>-1.5846425942417941</v>
+        <v>-2.3589857872388138</v>
       </c>
       <c r="O90" s="1">
-        <v>-1.512830284714106</v>
+        <v>-1.4227277683080071</v>
       </c>
       <c r="P90" s="1">
-        <v>-1.659545312759739</v>
+        <v>-2.3727556905156528</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B91" s="1">
-        <v>-1.1423967591797679</v>
+        <v>-0.51603865820836503</v>
       </c>
       <c r="C91" s="1">
-        <v>-0.55887804766342875</v>
+        <v>-0.83382134920428075</v>
       </c>
       <c r="D91" s="1">
-        <v>0.73079547124066668</v>
+        <v>-0.81255518672680327</v>
       </c>
       <c r="E91" s="1">
-        <v>0.69306740753864915</v>
+        <v>-0.80585383830125701</v>
       </c>
       <c r="F91" s="1">
-        <v>1.215594832651109</v>
+        <v>-1.687336840502508</v>
       </c>
       <c r="G91" s="1">
-        <v>-0.97844371175488698</v>
+        <v>-0.53314615018184164</v>
       </c>
       <c r="H91" s="1">
-        <v>0.26173233445560928</v>
+        <v>-0.78858221197655765</v>
       </c>
       <c r="I91" s="1">
-        <v>1.711536819454311</v>
+        <v>-0.73690353517933416</v>
       </c>
       <c r="J91" s="1">
-        <v>1.5618616347263581</v>
+        <v>-0.75223004475698529</v>
       </c>
       <c r="K91" s="1">
-        <v>2.1153149180472299</v>
+        <v>-1.6055298341942199</v>
       </c>
       <c r="L91" s="1">
-        <v>-2.8471298912157188</v>
+        <v>-0.90760251531968317</v>
       </c>
       <c r="M91" s="1">
-        <v>-3.1349018230374042</v>
+        <v>-0.68154611094852113</v>
       </c>
       <c r="N91" s="1">
-        <v>-1.494768432893492</v>
+        <v>-0.87807171084880264</v>
       </c>
       <c r="O91" s="1">
-        <v>-2.0028500448129969</v>
+        <v>-1.3536811482457369</v>
       </c>
       <c r="P91" s="1">
-        <v>-1.518765729068112</v>
+        <v>-0.98636987957546185</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="B92" s="1">
-        <v>-1.1151003112432489</v>
+        <v>-0.87455673030087155</v>
       </c>
       <c r="C92" s="1">
-        <v>-1.459182915990457</v>
+        <v>-1.7585399715667629</v>
       </c>
       <c r="D92" s="1">
-        <v>-1.7335822917207659</v>
+        <v>-2.0009733794987108</v>
       </c>
       <c r="E92" s="1">
-        <v>-2.423470584580051</v>
+        <v>-2.9198406577590248</v>
       </c>
       <c r="F92" s="1">
-        <v>-1.805793860548615</v>
+        <v>-2.5485027638225501</v>
       </c>
       <c r="G92" s="1">
-        <v>-1.133464337833556</v>
+        <v>-0.8996328899643492</v>
       </c>
       <c r="H92" s="1">
-        <v>-1.481903219364727</v>
+        <v>-1.7787472911811331</v>
       </c>
       <c r="I92" s="1">
-        <v>-1.7597879240441809</v>
+        <v>-2.0151669347699581</v>
       </c>
       <c r="J92" s="1">
-        <v>-2.449425225735907</v>
+        <v>-2.898422506255327</v>
       </c>
       <c r="K92" s="1">
-        <v>-1.820312556581799</v>
+        <v>-2.519451742459927</v>
       </c>
       <c r="L92" s="1">
-        <v>-1.040853048983039</v>
+        <v>-0.87501417938583492</v>
       </c>
       <c r="M92" s="1">
-        <v>-1.4061827391715629</v>
+        <v>-1.6976305131959599</v>
       </c>
       <c r="N92" s="1">
-        <v>-1.7268330319671299</v>
+        <v>-1.954913247787472</v>
       </c>
       <c r="O92" s="1">
-        <v>-2.3372708052902058</v>
+        <v>-3.0406981541023552</v>
       </c>
       <c r="P92" s="1">
-        <v>-1.768857874389961</v>
+        <v>-2.389363465469168</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B93" s="1">
-        <v>-1.033008297344389</v>
+        <v>-2.0945130038929398</v>
       </c>
       <c r="C93" s="1">
-        <v>-2.1086972876958701</v>
+        <v>-1.9637181997306721</v>
       </c>
       <c r="D93" s="1">
-        <v>-1.567377655488897</v>
+        <v>-1.3126987191697399</v>
       </c>
       <c r="E93" s="1">
-        <v>-1.5420742911978129</v>
+        <v>-1.5937628289712891</v>
       </c>
       <c r="F93" s="1">
-        <v>-1.878243099469624</v>
+        <v>-1.1866602351657241</v>
       </c>
       <c r="G93" s="1">
-        <v>-1.040868098987664</v>
+        <v>-1.882683985826958</v>
       </c>
       <c r="H93" s="1">
-        <v>-2.1217523405341678</v>
+        <v>-1.665094976483779</v>
       </c>
       <c r="I93" s="1">
-        <v>-1.560398962915525</v>
+        <v>-1.045920854909574</v>
       </c>
       <c r="J93" s="1">
-        <v>-1.525858834959787</v>
+        <v>-1.0587990704435031</v>
       </c>
       <c r="K93" s="1">
-        <v>-1.854542807730265</v>
+        <v>-0.52192503494037235</v>
       </c>
       <c r="L93" s="1">
-        <v>-0.63316867776420638</v>
+        <v>-0.8273292812470936</v>
       </c>
       <c r="M93" s="1">
-        <v>-2.1612331416144039</v>
+        <v>-2.049345025967261</v>
       </c>
       <c r="N93" s="1">
-        <v>-1.3036720096111329</v>
+        <v>-1.886143695779267</v>
       </c>
       <c r="O93" s="1">
-        <v>-1.286476314981243</v>
+        <v>-0.55895018829544085</v>
       </c>
       <c r="P93" s="1">
-        <v>-1.6330962766924471</v>
+        <v>0.150426732566324</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
@@ -5643,2807 +5623,2807 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B95" s="1">
-        <v>-0.98682998483883178</v>
+        <v>-1.340768426039542</v>
       </c>
       <c r="C95" s="1">
-        <v>-1.77818482759314</v>
+        <v>-1.587178495076911</v>
       </c>
       <c r="D95" s="1">
-        <v>-1.8673839510883159</v>
+        <v>-1.3006508176343561</v>
       </c>
       <c r="E95" s="1">
-        <v>-1.6820262870348579</v>
+        <v>-1.5782587251015809</v>
       </c>
       <c r="F95" s="1">
-        <v>-1.8466120259450109</v>
+        <v>-1.4587895739887291</v>
       </c>
       <c r="G95" s="1">
-        <v>-0.99971692502690201</v>
+        <v>-1.359527650721194</v>
       </c>
       <c r="H95" s="1">
-        <v>-1.810861991611868</v>
+        <v>-1.6150032754608321</v>
       </c>
       <c r="I95" s="1">
-        <v>-1.8960390922881509</v>
+        <v>-1.3320160609605589</v>
       </c>
       <c r="J95" s="1">
-        <v>-1.7132992736353421</v>
+        <v>-1.6303558916002989</v>
       </c>
       <c r="K95" s="1">
-        <v>-1.850880144652532</v>
+        <v>-1.5217486972336529</v>
       </c>
       <c r="L95" s="1">
-        <v>-0.50704249395414147</v>
+        <v>-0.68288013578018691</v>
       </c>
       <c r="M95" s="1">
-        <v>-1.5513412673643461</v>
+        <v>-0.91291486081417772</v>
       </c>
       <c r="N95" s="1">
-        <v>-1.5667302648753969</v>
+        <v>-0.43863420779432782</v>
       </c>
       <c r="O95" s="1">
-        <v>-1.389616176885252</v>
+        <v>-0.83693470672252546</v>
       </c>
       <c r="P95" s="1">
-        <v>-1.4083546156138891</v>
+        <v>-0.68783251240633669</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B96" s="1">
-        <v>-0.97851166843344595</v>
+        <v>-0.81005597930887951</v>
       </c>
       <c r="C96" s="1">
-        <v>-2.0773827306377992</v>
+        <v>-2.8288474548636549</v>
       </c>
       <c r="D96" s="1">
-        <v>-1.6772098684036461</v>
+        <v>-1.1776049649672959</v>
       </c>
       <c r="E96" s="1">
-        <v>-1.6388204683695959</v>
+        <v>-1.2530845949135501</v>
       </c>
       <c r="F96" s="1">
-        <v>-1.6524816564877161</v>
+        <v>-1.2771755095485491</v>
       </c>
       <c r="G96" s="1">
-        <v>-0.98795326485631463</v>
+        <v>-0.86149429218682982</v>
       </c>
       <c r="H96" s="1">
-        <v>-2.0959564618114248</v>
+        <v>-2.7883921468998731</v>
       </c>
       <c r="I96" s="1">
-        <v>-1.6997249462688639</v>
+        <v>-1.193328720708795</v>
       </c>
       <c r="J96" s="1">
-        <v>-1.6583570133046071</v>
+        <v>-1.5493778861879901</v>
       </c>
       <c r="K96" s="1">
-        <v>-1.664609099555824</v>
+        <v>-1.6017915230470181</v>
       </c>
       <c r="L96" s="1">
-        <v>0.52347975770368571</v>
+        <v>-0.6768619501774894</v>
       </c>
       <c r="M96" s="1">
-        <v>-1.4670466912278399</v>
+        <v>-2.2353099370837781</v>
       </c>
       <c r="N96" s="1">
-        <v>-0.90360226923199582</v>
+        <v>-1.73272055637958</v>
       </c>
       <c r="O96" s="1">
-        <v>-0.68702280870365817</v>
+        <v>-1.717923066581488</v>
       </c>
       <c r="P96" s="1">
-        <v>-0.45935249781337112</v>
+        <v>-1.880364914051244</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B97" s="1">
-        <v>-0.96591885408780576</v>
+        <v>-0.73531774852977927</v>
       </c>
       <c r="C97" s="1">
-        <v>-2.0985967889009212</v>
+        <v>-1.94747742318013</v>
       </c>
       <c r="D97" s="1">
-        <v>-2.1299269744381162</v>
+        <v>-1.836184984831553</v>
       </c>
       <c r="E97" s="1">
-        <v>-2.3591654543784291</v>
+        <v>-2.1223653127436819</v>
       </c>
       <c r="F97" s="1">
-        <v>-2.230281451948009</v>
+        <v>-1.904731109790663</v>
       </c>
       <c r="G97" s="1">
-        <v>-0.97547748094887343</v>
+        <v>-0.77989679013535718</v>
       </c>
       <c r="H97" s="1">
-        <v>-2.1168553197637761</v>
+        <v>-2.0021801914248178</v>
       </c>
       <c r="I97" s="1">
-        <v>-2.143978612589867</v>
+        <v>-1.907460863321065</v>
       </c>
       <c r="J97" s="1">
-        <v>-2.3836265411400248</v>
+        <v>-2.1697754744711579</v>
       </c>
       <c r="K97" s="1">
-        <v>-2.2432172096257701</v>
+        <v>-1.9556251681788659</v>
       </c>
       <c r="L97" s="1">
-        <v>-1.3206368724236941</v>
+        <v>-0.65627018243138113</v>
       </c>
       <c r="M97" s="1">
-        <v>-2.5080845965628882</v>
+        <v>-1.691679107160877</v>
       </c>
       <c r="N97" s="1">
-        <v>-2.7003354979359262</v>
+        <v>-1.444983024822128</v>
       </c>
       <c r="O97" s="1">
-        <v>-2.7644244179844928</v>
+        <v>-1.640214979630471</v>
       </c>
       <c r="P97" s="1">
-        <v>-2.9417975245605028</v>
+        <v>-1.408616250626342</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="B98" s="1">
-        <v>-0.9392213357410889</v>
+        <v>-1.033008297344389</v>
       </c>
       <c r="C98" s="1">
-        <v>-0.9886436702871092</v>
+        <v>-2.1086972876958701</v>
       </c>
       <c r="D98" s="1">
-        <v>-0.99437908240595652</v>
+        <v>-1.567377655488897</v>
       </c>
       <c r="E98" s="1">
-        <v>-1.0672526067847381</v>
+        <v>-1.5420742911978129</v>
       </c>
       <c r="F98" s="1">
-        <v>-0.88438545950263303</v>
+        <v>-1.878243099469624</v>
       </c>
       <c r="G98" s="1">
-        <v>-0.95702238614921975</v>
+        <v>-1.040868098987664</v>
       </c>
       <c r="H98" s="1">
-        <v>-1.0169985730475051</v>
+        <v>-2.1217523405341678</v>
       </c>
       <c r="I98" s="1">
-        <v>-1.030671866145404</v>
+        <v>-1.560398962915525</v>
       </c>
       <c r="J98" s="1">
-        <v>-1.105769646173425</v>
+        <v>-1.525858834959787</v>
       </c>
       <c r="K98" s="1">
-        <v>-0.93098711322686312</v>
+        <v>-1.854542807730265</v>
       </c>
       <c r="L98" s="1">
-        <v>-0.50828461514461054</v>
+        <v>-0.63316867776420638</v>
       </c>
       <c r="M98" s="1">
-        <v>-0.53906590463680748</v>
+        <v>-2.1612331416144039</v>
       </c>
       <c r="N98" s="1">
-        <v>-0.45553928161545998</v>
+        <v>-1.3036720096111329</v>
       </c>
       <c r="O98" s="1">
-        <v>-0.41075310762148948</v>
+        <v>-1.286476314981243</v>
       </c>
       <c r="P98" s="1">
-        <v>3.8246046550087599E-2</v>
+        <v>-1.6330962766924471</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="B99" s="1">
-        <v>-0.93236178384888602</v>
+        <v>-1.6293173723168961</v>
       </c>
       <c r="C99" s="1">
-        <v>-1.079712781941319</v>
+        <v>-1.365427558794164</v>
       </c>
       <c r="D99" s="1">
-        <v>-1.035407378605975</v>
+        <v>-1.6866321732639771</v>
       </c>
       <c r="E99" s="1">
-        <v>-1.3330767532174921</v>
+        <v>-1.4137663620256751</v>
       </c>
       <c r="F99" s="1">
-        <v>-1.4386096873247951</v>
+        <v>-1.398228579418036</v>
       </c>
       <c r="G99" s="1">
-        <v>-0.93816058457758655</v>
+        <v>-1.637557280893968</v>
       </c>
       <c r="H99" s="1">
-        <v>-1.0885406091969041</v>
+        <v>-1.3875962365464729</v>
       </c>
       <c r="I99" s="1">
-        <v>-1.062920937908947</v>
+        <v>-1.680904750297658</v>
       </c>
       <c r="J99" s="1">
-        <v>-1.367733064258233</v>
+        <v>-1.4204701037768741</v>
       </c>
       <c r="K99" s="1">
-        <v>-1.4973891043553531</v>
+        <v>-1.43028547773175</v>
       </c>
       <c r="L99" s="1">
-        <v>-0.13667804400437411</v>
+        <v>-0.62242874360369238</v>
       </c>
       <c r="M99" s="1">
-        <v>-0.37660742121047941</v>
+        <v>-0.59065959356556774</v>
       </c>
       <c r="N99" s="1">
-        <v>-0.47299019413172733</v>
+        <v>-0.75249018547434265</v>
       </c>
       <c r="O99" s="1">
-        <v>-0.81313792854016442</v>
+        <v>-0.63551590544195435</v>
       </c>
       <c r="P99" s="1">
-        <v>-1.0227093732580721</v>
+        <v>-0.80030614074292117</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="B100" s="1">
-        <v>-0.91486445499008107</v>
+        <v>-0.9392213357410889</v>
       </c>
       <c r="C100" s="1">
-        <v>-1.188984895962262</v>
+        <v>-0.9886436702871092</v>
       </c>
       <c r="D100" s="1">
-        <v>-1.623818286674916</v>
+        <v>-0.99437908240595652</v>
       </c>
       <c r="E100" s="1">
-        <v>-1.815028042432504</v>
+        <v>-1.0672526067847381</v>
       </c>
       <c r="F100" s="1">
-        <v>-1.757463318818123</v>
+        <v>-0.88438545950263303</v>
       </c>
       <c r="G100" s="1">
-        <v>-0.91874391782344678</v>
+        <v>-0.95702238614921975</v>
       </c>
       <c r="H100" s="1">
-        <v>-1.1965922526171131</v>
+        <v>-1.0169985730475051</v>
       </c>
       <c r="I100" s="1">
-        <v>-1.636308103007055</v>
+        <v>-1.030671866145404</v>
       </c>
       <c r="J100" s="1">
-        <v>-1.825841322040884</v>
+        <v>-1.105769646173425</v>
       </c>
       <c r="K100" s="1">
-        <v>-1.763658316461115</v>
+        <v>-0.93098711322686312</v>
       </c>
       <c r="L100" s="1">
-        <v>0.72383766635053004</v>
+        <v>-0.50828461514461054</v>
       </c>
       <c r="M100" s="1">
-        <v>-0.42124168857258132</v>
+        <v>-0.53906590463680748</v>
       </c>
       <c r="N100" s="1">
-        <v>-1.0521428818079179</v>
+        <v>-0.45553928161545998</v>
       </c>
       <c r="O100" s="1">
-        <v>-1.05403689147026</v>
+        <v>-0.41075310762148948</v>
       </c>
       <c r="P100" s="1">
-        <v>-0.88494935017846899</v>
+        <v>3.8246046550087599E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B101" s="1">
-        <v>-0.87455673030087155</v>
+        <v>-0.98682998483883178</v>
       </c>
       <c r="C101" s="1">
-        <v>-1.7585399715667629</v>
+        <v>-1.77818482759314</v>
       </c>
       <c r="D101" s="1">
-        <v>-2.0009733794987108</v>
+        <v>-1.8673839510883159</v>
       </c>
       <c r="E101" s="1">
-        <v>-2.9198406577590248</v>
+        <v>-1.6820262870348579</v>
       </c>
       <c r="F101" s="1">
-        <v>-2.5485027638225501</v>
+        <v>-1.8466120259450109</v>
       </c>
       <c r="G101" s="1">
-        <v>-0.8996328899643492</v>
+        <v>-0.99971692502690201</v>
       </c>
       <c r="H101" s="1">
-        <v>-1.7787472911811331</v>
+        <v>-1.810861991611868</v>
       </c>
       <c r="I101" s="1">
-        <v>-2.0151669347699581</v>
+        <v>-1.8960390922881509</v>
       </c>
       <c r="J101" s="1">
-        <v>-2.898422506255327</v>
+        <v>-1.7132992736353421</v>
       </c>
       <c r="K101" s="1">
-        <v>-2.519451742459927</v>
+        <v>-1.850880144652532</v>
       </c>
       <c r="L101" s="1">
-        <v>-0.87501417938583492</v>
+        <v>-0.50704249395414147</v>
       </c>
       <c r="M101" s="1">
-        <v>-1.6976305131959599</v>
+        <v>-1.5513412673643461</v>
       </c>
       <c r="N101" s="1">
-        <v>-1.954913247787472</v>
+        <v>-1.5667302648753969</v>
       </c>
       <c r="O101" s="1">
-        <v>-3.0406981541023552</v>
+        <v>-1.389616176885252</v>
       </c>
       <c r="P101" s="1">
-        <v>-2.389363465469168</v>
+        <v>-1.4083546156138891</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="B102" s="1">
-        <v>-0.81204816976902361</v>
+        <v>-0.27228946380636021</v>
       </c>
       <c r="C102" s="1">
-        <v>-1.410333833214928</v>
+        <v>-2.2669917618711302</v>
       </c>
       <c r="D102" s="1">
-        <v>-1.4035784077647999</v>
+        <v>-2.4281744550416771</v>
       </c>
       <c r="E102" s="1">
-        <v>-1.476326749742275</v>
+        <v>-3.274071610571363</v>
       </c>
       <c r="F102" s="1">
-        <v>-1.56042493095202</v>
+        <v>-2.5784574455775999</v>
       </c>
       <c r="G102" s="1">
-        <v>-0.82122914357598409</v>
+        <v>-0.33906930840145327</v>
       </c>
       <c r="H102" s="1">
-        <v>-1.431672249603319</v>
+        <v>-2.3454669441642499</v>
       </c>
       <c r="I102" s="1">
-        <v>-1.426040324825397</v>
+        <v>-2.503492588249959</v>
       </c>
       <c r="J102" s="1">
-        <v>-1.510862029716979</v>
+        <v>-3.3653495767418962</v>
       </c>
       <c r="K102" s="1">
-        <v>-1.5788469923799131</v>
+        <v>-2.6713225605329072</v>
       </c>
       <c r="L102" s="1">
-        <v>0.84328192010290159</v>
+        <v>-0.48948289018359431</v>
       </c>
       <c r="M102" s="1">
-        <v>-0.33096475711243772</v>
+        <v>-2.3606386794537202</v>
       </c>
       <c r="N102" s="1">
-        <v>-0.14940036859138309</v>
+        <v>-2.5336594585121128</v>
       </c>
       <c r="O102" s="1">
-        <v>-0.3024980053441233</v>
+        <v>-3.3323456504576798</v>
       </c>
       <c r="P102" s="1">
-        <v>-0.16149876101614891</v>
+        <v>-2.6219471486812802</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="B103" s="1">
-        <v>-0.81005597930887951</v>
+        <v>0.46753072328644552</v>
       </c>
       <c r="C103" s="1">
-        <v>-2.8288474548636549</v>
+        <v>-0.39238174591548952</v>
       </c>
       <c r="D103" s="1">
-        <v>-1.1776049649672959</v>
+        <v>-0.4107277500576233</v>
       </c>
       <c r="E103" s="1">
-        <v>-1.2530845949135501</v>
+        <v>-0.81497957883953276</v>
       </c>
       <c r="F103" s="1">
-        <v>-1.2771755095485491</v>
+        <v>-1.714680349349909</v>
       </c>
       <c r="G103" s="1">
-        <v>-0.86149429218682982</v>
+        <v>0.35362141399767139</v>
       </c>
       <c r="H103" s="1">
-        <v>-2.7883921468998731</v>
+        <v>-0.64233742877259281</v>
       </c>
       <c r="I103" s="1">
-        <v>-1.193328720708795</v>
+        <v>-0.72506021884454164</v>
       </c>
       <c r="J103" s="1">
-        <v>-1.5493778861879901</v>
+        <v>-1.175681177413622</v>
       </c>
       <c r="K103" s="1">
-        <v>-1.6017915230470181</v>
+        <v>-1.846686618405301</v>
       </c>
       <c r="L103" s="1">
-        <v>-0.6768619501774894</v>
+        <v>-0.48114466752640578</v>
       </c>
       <c r="M103" s="1">
-        <v>-2.2353099370837781</v>
+        <v>-0.65077912599267007</v>
       </c>
       <c r="N103" s="1">
-        <v>-1.73272055637958</v>
+        <v>-0.42766795791789092</v>
       </c>
       <c r="O103" s="1">
-        <v>-1.717923066581488</v>
+        <v>-0.59608610791073513</v>
       </c>
       <c r="P103" s="1">
-        <v>-1.880364914051244</v>
+        <v>-1.326425245436901</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B104" s="1">
-        <v>-0.80225510273079748</v>
+        <v>-0.11783373352826899</v>
       </c>
       <c r="C104" s="1">
-        <v>-0.99491188616687765</v>
+        <v>-1.5125962101338359</v>
       </c>
       <c r="D104" s="1">
-        <v>-1.017793240925726</v>
+        <v>-2.0858403989284322</v>
       </c>
       <c r="E104" s="1">
-        <v>-1.4364669171190689</v>
+        <v>-2.746537505724544</v>
       </c>
       <c r="F104" s="1">
-        <v>-1.590116937440252</v>
+        <v>-2.4294496573345921</v>
       </c>
       <c r="G104" s="1">
-        <v>-0.82222966815394305</v>
+        <v>-0.15087531026379331</v>
       </c>
       <c r="H104" s="1">
-        <v>-1.007390875986913</v>
+        <v>-1.5601072488365351</v>
       </c>
       <c r="I104" s="1">
-        <v>-1.0337562098573281</v>
+        <v>-2.1446652252409661</v>
       </c>
       <c r="J104" s="1">
-        <v>-1.460106682423667</v>
+        <v>-2.8451523836775259</v>
       </c>
       <c r="K104" s="1">
-        <v>-1.6209403367240161</v>
+        <v>-2.5030944728763451</v>
       </c>
       <c r="L104" s="1">
-        <v>-1.2448358242052411</v>
+        <v>-0.4610768656453168</v>
       </c>
       <c r="M104" s="1">
-        <v>-1.871791833659294</v>
+        <v>-1.594844029286562</v>
       </c>
       <c r="N104" s="1">
-        <v>-1.874630017643284</v>
+        <v>-2.0123042283824999</v>
       </c>
       <c r="O104" s="1">
-        <v>-2.7877834240238428</v>
+        <v>-2.5359503637773368</v>
       </c>
       <c r="P104" s="1">
-        <v>-3.2530708451771519</v>
+        <v>-2.1653712263480842</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B105" s="1">
-        <v>-0.78360072393243019</v>
+        <v>-6.5006308147196341</v>
       </c>
       <c r="C105" s="1">
-        <v>-1.5061247447828361</v>
+        <v>-3.0986659681075901</v>
       </c>
       <c r="D105" s="1">
-        <v>-2.2597707264438149</v>
+        <v>-3.3925697371428809</v>
       </c>
       <c r="E105" s="1">
-        <v>-1.836968321400527</v>
+        <v>-3.5373750485508841</v>
       </c>
       <c r="F105" s="1">
-        <v>-2.8255046441802798</v>
+        <v>-3.6116206109011828</v>
       </c>
       <c r="G105" s="1">
-        <v>-0.79547159683378665</v>
+        <v>-4.1725718352477559</v>
       </c>
       <c r="H105" s="1">
-        <v>-1.523138656058425</v>
+        <v>-2.156718366406277</v>
       </c>
       <c r="I105" s="1">
-        <v>-2.2764117652300082</v>
+        <v>-2.206735495013505</v>
       </c>
       <c r="J105" s="1">
-        <v>-1.809057933885458</v>
+        <v>-2.121694665612841</v>
       </c>
       <c r="K105" s="1">
-        <v>-2.715015431396099</v>
+        <v>-1.9746204470545961</v>
       </c>
       <c r="L105" s="1">
-        <v>-0.93394773330219949</v>
+        <v>-0.43722552237274798</v>
       </c>
       <c r="M105" s="1">
-        <v>-1.378675024309072</v>
+        <v>-2.4240961230847642</v>
       </c>
       <c r="N105" s="1">
-        <v>-2.3589857872388138</v>
+        <v>-2.5847423944013199</v>
       </c>
       <c r="O105" s="1">
-        <v>-1.4227277683080071</v>
+        <v>-2.7058528244577298</v>
       </c>
       <c r="P105" s="1">
-        <v>-2.3727556905156528</v>
+        <v>-2.8174547419290299</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B106" s="1">
-        <v>-0.77693756196437302</v>
+        <v>0.86313583460101673</v>
       </c>
       <c r="C106" s="1">
-        <v>-0.81570800361929685</v>
+        <v>0.15862017846646401</v>
       </c>
       <c r="D106" s="1">
-        <v>-0.74828637936149078</v>
+        <v>-0.43389904998461731</v>
       </c>
       <c r="E106" s="1">
-        <v>-0.98118944500052474</v>
+        <v>-0.27620818398610902</v>
       </c>
       <c r="F106" s="1">
-        <v>-1.2780298448630369</v>
+        <v>-0.1128312171137377</v>
       </c>
       <c r="G106" s="1">
-        <v>-0.77982259073321958</v>
+        <v>0.46420264910093201</v>
       </c>
       <c r="H106" s="1">
-        <v>-0.84323354334692913</v>
+        <v>-0.19157602928563219</v>
       </c>
       <c r="I106" s="1">
-        <v>-0.80821903873758671</v>
+        <v>-0.80111328338067056</v>
       </c>
       <c r="J106" s="1">
-        <v>-1.089270084110078</v>
+        <v>-0.53263584373794992</v>
       </c>
       <c r="K106" s="1">
-        <v>-1.425251506728906</v>
+        <v>-0.32979620764743522</v>
       </c>
       <c r="L106" s="1">
-        <v>4.1925211233299233</v>
+        <v>-0.35965357546649318</v>
       </c>
       <c r="M106" s="1">
-        <v>2.7924230325181032</v>
+        <v>-1.124815715737834</v>
       </c>
       <c r="N106" s="1">
-        <v>2.8667743477852849</v>
+        <v>-1.463652613215195</v>
       </c>
       <c r="O106" s="1">
-        <v>2.3904206948063029</v>
+        <v>-1.418892730742596</v>
       </c>
       <c r="P106" s="1">
-        <v>2.2651961561296772</v>
+        <v>-1.319541340971879</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B107" s="1">
-        <v>-0.75742544000336887</v>
+        <v>-1.5783802083640679</v>
       </c>
       <c r="C107" s="1">
-        <v>-0.94742675086313966</v>
+        <v>-2.536235745330913</v>
       </c>
       <c r="D107" s="1">
-        <v>-0.93537248723025479</v>
+        <v>-2.000167701357694</v>
       </c>
       <c r="E107" s="1">
-        <v>-0.63292612016244909</v>
+        <v>-2.1365751597166049</v>
       </c>
       <c r="F107" s="1">
-        <v>-0.60663348864055933</v>
+        <v>-1.938948882599254</v>
       </c>
       <c r="G107" s="1">
-        <v>-0.76542129095960287</v>
+        <v>-1.588904676021945</v>
       </c>
       <c r="H107" s="1">
-        <v>-0.98408432665402057</v>
+        <v>-2.5378363471160972</v>
       </c>
       <c r="I107" s="1">
-        <v>-1.009835000688341</v>
+        <v>-1.962296252833063</v>
       </c>
       <c r="J107" s="1">
-        <v>-0.77308723327512552</v>
+        <v>-2.0768466952866751</v>
       </c>
       <c r="K107" s="1">
-        <v>-0.76983777480884308</v>
+        <v>-1.7912444512977159</v>
       </c>
       <c r="L107" s="1">
-        <v>0.93520370500280769</v>
+        <v>-0.34971615276849372</v>
       </c>
       <c r="M107" s="1">
-        <v>0.27689805128508033</v>
+        <v>-2.4703104623582179</v>
       </c>
       <c r="N107" s="1">
-        <v>0.23152103021176901</v>
+        <v>-1.255864275640707</v>
       </c>
       <c r="O107" s="1">
-        <v>0.53383120170143861</v>
+        <v>-1.5253119879816071</v>
       </c>
       <c r="P107" s="1">
-        <v>0.8611160047361478</v>
+        <v>-0.74442839501936897</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B108" s="1">
-        <v>-0.73531774852977927</v>
+        <v>-2.494944477715892</v>
       </c>
       <c r="C108" s="1">
-        <v>-1.94747742318013</v>
+        <v>-1.9674135241213531</v>
       </c>
       <c r="D108" s="1">
-        <v>-1.836184984831553</v>
+        <v>-2.30314888953848</v>
       </c>
       <c r="E108" s="1">
-        <v>-2.1223653127436819</v>
+        <v>-1.838678329430649</v>
       </c>
       <c r="F108" s="1">
-        <v>-1.904731109790663</v>
+        <v>-1.7615931504933791</v>
       </c>
       <c r="G108" s="1">
-        <v>-0.77989679013535718</v>
+        <v>-2.4430880430538142</v>
       </c>
       <c r="H108" s="1">
-        <v>-2.0021801914248178</v>
+        <v>-1.902972455849459</v>
       </c>
       <c r="I108" s="1">
-        <v>-1.907460863321065</v>
+        <v>-2.1758261604007521</v>
       </c>
       <c r="J108" s="1">
-        <v>-2.1697754744711579</v>
+        <v>-1.686467926462293</v>
       </c>
       <c r="K108" s="1">
-        <v>-1.9556251681788659</v>
+        <v>-1.609492683348561</v>
       </c>
       <c r="L108" s="1">
-        <v>-0.65627018243138113</v>
+        <v>-0.33722013930015471</v>
       </c>
       <c r="M108" s="1">
-        <v>-1.691679107160877</v>
+        <v>-1.0680737885799709</v>
       </c>
       <c r="N108" s="1">
-        <v>-1.444983024822128</v>
+        <v>-1.075483097163646</v>
       </c>
       <c r="O108" s="1">
-        <v>-1.640214979630471</v>
+        <v>-0.59633106403403502</v>
       </c>
       <c r="P108" s="1">
-        <v>-1.408616250626342</v>
+        <v>-0.67256519811260773</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B109" s="1">
-        <v>-0.69055110346204929</v>
+        <v>-0.40297301917692202</v>
       </c>
       <c r="C109" s="1">
-        <v>-0.78792007212678228</v>
+        <v>-1.7013492972126061</v>
       </c>
       <c r="D109" s="1">
-        <v>-0.64148833698830032</v>
+        <v>-1.09498451025163</v>
       </c>
       <c r="E109" s="1">
-        <v>-0.80269020886012754</v>
+        <v>-1.551251368905892</v>
       </c>
       <c r="F109" s="1">
-        <v>-0.75576767649288656</v>
+        <v>-0.95212058339148731</v>
       </c>
       <c r="G109" s="1">
-        <v>-0.73682847681608654</v>
+        <v>-0.41838024940109231</v>
       </c>
       <c r="H109" s="1">
-        <v>-0.8611474934459159</v>
+        <v>-1.717013146972352</v>
       </c>
       <c r="I109" s="1">
-        <v>-0.74111498160234401</v>
+        <v>-1.1325903906067269</v>
       </c>
       <c r="J109" s="1">
-        <v>-0.93859455080806631</v>
+        <v>-1.577905161115404</v>
       </c>
       <c r="K109" s="1">
-        <v>-0.89536929565563672</v>
+        <v>-1.0334094834066021</v>
       </c>
       <c r="L109" s="1">
-        <v>-1.067931518180375</v>
+        <v>-0.33461844727338419</v>
       </c>
       <c r="M109" s="1">
-        <v>-1.123050813225648</v>
+        <v>-1.52151842437133</v>
       </c>
       <c r="N109" s="1">
-        <v>-0.95202343003268908</v>
+        <v>-0.78730849388602953</v>
       </c>
       <c r="O109" s="1">
-        <v>-1.016596000958331</v>
+        <v>-1.1612928159877209</v>
       </c>
       <c r="P109" s="1">
-        <v>-0.96085293854441267</v>
+        <v>-0.56082475047544078</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B110" s="1">
-        <v>-0.69001485887015845</v>
+        <v>0.74125470317426723</v>
       </c>
       <c r="C110" s="1">
-        <v>-0.49139089127008112</v>
+        <v>5.0881037301926613</v>
       </c>
       <c r="D110" s="1">
-        <v>-1.102360751923495</v>
+        <v>4.3151638845854041</v>
       </c>
       <c r="E110" s="1">
-        <v>-2.0158862628179901</v>
+        <v>-8.30062761449602E-2</v>
       </c>
       <c r="F110" s="1">
-        <v>-1.6642011810846951</v>
+        <v>1.078545215844497</v>
       </c>
       <c r="G110" s="1">
-        <v>-0.70318850157135138</v>
+        <v>0.15543584534209401</v>
       </c>
       <c r="H110" s="1">
-        <v>-0.50710604891263811</v>
+        <v>2.918534664016462</v>
       </c>
       <c r="I110" s="1">
-        <v>-1.119632538804642</v>
+        <v>0.77270800760226999</v>
       </c>
       <c r="J110" s="1">
-        <v>-2.037313696389019</v>
+        <v>-1.3085461145657731</v>
       </c>
       <c r="K110" s="1">
-        <v>-1.6948039518944651</v>
+        <v>-0.55468399384874301</v>
       </c>
       <c r="L110" s="1">
-        <v>4.0243036059228098E-2</v>
+        <v>-0.32133763453156028</v>
       </c>
       <c r="M110" s="1">
-        <v>0.79249319404074658</v>
+        <v>-1.673077684325365</v>
       </c>
       <c r="N110" s="1">
-        <v>3.8961019433944297E-2</v>
+        <v>-0.76407493466297738</v>
       </c>
       <c r="O110" s="1">
-        <v>-1.075841465882809</v>
+        <v>-2.1851556514611912</v>
       </c>
       <c r="P110" s="1">
-        <v>-0.59128203756028053</v>
+        <v>-1.452025698477593</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B111" s="1">
-        <v>-0.67496221269932977</v>
+        <v>-0.56087137423652722</v>
       </c>
       <c r="C111" s="1">
-        <v>-0.80291765930175074</v>
+        <v>-1.32408955272669</v>
       </c>
       <c r="D111" s="1">
-        <v>-0.81150685834581127</v>
+        <v>-1.542819101130521</v>
       </c>
       <c r="E111" s="1">
-        <v>-1.037913398652597</v>
+        <v>-1.4990591829204589</v>
       </c>
       <c r="F111" s="1">
-        <v>-0.95775970500023144</v>
+        <v>-1.9096202409321259</v>
       </c>
       <c r="G111" s="1">
-        <v>-0.69354246384017459</v>
+        <v>-0.63749067336308252</v>
       </c>
       <c r="H111" s="1">
-        <v>-0.81478306731037287</v>
+        <v>-1.4028165370468</v>
       </c>
       <c r="I111" s="1">
-        <v>-0.821503266767733</v>
+        <v>-1.6151867398220829</v>
       </c>
       <c r="J111" s="1">
-        <v>-1.0452281365395859</v>
+        <v>-1.566104974265986</v>
       </c>
       <c r="K111" s="1">
-        <v>-0.95431938954018358</v>
+        <v>-1.8983376191639081</v>
       </c>
       <c r="L111" s="1">
-        <v>-1.184323817428647</v>
+        <v>-0.31459707066234088</v>
       </c>
       <c r="M111" s="1">
-        <v>-1.6396405851203131</v>
+        <v>-0.97096259590219824</v>
       </c>
       <c r="N111" s="1">
-        <v>-1.5436268775458239</v>
+        <v>-0.95031415176630751</v>
       </c>
       <c r="O111" s="1">
-        <v>-1.789715121048929</v>
+        <v>-0.70818942804091833</v>
       </c>
       <c r="P111" s="1">
-        <v>-1.4961776282049251</v>
+        <v>-0.164809347747469</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1">
-        <v>-0.66967665620730055</v>
+        <v>3.48223257194148E-2</v>
       </c>
       <c r="C112" s="1">
-        <v>-0.98932171097239674</v>
+        <v>-0.67062031086842233</v>
       </c>
       <c r="D112" s="1">
-        <v>-0.83705974430426677</v>
+        <v>-0.82301364467272375</v>
       </c>
       <c r="E112" s="1">
-        <v>-0.68980574437406839</v>
+        <v>-2.4701526868383E-3</v>
       </c>
       <c r="F112" s="1">
-        <v>-0.62695369466764406</v>
+        <v>-0.38615718716710878</v>
       </c>
       <c r="G112" s="1">
-        <v>-0.69449226424903443</v>
+        <v>-0.22002120518939519</v>
       </c>
       <c r="H112" s="1">
-        <v>-1.0168571251508269</v>
+        <v>-0.81336684924801927</v>
       </c>
       <c r="I112" s="1">
-        <v>-0.86945670354459892</v>
+        <v>-0.92625021188543044</v>
       </c>
       <c r="J112" s="1">
-        <v>-0.73343722783614551</v>
+        <v>-6.1430570050408202E-2</v>
       </c>
       <c r="K112" s="1">
-        <v>-0.68560323087146824</v>
+        <v>-0.46604546858372559</v>
       </c>
       <c r="L112" s="1">
-        <v>-2.1908275111204989</v>
+        <v>-0.29474801153578029</v>
       </c>
       <c r="M112" s="1">
-        <v>-2.8611433759229241</v>
+        <v>-1.0355712424699079</v>
       </c>
       <c r="N112" s="1">
-        <v>-2.6115461819382251</v>
+        <v>-1.175604211609383</v>
       </c>
       <c r="O112" s="1">
-        <v>-2.314273941374557</v>
+        <v>-0.37958518884539388</v>
       </c>
       <c r="P112" s="1">
-        <v>-2.229259893003658</v>
+        <v>-0.66416611411020554</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B113" s="1">
-        <v>-0.6613951427018544</v>
+        <v>-3.9886261350201409</v>
       </c>
       <c r="C113" s="1">
-        <v>-0.96316745019779448</v>
+        <v>-1.880072574345788</v>
       </c>
       <c r="D113" s="1">
-        <v>-0.78526577325968361</v>
+        <v>-1.89714664953168</v>
       </c>
       <c r="E113" s="1">
-        <v>-1.307282587349901</v>
+        <v>-2.4507455929362001</v>
       </c>
       <c r="F113" s="1">
-        <v>-1.527227615572833</v>
+        <v>-1.4845297734068039</v>
       </c>
       <c r="G113" s="1">
-        <v>-0.68433356188122063</v>
+        <v>-3.877711080717841</v>
       </c>
       <c r="H113" s="1">
-        <v>-0.99801277118531273</v>
+        <v>-1.895409808925999</v>
       </c>
       <c r="I113" s="1">
-        <v>-0.84093262387623247</v>
+        <v>-1.9805035405311491</v>
       </c>
       <c r="J113" s="1">
-        <v>-1.3742662547258631</v>
+        <v>-2.5702869957865291</v>
       </c>
       <c r="K113" s="1">
-        <v>-1.633575710142545</v>
+        <v>-1.6279971203044019</v>
       </c>
       <c r="L113" s="1">
-        <v>0.15367966559683849</v>
+        <v>-0.24309165765598309</v>
       </c>
       <c r="M113" s="1">
-        <v>-0.10315267155096911</v>
+        <v>-0.75473241256978207</v>
       </c>
       <c r="N113" s="1">
-        <v>0.18092671818667361</v>
+        <v>-1.0508009412965029</v>
       </c>
       <c r="O113" s="1">
-        <v>-0.32249214307909618</v>
+        <v>-1.7035391643258371</v>
       </c>
       <c r="P113" s="1">
-        <v>-0.68045875434413494</v>
+        <v>-0.68296007740950859</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B114" s="1">
-        <v>-0.63982995957533628</v>
+        <v>-0.38411163054835279</v>
       </c>
       <c r="C114" s="1">
-        <v>-1.384540859521088</v>
+        <v>-0.67360749970857681</v>
       </c>
       <c r="D114" s="1">
-        <v>-1.6179643291751771</v>
+        <v>-0.64438017158689875</v>
       </c>
       <c r="E114" s="1">
-        <v>-1.928440935061956</v>
+        <v>-0.90301834359309396</v>
       </c>
       <c r="F114" s="1">
-        <v>-1.9126932856788541</v>
+        <v>-0.75074770017664794</v>
       </c>
       <c r="G114" s="1">
-        <v>-0.65529840762631042</v>
+        <v>-0.41161028858832299</v>
       </c>
       <c r="H114" s="1">
-        <v>-1.41313685973581</v>
+        <v>-0.72665437774385189</v>
       </c>
       <c r="I114" s="1">
-        <v>-1.651255528200984</v>
+        <v>-0.72262367799773253</v>
       </c>
       <c r="J114" s="1">
-        <v>-1.969664623299558</v>
+        <v>-0.98590315184325283</v>
       </c>
       <c r="K114" s="1">
-        <v>-1.9421728612349101</v>
+        <v>-0.84563450621251146</v>
       </c>
       <c r="L114" s="1">
-        <v>1.77780898545233E-2</v>
+        <v>-0.2036445133330837</v>
       </c>
       <c r="M114" s="1">
-        <v>-1.0783836473117721</v>
+        <v>-0.3257294350408288</v>
       </c>
       <c r="N114" s="1">
-        <v>-1.3703162170856169</v>
+        <v>-3.71541094832121E-2</v>
       </c>
       <c r="O114" s="1">
-        <v>-1.8428650443367141</v>
+        <v>-0.24308797504573759</v>
       </c>
       <c r="P114" s="1">
-        <v>-1.6829764366707469</v>
+        <v>9.8386608552639296E-2</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="B115" s="1">
-        <v>-0.62061042482856876</v>
+        <v>0.34558336517471422</v>
       </c>
       <c r="C115" s="1">
-        <v>-1.7790816999848591</v>
+        <v>-0.66811901654318395</v>
       </c>
       <c r="D115" s="1">
-        <v>-1.8181818375425329</v>
+        <v>-0.79096534319224776</v>
       </c>
       <c r="E115" s="1">
-        <v>-1.9828819745007451</v>
+        <v>-1.112477184786957</v>
       </c>
       <c r="F115" s="1">
-        <v>-2.1280377435055522</v>
+        <v>-1.6322891224051641</v>
       </c>
       <c r="G115" s="1">
-        <v>-0.65076259995281793</v>
+        <v>0.30259936511744578</v>
       </c>
       <c r="H115" s="1">
-        <v>-1.824983380144279</v>
+        <v>-0.7246101912222922</v>
       </c>
       <c r="I115" s="1">
-        <v>-1.878161520895139</v>
+        <v>-0.84242737701638226</v>
       </c>
       <c r="J115" s="1">
-        <v>-2.06138006452723</v>
+        <v>-1.2282610573252859</v>
       </c>
       <c r="K115" s="1">
-        <v>-2.2110245417983569</v>
+        <v>-1.6511846199430149</v>
       </c>
       <c r="L115" s="1">
-        <v>-0.1237995346932543</v>
+        <v>-0.19610910625683431</v>
       </c>
       <c r="M115" s="1">
-        <v>-1.3835435331426471</v>
+        <v>-0.94010930392864367</v>
       </c>
       <c r="N115" s="1">
-        <v>-1.398038293642127</v>
+        <v>-1.119099117591893</v>
       </c>
       <c r="O115" s="1">
-        <v>-1.6178810587885071</v>
+        <v>-1.282091839796746</v>
       </c>
       <c r="P115" s="1">
-        <v>-1.763898129882935</v>
+        <v>-2.245417826980983</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B116" s="1">
-        <v>-0.56087137423652722</v>
+        <v>-0.28161625834654752</v>
       </c>
       <c r="C116" s="1">
-        <v>-1.32408955272669</v>
+        <v>-0.38510387725220879</v>
       </c>
       <c r="D116" s="1">
-        <v>-1.542819101130521</v>
+        <v>-1.0139253516642239</v>
       </c>
       <c r="E116" s="1">
-        <v>-1.4990591829204589</v>
+        <v>-0.98834022849308834</v>
       </c>
       <c r="F116" s="1">
-        <v>-1.9096202409321259</v>
+        <v>-0.92901525612982483</v>
       </c>
       <c r="G116" s="1">
-        <v>-0.63749067336308252</v>
+        <v>-0.33386711062369712</v>
       </c>
       <c r="H116" s="1">
-        <v>-1.4028165370468</v>
+        <v>-0.47486415084802241</v>
       </c>
       <c r="I116" s="1">
-        <v>-1.6151867398220829</v>
+        <v>-1.122779298258334</v>
       </c>
       <c r="J116" s="1">
-        <v>-1.566104974265986</v>
+        <v>-1.119137959022632</v>
       </c>
       <c r="K116" s="1">
-        <v>-1.8983376191639081</v>
+        <v>-1.068758927201606</v>
       </c>
       <c r="L116" s="1">
-        <v>-0.31459707066234088</v>
+        <v>-0.13703171176465939</v>
       </c>
       <c r="M116" s="1">
-        <v>-0.97096259590219824</v>
+        <v>-6.4511882055473396E-2</v>
       </c>
       <c r="N116" s="1">
-        <v>-0.95031415176630751</v>
+        <v>-0.60141605563597156</v>
       </c>
       <c r="O116" s="1">
-        <v>-0.70818942804091833</v>
+        <v>-0.4700366657715056</v>
       </c>
       <c r="P116" s="1">
-        <v>-0.164809347747469</v>
+        <v>-0.23207980025762959</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B117" s="1">
-        <v>-0.51603865820836503</v>
+        <v>-0.93236178384888602</v>
       </c>
       <c r="C117" s="1">
-        <v>-0.83382134920428075</v>
+        <v>-1.079712781941319</v>
       </c>
       <c r="D117" s="1">
-        <v>-0.81255518672680327</v>
+        <v>-1.035407378605975</v>
       </c>
       <c r="E117" s="1">
-        <v>-0.80585383830125701</v>
+        <v>-1.3330767532174921</v>
       </c>
       <c r="F117" s="1">
-        <v>-1.687336840502508</v>
+        <v>-1.4386096873247951</v>
       </c>
       <c r="G117" s="1">
-        <v>-0.53314615018184164</v>
+        <v>-0.93816058457758655</v>
       </c>
       <c r="H117" s="1">
-        <v>-0.78858221197655765</v>
+        <v>-1.0885406091969041</v>
       </c>
       <c r="I117" s="1">
-        <v>-0.73690353517933416</v>
+        <v>-1.062920937908947</v>
       </c>
       <c r="J117" s="1">
-        <v>-0.75223004475698529</v>
+        <v>-1.367733064258233</v>
       </c>
       <c r="K117" s="1">
-        <v>-1.6055298341942199</v>
+        <v>-1.4973891043553531</v>
       </c>
       <c r="L117" s="1">
-        <v>-0.90760251531968317</v>
+        <v>-0.13667804400437411</v>
       </c>
       <c r="M117" s="1">
-        <v>-0.68154611094852113</v>
+        <v>-0.37660742121047941</v>
       </c>
       <c r="N117" s="1">
-        <v>-0.87807171084880264</v>
+        <v>-0.47299019413172733</v>
       </c>
       <c r="O117" s="1">
-        <v>-1.3536811482457369</v>
+        <v>-0.81313792854016442</v>
       </c>
       <c r="P117" s="1">
-        <v>-0.98636987957546185</v>
+        <v>-1.0227093732580721</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="B118" s="1">
-        <v>-0.40297301917692202</v>
+        <v>0.24438603505839279</v>
       </c>
       <c r="C118" s="1">
-        <v>-1.7013492972126061</v>
+        <v>-0.47071867777749188</v>
       </c>
       <c r="D118" s="1">
-        <v>-1.09498451025163</v>
+        <v>3.3535030833844799E-2</v>
       </c>
       <c r="E118" s="1">
-        <v>-1.551251368905892</v>
+        <v>-0.88184391654646943</v>
       </c>
       <c r="F118" s="1">
-        <v>-0.95212058339148731</v>
+        <v>-1.2682791355081391</v>
       </c>
       <c r="G118" s="1">
-        <v>-0.41838024940109231</v>
+        <v>0.157820332388107</v>
       </c>
       <c r="H118" s="1">
-        <v>-1.717013146972352</v>
+        <v>-0.6617628446480035</v>
       </c>
       <c r="I118" s="1">
-        <v>-1.1325903906067269</v>
+        <v>-8.8287287789028696E-2</v>
       </c>
       <c r="J118" s="1">
-        <v>-1.577905161115404</v>
+        <v>-1.001801339170503</v>
       </c>
       <c r="K118" s="1">
-        <v>-1.0334094834066021</v>
+        <v>-1.427016842156124</v>
       </c>
       <c r="L118" s="1">
-        <v>-0.33461844727338419</v>
+        <v>-0.13414917145616059</v>
       </c>
       <c r="M118" s="1">
-        <v>-1.52151842437133</v>
+        <v>-0.61527620857544674</v>
       </c>
       <c r="N118" s="1">
-        <v>-0.78730849388602953</v>
+        <v>-0.25642526712659969</v>
       </c>
       <c r="O118" s="1">
-        <v>-1.1612928159877209</v>
+        <v>-1.044048719993222</v>
       </c>
       <c r="P118" s="1">
-        <v>-0.56082475047544078</v>
+        <v>-1.341649431751901</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B119" s="1">
-        <v>-0.38411163054835279</v>
+        <v>-0.62061042482856876</v>
       </c>
       <c r="C119" s="1">
-        <v>-0.67360749970857681</v>
+        <v>-1.7790816999848591</v>
       </c>
       <c r="D119" s="1">
-        <v>-0.64438017158689875</v>
+        <v>-1.8181818375425329</v>
       </c>
       <c r="E119" s="1">
-        <v>-0.90301834359309396</v>
+        <v>-1.9828819745007451</v>
       </c>
       <c r="F119" s="1">
-        <v>-0.75074770017664794</v>
+        <v>-2.1280377435055522</v>
       </c>
       <c r="G119" s="1">
-        <v>-0.41161028858832299</v>
+        <v>-0.65076259995281793</v>
       </c>
       <c r="H119" s="1">
-        <v>-0.72665437774385189</v>
+        <v>-1.824983380144279</v>
       </c>
       <c r="I119" s="1">
-        <v>-0.72262367799773253</v>
+        <v>-1.878161520895139</v>
       </c>
       <c r="J119" s="1">
-        <v>-0.98590315184325283</v>
+        <v>-2.06138006452723</v>
       </c>
       <c r="K119" s="1">
-        <v>-0.84563450621251146</v>
+        <v>-2.2110245417983569</v>
       </c>
       <c r="L119" s="1">
-        <v>-0.2036445133330837</v>
+        <v>-0.1237995346932543</v>
       </c>
       <c r="M119" s="1">
-        <v>-0.3257294350408288</v>
+        <v>-1.3835435331426471</v>
       </c>
       <c r="N119" s="1">
-        <v>-3.71541094832121E-2</v>
+        <v>-1.398038293642127</v>
       </c>
       <c r="O119" s="1">
-        <v>-0.24308797504573759</v>
+        <v>-1.6178810587885071</v>
       </c>
       <c r="P119" s="1">
-        <v>9.8386608552639296E-2</v>
+        <v>-1.763898129882935</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B120" s="1">
-        <v>-0.28161625834654752</v>
+        <v>-1.7127682933796999</v>
       </c>
       <c r="C120" s="1">
-        <v>-0.38510387725220879</v>
+        <v>-1.5634920730493309</v>
       </c>
       <c r="D120" s="1">
-        <v>-1.0139253516642239</v>
+        <v>-2.7166211994372791</v>
       </c>
       <c r="E120" s="1">
-        <v>-0.98834022849308834</v>
+        <v>-1.802968676520188</v>
       </c>
       <c r="F120" s="1">
-        <v>-0.92901525612982483</v>
+        <v>-2.1904937486196649</v>
       </c>
       <c r="G120" s="1">
-        <v>-0.33386711062369712</v>
+        <v>-1.713175804934997</v>
       </c>
       <c r="H120" s="1">
-        <v>-0.47486415084802241</v>
+        <v>-1.686264903399199</v>
       </c>
       <c r="I120" s="1">
-        <v>-1.122779298258334</v>
+        <v>-2.7064405900193398</v>
       </c>
       <c r="J120" s="1">
-        <v>-1.119137959022632</v>
+        <v>-1.8874926462550521</v>
       </c>
       <c r="K120" s="1">
-        <v>-1.068758927201606</v>
+        <v>-2.0058614642259398</v>
       </c>
       <c r="L120" s="1">
-        <v>-0.13703171176465939</v>
+        <v>7.8029285741328998E-3</v>
       </c>
       <c r="M120" s="1">
-        <v>-6.4511882055473396E-2</v>
+        <v>-0.98639709532592545</v>
       </c>
       <c r="N120" s="1">
-        <v>-0.60141605563597156</v>
+        <v>-1.4210345571861269</v>
       </c>
       <c r="O120" s="1">
-        <v>-0.4700366657715056</v>
+        <v>-0.95808749810459004</v>
       </c>
       <c r="P120" s="1">
-        <v>-0.23207980025762959</v>
+        <v>-1.334359052749245</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B121" s="1">
-        <v>-0.27228946380636021</v>
+        <v>-0.63982995957533628</v>
       </c>
       <c r="C121" s="1">
-        <v>-2.2669917618711302</v>
+        <v>-1.384540859521088</v>
       </c>
       <c r="D121" s="1">
-        <v>-2.4281744550416771</v>
+        <v>-1.6179643291751771</v>
       </c>
       <c r="E121" s="1">
-        <v>-3.274071610571363</v>
+        <v>-1.928440935061956</v>
       </c>
       <c r="F121" s="1">
-        <v>-2.5784574455775999</v>
+        <v>-1.9126932856788541</v>
       </c>
       <c r="G121" s="1">
-        <v>-0.33906930840145327</v>
+        <v>-0.65529840762631042</v>
       </c>
       <c r="H121" s="1">
-        <v>-2.3454669441642499</v>
+        <v>-1.41313685973581</v>
       </c>
       <c r="I121" s="1">
-        <v>-2.503492588249959</v>
+        <v>-1.651255528200984</v>
       </c>
       <c r="J121" s="1">
-        <v>-3.3653495767418962</v>
+        <v>-1.969664623299558</v>
       </c>
       <c r="K121" s="1">
-        <v>-2.6713225605329072</v>
+        <v>-1.9421728612349101</v>
       </c>
       <c r="L121" s="1">
-        <v>-0.48948289018359431</v>
+        <v>1.77780898545233E-2</v>
       </c>
       <c r="M121" s="1">
-        <v>-2.3606386794537202</v>
+        <v>-1.0783836473117721</v>
       </c>
       <c r="N121" s="1">
-        <v>-2.5336594585121128</v>
+        <v>-1.3703162170856169</v>
       </c>
       <c r="O121" s="1">
-        <v>-3.3323456504576798</v>
+        <v>-1.8428650443367141</v>
       </c>
       <c r="P121" s="1">
-        <v>-2.6219471486812802</v>
+        <v>-1.6829764366707469</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B122" s="1">
-        <v>-0.2340099812205782</v>
+        <v>-0.69001485887015845</v>
       </c>
       <c r="C122" s="1">
-        <v>-0.16419149144296361</v>
+        <v>-0.49139089127008112</v>
       </c>
       <c r="D122" s="1">
-        <v>-0.38253664677235028</v>
+        <v>-1.102360751923495</v>
       </c>
       <c r="E122" s="1">
-        <v>-0.86957330446733372</v>
+        <v>-2.0158862628179901</v>
       </c>
       <c r="F122" s="1">
-        <v>-1.8243898874433691</v>
+        <v>-1.6642011810846951</v>
       </c>
       <c r="G122" s="1">
-        <v>-0.25886681138798928</v>
+        <v>-0.70318850157135138</v>
       </c>
       <c r="H122" s="1">
-        <v>-0.21505294847402881</v>
+        <v>-0.50710604891263811</v>
       </c>
       <c r="I122" s="1">
-        <v>-0.44762462153174082</v>
+        <v>-1.119632538804642</v>
       </c>
       <c r="J122" s="1">
-        <v>-0.95045252548476744</v>
+        <v>-2.037313696389019</v>
       </c>
       <c r="K122" s="1">
-        <v>-1.901730846119507</v>
+        <v>-1.6948039518944651</v>
       </c>
       <c r="L122" s="1">
-        <v>0.98105275190940511</v>
+        <v>4.0243036059228098E-2</v>
       </c>
       <c r="M122" s="1">
-        <v>1.825633533545429</v>
+        <v>0.79249319404074658</v>
       </c>
       <c r="N122" s="1">
-        <v>1.934521640588762</v>
+        <v>3.8961019433944297E-2</v>
       </c>
       <c r="O122" s="1">
-        <v>1.0917645065312021</v>
+        <v>-1.075841465882809</v>
       </c>
       <c r="P122" s="1">
-        <v>0.2288790725645207</v>
+        <v>-0.59128203756028053</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B123" s="1">
-        <v>-0.23292816967348531</v>
+        <v>3.2395694455569459</v>
       </c>
       <c r="C123" s="1">
-        <v>-1.4096922214768319</v>
+        <v>1.186505670071857</v>
       </c>
       <c r="D123" s="1">
-        <v>-1.5617914016111429</v>
+        <v>1.538861820067466</v>
       </c>
       <c r="E123" s="1">
-        <v>-1.936375419281452</v>
+        <v>0.8477336941657676</v>
       </c>
       <c r="F123" s="1">
-        <v>-1.537137853757004</v>
+        <v>1.428814133444156</v>
       </c>
       <c r="G123" s="1">
-        <v>-0.2417653961409458</v>
+        <v>0.94695671968672679</v>
       </c>
       <c r="H123" s="1">
-        <v>-1.438124410736062</v>
+        <v>-0.1097540147210192</v>
       </c>
       <c r="I123" s="1">
-        <v>-1.5990038165326721</v>
+        <v>0.18305131200060201</v>
       </c>
       <c r="J123" s="1">
-        <v>-1.981194373433899</v>
+        <v>-0.31790744402875032</v>
       </c>
       <c r="K123" s="1">
-        <v>-1.5800952405663149</v>
+        <v>5.5996321047630401E-2</v>
       </c>
       <c r="L123" s="1">
-        <v>2.423596561992055</v>
+        <v>4.8899992865286797E-2</v>
       </c>
       <c r="M123" s="1">
-        <v>-0.41570342649981812</v>
+        <v>-0.95646094753528632</v>
       </c>
       <c r="N123" s="1">
-        <v>-0.64707242078287341</v>
+        <v>-1.233585631849808</v>
       </c>
       <c r="O123" s="1">
-        <v>-1.0137412425408641</v>
+        <v>-1.4984915593499759</v>
       </c>
       <c r="P123" s="1">
-        <v>-0.61041449069942111</v>
+        <v>-1.758367367900519</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B124" s="1">
-        <v>-0.1819115032606595</v>
+        <v>7.6749029743925695E-2</v>
       </c>
       <c r="C124" s="1">
-        <v>-1.091027711179096</v>
+        <v>-0.88322030139180363</v>
       </c>
       <c r="D124" s="1">
-        <v>-1.11184577880756</v>
+        <v>-1.191219224579759</v>
       </c>
       <c r="E124" s="1">
-        <v>-1.6576334351401629</v>
+        <v>-1.6760634122453451</v>
       </c>
       <c r="F124" s="1">
-        <v>-1.5699699967277509</v>
+        <v>-2.0726187638532041</v>
       </c>
       <c r="G124" s="1">
-        <v>-0.22340681272726781</v>
+        <v>3.2734705361245398E-2</v>
       </c>
       <c r="H124" s="1">
-        <v>-1.1877640350473699</v>
+        <v>-0.94001991961854459</v>
       </c>
       <c r="I124" s="1">
-        <v>-1.2860249444529539</v>
+        <v>-1.254124299175027</v>
       </c>
       <c r="J124" s="1">
-        <v>-1.919985718576197</v>
+        <v>-1.7446903079768159</v>
       </c>
       <c r="K124" s="1">
-        <v>-1.96969912307787</v>
+        <v>-2.1518060722501851</v>
       </c>
       <c r="L124" s="1">
-        <v>-1.5569370575173509</v>
+        <v>0.1237174786738835</v>
       </c>
       <c r="M124" s="1">
-        <v>-1.9134708439400301</v>
+        <v>-0.78469612009012224</v>
       </c>
       <c r="N124" s="1">
-        <v>-1.7067898310314189</v>
+        <v>-1.0723417231417769</v>
       </c>
       <c r="O124" s="1">
-        <v>-1.991400677624112</v>
+        <v>-1.5434161742838159</v>
       </c>
       <c r="P124" s="1">
-        <v>-1.7688676364274849</v>
+        <v>-1.9137816453353931</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="B125" s="1">
-        <v>-0.12700936210017</v>
+        <v>-2.7849253731314878</v>
       </c>
       <c r="C125" s="1">
-        <v>0.55022754339439661</v>
+        <v>-2.1884326148731499</v>
       </c>
       <c r="D125" s="1">
-        <v>0.51029140555776176</v>
+        <v>-2.859215064014883</v>
       </c>
       <c r="E125" s="1">
-        <v>0.70760003005043293</v>
+        <v>-1.765462611114851</v>
       </c>
       <c r="F125" s="1">
-        <v>0.85067060845770481</v>
+        <v>-1.131730164022309</v>
       </c>
       <c r="G125" s="1">
-        <v>-0.20902663204462399</v>
+        <v>-2.699958231690009</v>
       </c>
       <c r="H125" s="1">
-        <v>0.34526226148231509</v>
+        <v>-2.0479048513079152</v>
       </c>
       <c r="I125" s="1">
-        <v>0.1996526362768376</v>
+        <v>-2.4716797085149391</v>
       </c>
       <c r="J125" s="1">
-        <v>0.25608702005016609</v>
+        <v>-1.723702571936339</v>
       </c>
       <c r="K125" s="1">
-        <v>0.34576145007562731</v>
+        <v>-1.1261308242191681</v>
       </c>
       <c r="L125" s="1">
-        <v>-2.1483619993946008</v>
+        <v>0.12954277076300311</v>
       </c>
       <c r="M125" s="1">
-        <v>-1.2221461891084979</v>
+        <v>-0.15259200605865589</v>
       </c>
       <c r="N125" s="1">
-        <v>-1.109413425062993</v>
+        <v>0.1220486354547575</v>
       </c>
       <c r="O125" s="1">
-        <v>-0.77210066417633327</v>
+        <v>-0.1041443686153502</v>
       </c>
       <c r="P125" s="1">
-        <v>-0.75115706345613109</v>
+        <v>1.024979467952438</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B126" s="1">
-        <v>-0.11783373352826899</v>
+        <v>-0.6613951427018544</v>
       </c>
       <c r="C126" s="1">
-        <v>-1.5125962101338359</v>
+        <v>-0.96316745019779448</v>
       </c>
       <c r="D126" s="1">
-        <v>-2.0858403989284322</v>
+        <v>-0.78526577325968361</v>
       </c>
       <c r="E126" s="1">
-        <v>-2.746537505724544</v>
+        <v>-1.307282587349901</v>
       </c>
       <c r="F126" s="1">
-        <v>-2.4294496573345921</v>
+        <v>-1.527227615572833</v>
       </c>
       <c r="G126" s="1">
-        <v>-0.15087531026379331</v>
+        <v>-0.68433356188122063</v>
       </c>
       <c r="H126" s="1">
-        <v>-1.5601072488365351</v>
+        <v>-0.99801277118531273</v>
       </c>
       <c r="I126" s="1">
-        <v>-2.1446652252409661</v>
+        <v>-0.84093262387623247</v>
       </c>
       <c r="J126" s="1">
-        <v>-2.8451523836775259</v>
+        <v>-1.3742662547258631</v>
       </c>
       <c r="K126" s="1">
-        <v>-2.5030944728763451</v>
+        <v>-1.633575710142545</v>
       </c>
       <c r="L126" s="1">
-        <v>-0.4610768656453168</v>
+        <v>0.15367966559683849</v>
       </c>
       <c r="M126" s="1">
-        <v>-1.594844029286562</v>
+        <v>-0.10315267155096911</v>
       </c>
       <c r="N126" s="1">
-        <v>-2.0123042283824999</v>
+        <v>0.18092671818667361</v>
       </c>
       <c r="O126" s="1">
-        <v>-2.5359503637773368</v>
+        <v>-0.32249214307909618</v>
       </c>
       <c r="P126" s="1">
-        <v>-2.1653712263480842</v>
+        <v>-0.68045875434413494</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B127" s="1">
-        <v>-0.1124867695709626</v>
+        <v>0.45185316984994439</v>
       </c>
       <c r="C127" s="1">
-        <v>-0.46558272916535498</v>
+        <v>-1.1488148251971699</v>
       </c>
       <c r="D127" s="1">
-        <v>-0.4432907522413031</v>
+        <v>-0.87736649994099336</v>
       </c>
       <c r="E127" s="1">
-        <v>-0.47166877991953549</v>
+        <v>-1.59537783007066</v>
       </c>
       <c r="F127" s="1">
-        <v>-0.49740609794870788</v>
+        <v>-0.74942656862899359</v>
       </c>
       <c r="G127" s="1">
-        <v>-0.216706104160898</v>
+        <v>0.40785556006684948</v>
       </c>
       <c r="H127" s="1">
-        <v>-0.54617642847752157</v>
+        <v>-1.208692853697368</v>
       </c>
       <c r="I127" s="1">
-        <v>-0.51390274794594559</v>
+        <v>-0.97023912551081026</v>
       </c>
       <c r="J127" s="1">
-        <v>-0.50403309433503241</v>
+        <v>-1.6786412889265749</v>
       </c>
       <c r="K127" s="1">
-        <v>-0.51954698831144386</v>
+        <v>-0.8722030757824446</v>
       </c>
       <c r="L127" s="1">
-        <v>-1.2645911860684509</v>
+        <v>0.1703863194001233</v>
       </c>
       <c r="M127" s="1">
-        <v>-1.9880114306337471</v>
+        <v>-1.140793709095167</v>
       </c>
       <c r="N127" s="1">
-        <v>-1.8710853689366089</v>
+        <v>-0.67663611720046957</v>
       </c>
       <c r="O127" s="1">
-        <v>-1.9657047345188849</v>
+        <v>-1.263224971896451</v>
       </c>
       <c r="P127" s="1">
-        <v>-1.8912119752345999</v>
+        <v>-0.21885524633659281</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="B128" s="1">
-        <v>-7.4809847882705005E-2</v>
+        <v>-1.787568062864622</v>
       </c>
       <c r="C128" s="1">
-        <v>-0.28318110251764678</v>
+        <v>-1.8936632425355731</v>
       </c>
       <c r="D128" s="1">
-        <v>-0.80840221947644697</v>
+        <v>-1.728275926335952</v>
       </c>
       <c r="E128" s="1">
-        <v>-0.52487128718967391</v>
+        <v>-1.577835377894006</v>
       </c>
       <c r="F128" s="1">
-        <v>-7.7260907812927895E-2</v>
+        <v>-1.4979253493193441</v>
       </c>
       <c r="G128" s="1">
-        <v>-0.16791345557649409</v>
+        <v>-1.775913846306366</v>
       </c>
       <c r="H128" s="1">
-        <v>-0.4152948260302356</v>
+        <v>-1.8899599495567161</v>
       </c>
       <c r="I128" s="1">
-        <v>-0.95643161876202165</v>
+        <v>-1.724564813104974</v>
       </c>
       <c r="J128" s="1">
-        <v>-0.63040618299935136</v>
+        <v>-1.569527703001308</v>
       </c>
       <c r="K128" s="1">
-        <v>-0.36175637449415349</v>
+        <v>-1.5071087757543129</v>
       </c>
       <c r="L128" s="1">
-        <v>-1.4998929529565159</v>
+        <v>0.47678760702802792</v>
       </c>
       <c r="M128" s="1">
-        <v>-1.86397951793979</v>
+        <v>-0.9761312670028679</v>
       </c>
       <c r="N128" s="1">
-        <v>-2.365981788306208</v>
+        <v>-0.88065855671221027</v>
       </c>
       <c r="O128" s="1">
-        <v>-4.3033614641270583</v>
+        <v>-0.63408462193277804</v>
       </c>
       <c r="P128" s="1">
-        <v>-2.668839934539565</v>
+        <v>-0.7426901311761398</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="B129" s="1">
-        <v>-2.45069591113239E-2</v>
+        <v>0.70282440290997839</v>
       </c>
       <c r="C129" s="1">
-        <v>-1.1624744566401479</v>
+        <v>-0.5770389383654343</v>
       </c>
       <c r="D129" s="1">
-        <v>-0.50647210615834237</v>
+        <v>-0.86452486099979065</v>
       </c>
       <c r="E129" s="1">
-        <v>-0.96979888470775899</v>
+        <v>-1.5157315704869361</v>
       </c>
       <c r="F129" s="1">
-        <v>-0.83600613563064852</v>
+        <v>-2.0218474145494429</v>
       </c>
       <c r="G129" s="1">
-        <v>-9.1736011464168002E-2</v>
+        <v>0.61669301130432519</v>
       </c>
       <c r="H129" s="1">
-        <v>-1.270716321118414</v>
+        <v>-0.66122406891515961</v>
       </c>
       <c r="I129" s="1">
-        <v>-0.64059367200570139</v>
+        <v>-0.9499946729819968</v>
       </c>
       <c r="J129" s="1">
-        <v>-1.1270585148612939</v>
+        <v>-1.587274212847414</v>
       </c>
       <c r="K129" s="1">
-        <v>-0.98671611648338342</v>
+        <v>-2.0889968453676859</v>
       </c>
       <c r="L129" s="1">
-        <v>1.06234398558962</v>
+        <v>0.50140400183211198</v>
       </c>
       <c r="M129" s="1">
-        <v>-0.32515071361736458</v>
+        <v>-0.62189701173534784</v>
       </c>
       <c r="N129" s="1">
-        <v>0.55418778978545025</v>
+        <v>-0.85098751773380321</v>
       </c>
       <c r="O129" s="1">
-        <v>0.12250887234775711</v>
+        <v>-1.440826116066658</v>
       </c>
       <c r="P129" s="1">
-        <v>0.83661570486024472</v>
+        <v>-1.895550838311221</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B130" s="1">
-        <v>2.8280441432243002E-2</v>
+        <v>-0.97851166843344595</v>
       </c>
       <c r="C130" s="1">
-        <v>-0.68131126257463492</v>
+        <v>-2.0773827306377992</v>
       </c>
       <c r="D130" s="1">
-        <v>-0.62481797380923443</v>
+        <v>-1.6772098684036461</v>
       </c>
       <c r="E130" s="1">
-        <v>-0.76867445310653215</v>
+        <v>-1.6388204683695959</v>
       </c>
       <c r="F130" s="1">
-        <v>-0.83163308105467848</v>
+        <v>-1.6524816564877161</v>
       </c>
       <c r="G130" s="1">
-        <v>1.17752693538397E-2</v>
+        <v>-0.98795326485631463</v>
       </c>
       <c r="H130" s="1">
-        <v>-0.70639064168462351</v>
+        <v>-2.0959564618114248</v>
       </c>
       <c r="I130" s="1">
-        <v>-0.66318410117598414</v>
+        <v>-1.6997249462688639</v>
       </c>
       <c r="J130" s="1">
-        <v>-0.8239966417000264</v>
+        <v>-1.6583570133046071</v>
       </c>
       <c r="K130" s="1">
-        <v>-0.90832719464185963</v>
+        <v>-1.664609099555824</v>
       </c>
       <c r="L130" s="1">
-        <v>-2.6399361697779948</v>
+        <v>0.52347975770368571</v>
       </c>
       <c r="M130" s="1">
-        <v>-2.8661860909549262</v>
+        <v>-1.4670466912278399</v>
       </c>
       <c r="N130" s="1">
-        <v>-2.8101262944433132</v>
+        <v>-0.90360226923199582</v>
       </c>
       <c r="O130" s="1">
-        <v>-2.7804591785606712</v>
+        <v>-0.68702280870365817</v>
       </c>
       <c r="P130" s="1">
-        <v>-2.627554327965484</v>
+        <v>-0.45935249781337112</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B131" s="1">
-        <v>3.48223257194148E-2</v>
+        <v>-0.91486445499008107</v>
       </c>
       <c r="C131" s="1">
-        <v>-0.67062031086842233</v>
+        <v>-1.188984895962262</v>
       </c>
       <c r="D131" s="1">
-        <v>-0.82301364467272375</v>
+        <v>-1.623818286674916</v>
       </c>
       <c r="E131" s="1">
-        <v>-2.4701526868383E-3</v>
+        <v>-1.815028042432504</v>
       </c>
       <c r="F131" s="1">
-        <v>-0.38615718716710878</v>
+        <v>-1.757463318818123</v>
       </c>
       <c r="G131" s="1">
-        <v>-0.22002120518939519</v>
+        <v>-0.91874391782344678</v>
       </c>
       <c r="H131" s="1">
-        <v>-0.81336684924801927</v>
+        <v>-1.1965922526171131</v>
       </c>
       <c r="I131" s="1">
-        <v>-0.92625021188543044</v>
+        <v>-1.636308103007055</v>
       </c>
       <c r="J131" s="1">
-        <v>-6.1430570050408202E-2</v>
+        <v>-1.825841322040884</v>
       </c>
       <c r="K131" s="1">
-        <v>-0.46604546858372559</v>
+        <v>-1.763658316461115</v>
       </c>
       <c r="L131" s="1">
-        <v>-0.29474801153578029</v>
+        <v>0.72383766635053004</v>
       </c>
       <c r="M131" s="1">
-        <v>-1.0355712424699079</v>
+        <v>-0.42124168857258132</v>
       </c>
       <c r="N131" s="1">
-        <v>-1.175604211609383</v>
+        <v>-1.0521428818079179</v>
       </c>
       <c r="O131" s="1">
-        <v>-0.37958518884539388</v>
+        <v>-1.05403689147026</v>
       </c>
       <c r="P131" s="1">
-        <v>-0.66416611411020554</v>
+        <v>-0.88494935017846899</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B132" s="1">
-        <v>4.0572082952265803E-2</v>
+        <v>-1.2177870861509901</v>
       </c>
       <c r="C132" s="1">
-        <v>-0.99345392543624056</v>
+        <v>-1.0901844241829961</v>
       </c>
       <c r="D132" s="1">
-        <v>-1.1547552896835049</v>
+        <v>-1.168182312498379</v>
       </c>
       <c r="E132" s="1">
-        <v>-1.005646789601</v>
+        <v>-1.5892111978347581</v>
       </c>
       <c r="F132" s="1">
-        <v>-0.91521802571544086</v>
+        <v>-1.858436871162418</v>
       </c>
       <c r="G132" s="1">
-        <v>-1.0084144965083999E-3</v>
+        <v>-1.215032066854562</v>
       </c>
       <c r="H132" s="1">
-        <v>-1.0786887398961851</v>
+        <v>-1.1008497674827551</v>
       </c>
       <c r="I132" s="1">
-        <v>-1.2731446887370439</v>
+        <v>-1.204790465836143</v>
       </c>
       <c r="J132" s="1">
-        <v>-1.2845636468196151</v>
+        <v>-1.674464705550244</v>
       </c>
       <c r="K132" s="1">
-        <v>-1.2924735486354171</v>
+        <v>-1.9746657638730889</v>
       </c>
       <c r="L132" s="1">
-        <v>2.3399548382403261</v>
+        <v>0.84084819189750559</v>
       </c>
       <c r="M132" s="1">
-        <v>0.72244741033573756</v>
+        <v>0.38368653134556591</v>
       </c>
       <c r="N132" s="1">
-        <v>0.71896803010604615</v>
+        <v>0.12647425324793979</v>
       </c>
       <c r="O132" s="1">
-        <v>4.58757394345801E-2</v>
+        <v>-0.56673424448604037</v>
       </c>
       <c r="P132" s="1">
-        <v>-0.31534991924995559</v>
+        <v>-0.85580129225960189</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B133" s="1">
-        <v>5.3496541667385801E-2</v>
+        <v>-0.81204816976902361</v>
       </c>
       <c r="C133" s="1">
-        <v>-1.135740644177885</v>
+        <v>-1.410333833214928</v>
       </c>
       <c r="D133" s="1">
-        <v>-0.91092644584042826</v>
+        <v>-1.4035784077647999</v>
       </c>
       <c r="E133" s="1">
-        <v>-1.203872011373597</v>
+        <v>-1.476326749742275</v>
       </c>
       <c r="F133" s="1">
-        <v>-1.4988753988853141</v>
+        <v>-1.56042493095202</v>
       </c>
       <c r="G133" s="1">
-        <v>3.1986681087267002E-2</v>
+        <v>-0.82122914357598409</v>
       </c>
       <c r="H133" s="1">
-        <v>-1.173415887004186</v>
+        <v>-1.431672249603319</v>
       </c>
       <c r="I133" s="1">
-        <v>-0.95948928075753215</v>
+        <v>-1.426040324825397</v>
       </c>
       <c r="J133" s="1">
-        <v>-1.266791369423832</v>
+        <v>-1.510862029716979</v>
       </c>
       <c r="K133" s="1">
-        <v>-1.599096859947938</v>
+        <v>-1.5788469923799131</v>
       </c>
       <c r="L133" s="1">
-        <v>2.3635957654564699</v>
+        <v>0.84328192010290159</v>
       </c>
       <c r="M133" s="1">
-        <v>0.15620509686817349</v>
+        <v>-0.33096475711243772</v>
       </c>
       <c r="N133" s="1">
-        <v>0.791639400982456</v>
+        <v>-0.14940036859138309</v>
       </c>
       <c r="O133" s="1">
-        <v>0.33726212113960591</v>
+        <v>-0.3024980053441233</v>
       </c>
       <c r="P133" s="1">
-        <v>-0.47374402458577131</v>
+        <v>-0.16149876101614891</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="B134" s="1">
-        <v>7.5226417018104799E-2</v>
+        <v>0.50740392664618106</v>
       </c>
       <c r="C134" s="1">
-        <v>0.46452659083169828</v>
+        <v>-1.72441296486577</v>
       </c>
       <c r="D134" s="1">
-        <v>4.9066201154519998E-2</v>
+        <v>-1.5937439680123091</v>
       </c>
       <c r="E134" s="1">
-        <v>0.56214674803582332</v>
+        <v>-1.7860411511212131</v>
       </c>
       <c r="F134" s="1">
-        <v>0.82404765749445619</v>
+        <v>-1.409655545525681</v>
       </c>
       <c r="G134" s="1">
-        <v>-0.1172985674627936</v>
+        <v>0.48087452935756098</v>
       </c>
       <c r="H134" s="1">
-        <v>1.19164756833547E-2</v>
+        <v>-1.784810838546399</v>
       </c>
       <c r="I134" s="1">
-        <v>-0.46479738264193038</v>
+        <v>-1.6788626291993769</v>
       </c>
       <c r="J134" s="1">
-        <v>-0.1718034409799255</v>
+        <v>-1.910760840422554</v>
       </c>
       <c r="K134" s="1">
-        <v>-0.17047114547948131</v>
+        <v>-1.5613863085365951</v>
       </c>
       <c r="L134" s="1">
-        <v>-1.1101791459605199</v>
+        <v>0.93445601461142302</v>
       </c>
       <c r="M134" s="1">
-        <v>-0.76742404682901644</v>
+        <v>-1.416726924425751</v>
       </c>
       <c r="N134" s="1">
-        <v>-1.1477882712587011</v>
+        <v>-1.2189749158850181</v>
       </c>
       <c r="O134" s="1">
-        <v>-0.74112701429268502</v>
+        <v>-1.4235942512859301</v>
       </c>
       <c r="P134" s="1">
-        <v>-0.38894723903810141</v>
+        <v>-0.95695211737659636</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="B135" s="1">
-        <v>7.6749029743925695E-2</v>
+        <v>-0.75742544000336887</v>
       </c>
       <c r="C135" s="1">
-        <v>-0.88322030139180363</v>
+        <v>-0.94742675086313966</v>
       </c>
       <c r="D135" s="1">
-        <v>-1.191219224579759</v>
+        <v>-0.93537248723025479</v>
       </c>
       <c r="E135" s="1">
-        <v>-1.6760634122453451</v>
+        <v>-0.63292612016244909</v>
       </c>
       <c r="F135" s="1">
-        <v>-2.0726187638532041</v>
+        <v>-0.60663348864055933</v>
       </c>
       <c r="G135" s="1">
-        <v>3.2734705361245398E-2</v>
+        <v>-0.76542129095960287</v>
       </c>
       <c r="H135" s="1">
-        <v>-0.94001991961854459</v>
+        <v>-0.98408432665402057</v>
       </c>
       <c r="I135" s="1">
-        <v>-1.254124299175027</v>
+        <v>-1.009835000688341</v>
       </c>
       <c r="J135" s="1">
-        <v>-1.7446903079768159</v>
+        <v>-0.77308723327512552</v>
       </c>
       <c r="K135" s="1">
-        <v>-2.1518060722501851</v>
+        <v>-0.76983777480884308</v>
       </c>
       <c r="L135" s="1">
-        <v>0.1237174786738835</v>
+        <v>0.93520370500280769</v>
       </c>
       <c r="M135" s="1">
-        <v>-0.78469612009012224</v>
+        <v>0.27689805128508033</v>
       </c>
       <c r="N135" s="1">
-        <v>-1.0723417231417769</v>
+        <v>0.23152103021176901</v>
       </c>
       <c r="O135" s="1">
-        <v>-1.5434161742838159</v>
+        <v>0.53383120170143861</v>
       </c>
       <c r="P135" s="1">
-        <v>-1.9137816453353931</v>
+        <v>0.8611160047361478</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B136" s="1">
-        <v>0.20568663526027059</v>
+        <v>-2.4695773038081068</v>
       </c>
       <c r="C136" s="1">
-        <v>-0.49863517593183648</v>
+        <v>-2.075556903282386</v>
       </c>
       <c r="D136" s="1">
-        <v>-0.39426121730494329</v>
+        <v>-2.1372483323420268</v>
       </c>
       <c r="E136" s="1">
-        <v>-0.64315082073006469</v>
+        <v>-2.1447312522184458</v>
       </c>
       <c r="F136" s="1">
-        <v>-0.63873735138177867</v>
+        <v>-2.0202904413701841</v>
       </c>
       <c r="G136" s="1">
-        <v>2.3171678897392401E-2</v>
+        <v>-2.3847611725607591</v>
       </c>
       <c r="H136" s="1">
-        <v>-0.77093449533511604</v>
+        <v>-1.9071710057666349</v>
       </c>
       <c r="I136" s="1">
-        <v>-0.55426390438525908</v>
+        <v>-1.8825056860933049</v>
       </c>
       <c r="J136" s="1">
-        <v>-0.70292465202319465</v>
+        <v>-1.8437489918171539</v>
       </c>
       <c r="K136" s="1">
-        <v>-0.61597625929028454</v>
+        <v>-1.7124975559339619</v>
       </c>
       <c r="L136" s="1">
-        <v>-1.721071379269749</v>
+        <v>0.9451601589150177</v>
       </c>
       <c r="M136" s="1">
-        <v>-1.70857750311457</v>
+        <v>0.22793692793578249</v>
       </c>
       <c r="N136" s="1">
-        <v>-1.662159151564244</v>
+        <v>0.70292648199011531</v>
       </c>
       <c r="O136" s="1">
-        <v>-2.0680965825858642</v>
+        <v>0.7676695313799794</v>
       </c>
       <c r="P136" s="1">
-        <v>-2.5501156185614779</v>
+        <v>0.91991679074547639</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B137" s="1">
-        <v>0.24438603505839279</v>
+        <v>-0.2340099812205782</v>
       </c>
       <c r="C137" s="1">
-        <v>-0.47071867777749188</v>
+        <v>-0.16419149144296361</v>
       </c>
       <c r="D137" s="1">
-        <v>3.3535030833844799E-2</v>
+        <v>-0.38253664677235028</v>
       </c>
       <c r="E137" s="1">
-        <v>-0.88184391654646943</v>
+        <v>-0.86957330446733372</v>
       </c>
       <c r="F137" s="1">
-        <v>-1.2682791355081391</v>
+        <v>-1.8243898874433691</v>
       </c>
       <c r="G137" s="1">
-        <v>0.157820332388107</v>
+        <v>-0.25886681138798928</v>
       </c>
       <c r="H137" s="1">
-        <v>-0.6617628446480035</v>
+        <v>-0.21505294847402881</v>
       </c>
       <c r="I137" s="1">
-        <v>-8.8287287789028696E-2</v>
+        <v>-0.44762462153174082</v>
       </c>
       <c r="J137" s="1">
-        <v>-1.001801339170503</v>
+        <v>-0.95045252548476744</v>
       </c>
       <c r="K137" s="1">
-        <v>-1.427016842156124</v>
+        <v>-1.901730846119507</v>
       </c>
       <c r="L137" s="1">
-        <v>-0.13414917145616059</v>
+        <v>0.98105275190940511</v>
       </c>
       <c r="M137" s="1">
-        <v>-0.61527620857544674</v>
+        <v>1.825633533545429</v>
       </c>
       <c r="N137" s="1">
-        <v>-0.25642526712659969</v>
+        <v>1.934521640588762</v>
       </c>
       <c r="O137" s="1">
-        <v>-1.044048719993222</v>
+        <v>1.0917645065312021</v>
       </c>
       <c r="P137" s="1">
-        <v>-1.341649431751901</v>
+        <v>0.2288790725645207</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B138" s="1">
-        <v>0.34558336517471422</v>
+        <v>-2.1129843496659939</v>
       </c>
       <c r="C138" s="1">
-        <v>-0.66811901654318395</v>
+        <v>-1.9762843902470799</v>
       </c>
       <c r="D138" s="1">
-        <v>-0.79096534319224776</v>
+        <v>-2.0541530602357829</v>
       </c>
       <c r="E138" s="1">
-        <v>-1.112477184786957</v>
+        <v>-1.8611059079846519</v>
       </c>
       <c r="F138" s="1">
-        <v>-1.6322891224051641</v>
+        <v>-1.9309028414985421</v>
       </c>
       <c r="G138" s="1">
-        <v>0.30259936511744578</v>
+        <v>-2.081595172287249</v>
       </c>
       <c r="H138" s="1">
-        <v>-0.7246101912222922</v>
+        <v>-1.9169524367700479</v>
       </c>
       <c r="I138" s="1">
-        <v>-0.84242737701638226</v>
+        <v>-1.9418662224741541</v>
       </c>
       <c r="J138" s="1">
-        <v>-1.2282610573252859</v>
+        <v>-1.726742224201298</v>
       </c>
       <c r="K138" s="1">
-        <v>-1.6511846199430149</v>
+        <v>-1.7521728054693599</v>
       </c>
       <c r="L138" s="1">
-        <v>-0.19610910625683431</v>
+        <v>1.0466878065933469</v>
       </c>
       <c r="M138" s="1">
-        <v>-0.94010930392864367</v>
+        <v>-9.6607426964856802E-2</v>
       </c>
       <c r="N138" s="1">
-        <v>-1.119099117591893</v>
+        <v>0.45344672683404802</v>
       </c>
       <c r="O138" s="1">
-        <v>-1.282091839796746</v>
+        <v>0.77685500844144395</v>
       </c>
       <c r="P138" s="1">
-        <v>-2.245417826980983</v>
+        <v>1.2416607424847179</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="B139" s="1">
-        <v>0.45185316984994439</v>
+        <v>-2.45069591113239E-2</v>
       </c>
       <c r="C139" s="1">
-        <v>-1.1488148251971699</v>
+        <v>-1.1624744566401479</v>
       </c>
       <c r="D139" s="1">
-        <v>-0.87736649994099336</v>
+        <v>-0.50647210615834237</v>
       </c>
       <c r="E139" s="1">
-        <v>-1.59537783007066</v>
+        <v>-0.96979888470775899</v>
       </c>
       <c r="F139" s="1">
-        <v>-0.74942656862899359</v>
+        <v>-0.83600613563064852</v>
       </c>
       <c r="G139" s="1">
-        <v>0.40785556006684948</v>
+        <v>-9.1736011464168002E-2</v>
       </c>
       <c r="H139" s="1">
-        <v>-1.208692853697368</v>
+        <v>-1.270716321118414</v>
       </c>
       <c r="I139" s="1">
-        <v>-0.97023912551081026</v>
+        <v>-0.64059367200570139</v>
       </c>
       <c r="J139" s="1">
-        <v>-1.6786412889265749</v>
+        <v>-1.1270585148612939</v>
       </c>
       <c r="K139" s="1">
-        <v>-0.8722030757824446</v>
+        <v>-0.98671611648338342</v>
       </c>
       <c r="L139" s="1">
-        <v>0.1703863194001233</v>
+        <v>1.06234398558962</v>
       </c>
       <c r="M139" s="1">
-        <v>-1.140793709095167</v>
+        <v>-0.32515071361736458</v>
       </c>
       <c r="N139" s="1">
-        <v>-0.67663611720046957</v>
+        <v>0.55418778978545025</v>
       </c>
       <c r="O139" s="1">
-        <v>-1.263224971896451</v>
+        <v>0.12250887234775711</v>
       </c>
       <c r="P139" s="1">
-        <v>-0.21885524633659281</v>
+        <v>0.83661570486024472</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B140" s="1">
-        <v>0.46753072328644552</v>
+        <v>2.629659579546431</v>
       </c>
       <c r="C140" s="1">
-        <v>-0.39238174591548952</v>
+        <v>2.7191825797711471</v>
       </c>
       <c r="D140" s="1">
-        <v>-0.4107277500576233</v>
+        <v>3.2678775914513718</v>
       </c>
       <c r="E140" s="1">
-        <v>-0.81497957883953276</v>
+        <v>3.707424060533727</v>
       </c>
       <c r="F140" s="1">
-        <v>-1.714680349349909</v>
+        <v>2.2259410086416249</v>
       </c>
       <c r="G140" s="1">
-        <v>0.35362141399767139</v>
+        <v>1.651202337675334</v>
       </c>
       <c r="H140" s="1">
-        <v>-0.64233742877259281</v>
+        <v>1.456455095457593</v>
       </c>
       <c r="I140" s="1">
-        <v>-0.72506021884454164</v>
+        <v>1.3786397289691239</v>
       </c>
       <c r="J140" s="1">
-        <v>-1.175681177413622</v>
+        <v>1.444968912441672</v>
       </c>
       <c r="K140" s="1">
-        <v>-1.846686618405301</v>
+        <v>1.783135617738772</v>
       </c>
       <c r="L140" s="1">
-        <v>-0.48114466752640578</v>
+        <v>1.324265498817168</v>
       </c>
       <c r="M140" s="1">
-        <v>-0.65077912599267007</v>
+        <v>1.6578965208234639</v>
       </c>
       <c r="N140" s="1">
-        <v>-0.42766795791789092</v>
+        <v>2.788596678789137</v>
       </c>
       <c r="O140" s="1">
-        <v>-0.59608610791073513</v>
+        <v>5.1311197658857974</v>
       </c>
       <c r="P140" s="1">
-        <v>-1.326425245436901</v>
+        <v>0.82417568100075278</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B141" s="1">
-        <v>0.50740392664618106</v>
+        <v>-2.6596289998311411</v>
       </c>
       <c r="C141" s="1">
-        <v>-1.72441296486577</v>
+        <v>-4.6002777689998702</v>
       </c>
       <c r="D141" s="1">
-        <v>-1.5937439680123091</v>
+        <v>-3.0284719499577721</v>
       </c>
       <c r="E141" s="1">
-        <v>-1.7860411511212131</v>
+        <v>-0.98693397961087082</v>
       </c>
       <c r="F141" s="1">
-        <v>-1.409655545525681</v>
+        <v>-0.46406402094147647</v>
       </c>
       <c r="G141" s="1">
-        <v>0.48087452935756098</v>
+        <v>-2.552019773646343</v>
       </c>
       <c r="H141" s="1">
-        <v>-1.784810838546399</v>
+        <v>-4.5639051210764814</v>
       </c>
       <c r="I141" s="1">
-        <v>-1.6788626291993769</v>
+        <v>-3.174450241118846</v>
       </c>
       <c r="J141" s="1">
-        <v>-1.910760840422554</v>
+        <v>-1.4807829324470649</v>
       </c>
       <c r="K141" s="1">
-        <v>-1.5613863085365951</v>
+        <v>-1.0108533197763301</v>
       </c>
       <c r="L141" s="1">
-        <v>0.93445601461142302</v>
+        <v>1.410645231465961</v>
       </c>
       <c r="M141" s="1">
-        <v>-1.416726924425751</v>
+        <v>-1.541942197142617</v>
       </c>
       <c r="N141" s="1">
-        <v>-1.2189749158850181</v>
+        <v>-1.9818341412475109</v>
       </c>
       <c r="O141" s="1">
-        <v>-1.4235942512859301</v>
+        <v>-0.90956123896998142</v>
       </c>
       <c r="P141" s="1">
-        <v>-0.95695211737659636</v>
+        <v>-0.77800031766821909</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="B142" s="1">
-        <v>0.53209692448544688</v>
+        <v>-3.8673313455753289</v>
       </c>
       <c r="C142" s="1">
-        <v>-1.150394728542554</v>
+        <v>-2.274000068011905</v>
       </c>
       <c r="D142" s="1">
-        <v>-1.254958963397391</v>
+        <v>-2.4148233000882371</v>
       </c>
       <c r="E142" s="1">
-        <v>-1.708702346143921</v>
+        <v>-2.1013909333511691</v>
       </c>
       <c r="F142" s="1">
-        <v>-1.535794238777149</v>
+        <v>-2.2961732881105452</v>
       </c>
       <c r="G142" s="1">
-        <v>0.50548667096072886</v>
+        <v>-3.0347407014045831</v>
       </c>
       <c r="H142" s="1">
-        <v>-1.2418594266632139</v>
+        <v>-1.6743397388870249</v>
       </c>
       <c r="I142" s="1">
-        <v>-1.333027986384816</v>
+        <v>-1.833804566037212</v>
       </c>
       <c r="J142" s="1">
-        <v>-1.7927945569543271</v>
+        <v>-1.572169143795177</v>
       </c>
       <c r="K142" s="1">
-        <v>-1.586369902284708</v>
+        <v>-1.700870677743747</v>
       </c>
       <c r="L142" s="1">
-        <v>5.0270865823166551</v>
+        <v>1.814407350731736</v>
       </c>
       <c r="M142" s="1">
-        <v>-0.393865613940726</v>
+        <v>1.0035528657110101E-2</v>
       </c>
       <c r="N142" s="1">
-        <v>-0.31296051794669838</v>
+        <v>-0.40719461563317522</v>
       </c>
       <c r="O142" s="1">
-        <v>-1.2163907268279111</v>
+        <v>-0.37418855641720961</v>
       </c>
       <c r="P142" s="1">
-        <v>-0.65922000075389309</v>
+        <v>-0.38136329086674159</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B143" s="1">
-        <v>0.70282440290997839</v>
+        <v>-1.2280311960597441</v>
       </c>
       <c r="C143" s="1">
-        <v>-0.5770389383654343</v>
+        <v>-1.337586858025938</v>
       </c>
       <c r="D143" s="1">
-        <v>-0.86452486099979065</v>
+        <v>-1.436740103999284</v>
       </c>
       <c r="E143" s="1">
-        <v>-1.5157315704869361</v>
+        <v>-1.2197974641233491</v>
       </c>
       <c r="F143" s="1">
-        <v>-2.0218474145494429</v>
+        <v>-1.958571009451112</v>
       </c>
       <c r="G143" s="1">
-        <v>0.61669301130432519</v>
+        <v>-1.2273901902590021</v>
       </c>
       <c r="H143" s="1">
-        <v>-0.66122406891515961</v>
+        <v>-1.3330512688187841</v>
       </c>
       <c r="I143" s="1">
-        <v>-0.9499946729819968</v>
+        <v>-1.4344952176814381</v>
       </c>
       <c r="J143" s="1">
-        <v>-1.587274212847414</v>
+        <v>-1.2633036913529949</v>
       </c>
       <c r="K143" s="1">
-        <v>-2.0889968453676859</v>
+        <v>-2.0101837843667019</v>
       </c>
       <c r="L143" s="1">
-        <v>0.50140400183211198</v>
+        <v>2.2694009221221019</v>
       </c>
       <c r="M143" s="1">
-        <v>-0.62189701173534784</v>
+        <v>1.883486702225547</v>
       </c>
       <c r="N143" s="1">
-        <v>-0.85098751773380321</v>
+        <v>1.9182407949206459</v>
       </c>
       <c r="O143" s="1">
-        <v>-1.440826116066658</v>
+        <v>1.600715388311883</v>
       </c>
       <c r="P143" s="1">
-        <v>-1.895550838311221</v>
+        <v>1.3911201913560181</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="B144" s="1">
-        <v>0.74125470317426723</v>
+        <v>4.0572082952265803E-2</v>
       </c>
       <c r="C144" s="1">
-        <v>5.0881037301926613</v>
+        <v>-0.99345392543624056</v>
       </c>
       <c r="D144" s="1">
-        <v>4.3151638845854041</v>
+        <v>-1.1547552896835049</v>
       </c>
       <c r="E144" s="1">
-        <v>-8.30062761449602E-2</v>
+        <v>-1.005646789601</v>
       </c>
       <c r="F144" s="1">
-        <v>1.078545215844497</v>
+        <v>-0.91521802571544086</v>
       </c>
       <c r="G144" s="1">
-        <v>0.15543584534209401</v>
+        <v>-1.0084144965083999E-3</v>
       </c>
       <c r="H144" s="1">
-        <v>2.918534664016462</v>
+        <v>-1.0786887398961851</v>
       </c>
       <c r="I144" s="1">
-        <v>0.77270800760226999</v>
+        <v>-1.2731446887370439</v>
       </c>
       <c r="J144" s="1">
-        <v>-1.3085461145657731</v>
+        <v>-1.2845636468196151</v>
       </c>
       <c r="K144" s="1">
-        <v>-0.55468399384874301</v>
+        <v>-1.2924735486354171</v>
       </c>
       <c r="L144" s="1">
-        <v>-0.32133763453156028</v>
+        <v>2.3399548382403261</v>
       </c>
       <c r="M144" s="1">
-        <v>-1.673077684325365</v>
+        <v>0.72244741033573756</v>
       </c>
       <c r="N144" s="1">
-        <v>-0.76407493466297738</v>
+        <v>0.71896803010604615</v>
       </c>
       <c r="O144" s="1">
-        <v>-2.1851556514611912</v>
+        <v>4.58757394345801E-2</v>
       </c>
       <c r="P144" s="1">
-        <v>-1.452025698477593</v>
+        <v>-0.31534991924995559</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B145" s="1">
-        <v>0.86313583460101673</v>
+        <v>5.3496541667385801E-2</v>
       </c>
       <c r="C145" s="1">
-        <v>0.15862017846646401</v>
+        <v>-1.135740644177885</v>
       </c>
       <c r="D145" s="1">
-        <v>-0.43389904998461731</v>
+        <v>-0.91092644584042826</v>
       </c>
       <c r="E145" s="1">
-        <v>-0.27620818398610902</v>
+        <v>-1.203872011373597</v>
       </c>
       <c r="F145" s="1">
-        <v>-0.1128312171137377</v>
+        <v>-1.4988753988853141</v>
       </c>
       <c r="G145" s="1">
-        <v>0.46420264910093201</v>
+        <v>3.1986681087267002E-2</v>
       </c>
       <c r="H145" s="1">
-        <v>-0.19157602928563219</v>
+        <v>-1.173415887004186</v>
       </c>
       <c r="I145" s="1">
-        <v>-0.80111328338067056</v>
+        <v>-0.95948928075753215</v>
       </c>
       <c r="J145" s="1">
-        <v>-0.53263584373794992</v>
+        <v>-1.266791369423832</v>
       </c>
       <c r="K145" s="1">
-        <v>-0.32979620764743522</v>
+        <v>-1.599096859947938</v>
       </c>
       <c r="L145" s="1">
-        <v>-0.35965357546649318</v>
+        <v>2.3635957654564699</v>
       </c>
       <c r="M145" s="1">
-        <v>-1.124815715737834</v>
+        <v>0.15620509686817349</v>
       </c>
       <c r="N145" s="1">
-        <v>-1.463652613215195</v>
+        <v>0.791639400982456</v>
       </c>
       <c r="O145" s="1">
-        <v>-1.418892730742596</v>
+        <v>0.33726212113960591</v>
       </c>
       <c r="P145" s="1">
-        <v>-1.319541340971879</v>
+        <v>-0.47374402458577131</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B146" s="1">
-        <v>1.0418311551581281</v>
+        <v>-0.23292816967348531</v>
       </c>
       <c r="C146" s="1">
-        <v>1.1047914539659629</v>
+        <v>-1.4096922214768319</v>
       </c>
       <c r="D146" s="1">
-        <v>1.2643024652649</v>
+        <v>-1.5617914016111429</v>
       </c>
       <c r="E146" s="1">
-        <v>0.73774060989256929</v>
+        <v>-1.936375419281452</v>
       </c>
       <c r="F146" s="1">
-        <v>0.56783731239375679</v>
+        <v>-1.537137853757004</v>
       </c>
       <c r="G146" s="1">
-        <v>0.61523243710825315</v>
+        <v>-0.2417653961409458</v>
       </c>
       <c r="H146" s="1">
-        <v>0.27450782760691272</v>
+        <v>-1.438124410736062</v>
       </c>
       <c r="I146" s="1">
-        <v>8.7425641487687E-3</v>
+        <v>-1.5990038165326721</v>
       </c>
       <c r="J146" s="1">
-        <v>-0.3235354644247419</v>
+        <v>-1.981194373433899</v>
       </c>
       <c r="K146" s="1">
-        <v>-0.5374919058089791</v>
+        <v>-1.5800952405663149</v>
       </c>
       <c r="L146" s="1">
-        <v>-3.0047403699116022</v>
+        <v>2.423596561992055</v>
       </c>
       <c r="M146" s="1">
-        <v>-3.477504540396994</v>
+        <v>-0.41570342649981812</v>
       </c>
       <c r="N146" s="1">
-        <v>-3.4884296695168859</v>
+        <v>-0.64707242078287341</v>
       </c>
       <c r="O146" s="1">
-        <v>-3.7613246451760829</v>
+        <v>-1.0137412425408641</v>
       </c>
       <c r="P146" s="1">
-        <v>-3.6502349830032959</v>
+        <v>-0.61041449069942111</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B147" s="1">
-        <v>2.629659579546431</v>
+        <v>3.5382560068348532</v>
       </c>
       <c r="C147" s="1">
-        <v>2.7191825797711471</v>
+        <v>2.1494985071806072</v>
       </c>
       <c r="D147" s="1">
-        <v>3.2678775914513718</v>
+        <v>0.72839358335281845</v>
       </c>
       <c r="E147" s="1">
-        <v>3.707424060533727</v>
+        <v>0.62432386664525674</v>
       </c>
       <c r="F147" s="1">
-        <v>2.2259410086416249</v>
+        <v>4.6412728360211926</v>
       </c>
       <c r="G147" s="1">
-        <v>1.651202337675334</v>
+        <v>0.57161603808305805</v>
       </c>
       <c r="H147" s="1">
-        <v>1.456455095457593</v>
+        <v>1.5029955677926059</v>
       </c>
       <c r="I147" s="1">
-        <v>1.3786397289691239</v>
+        <v>1.702252580276411</v>
       </c>
       <c r="J147" s="1">
-        <v>1.444968912441672</v>
+        <v>2.7821276465632239</v>
       </c>
       <c r="K147" s="1">
-        <v>1.783135617738772</v>
+        <v>4.2972772280404206</v>
       </c>
       <c r="L147" s="1">
-        <v>1.324265498817168</v>
+        <v>2.6668156570131512</v>
       </c>
       <c r="M147" s="1">
-        <v>1.6578965208234639</v>
+        <v>4.2959319831669784</v>
       </c>
       <c r="N147" s="1">
-        <v>2.788596678789137</v>
+        <v>4.0632002080767542</v>
       </c>
       <c r="O147" s="1">
-        <v>5.1311197658857974</v>
+        <v>2.2443059467447259</v>
       </c>
       <c r="P147" s="1">
-        <v>0.82417568100075278</v>
+        <v>-1.0164397008472399</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B148" s="1">
-        <v>2.7455570923549741</v>
+        <v>-0.77693756196437302</v>
       </c>
       <c r="C148" s="1">
-        <v>-4.1319191048719723</v>
+        <v>-0.81570800361929685</v>
       </c>
       <c r="D148" s="1">
-        <v>-2.8417026925227762</v>
+        <v>-0.74828637936149078</v>
       </c>
       <c r="E148" s="1">
-        <v>-2.076548025358345</v>
+        <v>-0.98118944500052474</v>
       </c>
       <c r="F148" s="1">
-        <v>-1.884053831497787</v>
+        <v>-1.2780298448630369</v>
       </c>
       <c r="G148" s="1">
-        <v>2.2099366130102629</v>
+        <v>-0.77982259073321958</v>
       </c>
       <c r="H148" s="1">
-        <v>-5.0166868976599019</v>
+        <v>-0.84323354334692913</v>
       </c>
       <c r="I148" s="1">
-        <v>-2.6297863714486209</v>
+        <v>-0.80821903873758671</v>
       </c>
       <c r="J148" s="1">
-        <v>-1.8677729205257121</v>
+        <v>-1.089270084110078</v>
       </c>
       <c r="K148" s="1">
-        <v>-1.688839046648388</v>
+        <v>-1.425251506728906</v>
       </c>
       <c r="L148" s="1">
-        <v>9.1519511386795234</v>
+        <v>4.1925211233299233</v>
       </c>
       <c r="M148" s="1">
-        <v>-2.4021341885927279</v>
+        <v>2.7924230325181032</v>
       </c>
       <c r="N148" s="1">
-        <v>-0.64466960104055127</v>
+        <v>2.8667743477852849</v>
       </c>
       <c r="O148" s="1">
-        <v>-0.17141680657676231</v>
+        <v>2.3904206948063029</v>
       </c>
       <c r="P148" s="1">
-        <v>-0.13984986080173309</v>
+        <v>2.2651961561296772</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="B149" s="1">
-        <v>3.2395694455569459</v>
+        <v>0.53209692448544688</v>
       </c>
       <c r="C149" s="1">
-        <v>1.186505670071857</v>
+        <v>-1.150394728542554</v>
       </c>
       <c r="D149" s="1">
-        <v>1.538861820067466</v>
+        <v>-1.254958963397391</v>
       </c>
       <c r="E149" s="1">
-        <v>0.8477336941657676</v>
+        <v>-1.708702346143921</v>
       </c>
       <c r="F149" s="1">
-        <v>1.428814133444156</v>
+        <v>-1.535794238777149</v>
       </c>
       <c r="G149" s="1">
-        <v>0.94695671968672679</v>
+        <v>0.50548667096072886</v>
       </c>
       <c r="H149" s="1">
-        <v>-0.1097540147210192</v>
+        <v>-1.2418594266632139</v>
       </c>
       <c r="I149" s="1">
-        <v>0.18305131200060201</v>
+        <v>-1.333027986384816</v>
       </c>
       <c r="J149" s="1">
-        <v>-0.31790744402875032</v>
+        <v>-1.7927945569543271</v>
       </c>
       <c r="K149" s="1">
-        <v>5.5996321047630401E-2</v>
+        <v>-1.586369902284708</v>
       </c>
       <c r="L149" s="1">
-        <v>4.8899992865286797E-2</v>
+        <v>5.0270865823166551</v>
       </c>
       <c r="M149" s="1">
-        <v>-0.95646094753528632</v>
+        <v>-0.393865613940726</v>
       </c>
       <c r="N149" s="1">
-        <v>-1.233585631849808</v>
+        <v>-0.31296051794669838</v>
       </c>
       <c r="O149" s="1">
-        <v>-1.4984915593499759</v>
+        <v>-1.2163907268279111</v>
       </c>
       <c r="P149" s="1">
-        <v>-1.758367367900519</v>
+        <v>-0.65922000075389309</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B150" s="1">
-        <v>3.5382560068348532</v>
+        <v>2.7455570923549741</v>
       </c>
       <c r="C150" s="1">
-        <v>2.1494985071806072</v>
+        <v>-4.1319191048719723</v>
       </c>
       <c r="D150" s="1">
-        <v>0.72839358335281845</v>
+        <v>-2.8417026925227762</v>
       </c>
       <c r="E150" s="1">
-        <v>0.62432386664525674</v>
+        <v>-2.076548025358345</v>
       </c>
       <c r="F150" s="1">
-        <v>4.6412728360211926</v>
+        <v>-1.884053831497787</v>
       </c>
       <c r="G150" s="1">
-        <v>0.57161603808305805</v>
+        <v>2.2099366130102629</v>
       </c>
       <c r="H150" s="1">
-        <v>1.5029955677926059</v>
+        <v>-5.0166868976599019</v>
       </c>
       <c r="I150" s="1">
-        <v>1.702252580276411</v>
+        <v>-2.6297863714486209</v>
       </c>
       <c r="J150" s="1">
-        <v>2.7821276465632239</v>
+        <v>-1.8677729205257121</v>
       </c>
       <c r="K150" s="1">
-        <v>4.2972772280404206</v>
+        <v>-1.688839046648388</v>
       </c>
       <c r="L150" s="1">
-        <v>2.6668156570131512</v>
+        <v>9.1519511386795234</v>
       </c>
       <c r="M150" s="1">
-        <v>4.2959319831669784</v>
+        <v>-2.4021341885927279</v>
       </c>
       <c r="N150" s="1">
-        <v>4.0632002080767542</v>
+        <v>-0.64466960104055127</v>
       </c>
       <c r="O150" s="1">
-        <v>2.2443059467447259</v>
+        <v>-0.17141680657676231</v>
       </c>
       <c r="P150" s="1">
-        <v>-1.0164397008472399</v>
+        <v>-0.13984986080173309</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:P150">
-    <sortCondition ref="B2:B150"/>
+    <sortCondition ref="L2:L150"/>
   </sortState>
   <conditionalFormatting sqref="B1:F150">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
@@ -15882,7 +15862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P148"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>

--- a/test-results/Cointegration/Cointegration_results_fixed.xlsx
+++ b/test-results/Cointegration/Cointegration_results_fixed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18200" windowHeight="17620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18200" windowHeight="17620"/>
   </bookViews>
   <sheets>
     <sheet name="PctPopUrbanGDPPerCapRealLCU" sheetId="1" r:id="rId1"/>
@@ -569,27 +569,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -935,11 +915,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P150"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1043,4552 +1026,4552 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
-        <v>-8.3192374981597919</v>
+        <v>-4.7485493573411404</v>
       </c>
       <c r="C3" s="1">
-        <v>-7.1599762540229852</v>
+        <v>-3.7286354208048369</v>
       </c>
       <c r="D3" s="1">
-        <v>-1.1925386154498789</v>
+        <v>-2.8732743691081679</v>
       </c>
       <c r="E3" s="1">
-        <v>-1.672225490306952</v>
+        <v>-2.908740623150627</v>
       </c>
       <c r="F3" s="1">
-        <v>-0.85435652751555002</v>
+        <v>-2.9498581564881681</v>
       </c>
       <c r="G3" s="1">
-        <v>-3.85513612267457</v>
+        <v>-4.51670816750614</v>
       </c>
       <c r="H3" s="1">
-        <v>2.4529040856500501E-2</v>
+        <v>-3.8038934371266828</v>
       </c>
       <c r="I3" s="1">
-        <v>0.77493775737746895</v>
+        <v>-2.8866420870996512</v>
       </c>
       <c r="J3" s="1">
-        <v>0.49400007099957338</v>
+        <v>-2.9279048197083921</v>
       </c>
       <c r="K3" s="1">
-        <v>0.46899152727369159</v>
+        <v>-2.9648957284579138</v>
       </c>
       <c r="L3" s="1">
-        <v>-6.2619703041785479</v>
+        <v>-6.2920161444510532</v>
       </c>
       <c r="M3" s="1">
-        <v>-5.4620043926928261</v>
+        <v>-3.8072460157407728</v>
       </c>
       <c r="N3" s="1">
-        <v>-2.1451029061237201</v>
+        <v>-3.3354123106602489</v>
       </c>
       <c r="O3" s="1">
-        <v>-2.713455626190822</v>
+        <v>-3.439528743956596</v>
       </c>
       <c r="P3" s="1">
-        <v>-3.6464062015080101</v>
+        <v>-3.6567138120320548</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1">
-        <v>-6.5006308147196341</v>
+        <v>-8.3192374981597919</v>
       </c>
       <c r="C4" s="1">
-        <v>-3.0986659681075901</v>
+        <v>-7.1599762540229852</v>
       </c>
       <c r="D4" s="1">
-        <v>-3.3925697371428809</v>
+        <v>-1.1925386154498789</v>
       </c>
       <c r="E4" s="1">
-        <v>-3.5373750485508841</v>
+        <v>-1.672225490306952</v>
       </c>
       <c r="F4" s="1">
-        <v>-3.6116206109011828</v>
+        <v>-0.85435652751555002</v>
       </c>
       <c r="G4" s="1">
-        <v>-4.1725718352477559</v>
+        <v>-3.85513612267457</v>
       </c>
       <c r="H4" s="1">
-        <v>-2.156718366406277</v>
+        <v>2.4529040856500501E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>-2.206735495013505</v>
+        <v>0.77493775737746895</v>
       </c>
       <c r="J4" s="1">
-        <v>-2.121694665612841</v>
+        <v>0.49400007099957338</v>
       </c>
       <c r="K4" s="1">
-        <v>-1.9746204470545961</v>
+        <v>0.46899152727369159</v>
       </c>
       <c r="L4" s="1">
-        <v>-0.43722552237274798</v>
+        <v>-6.2619703041785479</v>
       </c>
       <c r="M4" s="1">
-        <v>-2.4240961230847642</v>
+        <v>-5.4620043926928261</v>
       </c>
       <c r="N4" s="1">
-        <v>-2.5847423944013199</v>
+        <v>-2.1451029061237201</v>
       </c>
       <c r="O4" s="1">
-        <v>-2.7058528244577298</v>
+        <v>-2.713455626190822</v>
       </c>
       <c r="P4" s="1">
-        <v>-2.8174547419290299</v>
+        <v>-3.6464062015080101</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1">
-        <v>-5.8828279903028724</v>
+        <v>-4.5175264309322181</v>
       </c>
       <c r="C5" s="1">
-        <v>-3.611939715909827</v>
+        <v>-2.802439703457476</v>
       </c>
       <c r="D5" s="1">
-        <v>-3.2917999117473871</v>
+        <v>-2.3211356215226302</v>
       </c>
       <c r="E5" s="1">
-        <v>-2.702940348163239</v>
+        <v>-2.383958779019435</v>
       </c>
       <c r="F5" s="1">
-        <v>-2.1074709922356618</v>
+        <v>-2.4941919769516852</v>
       </c>
       <c r="G5" s="1">
-        <v>-4.584019905852287</v>
+        <v>-4.3757065938769744</v>
       </c>
       <c r="H5" s="1">
-        <v>-2.3773300315630568</v>
+        <v>-2.7228910207722272</v>
       </c>
       <c r="I5" s="1">
-        <v>-2.098950948604144</v>
+        <v>-2.2718427930934708</v>
       </c>
       <c r="J5" s="1">
-        <v>-1.5609980876134271</v>
+        <v>-2.3960117169799791</v>
       </c>
       <c r="K5" s="1">
-        <v>-0.93472840188573825</v>
+        <v>-2.529978835111673</v>
       </c>
       <c r="L5" s="1">
-        <v>-4.5401637564282904</v>
+        <v>-5.3534969917293429</v>
       </c>
       <c r="M5" s="1">
-        <v>-4.2784628193618941</v>
+        <v>-3.93213149780357</v>
       </c>
       <c r="N5" s="1">
-        <v>-5.0734286190952291</v>
+        <v>-3.6009328061357668</v>
       </c>
       <c r="O5" s="1">
-        <v>-5.3206486502874579</v>
+        <v>-3.535167663738366</v>
       </c>
       <c r="P5" s="1">
-        <v>-5.0543710131250501</v>
+        <v>-3.673183130800926</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1">
-        <v>-5.8287398800819892</v>
+        <v>-4.5824187741019573</v>
       </c>
       <c r="C6" s="1">
-        <v>-3.3730161060104491</v>
+        <v>-3.6741915332010451</v>
       </c>
       <c r="D6" s="1">
-        <v>-5.0789882867305929</v>
+        <v>-2.667237483052872</v>
       </c>
       <c r="E6" s="1">
-        <v>-3.8756748845570601</v>
+        <v>-2.6632795765742099</v>
       </c>
       <c r="F6" s="1">
-        <v>-2.4647308010606381</v>
+        <v>-2.5717377040817739</v>
       </c>
       <c r="G6" s="1">
-        <v>-5.4157994968791066</v>
+        <v>-4.3831270592453384</v>
       </c>
       <c r="H6" s="1">
-        <v>-3.0859331990809009</v>
+        <v>-3.5340681482241312</v>
       </c>
       <c r="I6" s="1">
-        <v>-3.9358511534720422</v>
+        <v>-2.5638702981823731</v>
       </c>
       <c r="J6" s="1">
-        <v>-2.9610331907726422</v>
+        <v>-2.559515021463671</v>
       </c>
       <c r="K6" s="1">
-        <v>-1.729702222869006</v>
+        <v>-2.474159639317195</v>
       </c>
       <c r="L6" s="1">
-        <v>-4.8513460669581043</v>
+        <v>-4.9675839522721406</v>
       </c>
       <c r="M6" s="1">
-        <v>-3.2868209725563098</v>
+        <v>-4.1634706306766791</v>
       </c>
       <c r="N6" s="1">
-        <v>-5.0981931113167276</v>
+        <v>-3.0893991113486088</v>
       </c>
       <c r="O6" s="1">
-        <v>-3.867996690595449</v>
+        <v>-3.1508206308039259</v>
       </c>
       <c r="P6" s="1">
-        <v>-2.532883982542002</v>
+        <v>-3.147932968280394</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1">
-        <v>-5.6356123317987166</v>
+        <v>-5.8287398800819892</v>
       </c>
       <c r="C7" s="1">
-        <v>-2.428536255336315</v>
+        <v>-3.3730161060104491</v>
       </c>
       <c r="D7" s="1">
-        <v>-2.336825670552622</v>
+        <v>-5.0789882867305929</v>
       </c>
       <c r="E7" s="1">
-        <v>-2.215488022490411</v>
+        <v>-3.8756748845570601</v>
       </c>
       <c r="F7" s="1">
-        <v>-2.1424052540119352</v>
+        <v>-2.4647308010606381</v>
       </c>
       <c r="G7" s="1">
-        <v>-4.7789437050288637</v>
+        <v>-5.4157994968791066</v>
       </c>
       <c r="H7" s="1">
-        <v>-2.0465005926521029</v>
+        <v>-3.0859331990809009</v>
       </c>
       <c r="I7" s="1">
-        <v>-1.9491200447091961</v>
+        <v>-3.9358511534720422</v>
       </c>
       <c r="J7" s="1">
-        <v>-1.9226059113566021</v>
+        <v>-2.9610331907726422</v>
       </c>
       <c r="K7" s="1">
-        <v>-1.814072346490629</v>
+        <v>-1.729702222869006</v>
       </c>
       <c r="L7" s="1">
-        <v>-1.811557537625005</v>
+        <v>-4.8513460669581043</v>
       </c>
       <c r="M7" s="1">
-        <v>-1.841125651917086</v>
+        <v>-3.2868209725563098</v>
       </c>
       <c r="N7" s="1">
-        <v>-1.8242856008503281</v>
+        <v>-5.0981931113167276</v>
       </c>
       <c r="O7" s="1">
-        <v>-1.9849511239040929</v>
+        <v>-3.867996690595449</v>
       </c>
       <c r="P7" s="1">
-        <v>-1.864489240097132</v>
+        <v>-2.532883982542002</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="B8" s="1">
-        <v>-4.7485493573411404</v>
+        <v>-5.8828279903028724</v>
       </c>
       <c r="C8" s="1">
-        <v>-3.7286354208048369</v>
+        <v>-3.611939715909827</v>
       </c>
       <c r="D8" s="1">
-        <v>-2.8732743691081679</v>
+        <v>-3.2917999117473871</v>
       </c>
       <c r="E8" s="1">
-        <v>-2.908740623150627</v>
+        <v>-2.702940348163239</v>
       </c>
       <c r="F8" s="1">
-        <v>-2.9498581564881681</v>
+        <v>-2.1074709922356618</v>
       </c>
       <c r="G8" s="1">
-        <v>-4.51670816750614</v>
+        <v>-4.584019905852287</v>
       </c>
       <c r="H8" s="1">
-        <v>-3.8038934371266828</v>
+        <v>-2.3773300315630568</v>
       </c>
       <c r="I8" s="1">
-        <v>-2.8866420870996512</v>
+        <v>-2.098950948604144</v>
       </c>
       <c r="J8" s="1">
-        <v>-2.9279048197083921</v>
+        <v>-1.5609980876134271</v>
       </c>
       <c r="K8" s="1">
-        <v>-2.9648957284579138</v>
+        <v>-0.93472840188573825</v>
       </c>
       <c r="L8" s="1">
-        <v>-6.2920161444510532</v>
+        <v>-4.5401637564282904</v>
       </c>
       <c r="M8" s="1">
-        <v>-3.8072460157407728</v>
+        <v>-4.2784628193618941</v>
       </c>
       <c r="N8" s="1">
-        <v>-3.3354123106602489</v>
+        <v>-5.0734286190952291</v>
       </c>
       <c r="O8" s="1">
-        <v>-3.439528743956596</v>
+        <v>-5.3206486502874579</v>
       </c>
       <c r="P8" s="1">
-        <v>-3.6567138120320548</v>
+        <v>-5.0543710131250501</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>-4.5824187741019573</v>
+        <v>-3.855734004801362</v>
       </c>
       <c r="C9" s="1">
-        <v>-3.6741915332010451</v>
+        <v>-2.3431873945506529</v>
       </c>
       <c r="D9" s="1">
-        <v>-2.667237483052872</v>
+        <v>-2.062501629371603</v>
       </c>
       <c r="E9" s="1">
-        <v>-2.6632795765742099</v>
+        <v>-2.4496564923125228</v>
       </c>
       <c r="F9" s="1">
-        <v>-2.5717377040817739</v>
+        <v>-3.089536359431925</v>
       </c>
       <c r="G9" s="1">
-        <v>-4.3831270592453384</v>
+        <v>-3.7481356756702899</v>
       </c>
       <c r="H9" s="1">
-        <v>-3.5340681482241312</v>
+        <v>-2.2749157179078612</v>
       </c>
       <c r="I9" s="1">
-        <v>-2.5638702981823731</v>
+        <v>-2.037521162690429</v>
       </c>
       <c r="J9" s="1">
-        <v>-2.559515021463671</v>
+        <v>-2.4491496664734869</v>
       </c>
       <c r="K9" s="1">
-        <v>-2.474159639317195</v>
+        <v>-3.1231352389579929</v>
       </c>
       <c r="L9" s="1">
-        <v>-4.9675839522721406</v>
+        <v>-4.2753966517613167</v>
       </c>
       <c r="M9" s="1">
-        <v>-4.1634706306766791</v>
+        <v>-2.5643599210721768</v>
       </c>
       <c r="N9" s="1">
-        <v>-3.0893991113486088</v>
+        <v>-2.1005275852557741</v>
       </c>
       <c r="O9" s="1">
-        <v>-3.1508206308039259</v>
+        <v>-2.3937654266134198</v>
       </c>
       <c r="P9" s="1">
-        <v>-3.147932968280394</v>
+        <v>-2.9180303723467809</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1">
-        <v>-4.5175264309322181</v>
+        <v>-4.2609358824426273</v>
       </c>
       <c r="C10" s="1">
-        <v>-2.802439703457476</v>
+        <v>-5.4799240421328488</v>
       </c>
       <c r="D10" s="1">
-        <v>-2.3211356215226302</v>
+        <v>-5.3487824510906092</v>
       </c>
       <c r="E10" s="1">
-        <v>-2.383958779019435</v>
+        <v>-4.040025192914249</v>
       </c>
       <c r="F10" s="1">
-        <v>-2.4941919769516852</v>
+        <v>-4.3658948445509429</v>
       </c>
       <c r="G10" s="1">
-        <v>-4.3757065938769744</v>
+        <v>-4.1329188562127266</v>
       </c>
       <c r="H10" s="1">
-        <v>-2.7228910207722272</v>
+        <v>-5.402651359722741</v>
       </c>
       <c r="I10" s="1">
-        <v>-2.2718427930934708</v>
+        <v>-5.1217126589396056</v>
       </c>
       <c r="J10" s="1">
-        <v>-2.3960117169799791</v>
+        <v>-3.9027164982215692</v>
       </c>
       <c r="K10" s="1">
-        <v>-2.529978835111673</v>
+        <v>-4.1092819370669771</v>
       </c>
       <c r="L10" s="1">
-        <v>-5.3534969917293429</v>
+        <v>-4.2556949098715089</v>
       </c>
       <c r="M10" s="1">
-        <v>-3.93213149780357</v>
+        <v>-5.5765269261841146</v>
       </c>
       <c r="N10" s="1">
-        <v>-3.6009328061357668</v>
+        <v>-5.794774652436832</v>
       </c>
       <c r="O10" s="1">
-        <v>-3.535167663738366</v>
+        <v>-4.3049101199199393</v>
       </c>
       <c r="P10" s="1">
-        <v>-3.673183130800926</v>
+        <v>-5.0209534875794128</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1">
-        <v>-4.2609358824426273</v>
+        <v>-3.8408239024527919</v>
       </c>
       <c r="C11" s="1">
-        <v>-5.4799240421328488</v>
+        <v>-3.2751495972280451</v>
       </c>
       <c r="D11" s="1">
-        <v>-5.3487824510906092</v>
+        <v>-3.2409457858589308</v>
       </c>
       <c r="E11" s="1">
-        <v>-4.040025192914249</v>
+        <v>-2.7683449183141389</v>
       </c>
       <c r="F11" s="1">
-        <v>-4.3658948445509429</v>
+        <v>-2.5588306722065601</v>
       </c>
       <c r="G11" s="1">
-        <v>-4.1329188562127266</v>
+        <v>-3.7345030010820048</v>
       </c>
       <c r="H11" s="1">
-        <v>-5.402651359722741</v>
+        <v>-3.1858839297462929</v>
       </c>
       <c r="I11" s="1">
-        <v>-5.1217126589396056</v>
+        <v>-3.1384982863305888</v>
       </c>
       <c r="J11" s="1">
-        <v>-3.9027164982215692</v>
+        <v>-2.7120145598807062</v>
       </c>
       <c r="K11" s="1">
-        <v>-4.1092819370669771</v>
+        <v>-2.5100742796973781</v>
       </c>
       <c r="L11" s="1">
-        <v>-4.2556949098715089</v>
+        <v>-4.2036332473343876</v>
       </c>
       <c r="M11" s="1">
-        <v>-5.5765269261841146</v>
+        <v>-3.592283743083839</v>
       </c>
       <c r="N11" s="1">
-        <v>-5.794774652436832</v>
+        <v>-3.6684496619367368</v>
       </c>
       <c r="O11" s="1">
-        <v>-4.3049101199199393</v>
+        <v>-2.9589857048264139</v>
       </c>
       <c r="P11" s="1">
-        <v>-5.0209534875794128</v>
+        <v>-2.7170724723000972</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
-        <v>-4.1441602591680047</v>
+        <v>-3.725111357294403</v>
       </c>
       <c r="C12" s="1">
-        <v>-2.8094513732254001</v>
+        <v>-3.1352370374743401</v>
       </c>
       <c r="D12" s="1">
-        <v>-2.2038520963799479</v>
+        <v>-2.650050070600372</v>
       </c>
       <c r="E12" s="1">
-        <v>-1.451696237962387</v>
+        <v>-2.1609801823262722</v>
       </c>
       <c r="F12" s="1">
-        <v>-1.0199455739467711</v>
+        <v>-1.548890338760661</v>
       </c>
       <c r="G12" s="1">
-        <v>-3.9238434629298471</v>
+        <v>-3.5645225603056261</v>
       </c>
       <c r="H12" s="1">
-        <v>-2.665274743974833</v>
+        <v>-3.1311820772232859</v>
       </c>
       <c r="I12" s="1">
-        <v>-2.2915391393352138</v>
+        <v>-2.640699187865986</v>
       </c>
       <c r="J12" s="1">
-        <v>-1.898474024504895</v>
+        <v>-2.240889072942327</v>
       </c>
       <c r="K12" s="1">
-        <v>-1.55784647802344</v>
+        <v>-1.8278071454892719</v>
       </c>
       <c r="L12" s="1">
-        <v>-3.2457272263557462</v>
+        <v>-3.9792506350899881</v>
       </c>
       <c r="M12" s="1">
-        <v>-4.4436895407522456</v>
+        <v>-3.8132929322001878</v>
       </c>
       <c r="N12" s="1">
-        <v>-4.2753046737698339</v>
+        <v>-3.777085396283189</v>
       </c>
       <c r="O12" s="1">
-        <v>-2.663955478568599</v>
+        <v>-3.552192417614827</v>
       </c>
       <c r="P12" s="1">
-        <v>-2.1328223537865081</v>
+        <v>-2.6033160831940489</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
-        <v>-3.9886261350201409</v>
+        <v>-3.5312263930339141</v>
       </c>
       <c r="C13" s="1">
-        <v>-1.880072574345788</v>
+        <v>-3.206139119874269</v>
       </c>
       <c r="D13" s="1">
-        <v>-1.89714664953168</v>
+        <v>-3.104544254245504</v>
       </c>
       <c r="E13" s="1">
-        <v>-2.4507455929362001</v>
+        <v>-3.0766873595825901</v>
       </c>
       <c r="F13" s="1">
-        <v>-1.4845297734068039</v>
+        <v>-3.2346881424151781</v>
       </c>
       <c r="G13" s="1">
-        <v>-3.877711080717841</v>
+        <v>-3.505127957061855</v>
       </c>
       <c r="H13" s="1">
-        <v>-1.895409808925999</v>
+        <v>-3.1747712874885612</v>
       </c>
       <c r="I13" s="1">
-        <v>-1.9805035405311491</v>
+        <v>-3.0707980525726799</v>
       </c>
       <c r="J13" s="1">
-        <v>-2.5702869957865291</v>
+        <v>-3.0651623575706282</v>
       </c>
       <c r="K13" s="1">
-        <v>-1.6279971203044019</v>
+        <v>-3.2376780904823592</v>
       </c>
       <c r="L13" s="1">
-        <v>-0.24309165765598309</v>
+        <v>-3.682156715051442</v>
       </c>
       <c r="M13" s="1">
-        <v>-0.75473241256978207</v>
+        <v>-3.3421264511266209</v>
       </c>
       <c r="N13" s="1">
-        <v>-1.0508009412965029</v>
+        <v>-3.2676667526137608</v>
       </c>
       <c r="O13" s="1">
-        <v>-1.7035391643258371</v>
+        <v>-3.1701714947842161</v>
       </c>
       <c r="P13" s="1">
-        <v>-0.68296007740950859</v>
+        <v>-3.292820291555298</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="B14" s="1">
-        <v>-3.9258877068461291</v>
+        <v>-3.0364432192334538</v>
       </c>
       <c r="C14" s="1">
-        <v>-3.3690355361397808</v>
+        <v>-2.6441093530389601</v>
       </c>
       <c r="D14" s="1">
-        <v>-1.797165496106597</v>
+        <v>-1.5716393850204939</v>
       </c>
       <c r="E14" s="1">
-        <v>-2.1945578519588889</v>
+        <v>-1.603539005828845</v>
       </c>
       <c r="F14" s="1">
-        <v>-2.297448119523267</v>
+        <v>-1.86084417251032</v>
       </c>
       <c r="G14" s="1">
-        <v>-3.748627251527711</v>
+        <v>-2.9678098460168281</v>
       </c>
       <c r="H14" s="1">
-        <v>-3.122858847392564</v>
+        <v>-2.5685791698430571</v>
       </c>
       <c r="I14" s="1">
-        <v>-1.663656344141768</v>
+        <v>-1.581677533749362</v>
       </c>
       <c r="J14" s="1">
-        <v>-1.9998348979469649</v>
+        <v>-1.6744324999464419</v>
       </c>
       <c r="K14" s="1">
-        <v>-2.088174562486492</v>
+        <v>-1.9766568572226031</v>
       </c>
       <c r="L14" s="1">
-        <v>-3.1614580248175979</v>
+        <v>-3.5767017866398998</v>
       </c>
       <c r="M14" s="1">
-        <v>-3.20703509888309</v>
+        <v>-3.8678727545201039</v>
       </c>
       <c r="N14" s="1">
-        <v>-1.7496618976105069</v>
+        <v>-2.6443239991860499</v>
       </c>
       <c r="O14" s="1">
-        <v>-2.153358614792515</v>
+        <v>-2.4950721425937439</v>
       </c>
       <c r="P14" s="1">
-        <v>-2.266656957496032</v>
+        <v>-2.604366902126241</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B15" s="1">
-        <v>-3.8673313455753289</v>
+        <v>-3.7916720621948499</v>
       </c>
       <c r="C15" s="1">
-        <v>-2.274000068011905</v>
+        <v>-3.7213898053785068</v>
       </c>
       <c r="D15" s="1">
-        <v>-2.4148233000882371</v>
+        <v>-3.1487359126552019</v>
       </c>
       <c r="E15" s="1">
-        <v>-2.1013909333511691</v>
+        <v>-2.7819505526115171</v>
       </c>
       <c r="F15" s="1">
-        <v>-2.2961732881105452</v>
+        <v>-2.524155074609665</v>
       </c>
       <c r="G15" s="1">
-        <v>-3.0347407014045831</v>
+        <v>-3.6184774409819509</v>
       </c>
       <c r="H15" s="1">
-        <v>-1.6743397388870249</v>
+        <v>-3.4482002223849961</v>
       </c>
       <c r="I15" s="1">
-        <v>-1.833804566037212</v>
+        <v>-2.8902941616686131</v>
       </c>
       <c r="J15" s="1">
-        <v>-1.572169143795177</v>
+        <v>-2.5977544383439661</v>
       </c>
       <c r="K15" s="1">
-        <v>-1.700870677743747</v>
+        <v>-2.3512940271599181</v>
       </c>
       <c r="L15" s="1">
-        <v>1.814407350731736</v>
+        <v>-3.5134436877663568</v>
       </c>
       <c r="M15" s="1">
-        <v>1.0035528657110101E-2</v>
+        <v>-3.8485955971863759</v>
       </c>
       <c r="N15" s="1">
-        <v>-0.40719461563317522</v>
+        <v>-3.2683647419074111</v>
       </c>
       <c r="O15" s="1">
-        <v>-0.37418855641720961</v>
+        <v>-2.5030804458869742</v>
       </c>
       <c r="P15" s="1">
-        <v>-0.38136329086674159</v>
+        <v>-2.0239180807200681</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>-3.855734004801362</v>
+        <v>-3.1521889508546002</v>
       </c>
       <c r="C16" s="1">
-        <v>-2.3431873945506529</v>
+        <v>-2.0059123635490099</v>
       </c>
       <c r="D16" s="1">
-        <v>-2.062501629371603</v>
+        <v>-2.204272694462857</v>
       </c>
       <c r="E16" s="1">
-        <v>-2.4496564923125228</v>
+        <v>-2.3525318735054062</v>
       </c>
       <c r="F16" s="1">
-        <v>-3.089536359431925</v>
+        <v>-2.7134087500359549</v>
       </c>
       <c r="G16" s="1">
-        <v>-3.7481356756702899</v>
+        <v>-3.1133201037357798</v>
       </c>
       <c r="H16" s="1">
-        <v>-2.2749157179078612</v>
+        <v>-1.9771841822022711</v>
       </c>
       <c r="I16" s="1">
-        <v>-2.037521162690429</v>
+        <v>-2.1673292404734239</v>
       </c>
       <c r="J16" s="1">
-        <v>-2.4491496664734869</v>
+        <v>-2.3173803601782348</v>
       </c>
       <c r="K16" s="1">
-        <v>-3.1231352389579929</v>
+        <v>-2.6667155770011881</v>
       </c>
       <c r="L16" s="1">
-        <v>-4.2753966517613167</v>
+        <v>-3.344176195819935</v>
       </c>
       <c r="M16" s="1">
-        <v>-2.5643599210721768</v>
+        <v>-2.090220265308488</v>
       </c>
       <c r="N16" s="1">
-        <v>-2.1005275852557741</v>
+        <v>-2.2589456921917361</v>
       </c>
       <c r="O16" s="1">
-        <v>-2.3937654266134198</v>
+        <v>-2.3009056168204309</v>
       </c>
       <c r="P16" s="1">
-        <v>-2.9180303723467809</v>
+        <v>-2.6065177305310172</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1">
-        <v>-3.8408239024527919</v>
+        <v>-4.1441602591680047</v>
       </c>
       <c r="C17" s="1">
-        <v>-3.2751495972280451</v>
+        <v>-2.8094513732254001</v>
       </c>
       <c r="D17" s="1">
-        <v>-3.2409457858589308</v>
+        <v>-2.2038520963799479</v>
       </c>
       <c r="E17" s="1">
-        <v>-2.7683449183141389</v>
+        <v>-1.451696237962387</v>
       </c>
       <c r="F17" s="1">
-        <v>-2.5588306722065601</v>
+        <v>-1.0199455739467711</v>
       </c>
       <c r="G17" s="1">
-        <v>-3.7345030010820048</v>
+        <v>-3.9238434629298471</v>
       </c>
       <c r="H17" s="1">
-        <v>-3.1858839297462929</v>
+        <v>-2.665274743974833</v>
       </c>
       <c r="I17" s="1">
-        <v>-3.1384982863305888</v>
+        <v>-2.2915391393352138</v>
       </c>
       <c r="J17" s="1">
-        <v>-2.7120145598807062</v>
+        <v>-1.898474024504895</v>
       </c>
       <c r="K17" s="1">
-        <v>-2.5100742796973781</v>
+        <v>-1.55784647802344</v>
       </c>
       <c r="L17" s="1">
-        <v>-4.2036332473343876</v>
+        <v>-3.2457272263557462</v>
       </c>
       <c r="M17" s="1">
-        <v>-3.592283743083839</v>
+        <v>-4.4436895407522456</v>
       </c>
       <c r="N17" s="1">
-        <v>-3.6684496619367368</v>
+        <v>-4.2753046737698339</v>
       </c>
       <c r="O17" s="1">
-        <v>-2.9589857048264139</v>
+        <v>-2.663955478568599</v>
       </c>
       <c r="P17" s="1">
-        <v>-2.7170724723000972</v>
+        <v>-2.1328223537865081</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1">
-        <v>-3.818557716397716</v>
+        <v>-3.7142539264670211</v>
       </c>
       <c r="C18" s="1">
-        <v>-2.9040547642197829</v>
+        <v>-2.0539296260189461</v>
       </c>
       <c r="D18" s="1">
-        <v>-2.818461288188097</v>
+        <v>-2.315640568065787</v>
       </c>
       <c r="E18" s="1">
-        <v>-2.6621035672500279</v>
+        <v>-1.8847417473444299</v>
       </c>
       <c r="F18" s="1">
-        <v>-1.8674590214849609</v>
+        <v>-1.9752302065959519</v>
       </c>
       <c r="G18" s="1">
-        <v>-2.589591225370361</v>
+        <v>-3.6574777198287389</v>
       </c>
       <c r="H18" s="1">
-        <v>-1.7646038828642989</v>
+        <v>-2.094074119484755</v>
       </c>
       <c r="I18" s="1">
-        <v>-1.578635435168483</v>
+        <v>-2.3076951342364671</v>
       </c>
       <c r="J18" s="1">
-        <v>-1.3909472303543089</v>
+        <v>-1.906017715319444</v>
       </c>
       <c r="K18" s="1">
-        <v>-0.82757398901657431</v>
+        <v>-1.974448916476903</v>
       </c>
       <c r="L18" s="1">
-        <v>-2.3791685858261928</v>
+        <v>-3.2078722534659132</v>
       </c>
       <c r="M18" s="1">
-        <v>-2.2931880129657798</v>
+        <v>-1.974732379036074</v>
       </c>
       <c r="N18" s="1">
-        <v>-2.3735595710675019</v>
+        <v>-2.279577810081685</v>
       </c>
       <c r="O18" s="1">
-        <v>-2.6269649831652249</v>
+        <v>-1.9041854419923381</v>
       </c>
       <c r="P18" s="1">
-        <v>-2.7707471419310288</v>
+        <v>-2.065082292327717</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
-        <v>-3.7916720621948499</v>
+        <v>-3.9258877068461291</v>
       </c>
       <c r="C19" s="1">
-        <v>-3.7213898053785068</v>
+        <v>-3.3690355361397808</v>
       </c>
       <c r="D19" s="1">
-        <v>-3.1487359126552019</v>
+        <v>-1.797165496106597</v>
       </c>
       <c r="E19" s="1">
-        <v>-2.7819505526115171</v>
+        <v>-2.1945578519588889</v>
       </c>
       <c r="F19" s="1">
-        <v>-2.524155074609665</v>
+        <v>-2.297448119523267</v>
       </c>
       <c r="G19" s="1">
-        <v>-3.6184774409819509</v>
+        <v>-3.748627251527711</v>
       </c>
       <c r="H19" s="1">
-        <v>-3.4482002223849961</v>
+        <v>-3.122858847392564</v>
       </c>
       <c r="I19" s="1">
-        <v>-2.8902941616686131</v>
+        <v>-1.663656344141768</v>
       </c>
       <c r="J19" s="1">
-        <v>-2.5977544383439661</v>
+        <v>-1.9998348979469649</v>
       </c>
       <c r="K19" s="1">
-        <v>-2.3512940271599181</v>
+        <v>-2.088174562486492</v>
       </c>
       <c r="L19" s="1">
-        <v>-3.5134436877663568</v>
+        <v>-3.1614580248175979</v>
       </c>
       <c r="M19" s="1">
-        <v>-3.8485955971863759</v>
+        <v>-3.20703509888309</v>
       </c>
       <c r="N19" s="1">
-        <v>-3.2683647419074111</v>
+        <v>-1.7496618976105069</v>
       </c>
       <c r="O19" s="1">
-        <v>-2.5030804458869742</v>
+        <v>-2.153358614792515</v>
       </c>
       <c r="P19" s="1">
-        <v>-2.0239180807200681</v>
+        <v>-2.266656957496032</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1">
-        <v>-3.725111357294403</v>
+        <v>-2.9832959964369641</v>
       </c>
       <c r="C20" s="1">
-        <v>-3.1352370374743401</v>
+        <v>-2.4597627635509891</v>
       </c>
       <c r="D20" s="1">
-        <v>-2.650050070600372</v>
+        <v>-2.9460039392802608</v>
       </c>
       <c r="E20" s="1">
-        <v>-2.1609801823262722</v>
+        <v>-2.9414534620806201</v>
       </c>
       <c r="F20" s="1">
-        <v>-1.548890338760661</v>
+        <v>-2.9433960011460889</v>
       </c>
       <c r="G20" s="1">
-        <v>-3.5645225603056261</v>
+        <v>-3.0202868873914559</v>
       </c>
       <c r="H20" s="1">
-        <v>-3.1311820772232859</v>
+        <v>-2.4998810573857502</v>
       </c>
       <c r="I20" s="1">
-        <v>-2.640699187865986</v>
+        <v>-2.991848235144642</v>
       </c>
       <c r="J20" s="1">
-        <v>-2.240889072942327</v>
+        <v>-2.9977209915819611</v>
       </c>
       <c r="K20" s="1">
-        <v>-1.8278071454892719</v>
+        <v>-3.0010339231051191</v>
       </c>
       <c r="L20" s="1">
-        <v>-3.9792506350899881</v>
+        <v>-3.0937324363491672</v>
       </c>
       <c r="M20" s="1">
-        <v>-3.8132929322001878</v>
+        <v>-2.5655266387165221</v>
       </c>
       <c r="N20" s="1">
-        <v>-3.777085396283189</v>
+        <v>-3.0380737151937001</v>
       </c>
       <c r="O20" s="1">
-        <v>-3.552192417614827</v>
+        <v>-3.001261416717115</v>
       </c>
       <c r="P20" s="1">
-        <v>-2.6033160831940489</v>
+        <v>-3.0045107750612852</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="B21" s="1">
-        <v>-3.7142539264670211</v>
+        <v>-1.9462785691573949</v>
       </c>
       <c r="C21" s="1">
-        <v>-2.0539296260189461</v>
+        <v>-1.5973841042982251</v>
       </c>
       <c r="D21" s="1">
-        <v>-2.315640568065787</v>
+        <v>-1.2835564199622209</v>
       </c>
       <c r="E21" s="1">
-        <v>-1.8847417473444299</v>
+        <v>-0.92929711764515854</v>
       </c>
       <c r="F21" s="1">
-        <v>-1.9752302065959519</v>
+        <v>-1.104924205903502</v>
       </c>
       <c r="G21" s="1">
-        <v>-3.6574777198287389</v>
+        <v>-1.999298991222193</v>
       </c>
       <c r="H21" s="1">
-        <v>-2.094074119484755</v>
+        <v>-1.6592211961262331</v>
       </c>
       <c r="I21" s="1">
-        <v>-2.3076951342364671</v>
+        <v>-1.3480641662482591</v>
       </c>
       <c r="J21" s="1">
-        <v>-1.906017715319444</v>
+        <v>-1.019322131850994</v>
       </c>
       <c r="K21" s="1">
-        <v>-1.974448916476903</v>
+        <v>-1.2328859824771241</v>
       </c>
       <c r="L21" s="1">
-        <v>-3.2078722534659132</v>
+        <v>-3.063223859472072</v>
       </c>
       <c r="M21" s="1">
-        <v>-1.974732379036074</v>
+        <v>-2.37038896517875</v>
       </c>
       <c r="N21" s="1">
-        <v>-2.279577810081685</v>
+        <v>-2.153732889185366</v>
       </c>
       <c r="O21" s="1">
-        <v>-1.9041854419923381</v>
+        <v>-1.827011285993746</v>
       </c>
       <c r="P21" s="1">
-        <v>-2.065082292327717</v>
+        <v>-1.7643215659464899</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1">
-        <v>-3.5963168282526148</v>
+        <v>1.0418311551581281</v>
       </c>
       <c r="C22" s="1">
-        <v>-3.0564620200963808</v>
+        <v>1.1047914539659629</v>
       </c>
       <c r="D22" s="1">
-        <v>-2.461891553902376</v>
+        <v>1.2643024652649</v>
       </c>
       <c r="E22" s="1">
-        <v>-2.3931173289004581</v>
+        <v>0.73774060989256929</v>
       </c>
       <c r="F22" s="1">
-        <v>-1.7149357845685631</v>
+        <v>0.56783731239375679</v>
       </c>
       <c r="G22" s="1">
-        <v>-3.367191087943846</v>
+        <v>0.61523243710825315</v>
       </c>
       <c r="H22" s="1">
-        <v>-2.6157408884257878</v>
+        <v>0.27450782760691272</v>
       </c>
       <c r="I22" s="1">
-        <v>-2.0340001206000928</v>
+        <v>8.7425641487687E-3</v>
       </c>
       <c r="J22" s="1">
-        <v>-1.881689919624622</v>
+        <v>-0.3235354644247419</v>
       </c>
       <c r="K22" s="1">
-        <v>-1.233780451151465</v>
+        <v>-0.5374919058089791</v>
       </c>
       <c r="L22" s="1">
-        <v>-2.9022260366530999</v>
+        <v>-3.0047403699116022</v>
       </c>
       <c r="M22" s="1">
-        <v>-2.981852297041649</v>
+        <v>-3.477504540396994</v>
       </c>
       <c r="N22" s="1">
-        <v>-2.2573490138680712</v>
+        <v>-3.4884296695168859</v>
       </c>
       <c r="O22" s="1">
-        <v>-2.0501726136686411</v>
+        <v>-3.7613246451760829</v>
       </c>
       <c r="P22" s="1">
-        <v>-1.245536156597177</v>
+        <v>-3.6502349830032959</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="B23" s="1">
-        <v>-3.5312263930339141</v>
+        <v>-3.1737221476400959</v>
       </c>
       <c r="C23" s="1">
-        <v>-3.206139119874269</v>
+        <v>-2.0350004690066079</v>
       </c>
       <c r="D23" s="1">
-        <v>-3.104544254245504</v>
+        <v>-1.540395436438051</v>
       </c>
       <c r="E23" s="1">
-        <v>-3.0766873595825901</v>
+        <v>-1.387739838369209</v>
       </c>
       <c r="F23" s="1">
-        <v>-3.2346881424151781</v>
+        <v>-1.703968536646145</v>
       </c>
       <c r="G23" s="1">
-        <v>-3.505127957061855</v>
+        <v>-1.703269300248538</v>
       </c>
       <c r="H23" s="1">
-        <v>-3.1747712874885612</v>
+        <v>-0.68690840166851397</v>
       </c>
       <c r="I23" s="1">
-        <v>-3.0707980525726799</v>
+        <v>-0.41630465710929782</v>
       </c>
       <c r="J23" s="1">
-        <v>-3.0651623575706282</v>
+        <v>-0.23681875598313101</v>
       </c>
       <c r="K23" s="1">
-        <v>-3.2376780904823592</v>
+        <v>-0.28860646223460529</v>
       </c>
       <c r="L23" s="1">
-        <v>-3.682156715051442</v>
+        <v>-2.9735016014728859</v>
       </c>
       <c r="M23" s="1">
-        <v>-3.3421264511266209</v>
+        <v>-3.450640486044219</v>
       </c>
       <c r="N23" s="1">
-        <v>-3.2676667526137608</v>
+        <v>-3.656356509367062</v>
       </c>
       <c r="O23" s="1">
-        <v>-3.1701714947842161</v>
+        <v>-3.6875281379815119</v>
       </c>
       <c r="P23" s="1">
-        <v>-3.292820291555298</v>
+        <v>-4.1400876324854403</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1">
-        <v>-3.528057692347133</v>
+        <v>-2.554735798305626</v>
       </c>
       <c r="C24" s="1">
-        <v>-2.1525340206630759</v>
+        <v>-1.4732500528583521</v>
       </c>
       <c r="D24" s="1">
-        <v>-2.0883380712617519</v>
+        <v>-1.382045083722333</v>
       </c>
       <c r="E24" s="1">
-        <v>-2.0822266966228939</v>
+        <v>-1.266592536475037</v>
       </c>
       <c r="F24" s="1">
-        <v>-1.921103025483651</v>
+        <v>-1.143697703397325</v>
       </c>
       <c r="G24" s="1">
-        <v>-3.4342260806379499</v>
+        <v>-2.5336384196680131</v>
       </c>
       <c r="H24" s="1">
-        <v>-2.0785886726384031</v>
+        <v>-1.470112507171518</v>
       </c>
       <c r="I24" s="1">
-        <v>-2.0102535597452662</v>
+        <v>-1.384778371902649</v>
       </c>
       <c r="J24" s="1">
-        <v>-2.0451884011434491</v>
+        <v>-1.3134737959812179</v>
       </c>
       <c r="K24" s="1">
-        <v>-1.884598027970269</v>
+        <v>-1.228573914445185</v>
       </c>
       <c r="L24" s="1">
-        <v>-2.0102062510075029</v>
+        <v>-2.9162560988032422</v>
       </c>
       <c r="M24" s="1">
-        <v>-1.826916371836</v>
+        <v>-2.2361345643561168</v>
       </c>
       <c r="N24" s="1">
-        <v>-1.9468327742752061</v>
+        <v>-2.4630161725931878</v>
       </c>
       <c r="O24" s="1">
-        <v>-2.0908278862356449</v>
+        <v>-2.3694648500783879</v>
       </c>
       <c r="P24" s="1">
-        <v>-2.058709940619408</v>
+        <v>-2.3160326540242808</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
-        <v>-3.4783417067858688</v>
+        <v>-3.5963168282526148</v>
       </c>
       <c r="C25" s="1">
-        <v>-3.2722017124105558</v>
+        <v>-3.0564620200963808</v>
       </c>
       <c r="D25" s="1">
-        <v>-3.1429176828692991</v>
+        <v>-2.461891553902376</v>
       </c>
       <c r="E25" s="1">
-        <v>-2.5745735192476982</v>
+        <v>-2.3931173289004581</v>
       </c>
       <c r="F25" s="1">
-        <v>-2.1811772004131522</v>
+        <v>-1.7149357845685631</v>
       </c>
       <c r="G25" s="1">
-        <v>-3.355378298202834</v>
+        <v>-3.367191087943846</v>
       </c>
       <c r="H25" s="1">
-        <v>-2.9296617388034871</v>
+        <v>-2.6157408884257878</v>
       </c>
       <c r="I25" s="1">
-        <v>-2.5941124295911289</v>
+        <v>-2.0340001206000928</v>
       </c>
       <c r="J25" s="1">
-        <v>-2.011696025423277</v>
+        <v>-1.881689919624622</v>
       </c>
       <c r="K25" s="1">
-        <v>-1.695037423373039</v>
+        <v>-1.233780451151465</v>
       </c>
       <c r="L25" s="1">
-        <v>-1.49798898658089</v>
+        <v>-2.9022260366530999</v>
       </c>
       <c r="M25" s="1">
-        <v>-1.763457279366069</v>
+        <v>-2.981852297041649</v>
       </c>
       <c r="N25" s="1">
-        <v>-1.759796363776627</v>
+        <v>-2.2573490138680712</v>
       </c>
       <c r="O25" s="1">
-        <v>-1.493491512264759</v>
+        <v>-2.0501726136686411</v>
       </c>
       <c r="P25" s="1">
-        <v>-1.342495271672661</v>
+        <v>-1.245536156597177</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
-        <v>-3.1737221476400959</v>
+        <v>-2.8228200221521398</v>
       </c>
       <c r="C26" s="1">
-        <v>-2.0350004690066079</v>
+        <v>-2.2172193165652891</v>
       </c>
       <c r="D26" s="1">
-        <v>-1.540395436438051</v>
+        <v>-2.1596035254875972</v>
       </c>
       <c r="E26" s="1">
-        <v>-1.387739838369209</v>
+        <v>-1.832653554088292</v>
       </c>
       <c r="F26" s="1">
-        <v>-1.703968536646145</v>
+        <v>-2.3428647414346329</v>
       </c>
       <c r="G26" s="1">
-        <v>-1.703269300248538</v>
+        <v>-2.7698260510622248</v>
       </c>
       <c r="H26" s="1">
-        <v>-0.68690840166851397</v>
+        <v>-2.1464740756840541</v>
       </c>
       <c r="I26" s="1">
-        <v>-0.41630465710929782</v>
+        <v>-2.0877066809732092</v>
       </c>
       <c r="J26" s="1">
-        <v>-0.23681875598313101</v>
+        <v>-1.7832528478062111</v>
       </c>
       <c r="K26" s="1">
-        <v>-0.28860646223460529</v>
+        <v>-2.2906342221951999</v>
       </c>
       <c r="L26" s="1">
-        <v>-2.9735016014728859</v>
+        <v>-2.858513070684165</v>
       </c>
       <c r="M26" s="1">
-        <v>-3.450640486044219</v>
+        <v>-2.3645921155667411</v>
       </c>
       <c r="N26" s="1">
-        <v>-3.656356509367062</v>
+        <v>-2.3464716657502338</v>
       </c>
       <c r="O26" s="1">
-        <v>-3.6875281379815119</v>
+        <v>-1.9480810214454529</v>
       </c>
       <c r="P26" s="1">
-        <v>-4.1400876324854403</v>
+        <v>-2.4558603680164821</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
-        <v>-3.1521889508546002</v>
+        <v>-1.1423967591797679</v>
       </c>
       <c r="C27" s="1">
-        <v>-2.0059123635490099</v>
+        <v>-0.55887804766342875</v>
       </c>
       <c r="D27" s="1">
-        <v>-2.204272694462857</v>
+        <v>0.73079547124066668</v>
       </c>
       <c r="E27" s="1">
-        <v>-2.3525318735054062</v>
+        <v>0.69306740753864915</v>
       </c>
       <c r="F27" s="1">
-        <v>-2.7134087500359549</v>
+        <v>1.215594832651109</v>
       </c>
       <c r="G27" s="1">
-        <v>-3.1133201037357798</v>
+        <v>-0.97844371175488698</v>
       </c>
       <c r="H27" s="1">
-        <v>-1.9771841822022711</v>
+        <v>0.26173233445560928</v>
       </c>
       <c r="I27" s="1">
-        <v>-2.1673292404734239</v>
+        <v>1.711536819454311</v>
       </c>
       <c r="J27" s="1">
-        <v>-2.3173803601782348</v>
+        <v>1.5618616347263581</v>
       </c>
       <c r="K27" s="1">
-        <v>-2.6667155770011881</v>
+        <v>2.1153149180472299</v>
       </c>
       <c r="L27" s="1">
-        <v>-3.344176195819935</v>
+        <v>-2.8471298912157188</v>
       </c>
       <c r="M27" s="1">
-        <v>-2.090220265308488</v>
+        <v>-3.1349018230374042</v>
       </c>
       <c r="N27" s="1">
-        <v>-2.2589456921917361</v>
+        <v>-1.494768432893492</v>
       </c>
       <c r="O27" s="1">
-        <v>-2.3009056168204309</v>
+        <v>-2.0028500448129969</v>
       </c>
       <c r="P27" s="1">
-        <v>-2.6065177305310172</v>
+        <v>-1.518765729068112</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1">
-        <v>-3.0364432192334538</v>
+        <v>-2.9967878129563208</v>
       </c>
       <c r="C28" s="1">
-        <v>-2.6441093530389601</v>
+        <v>-2.7057339432396761</v>
       </c>
       <c r="D28" s="1">
-        <v>-1.5716393850204939</v>
+        <v>-2.5518297909773171</v>
       </c>
       <c r="E28" s="1">
-        <v>-1.603539005828845</v>
+        <v>-2.5630810013836132</v>
       </c>
       <c r="F28" s="1">
-        <v>-1.86084417251032</v>
+        <v>-1.9519233627226531</v>
       </c>
       <c r="G28" s="1">
-        <v>-2.9678098460168281</v>
+        <v>-2.8133455669718681</v>
       </c>
       <c r="H28" s="1">
-        <v>-2.5685791698430571</v>
+        <v>-2.315112781999821</v>
       </c>
       <c r="I28" s="1">
-        <v>-1.581677533749362</v>
+        <v>-1.9412914405429109</v>
       </c>
       <c r="J28" s="1">
-        <v>-1.6744324999464419</v>
+        <v>-1.8345832210328541</v>
       </c>
       <c r="K28" s="1">
-        <v>-1.9766568572226031</v>
+        <v>-1.210244012554436</v>
       </c>
       <c r="L28" s="1">
-        <v>-3.5767017866398998</v>
+        <v>-2.70138694769794</v>
       </c>
       <c r="M28" s="1">
-        <v>-3.8678727545201039</v>
+        <v>-3.0240612476753892</v>
       </c>
       <c r="N28" s="1">
-        <v>-2.6443239991860499</v>
+        <v>-2.727779603928576</v>
       </c>
       <c r="O28" s="1">
-        <v>-2.4950721425937439</v>
+        <v>-3.0245392784876279</v>
       </c>
       <c r="P28" s="1">
-        <v>-2.604366902126241</v>
+        <v>-2.4703596582740071</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1">
-        <v>-2.9967878129563208</v>
+        <v>-2.9297256814037089</v>
       </c>
       <c r="C29" s="1">
-        <v>-2.7057339432396761</v>
+        <v>-1.770352915917935</v>
       </c>
       <c r="D29" s="1">
-        <v>-2.5518297909773171</v>
+        <v>-1.978646821788121</v>
       </c>
       <c r="E29" s="1">
-        <v>-2.5630810013836132</v>
+        <v>-1.175081629191552</v>
       </c>
       <c r="F29" s="1">
-        <v>-1.9519233627226531</v>
+        <v>-0.77219446619903365</v>
       </c>
       <c r="G29" s="1">
-        <v>-2.8133455669718681</v>
+        <v>-2.6259303238063492</v>
       </c>
       <c r="H29" s="1">
-        <v>-2.315112781999821</v>
+        <v>-1.3409166482755981</v>
       </c>
       <c r="I29" s="1">
-        <v>-1.9412914405429109</v>
+        <v>-1.456526681505665</v>
       </c>
       <c r="J29" s="1">
-        <v>-1.8345832210328541</v>
+        <v>-0.69769197491891599</v>
       </c>
       <c r="K29" s="1">
-        <v>-1.210244012554436</v>
+        <v>-0.2038660154370604</v>
       </c>
       <c r="L29" s="1">
-        <v>-2.70138694769794</v>
+        <v>-2.6580780716956882</v>
       </c>
       <c r="M29" s="1">
-        <v>-3.0240612476753892</v>
+        <v>-2.3060233854822472</v>
       </c>
       <c r="N29" s="1">
-        <v>-2.727779603928576</v>
+        <v>-2.6997104732752142</v>
       </c>
       <c r="O29" s="1">
-        <v>-3.0245392784876279</v>
+        <v>-2.208820276360254</v>
       </c>
       <c r="P29" s="1">
-        <v>-2.4703596582740071</v>
+        <v>-1.6540885509219869</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B30" s="1">
-        <v>-2.9832959964369641</v>
+        <v>2.8280441432243002E-2</v>
       </c>
       <c r="C30" s="1">
-        <v>-2.4597627635509891</v>
+        <v>-0.68131126257463492</v>
       </c>
       <c r="D30" s="1">
-        <v>-2.9460039392802608</v>
+        <v>-0.62481797380923443</v>
       </c>
       <c r="E30" s="1">
-        <v>-2.9414534620806201</v>
+        <v>-0.76867445310653215</v>
       </c>
       <c r="F30" s="1">
-        <v>-2.9433960011460889</v>
+        <v>-0.83163308105467848</v>
       </c>
       <c r="G30" s="1">
-        <v>-3.0202868873914559</v>
+        <v>1.17752693538397E-2</v>
       </c>
       <c r="H30" s="1">
-        <v>-2.4998810573857502</v>
+        <v>-0.70639064168462351</v>
       </c>
       <c r="I30" s="1">
-        <v>-2.991848235144642</v>
+        <v>-0.66318410117598414</v>
       </c>
       <c r="J30" s="1">
-        <v>-2.9977209915819611</v>
+        <v>-0.8239966417000264</v>
       </c>
       <c r="K30" s="1">
-        <v>-3.0010339231051191</v>
+        <v>-0.90832719464185963</v>
       </c>
       <c r="L30" s="1">
-        <v>-3.0937324363491672</v>
+        <v>-2.6399361697779948</v>
       </c>
       <c r="M30" s="1">
-        <v>-2.5655266387165221</v>
+        <v>-2.8661860909549262</v>
       </c>
       <c r="N30" s="1">
-        <v>-3.0380737151937001</v>
+        <v>-2.8101262944433132</v>
       </c>
       <c r="O30" s="1">
-        <v>-3.001261416717115</v>
+        <v>-2.7804591785606712</v>
       </c>
       <c r="P30" s="1">
-        <v>-3.0045107750612852</v>
+        <v>-2.627554327965484</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1">
-        <v>-2.9297256814037089</v>
+        <v>-2.552710073811391</v>
       </c>
       <c r="C31" s="1">
-        <v>-1.770352915917935</v>
+        <v>-2.2145521159279702</v>
       </c>
       <c r="D31" s="1">
-        <v>-1.978646821788121</v>
+        <v>-2.0899733170166921</v>
       </c>
       <c r="E31" s="1">
-        <v>-1.175081629191552</v>
+        <v>-2.36346655835092</v>
       </c>
       <c r="F31" s="1">
-        <v>-0.77219446619903365</v>
+        <v>-2.411566199867937</v>
       </c>
       <c r="G31" s="1">
-        <v>-2.6259303238063492</v>
+        <v>-2.4945078629551261</v>
       </c>
       <c r="H31" s="1">
-        <v>-1.3409166482755981</v>
+        <v>-2.1515740230922882</v>
       </c>
       <c r="I31" s="1">
-        <v>-1.456526681505665</v>
+        <v>-2.024426385828844</v>
       </c>
       <c r="J31" s="1">
-        <v>-0.69769197491891599</v>
+        <v>-2.321750225063</v>
       </c>
       <c r="K31" s="1">
-        <v>-0.2038660154370604</v>
+        <v>-2.3840607870167809</v>
       </c>
       <c r="L31" s="1">
-        <v>-2.6580780716956882</v>
+        <v>-2.5652828540907628</v>
       </c>
       <c r="M31" s="1">
-        <v>-2.3060233854822472</v>
+        <v>-2.2536806789045412</v>
       </c>
       <c r="N31" s="1">
-        <v>-2.6997104732752142</v>
+        <v>-2.1325191719535739</v>
       </c>
       <c r="O31" s="1">
-        <v>-2.208820276360254</v>
+        <v>-2.2615635784837829</v>
       </c>
       <c r="P31" s="1">
-        <v>-1.6540885509219869</v>
+        <v>-2.1197427202538508</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="B32" s="1">
-        <v>-2.8228200221521398</v>
+        <v>-2.6394435437385551</v>
       </c>
       <c r="C32" s="1">
-        <v>-2.2172193165652891</v>
+        <v>-2.487639580981837</v>
       </c>
       <c r="D32" s="1">
-        <v>-2.1596035254875972</v>
+        <v>-3.2273897557745448</v>
       </c>
       <c r="E32" s="1">
-        <v>-1.832653554088292</v>
+        <v>-3.499692864588416</v>
       </c>
       <c r="F32" s="1">
-        <v>-2.3428647414346329</v>
+        <v>-3.9213277302960341</v>
       </c>
       <c r="G32" s="1">
-        <v>-2.7698260510622248</v>
+        <v>-2.6651042480607039</v>
       </c>
       <c r="H32" s="1">
-        <v>-2.1464740756840541</v>
+        <v>-2.5013133345472962</v>
       </c>
       <c r="I32" s="1">
-        <v>-2.0877066809732092</v>
+        <v>-3.216863576554065</v>
       </c>
       <c r="J32" s="1">
-        <v>-1.7832528478062111</v>
+        <v>-3.4986585243157688</v>
       </c>
       <c r="K32" s="1">
-        <v>-2.2906342221951999</v>
+        <v>-3.9195635842694898</v>
       </c>
       <c r="L32" s="1">
-        <v>-2.858513070684165</v>
+        <v>-2.544976527537318</v>
       </c>
       <c r="M32" s="1">
-        <v>-2.3645921155667411</v>
+        <v>-2.3564392053499899</v>
       </c>
       <c r="N32" s="1">
-        <v>-2.3464716657502338</v>
+        <v>-3.0223709525958138</v>
       </c>
       <c r="O32" s="1">
-        <v>-1.9480810214454529</v>
+        <v>-3.425468191193572</v>
       </c>
       <c r="P32" s="1">
-        <v>-2.4558603680164821</v>
+        <v>-3.8634339411740202</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1">
-        <v>-2.7849253731314878</v>
+        <v>-2.3466135160070452</v>
       </c>
       <c r="C33" s="1">
-        <v>-2.1884326148731499</v>
+        <v>-2.732369576131235</v>
       </c>
       <c r="D33" s="1">
-        <v>-2.859215064014883</v>
+        <v>-2.182485220321039</v>
       </c>
       <c r="E33" s="1">
-        <v>-1.765462611114851</v>
+        <v>-2.254927127336698</v>
       </c>
       <c r="F33" s="1">
-        <v>-1.131730164022309</v>
+        <v>-2.450464590144998</v>
       </c>
       <c r="G33" s="1">
-        <v>-2.699958231690009</v>
+        <v>-2.3944802801880689</v>
       </c>
       <c r="H33" s="1">
-        <v>-2.0479048513079152</v>
+        <v>-2.785694604597599</v>
       </c>
       <c r="I33" s="1">
-        <v>-2.4716797085149391</v>
+        <v>-2.2343944379117011</v>
       </c>
       <c r="J33" s="1">
-        <v>-1.723702571936339</v>
+        <v>-2.3078043325033128</v>
       </c>
       <c r="K33" s="1">
-        <v>-1.1261308242191681</v>
+        <v>-2.519670528682433</v>
       </c>
       <c r="L33" s="1">
-        <v>0.12954277076300311</v>
+        <v>-2.4715895726164092</v>
       </c>
       <c r="M33" s="1">
-        <v>-0.15259200605865589</v>
+        <v>-2.866961645199507</v>
       </c>
       <c r="N33" s="1">
-        <v>0.1220486354547575</v>
+        <v>-2.366382297317696</v>
       </c>
       <c r="O33" s="1">
-        <v>-0.1041443686153502</v>
+        <v>-2.5284952165379821</v>
       </c>
       <c r="P33" s="1">
-        <v>1.024979467952438</v>
+        <v>-2.6846925962292638</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B34" s="1">
-        <v>-2.6705075185442881</v>
+        <v>-2.4614661563214768</v>
       </c>
       <c r="C34" s="1">
-        <v>-2.5059493421429102</v>
+        <v>-2.9565511016484489</v>
       </c>
       <c r="D34" s="1">
-        <v>-2.329313603726292</v>
+        <v>-2.604368527645613</v>
       </c>
       <c r="E34" s="1">
-        <v>-2.1700184877011282</v>
+        <v>-2.4723168064320689</v>
       </c>
       <c r="F34" s="1">
-        <v>-1.9963706813228761</v>
+        <v>-2.465484355501192</v>
       </c>
       <c r="G34" s="1">
-        <v>-2.6752572763333728</v>
+        <v>-2.4845571832463009</v>
       </c>
       <c r="H34" s="1">
-        <v>-2.460031927688219</v>
+        <v>-2.986478927772839</v>
       </c>
       <c r="I34" s="1">
-        <v>-2.2497063704330782</v>
+        <v>-2.6336855896658009</v>
       </c>
       <c r="J34" s="1">
-        <v>-2.0767537477900242</v>
+        <v>-2.501684751617121</v>
       </c>
       <c r="K34" s="1">
-        <v>-1.897454567519087</v>
+        <v>-2.4921466835586101</v>
       </c>
       <c r="L34" s="1">
-        <v>-2.1623460087834858</v>
+        <v>-2.4010531228466432</v>
       </c>
       <c r="M34" s="1">
-        <v>-1.970863677203968</v>
+        <v>-2.9420474588032079</v>
       </c>
       <c r="N34" s="1">
-        <v>-1.9064581166141219</v>
+        <v>-2.6101600157894702</v>
       </c>
       <c r="O34" s="1">
-        <v>-1.8592405485905941</v>
+        <v>-2.4783373155155788</v>
       </c>
       <c r="P34" s="1">
-        <v>-1.767523419719887</v>
+        <v>-2.4288139399525899</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B35" s="1">
-        <v>-2.6596289998311411</v>
+        <v>-3.818557716397716</v>
       </c>
       <c r="C35" s="1">
-        <v>-4.6002777689998702</v>
+        <v>-2.9040547642197829</v>
       </c>
       <c r="D35" s="1">
-        <v>-3.0284719499577721</v>
+        <v>-2.818461288188097</v>
       </c>
       <c r="E35" s="1">
-        <v>-0.98693397961087082</v>
+        <v>-2.6621035672500279</v>
       </c>
       <c r="F35" s="1">
-        <v>-0.46406402094147647</v>
+        <v>-1.8674590214849609</v>
       </c>
       <c r="G35" s="1">
-        <v>-2.552019773646343</v>
+        <v>-2.589591225370361</v>
       </c>
       <c r="H35" s="1">
-        <v>-4.5639051210764814</v>
+        <v>-1.7646038828642989</v>
       </c>
       <c r="I35" s="1">
-        <v>-3.174450241118846</v>
+        <v>-1.578635435168483</v>
       </c>
       <c r="J35" s="1">
-        <v>-1.4807829324470649</v>
+        <v>-1.3909472303543089</v>
       </c>
       <c r="K35" s="1">
-        <v>-1.0108533197763301</v>
+        <v>-0.82757398901657431</v>
       </c>
       <c r="L35" s="1">
-        <v>1.410645231465961</v>
+        <v>-2.3791685858261928</v>
       </c>
       <c r="M35" s="1">
-        <v>-1.541942197142617</v>
+        <v>-2.2931880129657798</v>
       </c>
       <c r="N35" s="1">
-        <v>-1.9818341412475109</v>
+        <v>-2.3735595710675019</v>
       </c>
       <c r="O35" s="1">
-        <v>-0.90956123896998142</v>
+        <v>-2.6269649831652249</v>
       </c>
       <c r="P35" s="1">
-        <v>-0.77800031766821909</v>
+        <v>-2.7707471419310288</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1">
-        <v>-2.6394435437385551</v>
+        <v>-2.231425943215926</v>
       </c>
       <c r="C36" s="1">
-        <v>-2.487639580981837</v>
+        <v>-1.8813749700080431</v>
       </c>
       <c r="D36" s="1">
-        <v>-3.2273897557745448</v>
+        <v>-1.616455357682659</v>
       </c>
       <c r="E36" s="1">
-        <v>-3.499692864588416</v>
+        <v>-1.3700514023220871</v>
       </c>
       <c r="F36" s="1">
-        <v>-3.9213277302960341</v>
+        <v>-0.85790119256393083</v>
       </c>
       <c r="G36" s="1">
-        <v>-2.6651042480607039</v>
+        <v>-2.1388172919255881</v>
       </c>
       <c r="H36" s="1">
-        <v>-2.5013133345472962</v>
+        <v>-1.666177500278289</v>
       </c>
       <c r="I36" s="1">
-        <v>-3.216863576554065</v>
+        <v>-1.3225917742566791</v>
       </c>
       <c r="J36" s="1">
-        <v>-3.4986585243157688</v>
+        <v>-1.1404498853396829</v>
       </c>
       <c r="K36" s="1">
-        <v>-3.9195635842694898</v>
+        <v>-0.61811873783443683</v>
       </c>
       <c r="L36" s="1">
-        <v>-2.544976527537318</v>
+        <v>-2.2594819317793431</v>
       </c>
       <c r="M36" s="1">
-        <v>-2.3564392053499899</v>
+        <v>-2.398603531171593</v>
       </c>
       <c r="N36" s="1">
-        <v>-3.0223709525958138</v>
+        <v>-2.153382834035499</v>
       </c>
       <c r="O36" s="1">
-        <v>-3.425468191193572</v>
+        <v>-2.4087504391408769</v>
       </c>
       <c r="P36" s="1">
-        <v>-3.8634339411740202</v>
+        <v>-1.9382781438942061</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1">
-        <v>-2.554735798305626</v>
+        <v>-2.387422624684989</v>
       </c>
       <c r="C37" s="1">
-        <v>-1.4732500528583521</v>
+        <v>-2.2098566375457169</v>
       </c>
       <c r="D37" s="1">
-        <v>-1.382045083722333</v>
+        <v>-2.751488211746171</v>
       </c>
       <c r="E37" s="1">
-        <v>-1.266592536475037</v>
+        <v>-3.5217649622873188</v>
       </c>
       <c r="F37" s="1">
-        <v>-1.143697703397325</v>
+        <v>-2.3782561886147842</v>
       </c>
       <c r="G37" s="1">
-        <v>-2.5336384196680131</v>
+        <v>-2.414858042570041</v>
       </c>
       <c r="H37" s="1">
-        <v>-1.470112507171518</v>
+        <v>-2.178812818266501</v>
       </c>
       <c r="I37" s="1">
-        <v>-1.384778371902649</v>
+        <v>-2.5925033546427398</v>
       </c>
       <c r="J37" s="1">
-        <v>-1.3134737959812179</v>
+        <v>-3.1130976916820021</v>
       </c>
       <c r="K37" s="1">
-        <v>-1.228573914445185</v>
+        <v>-2.5723334677356529</v>
       </c>
       <c r="L37" s="1">
-        <v>-2.9162560988032422</v>
+        <v>-2.1934516898596441</v>
       </c>
       <c r="M37" s="1">
-        <v>-2.2361345643561168</v>
+        <v>-2.1828040285028392</v>
       </c>
       <c r="N37" s="1">
-        <v>-2.4630161725931878</v>
+        <v>-3.0974127893187999</v>
       </c>
       <c r="O37" s="1">
-        <v>-2.3694648500783879</v>
+        <v>-5.9162418654339008</v>
       </c>
       <c r="P37" s="1">
-        <v>-2.3160326540242808</v>
+        <v>-2.358103146124348</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B38" s="1">
-        <v>-2.552710073811391</v>
+        <v>-1.740393712654317</v>
       </c>
       <c r="C38" s="1">
-        <v>-2.2145521159279702</v>
+        <v>-3.6329451404433919</v>
       </c>
       <c r="D38" s="1">
-        <v>-2.0899733170166921</v>
+        <v>-2.8493818720910582</v>
       </c>
       <c r="E38" s="1">
-        <v>-2.36346655835092</v>
+        <v>-2.252168426728649</v>
       </c>
       <c r="F38" s="1">
-        <v>-2.411566199867937</v>
+        <v>-2.385587085495938</v>
       </c>
       <c r="G38" s="1">
-        <v>-2.4945078629551261</v>
+        <v>-1.7678735969997359</v>
       </c>
       <c r="H38" s="1">
-        <v>-2.1515740230922882</v>
+        <v>-3.666790856009944</v>
       </c>
       <c r="I38" s="1">
-        <v>-2.024426385828844</v>
+        <v>-2.903251651131912</v>
       </c>
       <c r="J38" s="1">
-        <v>-2.321750225063</v>
+        <v>-2.3884861729612581</v>
       </c>
       <c r="K38" s="1">
-        <v>-2.3840607870167809</v>
+        <v>-2.5456929335128309</v>
       </c>
       <c r="L38" s="1">
-        <v>-2.5652828540907628</v>
+        <v>-2.191845982681579</v>
       </c>
       <c r="M38" s="1">
-        <v>-2.2536806789045412</v>
+        <v>-4.1806016930034708</v>
       </c>
       <c r="N38" s="1">
-        <v>-2.1325191719535739</v>
+        <v>-3.4023029124598301</v>
       </c>
       <c r="O38" s="1">
-        <v>-2.2615635784837829</v>
+        <v>-2.609786007563959</v>
       </c>
       <c r="P38" s="1">
-        <v>-2.1197427202538508</v>
+        <v>-2.7353046925492359</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1">
-        <v>-2.494944477715892</v>
+        <v>-0.66967665620730055</v>
       </c>
       <c r="C39" s="1">
-        <v>-1.9674135241213531</v>
+        <v>-0.98932171097239674</v>
       </c>
       <c r="D39" s="1">
-        <v>-2.30314888953848</v>
+        <v>-0.83705974430426677</v>
       </c>
       <c r="E39" s="1">
-        <v>-1.838678329430649</v>
+        <v>-0.68980574437406839</v>
       </c>
       <c r="F39" s="1">
-        <v>-1.7615931504933791</v>
+        <v>-0.62695369466764406</v>
       </c>
       <c r="G39" s="1">
-        <v>-2.4430880430538142</v>
+        <v>-0.69449226424903443</v>
       </c>
       <c r="H39" s="1">
-        <v>-1.902972455849459</v>
+        <v>-1.0168571251508269</v>
       </c>
       <c r="I39" s="1">
-        <v>-2.1758261604007521</v>
+        <v>-0.86945670354459892</v>
       </c>
       <c r="J39" s="1">
-        <v>-1.686467926462293</v>
+        <v>-0.73343722783614551</v>
       </c>
       <c r="K39" s="1">
-        <v>-1.609492683348561</v>
+        <v>-0.68560323087146824</v>
       </c>
       <c r="L39" s="1">
-        <v>-0.33722013930015471</v>
+        <v>-2.1908275111204989</v>
       </c>
       <c r="M39" s="1">
-        <v>-1.0680737885799709</v>
+        <v>-2.8611433759229241</v>
       </c>
       <c r="N39" s="1">
-        <v>-1.075483097163646</v>
+        <v>-2.6115461819382251</v>
       </c>
       <c r="O39" s="1">
-        <v>-0.59633106403403502</v>
+        <v>-2.314273941374557</v>
       </c>
       <c r="P39" s="1">
-        <v>-0.67256519811260773</v>
+        <v>-2.229259893003658</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1">
-        <v>-2.4695773038081068</v>
+        <v>-2.6705075185442881</v>
       </c>
       <c r="C40" s="1">
-        <v>-2.075556903282386</v>
+        <v>-2.5059493421429102</v>
       </c>
       <c r="D40" s="1">
-        <v>-2.1372483323420268</v>
+        <v>-2.329313603726292</v>
       </c>
       <c r="E40" s="1">
-        <v>-2.1447312522184458</v>
+        <v>-2.1700184877011282</v>
       </c>
       <c r="F40" s="1">
-        <v>-2.0202904413701841</v>
+        <v>-1.9963706813228761</v>
       </c>
       <c r="G40" s="1">
-        <v>-2.3847611725607591</v>
+        <v>-2.6752572763333728</v>
       </c>
       <c r="H40" s="1">
-        <v>-1.9071710057666349</v>
+        <v>-2.460031927688219</v>
       </c>
       <c r="I40" s="1">
-        <v>-1.8825056860933049</v>
+        <v>-2.2497063704330782</v>
       </c>
       <c r="J40" s="1">
-        <v>-1.8437489918171539</v>
+        <v>-2.0767537477900242</v>
       </c>
       <c r="K40" s="1">
-        <v>-1.7124975559339619</v>
+        <v>-1.897454567519087</v>
       </c>
       <c r="L40" s="1">
-        <v>0.9451601589150177</v>
+        <v>-2.1623460087834858</v>
       </c>
       <c r="M40" s="1">
-        <v>0.22793692793578249</v>
+        <v>-1.970863677203968</v>
       </c>
       <c r="N40" s="1">
-        <v>0.70292648199011531</v>
+        <v>-1.9064581166141219</v>
       </c>
       <c r="O40" s="1">
-        <v>0.7676695313799794</v>
+        <v>-1.8592405485905941</v>
       </c>
       <c r="P40" s="1">
-        <v>0.91991679074547639</v>
+        <v>-1.767523419719887</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1">
-        <v>-2.4614661563214768</v>
+        <v>-2.3896161561959302</v>
       </c>
       <c r="C41" s="1">
-        <v>-2.9565511016484489</v>
+        <v>-2.712390927112533</v>
       </c>
       <c r="D41" s="1">
-        <v>-2.604368527645613</v>
+        <v>-2.4162359506778719</v>
       </c>
       <c r="E41" s="1">
-        <v>-2.4723168064320689</v>
+        <v>-2.5374448091072459</v>
       </c>
       <c r="F41" s="1">
-        <v>-2.465484355501192</v>
+        <v>-2.9152655695293439</v>
       </c>
       <c r="G41" s="1">
-        <v>-2.4845571832463009</v>
+        <v>-2.405998082101112</v>
       </c>
       <c r="H41" s="1">
-        <v>-2.986478927772839</v>
+        <v>-2.728521646183915</v>
       </c>
       <c r="I41" s="1">
-        <v>-2.6336855896658009</v>
+        <v>-2.4069245927321199</v>
       </c>
       <c r="J41" s="1">
-        <v>-2.501684751617121</v>
+        <v>-2.511122920279953</v>
       </c>
       <c r="K41" s="1">
-        <v>-2.4921466835586101</v>
+        <v>-2.8652506660263701</v>
       </c>
       <c r="L41" s="1">
-        <v>-2.4010531228466432</v>
+        <v>-2.1606861557702981</v>
       </c>
       <c r="M41" s="1">
-        <v>-2.9420474588032079</v>
+        <v>-2.5318268170452272</v>
       </c>
       <c r="N41" s="1">
-        <v>-2.6101600157894702</v>
+        <v>-2.1127634485669189</v>
       </c>
       <c r="O41" s="1">
-        <v>-2.4783373155155788</v>
+        <v>-2.215164309943439</v>
       </c>
       <c r="P41" s="1">
-        <v>-2.4288139399525899</v>
+        <v>-2.621780225341968</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B42" s="1">
-        <v>-2.4323544220855631</v>
+        <v>-0.12700936210017</v>
       </c>
       <c r="C42" s="1">
-        <v>-2.2087794592005778</v>
+        <v>0.55022754339439661</v>
       </c>
       <c r="D42" s="1">
-        <v>-3.9251636151802338</v>
+        <v>0.51029140555776176</v>
       </c>
       <c r="E42" s="1">
-        <v>-3.5472327644522492</v>
+        <v>0.70760003005043293</v>
       </c>
       <c r="F42" s="1">
-        <v>-2.2451760019563349</v>
+        <v>0.85067060845770481</v>
       </c>
       <c r="G42" s="1">
-        <v>-2.404585287824502</v>
+        <v>-0.20902663204462399</v>
       </c>
       <c r="H42" s="1">
-        <v>-2.1518343627814338</v>
+        <v>0.34526226148231509</v>
       </c>
       <c r="I42" s="1">
-        <v>-3.6694041032507418</v>
+        <v>0.1996526362768376</v>
       </c>
       <c r="J42" s="1">
-        <v>-3.2896637567590652</v>
+        <v>0.25608702005016609</v>
       </c>
       <c r="K42" s="1">
-        <v>-2.2314470915870941</v>
+        <v>0.34576145007562731</v>
       </c>
       <c r="L42" s="1">
-        <v>-1.416963996051708</v>
+        <v>-2.1483619993946008</v>
       </c>
       <c r="M42" s="1">
-        <v>-1.6973376008895711</v>
+        <v>-1.2221461891084979</v>
       </c>
       <c r="N42" s="1">
-        <v>-3.8109283177087261</v>
+        <v>-1.109413425062993</v>
       </c>
       <c r="O42" s="1">
-        <v>-4.6113126329641636</v>
+        <v>-0.77210066417633327</v>
       </c>
       <c r="P42" s="1">
-        <v>-3.5655529297948712</v>
+        <v>-0.75115706345613109</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B43" s="1">
-        <v>-2.3896161561959302</v>
+        <v>-2.1564138330616691</v>
       </c>
       <c r="C43" s="1">
-        <v>-2.712390927112533</v>
+        <v>-2.4431089168784919</v>
       </c>
       <c r="D43" s="1">
-        <v>-2.4162359506778719</v>
+        <v>-2.1171712746533831</v>
       </c>
       <c r="E43" s="1">
-        <v>-2.5374448091072459</v>
+        <v>-2.33943866139502</v>
       </c>
       <c r="F43" s="1">
-        <v>-2.9152655695293439</v>
+        <v>-1.970552391081507</v>
       </c>
       <c r="G43" s="1">
-        <v>-2.405998082101112</v>
+        <v>-2.1343302206551011</v>
       </c>
       <c r="H43" s="1">
-        <v>-2.728521646183915</v>
+        <v>-2.44117609751537</v>
       </c>
       <c r="I43" s="1">
-        <v>-2.4069245927321199</v>
+        <v>-2.1126323742225068</v>
       </c>
       <c r="J43" s="1">
-        <v>-2.511122920279953</v>
+        <v>-2.3341780761564408</v>
       </c>
       <c r="K43" s="1">
-        <v>-2.8652506660263701</v>
+        <v>-1.9743429087592821</v>
       </c>
       <c r="L43" s="1">
-        <v>-2.1606861557702981</v>
+        <v>-2.0697992405747851</v>
       </c>
       <c r="M43" s="1">
-        <v>-2.5318268170452272</v>
+        <v>-2.497181689595712</v>
       </c>
       <c r="N43" s="1">
-        <v>-2.1127634485669189</v>
+        <v>-2.2345840900719258</v>
       </c>
       <c r="O43" s="1">
-        <v>-2.215164309943439</v>
+        <v>-2.4921076506825122</v>
       </c>
       <c r="P43" s="1">
-        <v>-2.621780225341968</v>
+        <v>-2.115927945777293</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="B44" s="1">
-        <v>-2.387422624684989</v>
+        <v>-3.528057692347133</v>
       </c>
       <c r="C44" s="1">
-        <v>-2.2098566375457169</v>
+        <v>-2.1525340206630759</v>
       </c>
       <c r="D44" s="1">
-        <v>-2.751488211746171</v>
+        <v>-2.0883380712617519</v>
       </c>
       <c r="E44" s="1">
-        <v>-3.5217649622873188</v>
+        <v>-2.0822266966228939</v>
       </c>
       <c r="F44" s="1">
-        <v>-2.3782561886147842</v>
+        <v>-1.921103025483651</v>
       </c>
       <c r="G44" s="1">
-        <v>-2.414858042570041</v>
+        <v>-3.4342260806379499</v>
       </c>
       <c r="H44" s="1">
-        <v>-2.178812818266501</v>
+        <v>-2.0785886726384031</v>
       </c>
       <c r="I44" s="1">
-        <v>-2.5925033546427398</v>
+        <v>-2.0102535597452662</v>
       </c>
       <c r="J44" s="1">
-        <v>-3.1130976916820021</v>
+        <v>-2.0451884011434491</v>
       </c>
       <c r="K44" s="1">
-        <v>-2.5723334677356529</v>
+        <v>-1.884598027970269</v>
       </c>
       <c r="L44" s="1">
-        <v>-2.1934516898596441</v>
+        <v>-2.0102062510075029</v>
       </c>
       <c r="M44" s="1">
-        <v>-2.1828040285028392</v>
+        <v>-1.826916371836</v>
       </c>
       <c r="N44" s="1">
-        <v>-3.0974127893187999</v>
+        <v>-1.9468327742752061</v>
       </c>
       <c r="O44" s="1">
-        <v>-5.9162418654339008</v>
+        <v>-2.0908278862356449</v>
       </c>
       <c r="P44" s="1">
-        <v>-2.358103146124348</v>
+        <v>-2.058709940619408</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="B45" s="1">
-        <v>-2.3681987126945239</v>
+        <v>-1.657455023997584</v>
       </c>
       <c r="C45" s="1">
-        <v>-2.4505066760003098</v>
+        <v>-1.9514078771675969</v>
       </c>
       <c r="D45" s="1">
-        <v>-2.327890817649398</v>
+        <v>-2.109071096671935</v>
       </c>
       <c r="E45" s="1">
-        <v>-2.137807001805911</v>
+        <v>-2.1618766691501601</v>
       </c>
       <c r="F45" s="1">
-        <v>-2.0784516184322639</v>
+        <v>-1.383019993854891</v>
       </c>
       <c r="G45" s="1">
-        <v>-2.3752233725158161</v>
+        <v>-1.679847693319338</v>
       </c>
       <c r="H45" s="1">
-        <v>-2.5451762607443511</v>
+        <v>-1.9797944518896431</v>
       </c>
       <c r="I45" s="1">
-        <v>-2.3807945803800301</v>
+        <v>-2.1397254385195912</v>
       </c>
       <c r="J45" s="1">
-        <v>-2.200132123538896</v>
+        <v>-2.1949051450095101</v>
       </c>
       <c r="K45" s="1">
-        <v>-2.1400539380334549</v>
+        <v>-1.406828737529513</v>
       </c>
       <c r="L45" s="1">
-        <v>-1.785503318513588</v>
+        <v>-1.9783283736389889</v>
       </c>
       <c r="M45" s="1">
-        <v>-2.121630430429958</v>
+        <v>-2.3550156203555068</v>
       </c>
       <c r="N45" s="1">
-        <v>-1.9801665404237281</v>
+        <v>-2.6760279757290339</v>
       </c>
       <c r="O45" s="1">
-        <v>-1.9095024909112219</v>
+        <v>-2.8210394357479291</v>
       </c>
       <c r="P45" s="1">
-        <v>-1.889409927478275</v>
+        <v>-1.9976659120756199</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B46" s="1">
-        <v>-2.3466135160070452</v>
+        <v>-1.942565324422683</v>
       </c>
       <c r="C46" s="1">
-        <v>-2.732369576131235</v>
+        <v>-2.7356507850324219</v>
       </c>
       <c r="D46" s="1">
-        <v>-2.182485220321039</v>
+        <v>-3.0372233912984758</v>
       </c>
       <c r="E46" s="1">
-        <v>-2.254927127336698</v>
+        <v>-3.1398940515009688</v>
       </c>
       <c r="F46" s="1">
-        <v>-2.450464590144998</v>
+        <v>-3.107674298891177</v>
       </c>
       <c r="G46" s="1">
-        <v>-2.3944802801880689</v>
+        <v>-1.962675389626378</v>
       </c>
       <c r="H46" s="1">
-        <v>-2.785694604597599</v>
+        <v>-2.7636569537374811</v>
       </c>
       <c r="I46" s="1">
-        <v>-2.2343944379117011</v>
+        <v>-3.069599008027605</v>
       </c>
       <c r="J46" s="1">
-        <v>-2.3078043325033128</v>
+        <v>-3.1787407658285689</v>
       </c>
       <c r="K46" s="1">
-        <v>-2.519670528682433</v>
+        <v>-3.149544133669556</v>
       </c>
       <c r="L46" s="1">
-        <v>-2.4715895726164092</v>
+        <v>-1.9239142669942491</v>
       </c>
       <c r="M46" s="1">
-        <v>-2.866961645199507</v>
+        <v>-2.7186703470897311</v>
       </c>
       <c r="N46" s="1">
-        <v>-2.366382297317696</v>
+        <v>-3.0154145332664379</v>
       </c>
       <c r="O46" s="1">
-        <v>-2.5284952165379821</v>
+        <v>-3.106725300278073</v>
       </c>
       <c r="P46" s="1">
-        <v>-2.6846925962292638</v>
+        <v>-3.0735878643161909</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="B47" s="1">
-        <v>-2.3295887018721948</v>
+        <v>-2.262113220928633</v>
       </c>
       <c r="C47" s="1">
-        <v>-2.0594254074297709</v>
+        <v>-2.122121300251719</v>
       </c>
       <c r="D47" s="1">
-        <v>-2.408377847231288</v>
+        <v>-2.9209431802286119</v>
       </c>
       <c r="E47" s="1">
-        <v>-2.5877642132448901</v>
+        <v>-2.9959786594308362</v>
       </c>
       <c r="F47" s="1">
-        <v>-2.613821729161987</v>
+        <v>-2.151558984680054</v>
       </c>
       <c r="G47" s="1">
-        <v>-2.3385250628116689</v>
+        <v>-2.161783712266383</v>
       </c>
       <c r="H47" s="1">
-        <v>-2.056251741527495</v>
+        <v>-1.927349478096644</v>
       </c>
       <c r="I47" s="1">
-        <v>-2.3782775902644091</v>
+        <v>-2.7143034468581901</v>
       </c>
       <c r="J47" s="1">
-        <v>-2.5315642835960839</v>
+        <v>-2.7454872834136479</v>
       </c>
       <c r="K47" s="1">
-        <v>-2.5758079572237249</v>
+        <v>-1.9786916270157611</v>
       </c>
       <c r="L47" s="1">
-        <v>-1.680677844746113</v>
+        <v>-1.8660818827014951</v>
       </c>
       <c r="M47" s="1">
-        <v>-1.407678871140785</v>
+        <v>-2.0298620778846201</v>
       </c>
       <c r="N47" s="1">
-        <v>-1.638684292170054</v>
+        <v>-3.024244567332028</v>
       </c>
       <c r="O47" s="1">
-        <v>-1.8756362638866031</v>
+        <v>-3.2253802316832352</v>
       </c>
       <c r="P47" s="1">
-        <v>-2.0411997413114129</v>
+        <v>-2.775839642687441</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1">
-        <v>-2.262113220928633</v>
+        <v>-1.863389417067997</v>
       </c>
       <c r="C48" s="1">
-        <v>-2.122121300251719</v>
+        <v>-1.6406132386079391</v>
       </c>
       <c r="D48" s="1">
-        <v>-2.9209431802286119</v>
+        <v>-1.600661282482716</v>
       </c>
       <c r="E48" s="1">
-        <v>-2.9959786594308362</v>
+        <v>-1.6417785540889129</v>
       </c>
       <c r="F48" s="1">
-        <v>-2.151558984680054</v>
+        <v>-1.3558198603207789</v>
       </c>
       <c r="G48" s="1">
-        <v>-2.161783712266383</v>
+        <v>-1.881767909131929</v>
       </c>
       <c r="H48" s="1">
-        <v>-1.927349478096644</v>
+        <v>-1.6580683983679521</v>
       </c>
       <c r="I48" s="1">
-        <v>-2.7143034468581901</v>
+        <v>-1.6156923773137191</v>
       </c>
       <c r="J48" s="1">
-        <v>-2.7454872834136479</v>
+        <v>-1.6603066511188911</v>
       </c>
       <c r="K48" s="1">
-        <v>-1.9786916270157611</v>
+        <v>-1.374583492240486</v>
       </c>
       <c r="L48" s="1">
-        <v>-1.8660818827014951</v>
+        <v>-1.8655692833809081</v>
       </c>
       <c r="M48" s="1">
-        <v>-2.0298620778846201</v>
+        <v>-1.595605071594197</v>
       </c>
       <c r="N48" s="1">
-        <v>-3.024244567332028</v>
+        <v>-1.457578294064384</v>
       </c>
       <c r="O48" s="1">
-        <v>-3.2253802316832352</v>
+        <v>-1.565119563189266</v>
       </c>
       <c r="P48" s="1">
-        <v>-2.775839642687441</v>
+        <v>-1.228388865531499</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="B49" s="1">
-        <v>-2.231425943215926</v>
+        <v>-1.9794085386271281</v>
       </c>
       <c r="C49" s="1">
-        <v>-1.8813749700080431</v>
+        <v>-2.1548133497335278</v>
       </c>
       <c r="D49" s="1">
-        <v>-1.616455357682659</v>
+        <v>-2.2469743619767049</v>
       </c>
       <c r="E49" s="1">
-        <v>-1.3700514023220871</v>
+        <v>-2.377064721371382</v>
       </c>
       <c r="F49" s="1">
-        <v>-0.85790119256393083</v>
+        <v>-2.170563867545257</v>
       </c>
       <c r="G49" s="1">
-        <v>-2.1388172919255881</v>
+        <v>-1.983101642451528</v>
       </c>
       <c r="H49" s="1">
-        <v>-1.666177500278289</v>
+        <v>-2.1393914750507328</v>
       </c>
       <c r="I49" s="1">
-        <v>-1.3225917742566791</v>
+        <v>-2.230908996302611</v>
       </c>
       <c r="J49" s="1">
-        <v>-1.1404498853396829</v>
+        <v>-2.358663635281248</v>
       </c>
       <c r="K49" s="1">
-        <v>-0.61811873783443683</v>
+        <v>-2.1423518022995629</v>
       </c>
       <c r="L49" s="1">
-        <v>-2.2594819317793431</v>
+        <v>-1.8641094308055739</v>
       </c>
       <c r="M49" s="1">
-        <v>-2.398603531171593</v>
+        <v>-2.1324660584219619</v>
       </c>
       <c r="N49" s="1">
-        <v>-2.153382834035499</v>
+        <v>-2.2259009263994072</v>
       </c>
       <c r="O49" s="1">
-        <v>-2.4087504391408769</v>
+        <v>-2.3476619505201568</v>
       </c>
       <c r="P49" s="1">
-        <v>-1.9382781438942061</v>
+        <v>-2.136483423605068</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1">
-        <v>-2.1950824658489019</v>
+        <v>-2.0972963471157491</v>
       </c>
       <c r="C50" s="1">
-        <v>-2.3750337051694892</v>
+        <v>-2.0860130811347961</v>
       </c>
       <c r="D50" s="1">
-        <v>-2.7642643627206498</v>
+        <v>-1.985529159463495</v>
       </c>
       <c r="E50" s="1">
-        <v>-2.9648982043868841</v>
+        <v>-2.0513601647755881</v>
       </c>
       <c r="F50" s="1">
-        <v>-2.545462937681068</v>
+        <v>-1.924817898160962</v>
       </c>
       <c r="G50" s="1">
-        <v>-2.1872663412582201</v>
+        <v>-2.1026621144074822</v>
       </c>
       <c r="H50" s="1">
-        <v>-2.3506179114978121</v>
+        <v>-2.1028628716297191</v>
       </c>
       <c r="I50" s="1">
-        <v>-2.7306181045705111</v>
+        <v>-1.990281152079391</v>
       </c>
       <c r="J50" s="1">
-        <v>-2.91166463639007</v>
+        <v>-2.0582571730433759</v>
       </c>
       <c r="K50" s="1">
-        <v>-2.4525966165137301</v>
+        <v>-1.9088037859891389</v>
       </c>
       <c r="L50" s="1">
-        <v>-1.784775974453235</v>
+        <v>-1.8589176492942261</v>
       </c>
       <c r="M50" s="1">
-        <v>-2.192469439271417</v>
+        <v>-1.9841152504053481</v>
       </c>
       <c r="N50" s="1">
-        <v>-2.633984345775616</v>
+        <v>-1.8845259410992321</v>
       </c>
       <c r="O50" s="1">
-        <v>-2.852157798839249</v>
+        <v>-1.99914934774415</v>
       </c>
       <c r="P50" s="1">
-        <v>-2.417456503890131</v>
+        <v>-1.9242098750311329</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>-2.1564138330616691</v>
+        <v>-5.6356123317987166</v>
       </c>
       <c r="C51" s="1">
-        <v>-2.4431089168784919</v>
+        <v>-2.428536255336315</v>
       </c>
       <c r="D51" s="1">
-        <v>-2.1171712746533831</v>
+        <v>-2.336825670552622</v>
       </c>
       <c r="E51" s="1">
-        <v>-2.33943866139502</v>
+        <v>-2.215488022490411</v>
       </c>
       <c r="F51" s="1">
-        <v>-1.970552391081507</v>
+        <v>-2.1424052540119352</v>
       </c>
       <c r="G51" s="1">
-        <v>-2.1343302206551011</v>
+        <v>-4.7789437050288637</v>
       </c>
       <c r="H51" s="1">
-        <v>-2.44117609751537</v>
+        <v>-2.0465005926521029</v>
       </c>
       <c r="I51" s="1">
-        <v>-2.1126323742225068</v>
+        <v>-1.9491200447091961</v>
       </c>
       <c r="J51" s="1">
-        <v>-2.3341780761564408</v>
+        <v>-1.9226059113566021</v>
       </c>
       <c r="K51" s="1">
-        <v>-1.9743429087592821</v>
+        <v>-1.814072346490629</v>
       </c>
       <c r="L51" s="1">
-        <v>-2.0697992405747851</v>
+        <v>-1.811557537625005</v>
       </c>
       <c r="M51" s="1">
-        <v>-2.497181689595712</v>
+        <v>-1.841125651917086</v>
       </c>
       <c r="N51" s="1">
-        <v>-2.2345840900719258</v>
+        <v>-1.8242856008503281</v>
       </c>
       <c r="O51" s="1">
-        <v>-2.4921076506825122</v>
+        <v>-1.9849511239040929</v>
       </c>
       <c r="P51" s="1">
-        <v>-2.115927945777293</v>
+        <v>-1.864489240097132</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1">
-        <v>-2.1440209534625851</v>
+        <v>-2.3681987126945239</v>
       </c>
       <c r="C52" s="1">
-        <v>-2.388024539108315</v>
+        <v>-2.4505066760003098</v>
       </c>
       <c r="D52" s="1">
-        <v>-2.6968119086090039</v>
+        <v>-2.327890817649398</v>
       </c>
       <c r="E52" s="1">
-        <v>-4.1097224250607836</v>
+        <v>-2.137807001805911</v>
       </c>
       <c r="F52" s="1">
-        <v>-3.814704882580918</v>
+        <v>-2.0784516184322639</v>
       </c>
       <c r="G52" s="1">
-        <v>-2.0884951543890899</v>
+        <v>-2.3752233725158161</v>
       </c>
       <c r="H52" s="1">
-        <v>-2.2963435310414582</v>
+        <v>-2.5451762607443511</v>
       </c>
       <c r="I52" s="1">
-        <v>-2.5318386644150048</v>
+        <v>-2.3807945803800301</v>
       </c>
       <c r="J52" s="1">
-        <v>-3.714332230114477</v>
+        <v>-2.200132123538896</v>
       </c>
       <c r="K52" s="1">
-        <v>-3.3156648966755942</v>
+        <v>-2.1400539380334549</v>
       </c>
       <c r="L52" s="1">
-        <v>-1.350846192043587</v>
+        <v>-1.785503318513588</v>
       </c>
       <c r="M52" s="1">
-        <v>-2.230368212002491</v>
+        <v>-2.121630430429958</v>
       </c>
       <c r="N52" s="1">
-        <v>-2.5423672881760369</v>
+        <v>-1.9801665404237281</v>
       </c>
       <c r="O52" s="1">
-        <v>-4.063876386521887</v>
+        <v>-1.9095024909112219</v>
       </c>
       <c r="P52" s="1">
-        <v>-3.8838392763829712</v>
+        <v>-1.889409927478275</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B53" s="1">
-        <v>-2.1129843496659939</v>
+        <v>-2.1950824658489019</v>
       </c>
       <c r="C53" s="1">
-        <v>-1.9762843902470799</v>
+        <v>-2.3750337051694892</v>
       </c>
       <c r="D53" s="1">
-        <v>-2.0541530602357829</v>
+        <v>-2.7642643627206498</v>
       </c>
       <c r="E53" s="1">
-        <v>-1.8611059079846519</v>
+        <v>-2.9648982043868841</v>
       </c>
       <c r="F53" s="1">
-        <v>-1.9309028414985421</v>
+        <v>-2.545462937681068</v>
       </c>
       <c r="G53" s="1">
-        <v>-2.081595172287249</v>
+        <v>-2.1872663412582201</v>
       </c>
       <c r="H53" s="1">
-        <v>-1.9169524367700479</v>
+        <v>-2.3506179114978121</v>
       </c>
       <c r="I53" s="1">
-        <v>-1.9418662224741541</v>
+        <v>-2.7306181045705111</v>
       </c>
       <c r="J53" s="1">
-        <v>-1.726742224201298</v>
+        <v>-2.91166463639007</v>
       </c>
       <c r="K53" s="1">
-        <v>-1.7521728054693599</v>
+        <v>-2.4525966165137301</v>
       </c>
       <c r="L53" s="1">
-        <v>1.0466878065933469</v>
+        <v>-1.784775974453235</v>
       </c>
       <c r="M53" s="1">
-        <v>-9.6607426964856802E-2</v>
+        <v>-2.192469439271417</v>
       </c>
       <c r="N53" s="1">
-        <v>0.45344672683404802</v>
+        <v>-2.633984345775616</v>
       </c>
       <c r="O53" s="1">
-        <v>0.77685500844144395</v>
+        <v>-2.852157798839249</v>
       </c>
       <c r="P53" s="1">
-        <v>1.2416607424847179</v>
+        <v>-2.417456503890131</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B54" s="1">
-        <v>-2.1064549117158982</v>
+        <v>-1.711339435910785</v>
       </c>
       <c r="C54" s="1">
-        <v>-1.536963186704903</v>
+        <v>-1.5113136060500989</v>
       </c>
       <c r="D54" s="1">
-        <v>-1.806231846932169</v>
+        <v>-1.4439946123672569</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.81601948523769863</v>
+        <v>-1.375264627815117</v>
       </c>
       <c r="F54" s="1">
-        <v>-0.43008870620037248</v>
+        <v>-1.366043128777769</v>
       </c>
       <c r="G54" s="1">
-        <v>-2.1054011358180258</v>
+        <v>-1.726211105057442</v>
       </c>
       <c r="H54" s="1">
-        <v>-1.577822913992952</v>
+        <v>-1.524283220933365</v>
       </c>
       <c r="I54" s="1">
-        <v>-1.9151577264524671</v>
+        <v>-1.4533953380628699</v>
       </c>
       <c r="J54" s="1">
-        <v>-1.6481055159026401</v>
+        <v>-1.3870371378448709</v>
       </c>
       <c r="K54" s="1">
-        <v>-0.97724686865175037</v>
+        <v>-1.38284440432183</v>
       </c>
       <c r="L54" s="1">
-        <v>-0.99268522702182715</v>
+        <v>-1.7360361403187721</v>
       </c>
       <c r="M54" s="1">
-        <v>-0.63307658120116816</v>
+        <v>-1.582617001409695</v>
       </c>
       <c r="N54" s="1">
-        <v>-0.98557235807551824</v>
+        <v>-1.324080136888496</v>
       </c>
       <c r="O54" s="1">
-        <v>-0.51220846294648004</v>
+        <v>-1.4779703757183551</v>
       </c>
       <c r="P54" s="1">
-        <v>3.9593161610649002E-3</v>
+        <v>-1.7631570655026489</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B55" s="1">
-        <v>-2.0972963471157491</v>
+        <v>0.20568663526027059</v>
       </c>
       <c r="C55" s="1">
-        <v>-2.0860130811347961</v>
+        <v>-0.49863517593183648</v>
       </c>
       <c r="D55" s="1">
-        <v>-1.985529159463495</v>
+        <v>-0.39426121730494329</v>
       </c>
       <c r="E55" s="1">
-        <v>-2.0513601647755881</v>
+        <v>-0.64315082073006469</v>
       </c>
       <c r="F55" s="1">
-        <v>-1.924817898160962</v>
+        <v>-0.63873735138177867</v>
       </c>
       <c r="G55" s="1">
-        <v>-2.1026621144074822</v>
+        <v>2.3171678897392401E-2</v>
       </c>
       <c r="H55" s="1">
-        <v>-2.1028628716297191</v>
+        <v>-0.77093449533511604</v>
       </c>
       <c r="I55" s="1">
-        <v>-1.990281152079391</v>
+        <v>-0.55426390438525908</v>
       </c>
       <c r="J55" s="1">
-        <v>-2.0582571730433759</v>
+        <v>-0.70292465202319465</v>
       </c>
       <c r="K55" s="1">
-        <v>-1.9088037859891389</v>
+        <v>-0.61597625929028454</v>
       </c>
       <c r="L55" s="1">
-        <v>-1.8589176492942261</v>
+        <v>-1.721071379269749</v>
       </c>
       <c r="M55" s="1">
-        <v>-1.9841152504053481</v>
+        <v>-1.70857750311457</v>
       </c>
       <c r="N55" s="1">
-        <v>-1.8845259410992321</v>
+        <v>-1.662159151564244</v>
       </c>
       <c r="O55" s="1">
-        <v>-1.99914934774415</v>
+        <v>-2.0680965825858642</v>
       </c>
       <c r="P55" s="1">
-        <v>-1.9242098750311329</v>
+        <v>-2.5501156185614779</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B56" s="1">
-        <v>-2.0945130038929398</v>
+        <v>-2.3295887018721948</v>
       </c>
       <c r="C56" s="1">
-        <v>-1.9637181997306721</v>
+        <v>-2.0594254074297709</v>
       </c>
       <c r="D56" s="1">
-        <v>-1.3126987191697399</v>
+        <v>-2.408377847231288</v>
       </c>
       <c r="E56" s="1">
-        <v>-1.5937628289712891</v>
+        <v>-2.5877642132448901</v>
       </c>
       <c r="F56" s="1">
-        <v>-1.1866602351657241</v>
+        <v>-2.613821729161987</v>
       </c>
       <c r="G56" s="1">
-        <v>-1.882683985826958</v>
+        <v>-2.3385250628116689</v>
       </c>
       <c r="H56" s="1">
-        <v>-1.665094976483779</v>
+        <v>-2.056251741527495</v>
       </c>
       <c r="I56" s="1">
-        <v>-1.045920854909574</v>
+        <v>-2.3782775902644091</v>
       </c>
       <c r="J56" s="1">
-        <v>-1.0587990704435031</v>
+        <v>-2.5315642835960839</v>
       </c>
       <c r="K56" s="1">
-        <v>-0.52192503494037235</v>
+        <v>-2.5758079572237249</v>
       </c>
       <c r="L56" s="1">
-        <v>-0.8273292812470936</v>
+        <v>-1.680677844746113</v>
       </c>
       <c r="M56" s="1">
-        <v>-2.049345025967261</v>
+        <v>-1.407678871140785</v>
       </c>
       <c r="N56" s="1">
-        <v>-1.886143695779267</v>
+        <v>-1.638684292170054</v>
       </c>
       <c r="O56" s="1">
-        <v>-0.55895018829544085</v>
+        <v>-1.8756362638866031</v>
       </c>
       <c r="P56" s="1">
-        <v>0.150426732566324</v>
+        <v>-2.0411997413114129</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1">
-        <v>-1.9794085386271281</v>
+        <v>-1.746394396216743</v>
       </c>
       <c r="C57" s="1">
-        <v>-2.1548133497335278</v>
+        <v>-3.0653001313997441</v>
       </c>
       <c r="D57" s="1">
-        <v>-2.2469743619767049</v>
+        <v>-2.390298316011378</v>
       </c>
       <c r="E57" s="1">
-        <v>-2.377064721371382</v>
+        <v>-2.2930988779232289</v>
       </c>
       <c r="F57" s="1">
-        <v>-2.170563867545257</v>
+        <v>-1.956963622668844</v>
       </c>
       <c r="G57" s="1">
-        <v>-1.983101642451528</v>
+        <v>-1.780947729062246</v>
       </c>
       <c r="H57" s="1">
-        <v>-2.1393914750507328</v>
+        <v>-3.1444738938107739</v>
       </c>
       <c r="I57" s="1">
-        <v>-2.230908996302611</v>
+        <v>-2.4294156869162649</v>
       </c>
       <c r="J57" s="1">
-        <v>-2.358663635281248</v>
+        <v>-2.312419260068431</v>
       </c>
       <c r="K57" s="1">
-        <v>-2.1423518022995629</v>
+        <v>-1.98575042627617</v>
       </c>
       <c r="L57" s="1">
-        <v>-1.8641094308055739</v>
+        <v>-1.6517807563387219</v>
       </c>
       <c r="M57" s="1">
-        <v>-2.1324660584219619</v>
+        <v>-2.978555407042907</v>
       </c>
       <c r="N57" s="1">
-        <v>-2.2259009263994072</v>
+        <v>-2.3986661049872491</v>
       </c>
       <c r="O57" s="1">
-        <v>-2.3476619505201568</v>
+        <v>-2.4366090601904848</v>
       </c>
       <c r="P57" s="1">
-        <v>-2.136483423605068</v>
+        <v>-2.151816592556151</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1">
-        <v>-1.9467418430852801</v>
+        <v>-1.468028273490954</v>
       </c>
       <c r="C58" s="1">
-        <v>-1.94252470311462</v>
+        <v>-1.7979066131998289</v>
       </c>
       <c r="D58" s="1">
-        <v>-2.3752541605298192</v>
+        <v>-1.504505934397439</v>
       </c>
       <c r="E58" s="1">
-        <v>-2.5633641042320301</v>
+        <v>-1.5690736504904701</v>
       </c>
       <c r="F58" s="1">
-        <v>-2.50477943906724</v>
+        <v>-1.2061443776999241</v>
       </c>
       <c r="G58" s="1">
-        <v>-1.8877482434854389</v>
+        <v>-1.481911870869439</v>
       </c>
       <c r="H58" s="1">
-        <v>-1.829831159429717</v>
+        <v>-1.813674300747381</v>
       </c>
       <c r="I58" s="1">
-        <v>-2.0912272891758992</v>
+        <v>-1.5167895666933531</v>
       </c>
       <c r="J58" s="1">
-        <v>-2.0461849075398049</v>
+        <v>-1.581048552721227</v>
       </c>
       <c r="K58" s="1">
-        <v>-1.742386638721301</v>
+        <v>-1.215219912389069</v>
       </c>
       <c r="L58" s="1">
-        <v>-1.1370948092716919</v>
+        <v>-1.651488547250656</v>
       </c>
       <c r="M58" s="1">
-        <v>-2.1492446735482118</v>
+        <v>-2.467532111471419</v>
       </c>
       <c r="N58" s="1">
-        <v>-2.1276273266454111</v>
+        <v>-2.0035273340880702</v>
       </c>
       <c r="O58" s="1">
-        <v>-2.1440125516151669</v>
+        <v>-2.1192293704754528</v>
       </c>
       <c r="P58" s="1">
-        <v>-1.965270382402567</v>
+        <v>-1.782405985529216</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="B59" s="1">
-        <v>-1.9462785691573949</v>
+        <v>-1.5317341237107991</v>
       </c>
       <c r="C59" s="1">
-        <v>-1.5973841042982251</v>
+        <v>-2.7555565094137302</v>
       </c>
       <c r="D59" s="1">
-        <v>-1.2835564199622209</v>
+        <v>-1.549104595881502</v>
       </c>
       <c r="E59" s="1">
-        <v>-0.92929711764515854</v>
+        <v>-1.819972307878158</v>
       </c>
       <c r="F59" s="1">
-        <v>-1.104924205903502</v>
+        <v>-1.3745332936811461</v>
       </c>
       <c r="G59" s="1">
-        <v>-1.999298991222193</v>
+        <v>-1.587737075175258</v>
       </c>
       <c r="H59" s="1">
-        <v>-1.6592211961262331</v>
+        <v>-2.850791903784514</v>
       </c>
       <c r="I59" s="1">
-        <v>-1.3480641662482591</v>
+        <v>-1.65143154946537</v>
       </c>
       <c r="J59" s="1">
-        <v>-1.019322131850994</v>
+        <v>-1.920084656270016</v>
       </c>
       <c r="K59" s="1">
-        <v>-1.2328859824771241</v>
+        <v>-1.472956654755851</v>
       </c>
       <c r="L59" s="1">
-        <v>-3.063223859472072</v>
+        <v>-1.6316783340897789</v>
       </c>
       <c r="M59" s="1">
-        <v>-2.37038896517875</v>
+        <v>-2.9467149089747728</v>
       </c>
       <c r="N59" s="1">
-        <v>-2.153732889185366</v>
+        <v>-1.6355162880485301</v>
       </c>
       <c r="O59" s="1">
-        <v>-1.827011285993746</v>
+        <v>-1.9975754731262569</v>
       </c>
       <c r="P59" s="1">
-        <v>-1.7643215659464899</v>
+        <v>-1.5933132715926299</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B60" s="1">
-        <v>-1.942565324422683</v>
+        <v>-1.69913110496157</v>
       </c>
       <c r="C60" s="1">
-        <v>-2.7356507850324219</v>
+        <v>-1.3242068358574239</v>
       </c>
       <c r="D60" s="1">
-        <v>-3.0372233912984758</v>
+        <v>-1.158712649168937</v>
       </c>
       <c r="E60" s="1">
-        <v>-3.1398940515009688</v>
+        <v>-1.3507766016139551</v>
       </c>
       <c r="F60" s="1">
-        <v>-3.107674298891177</v>
+        <v>-1.879816435622031</v>
       </c>
       <c r="G60" s="1">
-        <v>-1.962675389626378</v>
+        <v>-1.7135457215069421</v>
       </c>
       <c r="H60" s="1">
-        <v>-2.7636569537374811</v>
+        <v>-1.335464771363116</v>
       </c>
       <c r="I60" s="1">
-        <v>-3.069599008027605</v>
+        <v>-1.170013372725109</v>
       </c>
       <c r="J60" s="1">
-        <v>-3.1787407658285689</v>
+        <v>-1.3656414993084991</v>
       </c>
       <c r="K60" s="1">
-        <v>-3.149544133669556</v>
+        <v>-1.8980911230818429</v>
       </c>
       <c r="L60" s="1">
-        <v>-1.9239142669942491</v>
+        <v>-1.588854167254937</v>
       </c>
       <c r="M60" s="1">
-        <v>-2.7186703470897311</v>
+        <v>-1.496822958665619</v>
       </c>
       <c r="N60" s="1">
-        <v>-3.0154145332664379</v>
+        <v>-1.8404667026861961</v>
       </c>
       <c r="O60" s="1">
-        <v>-3.106725300278073</v>
+        <v>-1.722231503305736</v>
       </c>
       <c r="P60" s="1">
-        <v>-3.0735878643161909</v>
+        <v>-2.4059937306426078</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="B61" s="1">
-        <v>-1.9409612625666319</v>
+        <v>-0.1819115032606595</v>
       </c>
       <c r="C61" s="1">
-        <v>-2.1071210093777291</v>
+        <v>-1.091027711179096</v>
       </c>
       <c r="D61" s="1">
-        <v>-1.8855645128306291</v>
+        <v>-1.11184577880756</v>
       </c>
       <c r="E61" s="1">
-        <v>-1.8663648809647131</v>
+        <v>-1.6576334351401629</v>
       </c>
       <c r="F61" s="1">
-        <v>-1.7876414739611259</v>
+        <v>-1.5699699967277509</v>
       </c>
       <c r="G61" s="1">
-        <v>-1.9333367987250629</v>
+        <v>-0.22340681272726781</v>
       </c>
       <c r="H61" s="1">
-        <v>-2.0974564034331369</v>
+        <v>-1.1877640350473699</v>
       </c>
       <c r="I61" s="1">
-        <v>-1.8569850079335779</v>
+        <v>-1.2860249444529539</v>
       </c>
       <c r="J61" s="1">
-        <v>-1.817932924916801</v>
+        <v>-1.919985718576197</v>
       </c>
       <c r="K61" s="1">
-        <v>-1.7193562746019491</v>
+        <v>-1.96969912307787</v>
       </c>
       <c r="L61" s="1">
-        <v>-1.066141282049387</v>
+        <v>-1.5569370575173509</v>
       </c>
       <c r="M61" s="1">
-        <v>-1.6702226238969009</v>
+        <v>-1.9134708439400301</v>
       </c>
       <c r="N61" s="1">
-        <v>-1.444758435675557</v>
+        <v>-1.7067898310314189</v>
       </c>
       <c r="O61" s="1">
-        <v>-1.408027280301015</v>
+        <v>-1.991400677624112</v>
       </c>
       <c r="P61" s="1">
-        <v>-1.304707360608282</v>
+        <v>-1.7688676364274849</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="B62" s="1">
-        <v>-1.863389417067997</v>
+        <v>-1.695358220046703</v>
       </c>
       <c r="C62" s="1">
-        <v>-1.6406132386079391</v>
+        <v>-3.6187817757014562</v>
       </c>
       <c r="D62" s="1">
-        <v>-1.600661282482716</v>
+        <v>-3.380657769378502</v>
       </c>
       <c r="E62" s="1">
-        <v>-1.6417785540889129</v>
+        <v>-3.7859826115241448</v>
       </c>
       <c r="F62" s="1">
-        <v>-1.3558198603207789</v>
+        <v>-1.9221286790169601</v>
       </c>
       <c r="G62" s="1">
-        <v>-1.881767909131929</v>
+        <v>-1.7357255203552031</v>
       </c>
       <c r="H62" s="1">
-        <v>-1.6580683983679521</v>
+        <v>-3.7242795113129028</v>
       </c>
       <c r="I62" s="1">
-        <v>-1.6156923773137191</v>
+        <v>-3.4339216614060022</v>
       </c>
       <c r="J62" s="1">
-        <v>-1.6603066511188911</v>
+        <v>-3.8929848628731341</v>
       </c>
       <c r="K62" s="1">
-        <v>-1.374583492240486</v>
+        <v>-1.9784856355818921</v>
       </c>
       <c r="L62" s="1">
-        <v>-1.8655692833809081</v>
+        <v>-1.5534453019540531</v>
       </c>
       <c r="M62" s="1">
-        <v>-1.595605071594197</v>
+        <v>-3.517607159321579</v>
       </c>
       <c r="N62" s="1">
-        <v>-1.457578294064384</v>
+        <v>-3.2261643034999632</v>
       </c>
       <c r="O62" s="1">
-        <v>-1.565119563189266</v>
+        <v>-3.6384044258275128</v>
       </c>
       <c r="P62" s="1">
-        <v>-1.228388865531499</v>
+        <v>-1.809773612486471</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="B63" s="1">
-        <v>-1.787568062864622</v>
+        <v>-1.544177149764185</v>
       </c>
       <c r="C63" s="1">
-        <v>-1.8936632425355731</v>
+        <v>-2.2971934552283022</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.728275926335952</v>
+        <v>-2.1373514828764941</v>
       </c>
       <c r="E63" s="1">
-        <v>-1.577835377894006</v>
+        <v>-1.840749611961908</v>
       </c>
       <c r="F63" s="1">
-        <v>-1.4979253493193441</v>
+        <v>-1.8594946756713919</v>
       </c>
       <c r="G63" s="1">
-        <v>-1.775913846306366</v>
+        <v>-1.5631945714495761</v>
       </c>
       <c r="H63" s="1">
-        <v>-1.8899599495567161</v>
+        <v>-2.3217214764451701</v>
       </c>
       <c r="I63" s="1">
-        <v>-1.724564813104974</v>
+        <v>-2.1649586544963588</v>
       </c>
       <c r="J63" s="1">
-        <v>-1.569527703001308</v>
+        <v>-1.866893871656123</v>
       </c>
       <c r="K63" s="1">
-        <v>-1.5071087757543129</v>
+        <v>-1.885783078239754</v>
       </c>
       <c r="L63" s="1">
-        <v>0.47678760702802792</v>
+        <v>-1.532735633848894</v>
       </c>
       <c r="M63" s="1">
-        <v>-0.9761312670028679</v>
+        <v>-2.264751400123981</v>
       </c>
       <c r="N63" s="1">
-        <v>-0.88065855671221027</v>
+        <v>-2.103484049012625</v>
       </c>
       <c r="O63" s="1">
-        <v>-0.63408462193277804</v>
+        <v>-1.7798482935144231</v>
       </c>
       <c r="P63" s="1">
-        <v>-0.7426901311761398</v>
+        <v>-1.7731718396697309</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1">
-        <v>-1.746394396216743</v>
+        <v>-1.697716419682781</v>
       </c>
       <c r="C64" s="1">
-        <v>-3.0653001313997441</v>
+        <v>-1.934846304778429</v>
       </c>
       <c r="D64" s="1">
-        <v>-2.390298316011378</v>
+        <v>-1.6863919599297419</v>
       </c>
       <c r="E64" s="1">
-        <v>-2.2930988779232289</v>
+        <v>-1.886538371017026</v>
       </c>
       <c r="F64" s="1">
-        <v>-1.956963622668844</v>
+        <v>-1.856374828100712</v>
       </c>
       <c r="G64" s="1">
-        <v>-1.780947729062246</v>
+        <v>-1.7017616251299581</v>
       </c>
       <c r="H64" s="1">
-        <v>-3.1444738938107739</v>
+        <v>-1.935736258314968</v>
       </c>
       <c r="I64" s="1">
-        <v>-2.4294156869162649</v>
+        <v>-1.6767056119548771</v>
       </c>
       <c r="J64" s="1">
-        <v>-2.312419260068431</v>
+        <v>-1.879057704032683</v>
       </c>
       <c r="K64" s="1">
-        <v>-1.98575042627617</v>
+        <v>-1.840730738851452</v>
       </c>
       <c r="L64" s="1">
-        <v>-1.6517807563387219</v>
+        <v>-1.51537293699165</v>
       </c>
       <c r="M64" s="1">
-        <v>-2.978555407042907</v>
+        <v>-1.8459358290108669</v>
       </c>
       <c r="N64" s="1">
-        <v>-2.3986661049872491</v>
+        <v>-1.610192925988934</v>
       </c>
       <c r="O64" s="1">
-        <v>-2.4366090601904848</v>
+        <v>-1.8336887710900009</v>
       </c>
       <c r="P64" s="1">
-        <v>-2.151816592556151</v>
+        <v>-1.7903942634426471</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B65" s="1">
-        <v>-1.740393712654317</v>
+        <v>-1.397979561031327</v>
       </c>
       <c r="C65" s="1">
-        <v>-3.6329451404433919</v>
+        <v>-2.212286164241807</v>
       </c>
       <c r="D65" s="1">
-        <v>-2.8493818720910582</v>
+        <v>-2.2142616647207731</v>
       </c>
       <c r="E65" s="1">
-        <v>-2.252168426728649</v>
+        <v>-1.677668310436919</v>
       </c>
       <c r="F65" s="1">
-        <v>-2.385587085495938</v>
+        <v>-1.5486971432194601</v>
       </c>
       <c r="G65" s="1">
-        <v>-1.7678735969997359</v>
+        <v>-1.412120743607052</v>
       </c>
       <c r="H65" s="1">
-        <v>-3.666790856009944</v>
+        <v>-2.231212646551489</v>
       </c>
       <c r="I65" s="1">
-        <v>-2.903251651131912</v>
+        <v>-2.2331843247262642</v>
       </c>
       <c r="J65" s="1">
-        <v>-2.3884861729612581</v>
+        <v>-1.692435076335566</v>
       </c>
       <c r="K65" s="1">
-        <v>-2.5456929335128309</v>
+        <v>-1.562465577606801</v>
       </c>
       <c r="L65" s="1">
-        <v>-2.191845982681579</v>
+        <v>-1.5089228742455221</v>
       </c>
       <c r="M65" s="1">
-        <v>-4.1806016930034708</v>
+        <v>-2.6103937441208078</v>
       </c>
       <c r="N65" s="1">
-        <v>-3.4023029124598301</v>
+        <v>-2.6863192372153271</v>
       </c>
       <c r="O65" s="1">
-        <v>-2.609786007563959</v>
+        <v>-2.276789066020855</v>
       </c>
       <c r="P65" s="1">
-        <v>-2.7353046925492359</v>
+        <v>-2.049869537117865</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1">
-        <v>-1.7269962023588079</v>
+        <v>-7.4809847882705005E-2</v>
       </c>
       <c r="C66" s="1">
-        <v>-2.2407226416897408</v>
+        <v>-0.28318110251764678</v>
       </c>
       <c r="D66" s="1">
-        <v>-2.0458560797949361</v>
+        <v>-0.80840221947644697</v>
       </c>
       <c r="E66" s="1">
-        <v>-2.259482382394602</v>
+        <v>-0.52487128718967391</v>
       </c>
       <c r="F66" s="1">
-        <v>-1.928921147747553</v>
+        <v>-7.7260907812927895E-2</v>
       </c>
       <c r="G66" s="1">
-        <v>-1.7393610192852429</v>
+        <v>-0.16791345557649409</v>
       </c>
       <c r="H66" s="1">
-        <v>-2.226505590226691</v>
+        <v>-0.4152948260302356</v>
       </c>
       <c r="I66" s="1">
-        <v>-1.9635611698208491</v>
+        <v>-0.95643161876202165</v>
       </c>
       <c r="J66" s="1">
-        <v>-2.1386398782242901</v>
+        <v>-0.63040618299935136</v>
       </c>
       <c r="K66" s="1">
-        <v>-1.73626051563493</v>
+        <v>-0.36175637449415349</v>
       </c>
       <c r="L66" s="1">
-        <v>-1.3795587423597391</v>
+        <v>-1.4998929529565159</v>
       </c>
       <c r="M66" s="1">
-        <v>-2.0401219486823341</v>
+        <v>-1.86397951793979</v>
       </c>
       <c r="N66" s="1">
-        <v>-1.665133860732952</v>
+        <v>-2.365981788306208</v>
       </c>
       <c r="O66" s="1">
-        <v>-2.0210509084637009</v>
+        <v>-4.3033614641270583</v>
       </c>
       <c r="P66" s="1">
-        <v>-1.539632554831903</v>
+        <v>-2.668839934539565</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B67" s="1">
-        <v>-1.718712542533287</v>
+        <v>-3.4783417067858688</v>
       </c>
       <c r="C67" s="1">
-        <v>-1.927280604364497</v>
+        <v>-3.2722017124105558</v>
       </c>
       <c r="D67" s="1">
-        <v>-1.62711101926052</v>
+        <v>-3.1429176828692991</v>
       </c>
       <c r="E67" s="1">
-        <v>-1.5230695600145321</v>
+        <v>-2.5745735192476982</v>
       </c>
       <c r="F67" s="1">
-        <v>-1.562478572116565</v>
+        <v>-2.1811772004131522</v>
       </c>
       <c r="G67" s="1">
-        <v>-1.7290229265123891</v>
+        <v>-3.355378298202834</v>
       </c>
       <c r="H67" s="1">
-        <v>-1.9326545344800481</v>
+        <v>-2.9296617388034871</v>
       </c>
       <c r="I67" s="1">
-        <v>-1.6242546150428709</v>
+        <v>-2.5941124295911289</v>
       </c>
       <c r="J67" s="1">
-        <v>-1.5266292569137561</v>
+        <v>-2.011696025423277</v>
       </c>
       <c r="K67" s="1">
-        <v>-1.5515907511985241</v>
+        <v>-1.695037423373039</v>
       </c>
       <c r="L67" s="1">
-        <v>-1.2499512533919881</v>
+        <v>-1.49798898658089</v>
       </c>
       <c r="M67" s="1">
-        <v>-1.583708419828237</v>
+        <v>-1.763457279366069</v>
       </c>
       <c r="N67" s="1">
-        <v>-1.178178352303098</v>
+        <v>-1.759796363776627</v>
       </c>
       <c r="O67" s="1">
-        <v>-1.321569008085739</v>
+        <v>-1.493491512264759</v>
       </c>
       <c r="P67" s="1">
-        <v>-1.086855797675145</v>
+        <v>-1.342495271672661</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B68" s="1">
-        <v>-1.7127682933796999</v>
+        <v>-1.5076495537654431</v>
       </c>
       <c r="C68" s="1">
-        <v>-1.5634920730493309</v>
+        <v>-2.1609248563083709</v>
       </c>
       <c r="D68" s="1">
-        <v>-2.7166211994372791</v>
+        <v>-1.684214713384693</v>
       </c>
       <c r="E68" s="1">
-        <v>-1.802968676520188</v>
+        <v>-1.8609631624651839</v>
       </c>
       <c r="F68" s="1">
-        <v>-2.1904937486196649</v>
+        <v>-1.8004744246788871</v>
       </c>
       <c r="G68" s="1">
-        <v>-1.713175804934997</v>
+        <v>-1.526402096460193</v>
       </c>
       <c r="H68" s="1">
-        <v>-1.686264903399199</v>
+        <v>-2.186908199954023</v>
       </c>
       <c r="I68" s="1">
-        <v>-2.7064405900193398</v>
+        <v>-1.7045839150673261</v>
       </c>
       <c r="J68" s="1">
-        <v>-1.8874926462550521</v>
+        <v>-1.885843032296838</v>
       </c>
       <c r="K68" s="1">
-        <v>-2.0058614642259398</v>
+        <v>-1.823515731832337</v>
       </c>
       <c r="L68" s="1">
-        <v>7.8029285741328998E-3</v>
+        <v>-1.465809706258121</v>
       </c>
       <c r="M68" s="1">
-        <v>-0.98639709532592545</v>
+        <v>-2.223866526492845</v>
       </c>
       <c r="N68" s="1">
-        <v>-1.4210345571861269</v>
+        <v>-1.6602057911777981</v>
       </c>
       <c r="O68" s="1">
-        <v>-0.95808749810459004</v>
+        <v>-1.918751612561379</v>
       </c>
       <c r="P68" s="1">
-        <v>-1.334359052749245</v>
+        <v>-1.9145049310002189</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B69" s="1">
-        <v>-1.711339435910785</v>
+        <v>-2.4323544220855631</v>
       </c>
       <c r="C69" s="1">
-        <v>-1.5113136060500989</v>
+        <v>-2.2087794592005778</v>
       </c>
       <c r="D69" s="1">
-        <v>-1.4439946123672569</v>
+        <v>-3.9251636151802338</v>
       </c>
       <c r="E69" s="1">
-        <v>-1.375264627815117</v>
+        <v>-3.5472327644522492</v>
       </c>
       <c r="F69" s="1">
-        <v>-1.366043128777769</v>
+        <v>-2.2451760019563349</v>
       </c>
       <c r="G69" s="1">
-        <v>-1.726211105057442</v>
+        <v>-2.404585287824502</v>
       </c>
       <c r="H69" s="1">
-        <v>-1.524283220933365</v>
+        <v>-2.1518343627814338</v>
       </c>
       <c r="I69" s="1">
-        <v>-1.4533953380628699</v>
+        <v>-3.6694041032507418</v>
       </c>
       <c r="J69" s="1">
-        <v>-1.3870371378448709</v>
+        <v>-3.2896637567590652</v>
       </c>
       <c r="K69" s="1">
-        <v>-1.38284440432183</v>
+        <v>-2.2314470915870941</v>
       </c>
       <c r="L69" s="1">
-        <v>-1.7360361403187721</v>
+        <v>-1.416963996051708</v>
       </c>
       <c r="M69" s="1">
-        <v>-1.582617001409695</v>
+        <v>-1.6973376008895711</v>
       </c>
       <c r="N69" s="1">
-        <v>-1.324080136888496</v>
+        <v>-3.8109283177087261</v>
       </c>
       <c r="O69" s="1">
-        <v>-1.4779703757183551</v>
+        <v>-4.6113126329641636</v>
       </c>
       <c r="P69" s="1">
-        <v>-1.7631570655026489</v>
+        <v>-3.5655529297948712</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1">
-        <v>-1.69913110496157</v>
+        <v>-1.427911568352322</v>
       </c>
       <c r="C70" s="1">
-        <v>-1.3242068358574239</v>
+        <v>-1.57664451301746</v>
       </c>
       <c r="D70" s="1">
-        <v>-1.158712649168937</v>
+        <v>-1.7231609905866481</v>
       </c>
       <c r="E70" s="1">
-        <v>-1.3507766016139551</v>
+        <v>-1.7814533872620399</v>
       </c>
       <c r="F70" s="1">
-        <v>-1.879816435622031</v>
+        <v>-2.00373861949778</v>
       </c>
       <c r="G70" s="1">
-        <v>-1.7135457215069421</v>
+        <v>-1.4360813477077441</v>
       </c>
       <c r="H70" s="1">
-        <v>-1.335464771363116</v>
+        <v>-1.5808221391611641</v>
       </c>
       <c r="I70" s="1">
-        <v>-1.170013372725109</v>
+        <v>-1.7268738721424519</v>
       </c>
       <c r="J70" s="1">
-        <v>-1.3656414993084991</v>
+        <v>-1.7895889210633831</v>
       </c>
       <c r="K70" s="1">
-        <v>-1.8980911230818429</v>
+        <v>-2.008610251899277</v>
       </c>
       <c r="L70" s="1">
-        <v>-1.588854167254937</v>
+        <v>-1.399745114561582</v>
       </c>
       <c r="M70" s="1">
-        <v>-1.496822958665619</v>
+        <v>-1.580410060953686</v>
       </c>
       <c r="N70" s="1">
-        <v>-1.8404667026861961</v>
+        <v>-1.7578833570867129</v>
       </c>
       <c r="O70" s="1">
-        <v>-1.722231503305736</v>
+        <v>-1.8195121298346859</v>
       </c>
       <c r="P70" s="1">
-        <v>-2.4059937306426078</v>
+        <v>-2.0343556790292312</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1">
-        <v>-1.697716419682781</v>
+        <v>-1.7269962023588079</v>
       </c>
       <c r="C71" s="1">
-        <v>-1.934846304778429</v>
+        <v>-2.2407226416897408</v>
       </c>
       <c r="D71" s="1">
-        <v>-1.6863919599297419</v>
+        <v>-2.0458560797949361</v>
       </c>
       <c r="E71" s="1">
-        <v>-1.886538371017026</v>
+        <v>-2.259482382394602</v>
       </c>
       <c r="F71" s="1">
-        <v>-1.856374828100712</v>
+        <v>-1.928921147747553</v>
       </c>
       <c r="G71" s="1">
-        <v>-1.7017616251299581</v>
+        <v>-1.7393610192852429</v>
       </c>
       <c r="H71" s="1">
-        <v>-1.935736258314968</v>
+        <v>-2.226505590226691</v>
       </c>
       <c r="I71" s="1">
-        <v>-1.6767056119548771</v>
+        <v>-1.9635611698208491</v>
       </c>
       <c r="J71" s="1">
-        <v>-1.879057704032683</v>
+        <v>-2.1386398782242901</v>
       </c>
       <c r="K71" s="1">
-        <v>-1.840730738851452</v>
+        <v>-1.73626051563493</v>
       </c>
       <c r="L71" s="1">
-        <v>-1.51537293699165</v>
+        <v>-1.3795587423597391</v>
       </c>
       <c r="M71" s="1">
-        <v>-1.8459358290108669</v>
+        <v>-2.0401219486823341</v>
       </c>
       <c r="N71" s="1">
-        <v>-1.610192925988934</v>
+        <v>-1.665133860732952</v>
       </c>
       <c r="O71" s="1">
-        <v>-1.8336887710900009</v>
+        <v>-2.0210509084637009</v>
       </c>
       <c r="P71" s="1">
-        <v>-1.7903942634426471</v>
+        <v>-1.539632554831903</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B72" s="1">
-        <v>-1.695358220046703</v>
+        <v>-2.1440209534625851</v>
       </c>
       <c r="C72" s="1">
-        <v>-3.6187817757014562</v>
+        <v>-2.388024539108315</v>
       </c>
       <c r="D72" s="1">
-        <v>-3.380657769378502</v>
+        <v>-2.6968119086090039</v>
       </c>
       <c r="E72" s="1">
-        <v>-3.7859826115241448</v>
+        <v>-4.1097224250607836</v>
       </c>
       <c r="F72" s="1">
-        <v>-1.9221286790169601</v>
+        <v>-3.814704882580918</v>
       </c>
       <c r="G72" s="1">
-        <v>-1.7357255203552031</v>
+        <v>-2.0884951543890899</v>
       </c>
       <c r="H72" s="1">
-        <v>-3.7242795113129028</v>
+        <v>-2.2963435310414582</v>
       </c>
       <c r="I72" s="1">
-        <v>-3.4339216614060022</v>
+        <v>-2.5318386644150048</v>
       </c>
       <c r="J72" s="1">
-        <v>-3.8929848628731341</v>
+        <v>-3.714332230114477</v>
       </c>
       <c r="K72" s="1">
-        <v>-1.9784856355818921</v>
+        <v>-3.3156648966755942</v>
       </c>
       <c r="L72" s="1">
-        <v>-1.5534453019540531</v>
+        <v>-1.350846192043587</v>
       </c>
       <c r="M72" s="1">
-        <v>-3.517607159321579</v>
+        <v>-2.230368212002491</v>
       </c>
       <c r="N72" s="1">
-        <v>-3.2261643034999632</v>
+        <v>-2.5423672881760369</v>
       </c>
       <c r="O72" s="1">
-        <v>-3.6384044258275128</v>
+        <v>-4.063876386521887</v>
       </c>
       <c r="P72" s="1">
-        <v>-1.809773612486471</v>
+        <v>-3.8838392763829712</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="B73" s="1">
-        <v>-1.657455023997584</v>
+        <v>-0.96591885408780576</v>
       </c>
       <c r="C73" s="1">
-        <v>-1.9514078771675969</v>
+        <v>-2.0985967889009212</v>
       </c>
       <c r="D73" s="1">
-        <v>-2.109071096671935</v>
+        <v>-2.1299269744381162</v>
       </c>
       <c r="E73" s="1">
-        <v>-2.1618766691501601</v>
+        <v>-2.3591654543784291</v>
       </c>
       <c r="F73" s="1">
-        <v>-1.383019993854891</v>
+        <v>-2.230281451948009</v>
       </c>
       <c r="G73" s="1">
-        <v>-1.679847693319338</v>
+        <v>-0.97547748094887343</v>
       </c>
       <c r="H73" s="1">
-        <v>-1.9797944518896431</v>
+        <v>-2.1168553197637761</v>
       </c>
       <c r="I73" s="1">
-        <v>-2.1397254385195912</v>
+        <v>-2.143978612589867</v>
       </c>
       <c r="J73" s="1">
-        <v>-2.1949051450095101</v>
+        <v>-2.3836265411400248</v>
       </c>
       <c r="K73" s="1">
-        <v>-1.406828737529513</v>
+        <v>-2.2432172096257701</v>
       </c>
       <c r="L73" s="1">
-        <v>-1.9783283736389889</v>
+        <v>-1.3206368724236941</v>
       </c>
       <c r="M73" s="1">
-        <v>-2.3550156203555068</v>
+        <v>-2.5080845965628882</v>
       </c>
       <c r="N73" s="1">
-        <v>-2.6760279757290339</v>
+        <v>-2.7003354979359262</v>
       </c>
       <c r="O73" s="1">
-        <v>-2.8210394357479291</v>
+        <v>-2.7644244179844928</v>
       </c>
       <c r="P73" s="1">
-        <v>-1.9976659120756199</v>
+        <v>-2.9417975245605028</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B74" s="1">
-        <v>-1.6293173723168961</v>
+        <v>-1.192237818950717</v>
       </c>
       <c r="C74" s="1">
-        <v>-1.365427558794164</v>
+        <v>-1.198982458962861</v>
       </c>
       <c r="D74" s="1">
-        <v>-1.6866321732639771</v>
+        <v>-1.3992780313268429</v>
       </c>
       <c r="E74" s="1">
-        <v>-1.4137663620256751</v>
+        <v>-1.1983516787842099</v>
       </c>
       <c r="F74" s="1">
-        <v>-1.398228579418036</v>
+        <v>-1.249001860060091</v>
       </c>
       <c r="G74" s="1">
-        <v>-1.637557280893968</v>
+        <v>-1.20361905488681</v>
       </c>
       <c r="H74" s="1">
-        <v>-1.3875962365464729</v>
+        <v>-1.2103023743562309</v>
       </c>
       <c r="I74" s="1">
-        <v>-1.680904750297658</v>
+        <v>-1.4134931827095301</v>
       </c>
       <c r="J74" s="1">
-        <v>-1.4204701037768741</v>
+        <v>-1.2125424967909451</v>
       </c>
       <c r="K74" s="1">
-        <v>-1.43028547773175</v>
+        <v>-1.264289775748374</v>
       </c>
       <c r="L74" s="1">
-        <v>-0.62242874360369238</v>
+        <v>-1.2836338561807441</v>
       </c>
       <c r="M74" s="1">
-        <v>-0.59065959356556774</v>
+        <v>-1.1974531307240139</v>
       </c>
       <c r="N74" s="1">
-        <v>-0.75249018547434265</v>
+        <v>-1.5846425942417941</v>
       </c>
       <c r="O74" s="1">
-        <v>-0.63551590544195435</v>
+        <v>-1.512830284714106</v>
       </c>
       <c r="P74" s="1">
-        <v>-0.80030614074292117</v>
+        <v>-1.659545312759739</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1">
-        <v>-1.5783802083640679</v>
+        <v>-0.1124867695709626</v>
       </c>
       <c r="C75" s="1">
-        <v>-2.536235745330913</v>
+        <v>-0.46558272916535498</v>
       </c>
       <c r="D75" s="1">
-        <v>-2.000167701357694</v>
+        <v>-0.4432907522413031</v>
       </c>
       <c r="E75" s="1">
-        <v>-2.1365751597166049</v>
+        <v>-0.47166877991953549</v>
       </c>
       <c r="F75" s="1">
-        <v>-1.938948882599254</v>
+        <v>-0.49740609794870788</v>
       </c>
       <c r="G75" s="1">
-        <v>-1.588904676021945</v>
+        <v>-0.216706104160898</v>
       </c>
       <c r="H75" s="1">
-        <v>-2.5378363471160972</v>
+        <v>-0.54617642847752157</v>
       </c>
       <c r="I75" s="1">
-        <v>-1.962296252833063</v>
+        <v>-0.51390274794594559</v>
       </c>
       <c r="J75" s="1">
-        <v>-2.0768466952866751</v>
+        <v>-0.50403309433503241</v>
       </c>
       <c r="K75" s="1">
-        <v>-1.7912444512977159</v>
+        <v>-0.51954698831144386</v>
       </c>
       <c r="L75" s="1">
-        <v>-0.34971615276849372</v>
+        <v>-1.2645911860684509</v>
       </c>
       <c r="M75" s="1">
-        <v>-2.4703104623582179</v>
+        <v>-1.9880114306337471</v>
       </c>
       <c r="N75" s="1">
-        <v>-1.255864275640707</v>
+        <v>-1.8710853689366089</v>
       </c>
       <c r="O75" s="1">
-        <v>-1.5253119879816071</v>
+        <v>-1.9657047345188849</v>
       </c>
       <c r="P75" s="1">
-        <v>-0.74442839501936897</v>
+        <v>-1.8912119752345999</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="B76" s="1">
-        <v>-1.544177149764185</v>
+        <v>-1.718712542533287</v>
       </c>
       <c r="C76" s="1">
-        <v>-2.2971934552283022</v>
+        <v>-1.927280604364497</v>
       </c>
       <c r="D76" s="1">
-        <v>-2.1373514828764941</v>
+        <v>-1.62711101926052</v>
       </c>
       <c r="E76" s="1">
-        <v>-1.840749611961908</v>
+        <v>-1.5230695600145321</v>
       </c>
       <c r="F76" s="1">
-        <v>-1.8594946756713919</v>
+        <v>-1.562478572116565</v>
       </c>
       <c r="G76" s="1">
-        <v>-1.5631945714495761</v>
+        <v>-1.7290229265123891</v>
       </c>
       <c r="H76" s="1">
-        <v>-2.3217214764451701</v>
+        <v>-1.9326545344800481</v>
       </c>
       <c r="I76" s="1">
-        <v>-2.1649586544963588</v>
+        <v>-1.6242546150428709</v>
       </c>
       <c r="J76" s="1">
-        <v>-1.866893871656123</v>
+        <v>-1.5266292569137561</v>
       </c>
       <c r="K76" s="1">
-        <v>-1.885783078239754</v>
+        <v>-1.5515907511985241</v>
       </c>
       <c r="L76" s="1">
-        <v>-1.532735633848894</v>
+        <v>-1.2499512533919881</v>
       </c>
       <c r="M76" s="1">
-        <v>-2.264751400123981</v>
+        <v>-1.583708419828237</v>
       </c>
       <c r="N76" s="1">
-        <v>-2.103484049012625</v>
+        <v>-1.178178352303098</v>
       </c>
       <c r="O76" s="1">
-        <v>-1.7798482935144231</v>
+        <v>-1.321569008085739</v>
       </c>
       <c r="P76" s="1">
-        <v>-1.7731718396697309</v>
+        <v>-1.086855797675145</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B77" s="1">
-        <v>-1.5329314641816041</v>
+        <v>-0.80225510273079748</v>
       </c>
       <c r="C77" s="1">
-        <v>-1.752205510695557</v>
+        <v>-0.99491188616687765</v>
       </c>
       <c r="D77" s="1">
-        <v>-1.245503598109992</v>
+        <v>-1.017793240925726</v>
       </c>
       <c r="E77" s="1">
-        <v>-1.2835417664891859</v>
+        <v>-1.4364669171190689</v>
       </c>
       <c r="F77" s="1">
-        <v>-1.5257009786170559</v>
+        <v>-1.590116937440252</v>
       </c>
       <c r="G77" s="1">
-        <v>-1.546678200335897</v>
+        <v>-0.82222966815394305</v>
       </c>
       <c r="H77" s="1">
-        <v>-1.7646798148694081</v>
+        <v>-1.007390875986913</v>
       </c>
       <c r="I77" s="1">
-        <v>-1.2669839311568201</v>
+        <v>-1.0337562098573281</v>
       </c>
       <c r="J77" s="1">
-        <v>-1.2941609271853129</v>
+        <v>-1.460106682423667</v>
       </c>
       <c r="K77" s="1">
-        <v>-1.527499116387844</v>
+        <v>-1.6209403367240161</v>
       </c>
       <c r="L77" s="1">
-        <v>-1.0245526557794411</v>
+        <v>-1.2448358242052411</v>
       </c>
       <c r="M77" s="1">
-        <v>-1.223335235051707</v>
+        <v>-1.871791833659294</v>
       </c>
       <c r="N77" s="1">
-        <v>-0.71189890292875735</v>
+        <v>-1.874630017643284</v>
       </c>
       <c r="O77" s="1">
-        <v>-0.56922398060114809</v>
+        <v>-2.7877834240238428</v>
       </c>
       <c r="P77" s="1">
-        <v>-0.74001210148459173</v>
+        <v>-3.2530708451771519</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B78" s="1">
-        <v>-1.5317341237107991</v>
+        <v>-1.3632851653028699</v>
       </c>
       <c r="C78" s="1">
-        <v>-2.7555565094137302</v>
+        <v>-2.0088160202457011</v>
       </c>
       <c r="D78" s="1">
-        <v>-1.549104595881502</v>
+        <v>-2.3283347005124839</v>
       </c>
       <c r="E78" s="1">
-        <v>-1.819972307878158</v>
+        <v>-2.2106965225149482</v>
       </c>
       <c r="F78" s="1">
-        <v>-1.3745332936811461</v>
+        <v>-1.9986528631705629</v>
       </c>
       <c r="G78" s="1">
-        <v>-1.587737075175258</v>
+        <v>-1.3752119066466559</v>
       </c>
       <c r="H78" s="1">
-        <v>-2.850791903784514</v>
+        <v>-2.0211285435481599</v>
       </c>
       <c r="I78" s="1">
-        <v>-1.65143154946537</v>
+        <v>-2.338649977912334</v>
       </c>
       <c r="J78" s="1">
-        <v>-1.920084656270016</v>
+        <v>-2.2264040344026488</v>
       </c>
       <c r="K78" s="1">
-        <v>-1.472956654755851</v>
+        <v>-2.01593414483516</v>
       </c>
       <c r="L78" s="1">
-        <v>-1.6316783340897789</v>
+        <v>-1.1909382596028359</v>
       </c>
       <c r="M78" s="1">
-        <v>-2.9467149089747728</v>
+        <v>-1.9543855271821331</v>
       </c>
       <c r="N78" s="1">
-        <v>-1.6355162880485301</v>
+        <v>-2.4118938138515631</v>
       </c>
       <c r="O78" s="1">
-        <v>-1.9975754731262569</v>
+        <v>-2.418183598710713</v>
       </c>
       <c r="P78" s="1">
-        <v>-1.5933132715926299</v>
+        <v>-2.247972895929244</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="B79" s="1">
-        <v>-1.5076495537654431</v>
+        <v>-0.67496221269932977</v>
       </c>
       <c r="C79" s="1">
-        <v>-2.1609248563083709</v>
+        <v>-0.80291765930175074</v>
       </c>
       <c r="D79" s="1">
-        <v>-1.684214713384693</v>
+        <v>-0.81150685834581127</v>
       </c>
       <c r="E79" s="1">
-        <v>-1.8609631624651839</v>
+        <v>-1.037913398652597</v>
       </c>
       <c r="F79" s="1">
-        <v>-1.8004744246788871</v>
+        <v>-0.95775970500023144</v>
       </c>
       <c r="G79" s="1">
-        <v>-1.526402096460193</v>
+        <v>-0.69354246384017459</v>
       </c>
       <c r="H79" s="1">
-        <v>-2.186908199954023</v>
+        <v>-0.81478306731037287</v>
       </c>
       <c r="I79" s="1">
-        <v>-1.7045839150673261</v>
+        <v>-0.821503266767733</v>
       </c>
       <c r="J79" s="1">
-        <v>-1.885843032296838</v>
+        <v>-1.0452281365395859</v>
       </c>
       <c r="K79" s="1">
-        <v>-1.823515731832337</v>
+        <v>-0.95431938954018358</v>
       </c>
       <c r="L79" s="1">
-        <v>-1.465809706258121</v>
+        <v>-1.184323817428647</v>
       </c>
       <c r="M79" s="1">
-        <v>-2.223866526492845</v>
+        <v>-1.6396405851203131</v>
       </c>
       <c r="N79" s="1">
-        <v>-1.6602057911777981</v>
+        <v>-1.5436268775458239</v>
       </c>
       <c r="O79" s="1">
-        <v>-1.918751612561379</v>
+        <v>-1.789715121048929</v>
       </c>
       <c r="P79" s="1">
-        <v>-1.9145049310002189</v>
+        <v>-1.4961776282049251</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>-1.468028273490954</v>
+        <v>-1.219087655694479</v>
       </c>
       <c r="C80" s="1">
-        <v>-1.7979066131998289</v>
+        <v>-1.382375272690237</v>
       </c>
       <c r="D80" s="1">
-        <v>-1.504505934397439</v>
+        <v>-1.6614033252667291</v>
       </c>
       <c r="E80" s="1">
-        <v>-1.5690736504904701</v>
+        <v>-2.2360204175863179</v>
       </c>
       <c r="F80" s="1">
-        <v>-1.2061443776999241</v>
+        <v>-1.983750483378466</v>
       </c>
       <c r="G80" s="1">
-        <v>-1.481911870869439</v>
+        <v>-1.436870363730806</v>
       </c>
       <c r="H80" s="1">
-        <v>-1.813674300747381</v>
+        <v>-1.6411467481329309</v>
       </c>
       <c r="I80" s="1">
-        <v>-1.5167895666933531</v>
+        <v>-1.863703826655867</v>
       </c>
       <c r="J80" s="1">
-        <v>-1.581048552721227</v>
+        <v>-2.5386148825041892</v>
       </c>
       <c r="K80" s="1">
-        <v>-1.215219912389069</v>
+        <v>-2.3949068975089429</v>
       </c>
       <c r="L80" s="1">
-        <v>-1.651488547250656</v>
+        <v>-1.1815451101167029</v>
       </c>
       <c r="M80" s="1">
-        <v>-2.467532111471419</v>
+        <v>-1.172341309686342</v>
       </c>
       <c r="N80" s="1">
-        <v>-2.0035273340880702</v>
+        <v>-0.98655948365699242</v>
       </c>
       <c r="O80" s="1">
-        <v>-2.1192293704754528</v>
+        <v>-1.00058318982157</v>
       </c>
       <c r="P80" s="1">
-        <v>-1.782405985529216</v>
+        <v>-0.92674415462939164</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B81" s="1">
-        <v>-1.427911568352322</v>
+        <v>-1.9467418430852801</v>
       </c>
       <c r="C81" s="1">
-        <v>-1.57664451301746</v>
+        <v>-1.94252470311462</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.7231609905866481</v>
+        <v>-2.3752541605298192</v>
       </c>
       <c r="E81" s="1">
-        <v>-1.7814533872620399</v>
+        <v>-2.5633641042320301</v>
       </c>
       <c r="F81" s="1">
-        <v>-2.00373861949778</v>
+        <v>-2.50477943906724</v>
       </c>
       <c r="G81" s="1">
-        <v>-1.4360813477077441</v>
+        <v>-1.8877482434854389</v>
       </c>
       <c r="H81" s="1">
-        <v>-1.5808221391611641</v>
+        <v>-1.829831159429717</v>
       </c>
       <c r="I81" s="1">
-        <v>-1.7268738721424519</v>
+        <v>-2.0912272891758992</v>
       </c>
       <c r="J81" s="1">
-        <v>-1.7895889210633831</v>
+        <v>-2.0461849075398049</v>
       </c>
       <c r="K81" s="1">
-        <v>-2.008610251899277</v>
+        <v>-1.742386638721301</v>
       </c>
       <c r="L81" s="1">
-        <v>-1.399745114561582</v>
+        <v>-1.1370948092716919</v>
       </c>
       <c r="M81" s="1">
-        <v>-1.580410060953686</v>
+        <v>-2.1492446735482118</v>
       </c>
       <c r="N81" s="1">
-        <v>-1.7578833570867129</v>
+        <v>-2.1276273266454111</v>
       </c>
       <c r="O81" s="1">
-        <v>-1.8195121298346859</v>
+        <v>-2.1440125516151669</v>
       </c>
       <c r="P81" s="1">
-        <v>-2.0343556790292312</v>
+        <v>-1.965270382402567</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="1">
-        <v>-1.405860278311631</v>
+        <v>7.5226417018104799E-2</v>
       </c>
       <c r="C82" s="1">
-        <v>-1.8029558223805371</v>
+        <v>0.46452659083169828</v>
       </c>
       <c r="D82" s="1">
-        <v>-1.6487257608581529</v>
+        <v>4.9066201154519998E-2</v>
       </c>
       <c r="E82" s="1">
-        <v>-1.537996986652431</v>
+        <v>0.56214674803582332</v>
       </c>
       <c r="F82" s="1">
-        <v>-1.476733246354947</v>
+        <v>0.82404765749445619</v>
       </c>
       <c r="G82" s="1">
-        <v>-1.42175936852428</v>
+        <v>-0.1172985674627936</v>
       </c>
       <c r="H82" s="1">
-        <v>-1.8280937773264141</v>
+        <v>1.19164756833547E-2</v>
       </c>
       <c r="I82" s="1">
-        <v>-1.673495435979047</v>
+        <v>-0.46479738264193038</v>
       </c>
       <c r="J82" s="1">
-        <v>-1.568425237457858</v>
+        <v>-0.1718034409799255</v>
       </c>
       <c r="K82" s="1">
-        <v>-1.507395492138639</v>
+        <v>-0.17047114547948131</v>
       </c>
       <c r="L82" s="1">
-        <v>-1.0769474474175591</v>
+        <v>-1.1101791459605199</v>
       </c>
       <c r="M82" s="1">
-        <v>-1.656064448380244</v>
+        <v>-0.76742404682901644</v>
       </c>
       <c r="N82" s="1">
-        <v>-1.415854288835672</v>
+        <v>-1.1477882712587011</v>
       </c>
       <c r="O82" s="1">
-        <v>-1.335849088880031</v>
+        <v>-0.74112701429268502</v>
       </c>
       <c r="P82" s="1">
-        <v>-1.230218675313117</v>
+        <v>-0.38894723903810141</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B83" s="1">
-        <v>-1.397979561031327</v>
+        <v>-1.405860278311631</v>
       </c>
       <c r="C83" s="1">
-        <v>-2.212286164241807</v>
+        <v>-1.8029558223805371</v>
       </c>
       <c r="D83" s="1">
-        <v>-2.2142616647207731</v>
+        <v>-1.6487257608581529</v>
       </c>
       <c r="E83" s="1">
-        <v>-1.677668310436919</v>
+        <v>-1.537996986652431</v>
       </c>
       <c r="F83" s="1">
-        <v>-1.5486971432194601</v>
+        <v>-1.476733246354947</v>
       </c>
       <c r="G83" s="1">
-        <v>-1.412120743607052</v>
+        <v>-1.42175936852428</v>
       </c>
       <c r="H83" s="1">
-        <v>-2.231212646551489</v>
+        <v>-1.8280937773264141</v>
       </c>
       <c r="I83" s="1">
-        <v>-2.2331843247262642</v>
+        <v>-1.673495435979047</v>
       </c>
       <c r="J83" s="1">
-        <v>-1.692435076335566</v>
+        <v>-1.568425237457858</v>
       </c>
       <c r="K83" s="1">
-        <v>-1.562465577606801</v>
+        <v>-1.507395492138639</v>
       </c>
       <c r="L83" s="1">
-        <v>-1.5089228742455221</v>
+        <v>-1.0769474474175591</v>
       </c>
       <c r="M83" s="1">
-        <v>-2.6103937441208078</v>
+        <v>-1.656064448380244</v>
       </c>
       <c r="N83" s="1">
-        <v>-2.6863192372153271</v>
+        <v>-1.415854288835672</v>
       </c>
       <c r="O83" s="1">
-        <v>-2.276789066020855</v>
+        <v>-1.335849088880031</v>
       </c>
       <c r="P83" s="1">
-        <v>-2.049869537117865</v>
+        <v>-1.230218675313117</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1">
-        <v>-1.3632851653028699</v>
+        <v>-0.69055110346204929</v>
       </c>
       <c r="C84" s="1">
-        <v>-2.0088160202457011</v>
+        <v>-0.78792007212678228</v>
       </c>
       <c r="D84" s="1">
-        <v>-2.3283347005124839</v>
+        <v>-0.64148833698830032</v>
       </c>
       <c r="E84" s="1">
-        <v>-2.2106965225149482</v>
+        <v>-0.80269020886012754</v>
       </c>
       <c r="F84" s="1">
-        <v>-1.9986528631705629</v>
+        <v>-0.75576767649288656</v>
       </c>
       <c r="G84" s="1">
-        <v>-1.3752119066466559</v>
+        <v>-0.73682847681608654</v>
       </c>
       <c r="H84" s="1">
-        <v>-2.0211285435481599</v>
+        <v>-0.8611474934459159</v>
       </c>
       <c r="I84" s="1">
-        <v>-2.338649977912334</v>
+        <v>-0.74111498160234401</v>
       </c>
       <c r="J84" s="1">
-        <v>-2.2264040344026488</v>
+        <v>-0.93859455080806631</v>
       </c>
       <c r="K84" s="1">
-        <v>-2.01593414483516</v>
+        <v>-0.89536929565563672</v>
       </c>
       <c r="L84" s="1">
-        <v>-1.1909382596028359</v>
+        <v>-1.067931518180375</v>
       </c>
       <c r="M84" s="1">
-        <v>-1.9543855271821331</v>
+        <v>-1.123050813225648</v>
       </c>
       <c r="N84" s="1">
-        <v>-2.4118938138515631</v>
+        <v>-0.95202343003268908</v>
       </c>
       <c r="O84" s="1">
-        <v>-2.418183598710713</v>
+        <v>-1.016596000958331</v>
       </c>
       <c r="P84" s="1">
-        <v>-2.247972895929244</v>
+        <v>-0.96085293854441267</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B85" s="1">
-        <v>-1.340768426039542</v>
+        <v>-1.9409612625666319</v>
       </c>
       <c r="C85" s="1">
-        <v>-1.587178495076911</v>
+        <v>-2.1071210093777291</v>
       </c>
       <c r="D85" s="1">
-        <v>-1.3006508176343561</v>
+        <v>-1.8855645128306291</v>
       </c>
       <c r="E85" s="1">
-        <v>-1.5782587251015809</v>
+        <v>-1.8663648809647131</v>
       </c>
       <c r="F85" s="1">
-        <v>-1.4587895739887291</v>
+        <v>-1.7876414739611259</v>
       </c>
       <c r="G85" s="1">
-        <v>-1.359527650721194</v>
+        <v>-1.9333367987250629</v>
       </c>
       <c r="H85" s="1">
-        <v>-1.6150032754608321</v>
+        <v>-2.0974564034331369</v>
       </c>
       <c r="I85" s="1">
-        <v>-1.3320160609605589</v>
+        <v>-1.8569850079335779</v>
       </c>
       <c r="J85" s="1">
-        <v>-1.6303558916002989</v>
+        <v>-1.817932924916801</v>
       </c>
       <c r="K85" s="1">
-        <v>-1.5217486972336529</v>
+        <v>-1.7193562746019491</v>
       </c>
       <c r="L85" s="1">
-        <v>-0.68288013578018691</v>
+        <v>-1.066141282049387</v>
       </c>
       <c r="M85" s="1">
-        <v>-0.91291486081417772</v>
+        <v>-1.6702226238969009</v>
       </c>
       <c r="N85" s="1">
-        <v>-0.43863420779432782</v>
+        <v>-1.444758435675557</v>
       </c>
       <c r="O85" s="1">
-        <v>-0.83693470672252546</v>
+        <v>-1.408027280301015</v>
       </c>
       <c r="P85" s="1">
-        <v>-0.68783251240633669</v>
+        <v>-1.304707360608282</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B86" s="1">
-        <v>-1.2792838000405049</v>
+        <v>-1.1151003112432489</v>
       </c>
       <c r="C86" s="1">
-        <v>-3.492849253402166</v>
+        <v>-1.459182915990457</v>
       </c>
       <c r="D86" s="1">
-        <v>-3.0049603952053512</v>
+        <v>-1.7335822917207659</v>
       </c>
       <c r="E86" s="1">
-        <v>-2.4843790937937249</v>
+        <v>-2.423470584580051</v>
       </c>
       <c r="F86" s="1">
-        <v>-2.9919752503307619</v>
+        <v>-1.805793860548615</v>
       </c>
       <c r="G86" s="1">
-        <v>-1.280025171996926</v>
+        <v>-1.133464337833556</v>
       </c>
       <c r="H86" s="1">
-        <v>-3.481972056266426</v>
+        <v>-1.481903219364727</v>
       </c>
       <c r="I86" s="1">
-        <v>-3.0097742277557651</v>
+        <v>-1.7597879240441809</v>
       </c>
       <c r="J86" s="1">
-        <v>-2.4608626553199771</v>
+        <v>-2.449425225735907</v>
       </c>
       <c r="K86" s="1">
-        <v>-2.9513802432008651</v>
+        <v>-1.820312556581799</v>
       </c>
       <c r="L86" s="1">
-        <v>-0.948139390882203</v>
+        <v>-1.040853048983039</v>
       </c>
       <c r="M86" s="1">
-        <v>-3.3433090101660952</v>
+        <v>-1.4061827391715629</v>
       </c>
       <c r="N86" s="1">
-        <v>-2.8962574384060868</v>
+        <v>-1.7268330319671299</v>
       </c>
       <c r="O86" s="1">
-        <v>-2.3950771200879748</v>
+        <v>-2.3372708052902058</v>
       </c>
       <c r="P86" s="1">
-        <v>-2.9341967552874979</v>
+        <v>-1.768857874389961</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B87" s="1">
-        <v>-1.2280311960597441</v>
+        <v>-1.5329314641816041</v>
       </c>
       <c r="C87" s="1">
-        <v>-1.337586858025938</v>
+        <v>-1.752205510695557</v>
       </c>
       <c r="D87" s="1">
-        <v>-1.436740103999284</v>
+        <v>-1.245503598109992</v>
       </c>
       <c r="E87" s="1">
-        <v>-1.2197974641233491</v>
+        <v>-1.2835417664891859</v>
       </c>
       <c r="F87" s="1">
-        <v>-1.958571009451112</v>
+        <v>-1.5257009786170559</v>
       </c>
       <c r="G87" s="1">
-        <v>-1.2273901902590021</v>
+        <v>-1.546678200335897</v>
       </c>
       <c r="H87" s="1">
-        <v>-1.3330512688187841</v>
+        <v>-1.7646798148694081</v>
       </c>
       <c r="I87" s="1">
-        <v>-1.4344952176814381</v>
+        <v>-1.2669839311568201</v>
       </c>
       <c r="J87" s="1">
-        <v>-1.2633036913529949</v>
+        <v>-1.2941609271853129</v>
       </c>
       <c r="K87" s="1">
-        <v>-2.0101837843667019</v>
+        <v>-1.527499116387844</v>
       </c>
       <c r="L87" s="1">
-        <v>2.2694009221221019</v>
+        <v>-1.0245526557794411</v>
       </c>
       <c r="M87" s="1">
-        <v>1.883486702225547</v>
+        <v>-1.223335235051707</v>
       </c>
       <c r="N87" s="1">
-        <v>1.9182407949206459</v>
+        <v>-0.71189890292875735</v>
       </c>
       <c r="O87" s="1">
-        <v>1.600715388311883</v>
+        <v>-0.56922398060114809</v>
       </c>
       <c r="P87" s="1">
-        <v>1.3911201913560181</v>
+        <v>-0.74001210148459173</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B88" s="1">
-        <v>-1.219087655694479</v>
+        <v>-2.1064549117158982</v>
       </c>
       <c r="C88" s="1">
-        <v>-1.382375272690237</v>
+        <v>-1.536963186704903</v>
       </c>
       <c r="D88" s="1">
-        <v>-1.6614033252667291</v>
+        <v>-1.806231846932169</v>
       </c>
       <c r="E88" s="1">
-        <v>-2.2360204175863179</v>
+        <v>-0.81601948523769863</v>
       </c>
       <c r="F88" s="1">
-        <v>-1.983750483378466</v>
+        <v>-0.43008870620037248</v>
       </c>
       <c r="G88" s="1">
-        <v>-1.436870363730806</v>
+        <v>-2.1054011358180258</v>
       </c>
       <c r="H88" s="1">
-        <v>-1.6411467481329309</v>
+        <v>-1.577822913992952</v>
       </c>
       <c r="I88" s="1">
-        <v>-1.863703826655867</v>
+        <v>-1.9151577264524671</v>
       </c>
       <c r="J88" s="1">
-        <v>-2.5386148825041892</v>
+        <v>-1.6481055159026401</v>
       </c>
       <c r="K88" s="1">
-        <v>-2.3949068975089429</v>
+        <v>-0.97724686865175037</v>
       </c>
       <c r="L88" s="1">
-        <v>-1.1815451101167029</v>
+        <v>-0.99268522702182715</v>
       </c>
       <c r="M88" s="1">
-        <v>-1.172341309686342</v>
+        <v>-0.63307658120116816</v>
       </c>
       <c r="N88" s="1">
-        <v>-0.98655948365699242</v>
+        <v>-0.98557235807551824</v>
       </c>
       <c r="O88" s="1">
-        <v>-1.00058318982157</v>
+        <v>-0.51220846294648004</v>
       </c>
       <c r="P88" s="1">
-        <v>-0.92674415462939164</v>
+        <v>3.9593161610649002E-3</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B89" s="1">
-        <v>-1.2177870861509901</v>
+        <v>-1.2792838000405049</v>
       </c>
       <c r="C89" s="1">
-        <v>-1.0901844241829961</v>
+        <v>-3.492849253402166</v>
       </c>
       <c r="D89" s="1">
-        <v>-1.168182312498379</v>
+        <v>-3.0049603952053512</v>
       </c>
       <c r="E89" s="1">
-        <v>-1.5892111978347581</v>
+        <v>-2.4843790937937249</v>
       </c>
       <c r="F89" s="1">
-        <v>-1.858436871162418</v>
+        <v>-2.9919752503307619</v>
       </c>
       <c r="G89" s="1">
-        <v>-1.215032066854562</v>
+        <v>-1.280025171996926</v>
       </c>
       <c r="H89" s="1">
-        <v>-1.1008497674827551</v>
+        <v>-3.481972056266426</v>
       </c>
       <c r="I89" s="1">
-        <v>-1.204790465836143</v>
+        <v>-3.0097742277557651</v>
       </c>
       <c r="J89" s="1">
-        <v>-1.674464705550244</v>
+        <v>-2.4608626553199771</v>
       </c>
       <c r="K89" s="1">
-        <v>-1.9746657638730889</v>
+        <v>-2.9513802432008651</v>
       </c>
       <c r="L89" s="1">
-        <v>0.84084819189750559</v>
+        <v>-0.948139390882203</v>
       </c>
       <c r="M89" s="1">
-        <v>0.38368653134556591</v>
+        <v>-3.3433090101660952</v>
       </c>
       <c r="N89" s="1">
-        <v>0.12647425324793979</v>
+        <v>-2.8962574384060868</v>
       </c>
       <c r="O89" s="1">
-        <v>-0.56673424448604037</v>
+        <v>-2.3950771200879748</v>
       </c>
       <c r="P89" s="1">
-        <v>-0.85580129225960189</v>
+        <v>-2.9341967552874979</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B90" s="1">
-        <v>-1.192237818950717</v>
+        <v>-0.78360072393243019</v>
       </c>
       <c r="C90" s="1">
-        <v>-1.198982458962861</v>
+        <v>-1.5061247447828361</v>
       </c>
       <c r="D90" s="1">
-        <v>-1.3992780313268429</v>
+        <v>-2.2597707264438149</v>
       </c>
       <c r="E90" s="1">
-        <v>-1.1983516787842099</v>
+        <v>-1.836968321400527</v>
       </c>
       <c r="F90" s="1">
-        <v>-1.249001860060091</v>
+        <v>-2.8255046441802798</v>
       </c>
       <c r="G90" s="1">
-        <v>-1.20361905488681</v>
+        <v>-0.79547159683378665</v>
       </c>
       <c r="H90" s="1">
-        <v>-1.2103023743562309</v>
+        <v>-1.523138656058425</v>
       </c>
       <c r="I90" s="1">
-        <v>-1.4134931827095301</v>
+        <v>-2.2764117652300082</v>
       </c>
       <c r="J90" s="1">
-        <v>-1.2125424967909451</v>
+        <v>-1.809057933885458</v>
       </c>
       <c r="K90" s="1">
-        <v>-1.264289775748374</v>
+        <v>-2.715015431396099</v>
       </c>
       <c r="L90" s="1">
-        <v>-1.2836338561807441</v>
+        <v>-0.93394773330219949</v>
       </c>
       <c r="M90" s="1">
-        <v>-1.1974531307240139</v>
+        <v>-1.378675024309072</v>
       </c>
       <c r="N90" s="1">
-        <v>-1.5846425942417941</v>
+        <v>-2.3589857872388138</v>
       </c>
       <c r="O90" s="1">
-        <v>-1.512830284714106</v>
+        <v>-1.4227277683080071</v>
       </c>
       <c r="P90" s="1">
-        <v>-1.659545312759739</v>
+        <v>-2.3727556905156528</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B91" s="1">
-        <v>-1.1423967591797679</v>
+        <v>-0.51603865820836503</v>
       </c>
       <c r="C91" s="1">
-        <v>-0.55887804766342875</v>
+        <v>-0.83382134920428075</v>
       </c>
       <c r="D91" s="1">
-        <v>0.73079547124066668</v>
+        <v>-0.81255518672680327</v>
       </c>
       <c r="E91" s="1">
-        <v>0.69306740753864915</v>
+        <v>-0.80585383830125701</v>
       </c>
       <c r="F91" s="1">
-        <v>1.215594832651109</v>
+        <v>-1.687336840502508</v>
       </c>
       <c r="G91" s="1">
-        <v>-0.97844371175488698</v>
+        <v>-0.53314615018184164</v>
       </c>
       <c r="H91" s="1">
-        <v>0.26173233445560928</v>
+        <v>-0.78858221197655765</v>
       </c>
       <c r="I91" s="1">
-        <v>1.711536819454311</v>
+        <v>-0.73690353517933416</v>
       </c>
       <c r="J91" s="1">
-        <v>1.5618616347263581</v>
+        <v>-0.75223004475698529</v>
       </c>
       <c r="K91" s="1">
-        <v>2.1153149180472299</v>
+        <v>-1.6055298341942199</v>
       </c>
       <c r="L91" s="1">
-        <v>-2.8471298912157188</v>
+        <v>-0.90760251531968317</v>
       </c>
       <c r="M91" s="1">
-        <v>-3.1349018230374042</v>
+        <v>-0.68154611094852113</v>
       </c>
       <c r="N91" s="1">
-        <v>-1.494768432893492</v>
+        <v>-0.87807171084880264</v>
       </c>
       <c r="O91" s="1">
-        <v>-2.0028500448129969</v>
+        <v>-1.3536811482457369</v>
       </c>
       <c r="P91" s="1">
-        <v>-1.518765729068112</v>
+        <v>-0.98636987957546185</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="B92" s="1">
-        <v>-1.1151003112432489</v>
+        <v>-0.87455673030087155</v>
       </c>
       <c r="C92" s="1">
-        <v>-1.459182915990457</v>
+        <v>-1.7585399715667629</v>
       </c>
       <c r="D92" s="1">
-        <v>-1.7335822917207659</v>
+        <v>-2.0009733794987108</v>
       </c>
       <c r="E92" s="1">
-        <v>-2.423470584580051</v>
+        <v>-2.9198406577590248</v>
       </c>
       <c r="F92" s="1">
-        <v>-1.805793860548615</v>
+        <v>-2.5485027638225501</v>
       </c>
       <c r="G92" s="1">
-        <v>-1.133464337833556</v>
+        <v>-0.8996328899643492</v>
       </c>
       <c r="H92" s="1">
-        <v>-1.481903219364727</v>
+        <v>-1.7787472911811331</v>
       </c>
       <c r="I92" s="1">
-        <v>-1.7597879240441809</v>
+        <v>-2.0151669347699581</v>
       </c>
       <c r="J92" s="1">
-        <v>-2.449425225735907</v>
+        <v>-2.898422506255327</v>
       </c>
       <c r="K92" s="1">
-        <v>-1.820312556581799</v>
+        <v>-2.519451742459927</v>
       </c>
       <c r="L92" s="1">
-        <v>-1.040853048983039</v>
+        <v>-0.87501417938583492</v>
       </c>
       <c r="M92" s="1">
-        <v>-1.4061827391715629</v>
+        <v>-1.6976305131959599</v>
       </c>
       <c r="N92" s="1">
-        <v>-1.7268330319671299</v>
+        <v>-1.954913247787472</v>
       </c>
       <c r="O92" s="1">
-        <v>-2.3372708052902058</v>
+        <v>-3.0406981541023552</v>
       </c>
       <c r="P92" s="1">
-        <v>-1.768857874389961</v>
+        <v>-2.389363465469168</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B93" s="1">
-        <v>-1.033008297344389</v>
+        <v>-2.0945130038929398</v>
       </c>
       <c r="C93" s="1">
-        <v>-2.1086972876958701</v>
+        <v>-1.9637181997306721</v>
       </c>
       <c r="D93" s="1">
-        <v>-1.567377655488897</v>
+        <v>-1.3126987191697399</v>
       </c>
       <c r="E93" s="1">
-        <v>-1.5420742911978129</v>
+        <v>-1.5937628289712891</v>
       </c>
       <c r="F93" s="1">
-        <v>-1.878243099469624</v>
+        <v>-1.1866602351657241</v>
       </c>
       <c r="G93" s="1">
-        <v>-1.040868098987664</v>
+        <v>-1.882683985826958</v>
       </c>
       <c r="H93" s="1">
-        <v>-2.1217523405341678</v>
+        <v>-1.665094976483779</v>
       </c>
       <c r="I93" s="1">
-        <v>-1.560398962915525</v>
+        <v>-1.045920854909574</v>
       </c>
       <c r="J93" s="1">
-        <v>-1.525858834959787</v>
+        <v>-1.0587990704435031</v>
       </c>
       <c r="K93" s="1">
-        <v>-1.854542807730265</v>
+        <v>-0.52192503494037235</v>
       </c>
       <c r="L93" s="1">
-        <v>-0.63316867776420638</v>
+        <v>-0.8273292812470936</v>
       </c>
       <c r="M93" s="1">
-        <v>-2.1612331416144039</v>
+        <v>-2.049345025967261</v>
       </c>
       <c r="N93" s="1">
-        <v>-1.3036720096111329</v>
+        <v>-1.886143695779267</v>
       </c>
       <c r="O93" s="1">
-        <v>-1.286476314981243</v>
+        <v>-0.55895018829544085</v>
       </c>
       <c r="P93" s="1">
-        <v>-1.6330962766924471</v>
+        <v>0.150426732566324</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
@@ -5643,2807 +5626,2807 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B95" s="1">
-        <v>-0.98682998483883178</v>
+        <v>-1.340768426039542</v>
       </c>
       <c r="C95" s="1">
-        <v>-1.77818482759314</v>
+        <v>-1.587178495076911</v>
       </c>
       <c r="D95" s="1">
-        <v>-1.8673839510883159</v>
+        <v>-1.3006508176343561</v>
       </c>
       <c r="E95" s="1">
-        <v>-1.6820262870348579</v>
+        <v>-1.5782587251015809</v>
       </c>
       <c r="F95" s="1">
-        <v>-1.8466120259450109</v>
+        <v>-1.4587895739887291</v>
       </c>
       <c r="G95" s="1">
-        <v>-0.99971692502690201</v>
+        <v>-1.359527650721194</v>
       </c>
       <c r="H95" s="1">
-        <v>-1.810861991611868</v>
+        <v>-1.6150032754608321</v>
       </c>
       <c r="I95" s="1">
-        <v>-1.8960390922881509</v>
+        <v>-1.3320160609605589</v>
       </c>
       <c r="J95" s="1">
-        <v>-1.7132992736353421</v>
+        <v>-1.6303558916002989</v>
       </c>
       <c r="K95" s="1">
-        <v>-1.850880144652532</v>
+        <v>-1.5217486972336529</v>
       </c>
       <c r="L95" s="1">
-        <v>-0.50704249395414147</v>
+        <v>-0.68288013578018691</v>
       </c>
       <c r="M95" s="1">
-        <v>-1.5513412673643461</v>
+        <v>-0.91291486081417772</v>
       </c>
       <c r="N95" s="1">
-        <v>-1.5667302648753969</v>
+        <v>-0.43863420779432782</v>
       </c>
       <c r="O95" s="1">
-        <v>-1.389616176885252</v>
+        <v>-0.83693470672252546</v>
       </c>
       <c r="P95" s="1">
-        <v>-1.4083546156138891</v>
+        <v>-0.68783251240633669</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="B96" s="1">
-        <v>-0.97851166843344595</v>
+        <v>-0.81005597930887951</v>
       </c>
       <c r="C96" s="1">
-        <v>-2.0773827306377992</v>
+        <v>-2.8288474548636549</v>
       </c>
       <c r="D96" s="1">
-        <v>-1.6772098684036461</v>
+        <v>-1.1776049649672959</v>
       </c>
       <c r="E96" s="1">
-        <v>-1.6388204683695959</v>
+        <v>-1.2530845949135501</v>
       </c>
       <c r="F96" s="1">
-        <v>-1.6524816564877161</v>
+        <v>-1.2771755095485491</v>
       </c>
       <c r="G96" s="1">
-        <v>-0.98795326485631463</v>
+        <v>-0.86149429218682982</v>
       </c>
       <c r="H96" s="1">
-        <v>-2.0959564618114248</v>
+        <v>-2.7883921468998731</v>
       </c>
       <c r="I96" s="1">
-        <v>-1.6997249462688639</v>
+        <v>-1.193328720708795</v>
       </c>
       <c r="J96" s="1">
-        <v>-1.6583570133046071</v>
+        <v>-1.5493778861879901</v>
       </c>
       <c r="K96" s="1">
-        <v>-1.664609099555824</v>
+        <v>-1.6017915230470181</v>
       </c>
       <c r="L96" s="1">
-        <v>0.52347975770368571</v>
+        <v>-0.6768619501774894</v>
       </c>
       <c r="M96" s="1">
-        <v>-1.4670466912278399</v>
+        <v>-2.2353099370837781</v>
       </c>
       <c r="N96" s="1">
-        <v>-0.90360226923199582</v>
+        <v>-1.73272055637958</v>
       </c>
       <c r="O96" s="1">
-        <v>-0.68702280870365817</v>
+        <v>-1.717923066581488</v>
       </c>
       <c r="P96" s="1">
-        <v>-0.45935249781337112</v>
+        <v>-1.880364914051244</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B97" s="1">
-        <v>-0.96591885408780576</v>
+        <v>-0.73531774852977927</v>
       </c>
       <c r="C97" s="1">
-        <v>-2.0985967889009212</v>
+        <v>-1.94747742318013</v>
       </c>
       <c r="D97" s="1">
-        <v>-2.1299269744381162</v>
+        <v>-1.836184984831553</v>
       </c>
       <c r="E97" s="1">
-        <v>-2.3591654543784291</v>
+        <v>-2.1223653127436819</v>
       </c>
       <c r="F97" s="1">
-        <v>-2.230281451948009</v>
+        <v>-1.904731109790663</v>
       </c>
       <c r="G97" s="1">
-        <v>-0.97547748094887343</v>
+        <v>-0.77989679013535718</v>
       </c>
       <c r="H97" s="1">
-        <v>-2.1168553197637761</v>
+        <v>-2.0021801914248178</v>
       </c>
       <c r="I97" s="1">
-        <v>-2.143978612589867</v>
+        <v>-1.907460863321065</v>
       </c>
       <c r="J97" s="1">
-        <v>-2.3836265411400248</v>
+        <v>-2.1697754744711579</v>
       </c>
       <c r="K97" s="1">
-        <v>-2.2432172096257701</v>
+        <v>-1.9556251681788659</v>
       </c>
       <c r="L97" s="1">
-        <v>-1.3206368724236941</v>
+        <v>-0.65627018243138113</v>
       </c>
       <c r="M97" s="1">
-        <v>-2.5080845965628882</v>
+        <v>-1.691679107160877</v>
       </c>
       <c r="N97" s="1">
-        <v>-2.7003354979359262</v>
+        <v>-1.444983024822128</v>
       </c>
       <c r="O97" s="1">
-        <v>-2.7644244179844928</v>
+        <v>-1.640214979630471</v>
       </c>
       <c r="P97" s="1">
-        <v>-2.9417975245605028</v>
+        <v>-1.408616250626342</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="B98" s="1">
-        <v>-0.9392213357410889</v>
+        <v>-1.033008297344389</v>
       </c>
       <c r="C98" s="1">
-        <v>-0.9886436702871092</v>
+        <v>-2.1086972876958701</v>
       </c>
       <c r="D98" s="1">
-        <v>-0.99437908240595652</v>
+        <v>-1.567377655488897</v>
       </c>
       <c r="E98" s="1">
-        <v>-1.0672526067847381</v>
+        <v>-1.5420742911978129</v>
       </c>
       <c r="F98" s="1">
-        <v>-0.88438545950263303</v>
+        <v>-1.878243099469624</v>
       </c>
       <c r="G98" s="1">
-        <v>-0.95702238614921975</v>
+        <v>-1.040868098987664</v>
       </c>
       <c r="H98" s="1">
-        <v>-1.0169985730475051</v>
+        <v>-2.1217523405341678</v>
       </c>
       <c r="I98" s="1">
-        <v>-1.030671866145404</v>
+        <v>-1.560398962915525</v>
       </c>
       <c r="J98" s="1">
-        <v>-1.105769646173425</v>
+        <v>-1.525858834959787</v>
       </c>
       <c r="K98" s="1">
-        <v>-0.93098711322686312</v>
+        <v>-1.854542807730265</v>
       </c>
       <c r="L98" s="1">
-        <v>-0.50828461514461054</v>
+        <v>-0.63316867776420638</v>
       </c>
       <c r="M98" s="1">
-        <v>-0.53906590463680748</v>
+        <v>-2.1612331416144039</v>
       </c>
       <c r="N98" s="1">
-        <v>-0.45553928161545998</v>
+        <v>-1.3036720096111329</v>
       </c>
       <c r="O98" s="1">
-        <v>-0.41075310762148948</v>
+        <v>-1.286476314981243</v>
       </c>
       <c r="P98" s="1">
-        <v>3.8246046550087599E-2</v>
+        <v>-1.6330962766924471</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="B99" s="1">
-        <v>-0.93236178384888602</v>
+        <v>-1.6293173723168961</v>
       </c>
       <c r="C99" s="1">
-        <v>-1.079712781941319</v>
+        <v>-1.365427558794164</v>
       </c>
       <c r="D99" s="1">
-        <v>-1.035407378605975</v>
+        <v>-1.6866321732639771</v>
       </c>
       <c r="E99" s="1">
-        <v>-1.3330767532174921</v>
+        <v>-1.4137663620256751</v>
       </c>
       <c r="F99" s="1">
-        <v>-1.4386096873247951</v>
+        <v>-1.398228579418036</v>
       </c>
       <c r="G99" s="1">
-        <v>-0.93816058457758655</v>
+        <v>-1.637557280893968</v>
       </c>
       <c r="H99" s="1">
-        <v>-1.0885406091969041</v>
+        <v>-1.3875962365464729</v>
       </c>
       <c r="I99" s="1">
-        <v>-1.062920937908947</v>
+        <v>-1.680904750297658</v>
       </c>
       <c r="J99" s="1">
-        <v>-1.367733064258233</v>
+        <v>-1.4204701037768741</v>
       </c>
       <c r="K99" s="1">
-        <v>-1.4973891043553531</v>
+        <v>-1.43028547773175</v>
       </c>
       <c r="L99" s="1">
-        <v>-0.13667804400437411</v>
+        <v>-0.62242874360369238</v>
       </c>
       <c r="M99" s="1">
-        <v>-0.37660742121047941</v>
+        <v>-0.59065959356556774</v>
       </c>
       <c r="N99" s="1">
-        <v>-0.47299019413172733</v>
+        <v>-0.75249018547434265</v>
       </c>
       <c r="O99" s="1">
-        <v>-0.81313792854016442</v>
+        <v>-0.63551590544195435</v>
       </c>
       <c r="P99" s="1">
-        <v>-1.0227093732580721</v>
+        <v>-0.80030614074292117</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="B100" s="1">
-        <v>-0.91486445499008107</v>
+        <v>-0.9392213357410889</v>
       </c>
       <c r="C100" s="1">
-        <v>-1.188984895962262</v>
+        <v>-0.9886436702871092</v>
       </c>
       <c r="D100" s="1">
-        <v>-1.623818286674916</v>
+        <v>-0.99437908240595652</v>
       </c>
       <c r="E100" s="1">
-        <v>-1.815028042432504</v>
+        <v>-1.0672526067847381</v>
       </c>
       <c r="F100" s="1">
-        <v>-1.757463318818123</v>
+        <v>-0.88438545950263303</v>
       </c>
       <c r="G100" s="1">
-        <v>-0.91874391782344678</v>
+        <v>-0.95702238614921975</v>
       </c>
       <c r="H100" s="1">
-        <v>-1.1965922526171131</v>
+        <v>-1.0169985730475051</v>
       </c>
       <c r="I100" s="1">
-        <v>-1.636308103007055</v>
+        <v>-1.030671866145404</v>
       </c>
       <c r="J100" s="1">
-        <v>-1.825841322040884</v>
+        <v>-1.105769646173425</v>
       </c>
       <c r="K100" s="1">
-        <v>-1.763658316461115</v>
+        <v>-0.93098711322686312</v>
       </c>
       <c r="L100" s="1">
-        <v>0.72383766635053004</v>
+        <v>-0.50828461514461054</v>
       </c>
       <c r="M100" s="1">
-        <v>-0.42124168857258132</v>
+        <v>-0.53906590463680748</v>
       </c>
       <c r="N100" s="1">
-        <v>-1.0521428818079179</v>
+        <v>-0.45553928161545998</v>
       </c>
       <c r="O100" s="1">
-        <v>-1.05403689147026</v>
+        <v>-0.41075310762148948</v>
       </c>
       <c r="P100" s="1">
-        <v>-0.88494935017846899</v>
+        <v>3.8246046550087599E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B101" s="1">
-        <v>-0.87455673030087155</v>
+        <v>-0.98682998483883178</v>
       </c>
       <c r="C101" s="1">
-        <v>-1.7585399715667629</v>
+        <v>-1.77818482759314</v>
       </c>
       <c r="D101" s="1">
-        <v>-2.0009733794987108</v>
+        <v>-1.8673839510883159</v>
       </c>
       <c r="E101" s="1">
-        <v>-2.9198406577590248</v>
+        <v>-1.6820262870348579</v>
       </c>
       <c r="F101" s="1">
-        <v>-2.5485027638225501</v>
+        <v>-1.8466120259450109</v>
       </c>
       <c r="G101" s="1">
-        <v>-0.8996328899643492</v>
+        <v>-0.99971692502690201</v>
       </c>
       <c r="H101" s="1">
-        <v>-1.7787472911811331</v>
+        <v>-1.810861991611868</v>
       </c>
       <c r="I101" s="1">
-        <v>-2.0151669347699581</v>
+        <v>-1.8960390922881509</v>
       </c>
       <c r="J101" s="1">
-        <v>-2.898422506255327</v>
+        <v>-1.7132992736353421</v>
       </c>
       <c r="K101" s="1">
-        <v>-2.519451742459927</v>
+        <v>-1.850880144652532</v>
       </c>
       <c r="L101" s="1">
-        <v>-0.87501417938583492</v>
+        <v>-0.50704249395414147</v>
       </c>
       <c r="M101" s="1">
-        <v>-1.6976305131959599</v>
+        <v>-1.5513412673643461</v>
       </c>
       <c r="N101" s="1">
-        <v>-1.954913247787472</v>
+        <v>-1.5667302648753969</v>
       </c>
       <c r="O101" s="1">
-        <v>-3.0406981541023552</v>
+        <v>-1.389616176885252</v>
       </c>
       <c r="P101" s="1">
-        <v>-2.389363465469168</v>
+        <v>-1.4083546156138891</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="B102" s="1">
-        <v>-0.81204816976902361</v>
+        <v>-0.27228946380636021</v>
       </c>
       <c r="C102" s="1">
-        <v>-1.410333833214928</v>
+        <v>-2.2669917618711302</v>
       </c>
       <c r="D102" s="1">
-        <v>-1.4035784077647999</v>
+        <v>-2.4281744550416771</v>
       </c>
       <c r="E102" s="1">
-        <v>-1.476326749742275</v>
+        <v>-3.274071610571363</v>
       </c>
       <c r="F102" s="1">
-        <v>-1.56042493095202</v>
+        <v>-2.5784574455775999</v>
       </c>
       <c r="G102" s="1">
-        <v>-0.82122914357598409</v>
+        <v>-0.33906930840145327</v>
       </c>
       <c r="H102" s="1">
-        <v>-1.431672249603319</v>
+        <v>-2.3454669441642499</v>
       </c>
       <c r="I102" s="1">
-        <v>-1.426040324825397</v>
+        <v>-2.503492588249959</v>
       </c>
       <c r="J102" s="1">
-        <v>-1.510862029716979</v>
+        <v>-3.3653495767418962</v>
       </c>
       <c r="K102" s="1">
-        <v>-1.5788469923799131</v>
+        <v>-2.6713225605329072</v>
       </c>
       <c r="L102" s="1">
-        <v>0.84328192010290159</v>
+        <v>-0.48948289018359431</v>
       </c>
       <c r="M102" s="1">
-        <v>-0.33096475711243772</v>
+        <v>-2.3606386794537202</v>
       </c>
       <c r="N102" s="1">
-        <v>-0.14940036859138309</v>
+        <v>-2.5336594585121128</v>
       </c>
       <c r="O102" s="1">
-        <v>-0.3024980053441233</v>
+        <v>-3.3323456504576798</v>
       </c>
       <c r="P102" s="1">
-        <v>-0.16149876101614891</v>
+        <v>-2.6219471486812802</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="B103" s="1">
-        <v>-0.81005597930887951</v>
+        <v>0.46753072328644552</v>
       </c>
       <c r="C103" s="1">
-        <v>-2.8288474548636549</v>
+        <v>-0.39238174591548952</v>
       </c>
       <c r="D103" s="1">
-        <v>-1.1776049649672959</v>
+        <v>-0.4107277500576233</v>
       </c>
       <c r="E103" s="1">
-        <v>-1.2530845949135501</v>
+        <v>-0.81497957883953276</v>
       </c>
       <c r="F103" s="1">
-        <v>-1.2771755095485491</v>
+        <v>-1.714680349349909</v>
       </c>
       <c r="G103" s="1">
-        <v>-0.86149429218682982</v>
+        <v>0.35362141399767139</v>
       </c>
       <c r="H103" s="1">
-        <v>-2.7883921468998731</v>
+        <v>-0.64233742877259281</v>
       </c>
       <c r="I103" s="1">
-        <v>-1.193328720708795</v>
+        <v>-0.72506021884454164</v>
       </c>
       <c r="J103" s="1">
-        <v>-1.5493778861879901</v>
+        <v>-1.175681177413622</v>
       </c>
       <c r="K103" s="1">
-        <v>-1.6017915230470181</v>
+        <v>-1.846686618405301</v>
       </c>
       <c r="L103" s="1">
-        <v>-0.6768619501774894</v>
+        <v>-0.48114466752640578</v>
       </c>
       <c r="M103" s="1">
-        <v>-2.2353099370837781</v>
+        <v>-0.65077912599267007</v>
       </c>
       <c r="N103" s="1">
-        <v>-1.73272055637958</v>
+        <v>-0.42766795791789092</v>
       </c>
       <c r="O103" s="1">
-        <v>-1.717923066581488</v>
+        <v>-0.59608610791073513</v>
       </c>
       <c r="P103" s="1">
-        <v>-1.880364914051244</v>
+        <v>-1.326425245436901</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B104" s="1">
-        <v>-0.80225510273079748</v>
+        <v>-0.11783373352826899</v>
       </c>
       <c r="C104" s="1">
-        <v>-0.99491188616687765</v>
+        <v>-1.5125962101338359</v>
       </c>
       <c r="D104" s="1">
-        <v>-1.017793240925726</v>
+        <v>-2.0858403989284322</v>
       </c>
       <c r="E104" s="1">
-        <v>-1.4364669171190689</v>
+        <v>-2.746537505724544</v>
       </c>
       <c r="F104" s="1">
-        <v>-1.590116937440252</v>
+        <v>-2.4294496573345921</v>
       </c>
       <c r="G104" s="1">
-        <v>-0.82222966815394305</v>
+        <v>-0.15087531026379331</v>
       </c>
       <c r="H104" s="1">
-        <v>-1.007390875986913</v>
+        <v>-1.5601072488365351</v>
       </c>
       <c r="I104" s="1">
-        <v>-1.0337562098573281</v>
+        <v>-2.1446652252409661</v>
       </c>
       <c r="J104" s="1">
-        <v>-1.460106682423667</v>
+        <v>-2.8451523836775259</v>
       </c>
       <c r="K104" s="1">
-        <v>-1.6209403367240161</v>
+        <v>-2.5030944728763451</v>
       </c>
       <c r="L104" s="1">
-        <v>-1.2448358242052411</v>
+        <v>-0.4610768656453168</v>
       </c>
       <c r="M104" s="1">
-        <v>-1.871791833659294</v>
+        <v>-1.594844029286562</v>
       </c>
       <c r="N104" s="1">
-        <v>-1.874630017643284</v>
+        <v>-2.0123042283824999</v>
       </c>
       <c r="O104" s="1">
-        <v>-2.7877834240238428</v>
+        <v>-2.5359503637773368</v>
       </c>
       <c r="P104" s="1">
-        <v>-3.2530708451771519</v>
+        <v>-2.1653712263480842</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B105" s="1">
-        <v>-0.78360072393243019</v>
+        <v>-6.5006308147196341</v>
       </c>
       <c r="C105" s="1">
-        <v>-1.5061247447828361</v>
+        <v>-3.0986659681075901</v>
       </c>
       <c r="D105" s="1">
-        <v>-2.2597707264438149</v>
+        <v>-3.3925697371428809</v>
       </c>
       <c r="E105" s="1">
-        <v>-1.836968321400527</v>
+        <v>-3.5373750485508841</v>
       </c>
       <c r="F105" s="1">
-        <v>-2.8255046441802798</v>
+        <v>-3.6116206109011828</v>
       </c>
       <c r="G105" s="1">
-        <v>-0.79547159683378665</v>
+        <v>-4.1725718352477559</v>
       </c>
       <c r="H105" s="1">
-        <v>-1.523138656058425</v>
+        <v>-2.156718366406277</v>
       </c>
       <c r="I105" s="1">
-        <v>-2.2764117652300082</v>
+        <v>-2.206735495013505</v>
       </c>
       <c r="J105" s="1">
-        <v>-1.809057933885458</v>
+        <v>-2.121694665612841</v>
       </c>
       <c r="K105" s="1">
-        <v>-2.715015431396099</v>
+        <v>-1.9746204470545961</v>
       </c>
       <c r="L105" s="1">
-        <v>-0.93394773330219949</v>
+        <v>-0.43722552237274798</v>
       </c>
       <c r="M105" s="1">
-        <v>-1.378675024309072</v>
+        <v>-2.4240961230847642</v>
       </c>
       <c r="N105" s="1">
-        <v>-2.3589857872388138</v>
+        <v>-2.5847423944013199</v>
       </c>
       <c r="O105" s="1">
-        <v>-1.4227277683080071</v>
+        <v>-2.7058528244577298</v>
       </c>
       <c r="P105" s="1">
-        <v>-2.3727556905156528</v>
+        <v>-2.8174547419290299</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B106" s="1">
-        <v>-0.77693756196437302</v>
+        <v>0.86313583460101673</v>
       </c>
       <c r="C106" s="1">
-        <v>-0.81570800361929685</v>
+        <v>0.15862017846646401</v>
       </c>
       <c r="D106" s="1">
-        <v>-0.74828637936149078</v>
+        <v>-0.43389904998461731</v>
       </c>
       <c r="E106" s="1">
-        <v>-0.98118944500052474</v>
+        <v>-0.27620818398610902</v>
       </c>
       <c r="F106" s="1">
-        <v>-1.2780298448630369</v>
+        <v>-0.1128312171137377</v>
       </c>
       <c r="G106" s="1">
-        <v>-0.77982259073321958</v>
+        <v>0.46420264910093201</v>
       </c>
       <c r="H106" s="1">
-        <v>-0.84323354334692913</v>
+        <v>-0.19157602928563219</v>
       </c>
       <c r="I106" s="1">
-        <v>-0.80821903873758671</v>
+        <v>-0.80111328338067056</v>
       </c>
       <c r="J106" s="1">
-        <v>-1.089270084110078</v>
+        <v>-0.53263584373794992</v>
       </c>
       <c r="K106" s="1">
-        <v>-1.425251506728906</v>
+        <v>-0.32979620764743522</v>
       </c>
       <c r="L106" s="1">
-        <v>4.1925211233299233</v>
+        <v>-0.35965357546649318</v>
       </c>
       <c r="M106" s="1">
-        <v>2.7924230325181032</v>
+        <v>-1.124815715737834</v>
       </c>
       <c r="N106" s="1">
-        <v>2.8667743477852849</v>
+        <v>-1.463652613215195</v>
       </c>
       <c r="O106" s="1">
-        <v>2.3904206948063029</v>
+        <v>-1.418892730742596</v>
       </c>
       <c r="P106" s="1">
-        <v>2.2651961561296772</v>
+        <v>-1.319541340971879</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B107" s="1">
-        <v>-0.75742544000336887</v>
+        <v>-1.5783802083640679</v>
       </c>
       <c r="C107" s="1">
-        <v>-0.94742675086313966</v>
+        <v>-2.536235745330913</v>
       </c>
       <c r="D107" s="1">
-        <v>-0.93537248723025479</v>
+        <v>-2.000167701357694</v>
       </c>
       <c r="E107" s="1">
-        <v>-0.63292612016244909</v>
+        <v>-2.1365751597166049</v>
       </c>
       <c r="F107" s="1">
-        <v>-0.60663348864055933</v>
+        <v>-1.938948882599254</v>
       </c>
       <c r="G107" s="1">
-        <v>-0.76542129095960287</v>
+        <v>-1.588904676021945</v>
       </c>
       <c r="H107" s="1">
-        <v>-0.98408432665402057</v>
+        <v>-2.5378363471160972</v>
       </c>
       <c r="I107" s="1">
-        <v>-1.009835000688341</v>
+        <v>-1.962296252833063</v>
       </c>
       <c r="J107" s="1">
-        <v>-0.77308723327512552</v>
+        <v>-2.0768466952866751</v>
       </c>
       <c r="K107" s="1">
-        <v>-0.76983777480884308</v>
+        <v>-1.7912444512977159</v>
       </c>
       <c r="L107" s="1">
-        <v>0.93520370500280769</v>
+        <v>-0.34971615276849372</v>
       </c>
       <c r="M107" s="1">
-        <v>0.27689805128508033</v>
+        <v>-2.4703104623582179</v>
       </c>
       <c r="N107" s="1">
-        <v>0.23152103021176901</v>
+        <v>-1.255864275640707</v>
       </c>
       <c r="O107" s="1">
-        <v>0.53383120170143861</v>
+        <v>-1.5253119879816071</v>
       </c>
       <c r="P107" s="1">
-        <v>0.8611160047361478</v>
+        <v>-0.74442839501936897</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B108" s="1">
-        <v>-0.73531774852977927</v>
+        <v>-2.494944477715892</v>
       </c>
       <c r="C108" s="1">
-        <v>-1.94747742318013</v>
+        <v>-1.9674135241213531</v>
       </c>
       <c r="D108" s="1">
-        <v>-1.836184984831553</v>
+        <v>-2.30314888953848</v>
       </c>
       <c r="E108" s="1">
-        <v>-2.1223653127436819</v>
+        <v>-1.838678329430649</v>
       </c>
       <c r="F108" s="1">
-        <v>-1.904731109790663</v>
+        <v>-1.7615931504933791</v>
       </c>
       <c r="G108" s="1">
-        <v>-0.77989679013535718</v>
+        <v>-2.4430880430538142</v>
       </c>
       <c r="H108" s="1">
-        <v>-2.0021801914248178</v>
+        <v>-1.902972455849459</v>
       </c>
       <c r="I108" s="1">
-        <v>-1.907460863321065</v>
+        <v>-2.1758261604007521</v>
       </c>
       <c r="J108" s="1">
-        <v>-2.1697754744711579</v>
+        <v>-1.686467926462293</v>
       </c>
       <c r="K108" s="1">
-        <v>-1.9556251681788659</v>
+        <v>-1.609492683348561</v>
       </c>
       <c r="L108" s="1">
-        <v>-0.65627018243138113</v>
+        <v>-0.33722013930015471</v>
       </c>
       <c r="M108" s="1">
-        <v>-1.691679107160877</v>
+        <v>-1.0680737885799709</v>
       </c>
       <c r="N108" s="1">
-        <v>-1.444983024822128</v>
+        <v>-1.075483097163646</v>
       </c>
       <c r="O108" s="1">
-        <v>-1.640214979630471</v>
+        <v>-0.59633106403403502</v>
       </c>
       <c r="P108" s="1">
-        <v>-1.408616250626342</v>
+        <v>-0.67256519811260773</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B109" s="1">
-        <v>-0.69055110346204929</v>
+        <v>-0.40297301917692202</v>
       </c>
       <c r="C109" s="1">
-        <v>-0.78792007212678228</v>
+        <v>-1.7013492972126061</v>
       </c>
       <c r="D109" s="1">
-        <v>-0.64148833698830032</v>
+        <v>-1.09498451025163</v>
       </c>
       <c r="E109" s="1">
-        <v>-0.80269020886012754</v>
+        <v>-1.551251368905892</v>
       </c>
       <c r="F109" s="1">
-        <v>-0.75576767649288656</v>
+        <v>-0.95212058339148731</v>
       </c>
       <c r="G109" s="1">
-        <v>-0.73682847681608654</v>
+        <v>-0.41838024940109231</v>
       </c>
       <c r="H109" s="1">
-        <v>-0.8611474934459159</v>
+        <v>-1.717013146972352</v>
       </c>
       <c r="I109" s="1">
-        <v>-0.74111498160234401</v>
+        <v>-1.1325903906067269</v>
       </c>
       <c r="J109" s="1">
-        <v>-0.93859455080806631</v>
+        <v>-1.577905161115404</v>
       </c>
       <c r="K109" s="1">
-        <v>-0.89536929565563672</v>
+        <v>-1.0334094834066021</v>
       </c>
       <c r="L109" s="1">
-        <v>-1.067931518180375</v>
+        <v>-0.33461844727338419</v>
       </c>
       <c r="M109" s="1">
-        <v>-1.123050813225648</v>
+        <v>-1.52151842437133</v>
       </c>
       <c r="N109" s="1">
-        <v>-0.95202343003268908</v>
+        <v>-0.78730849388602953</v>
       </c>
       <c r="O109" s="1">
-        <v>-1.016596000958331</v>
+        <v>-1.1612928159877209</v>
       </c>
       <c r="P109" s="1">
-        <v>-0.96085293854441267</v>
+        <v>-0.56082475047544078</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B110" s="1">
-        <v>-0.69001485887015845</v>
+        <v>0.74125470317426723</v>
       </c>
       <c r="C110" s="1">
-        <v>-0.49139089127008112</v>
+        <v>5.0881037301926613</v>
       </c>
       <c r="D110" s="1">
-        <v>-1.102360751923495</v>
+        <v>4.3151638845854041</v>
       </c>
       <c r="E110" s="1">
-        <v>-2.0158862628179901</v>
+        <v>-8.30062761449602E-2</v>
       </c>
       <c r="F110" s="1">
-        <v>-1.6642011810846951</v>
+        <v>1.078545215844497</v>
       </c>
       <c r="G110" s="1">
-        <v>-0.70318850157135138</v>
+        <v>0.15543584534209401</v>
       </c>
       <c r="H110" s="1">
-        <v>-0.50710604891263811</v>
+        <v>2.918534664016462</v>
       </c>
       <c r="I110" s="1">
-        <v>-1.119632538804642</v>
+        <v>0.77270800760226999</v>
       </c>
       <c r="J110" s="1">
-        <v>-2.037313696389019</v>
+        <v>-1.3085461145657731</v>
       </c>
       <c r="K110" s="1">
-        <v>-1.6948039518944651</v>
+        <v>-0.55468399384874301</v>
       </c>
       <c r="L110" s="1">
-        <v>4.0243036059228098E-2</v>
+        <v>-0.32133763453156028</v>
       </c>
       <c r="M110" s="1">
-        <v>0.79249319404074658</v>
+        <v>-1.673077684325365</v>
       </c>
       <c r="N110" s="1">
-        <v>3.8961019433944297E-2</v>
+        <v>-0.76407493466297738</v>
       </c>
       <c r="O110" s="1">
-        <v>-1.075841465882809</v>
+        <v>-2.1851556514611912</v>
       </c>
       <c r="P110" s="1">
-        <v>-0.59128203756028053</v>
+        <v>-1.452025698477593</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B111" s="1">
-        <v>-0.67496221269932977</v>
+        <v>-0.56087137423652722</v>
       </c>
       <c r="C111" s="1">
-        <v>-0.80291765930175074</v>
+        <v>-1.32408955272669</v>
       </c>
       <c r="D111" s="1">
-        <v>-0.81150685834581127</v>
+        <v>-1.542819101130521</v>
       </c>
       <c r="E111" s="1">
-        <v>-1.037913398652597</v>
+        <v>-1.4990591829204589</v>
       </c>
       <c r="F111" s="1">
-        <v>-0.95775970500023144</v>
+        <v>-1.9096202409321259</v>
       </c>
       <c r="G111" s="1">
-        <v>-0.69354246384017459</v>
+        <v>-0.63749067336308252</v>
       </c>
       <c r="H111" s="1">
-        <v>-0.81478306731037287</v>
+        <v>-1.4028165370468</v>
       </c>
       <c r="I111" s="1">
-        <v>-0.821503266767733</v>
+        <v>-1.6151867398220829</v>
       </c>
       <c r="J111" s="1">
-        <v>-1.0452281365395859</v>
+        <v>-1.566104974265986</v>
       </c>
       <c r="K111" s="1">
-        <v>-0.95431938954018358</v>
+        <v>-1.8983376191639081</v>
       </c>
       <c r="L111" s="1">
-        <v>-1.184323817428647</v>
+        <v>-0.31459707066234088</v>
       </c>
       <c r="M111" s="1">
-        <v>-1.6396405851203131</v>
+        <v>-0.97096259590219824</v>
       </c>
       <c r="N111" s="1">
-        <v>-1.5436268775458239</v>
+        <v>-0.95031415176630751</v>
       </c>
       <c r="O111" s="1">
-        <v>-1.789715121048929</v>
+        <v>-0.70818942804091833</v>
       </c>
       <c r="P111" s="1">
-        <v>-1.4961776282049251</v>
+        <v>-0.164809347747469</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1">
-        <v>-0.66967665620730055</v>
+        <v>3.48223257194148E-2</v>
       </c>
       <c r="C112" s="1">
-        <v>-0.98932171097239674</v>
+        <v>-0.67062031086842233</v>
       </c>
       <c r="D112" s="1">
-        <v>-0.83705974430426677</v>
+        <v>-0.82301364467272375</v>
       </c>
       <c r="E112" s="1">
-        <v>-0.68980574437406839</v>
+        <v>-2.4701526868383E-3</v>
       </c>
       <c r="F112" s="1">
-        <v>-0.62695369466764406</v>
+        <v>-0.38615718716710878</v>
       </c>
       <c r="G112" s="1">
-        <v>-0.69449226424903443</v>
+        <v>-0.22002120518939519</v>
       </c>
       <c r="H112" s="1">
-        <v>-1.0168571251508269</v>
+        <v>-0.81336684924801927</v>
       </c>
       <c r="I112" s="1">
-        <v>-0.86945670354459892</v>
+        <v>-0.92625021188543044</v>
       </c>
       <c r="J112" s="1">
-        <v>-0.73343722783614551</v>
+        <v>-6.1430570050408202E-2</v>
       </c>
       <c r="K112" s="1">
-        <v>-0.68560323087146824</v>
+        <v>-0.46604546858372559</v>
       </c>
       <c r="L112" s="1">
-        <v>-2.1908275111204989</v>
+        <v>-0.29474801153578029</v>
       </c>
       <c r="M112" s="1">
-        <v>-2.8611433759229241</v>
+        <v>-1.0355712424699079</v>
       </c>
       <c r="N112" s="1">
-        <v>-2.6115461819382251</v>
+        <v>-1.175604211609383</v>
       </c>
       <c r="O112" s="1">
-        <v>-2.314273941374557</v>
+        <v>-0.37958518884539388</v>
       </c>
       <c r="P112" s="1">
-        <v>-2.229259893003658</v>
+        <v>-0.66416611411020554</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B113" s="1">
-        <v>-0.6613951427018544</v>
+        <v>-3.9886261350201409</v>
       </c>
       <c r="C113" s="1">
-        <v>-0.96316745019779448</v>
+        <v>-1.880072574345788</v>
       </c>
       <c r="D113" s="1">
-        <v>-0.78526577325968361</v>
+        <v>-1.89714664953168</v>
       </c>
       <c r="E113" s="1">
-        <v>-1.307282587349901</v>
+        <v>-2.4507455929362001</v>
       </c>
       <c r="F113" s="1">
-        <v>-1.527227615572833</v>
+        <v>-1.4845297734068039</v>
       </c>
       <c r="G113" s="1">
-        <v>-0.68433356188122063</v>
+        <v>-3.877711080717841</v>
       </c>
       <c r="H113" s="1">
-        <v>-0.99801277118531273</v>
+        <v>-1.895409808925999</v>
       </c>
       <c r="I113" s="1">
-        <v>-0.84093262387623247</v>
+        <v>-1.9805035405311491</v>
       </c>
       <c r="J113" s="1">
-        <v>-1.3742662547258631</v>
+        <v>-2.5702869957865291</v>
       </c>
       <c r="K113" s="1">
-        <v>-1.633575710142545</v>
+        <v>-1.6279971203044019</v>
       </c>
       <c r="L113" s="1">
-        <v>0.15367966559683849</v>
+        <v>-0.24309165765598309</v>
       </c>
       <c r="M113" s="1">
-        <v>-0.10315267155096911</v>
+        <v>-0.75473241256978207</v>
       </c>
       <c r="N113" s="1">
-        <v>0.18092671818667361</v>
+        <v>-1.0508009412965029</v>
       </c>
       <c r="O113" s="1">
-        <v>-0.32249214307909618</v>
+        <v>-1.7035391643258371</v>
       </c>
       <c r="P113" s="1">
-        <v>-0.68045875434413494</v>
+        <v>-0.68296007740950859</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B114" s="1">
-        <v>-0.63982995957533628</v>
+        <v>-0.38411163054835279</v>
       </c>
       <c r="C114" s="1">
-        <v>-1.384540859521088</v>
+        <v>-0.67360749970857681</v>
       </c>
       <c r="D114" s="1">
-        <v>-1.6179643291751771</v>
+        <v>-0.64438017158689875</v>
       </c>
       <c r="E114" s="1">
-        <v>-1.928440935061956</v>
+        <v>-0.90301834359309396</v>
       </c>
       <c r="F114" s="1">
-        <v>-1.9126932856788541</v>
+        <v>-0.75074770017664794</v>
       </c>
       <c r="G114" s="1">
-        <v>-0.65529840762631042</v>
+        <v>-0.41161028858832299</v>
       </c>
       <c r="H114" s="1">
-        <v>-1.41313685973581</v>
+        <v>-0.72665437774385189</v>
       </c>
       <c r="I114" s="1">
-        <v>-1.651255528200984</v>
+        <v>-0.72262367799773253</v>
       </c>
       <c r="J114" s="1">
-        <v>-1.969664623299558</v>
+        <v>-0.98590315184325283</v>
       </c>
       <c r="K114" s="1">
-        <v>-1.9421728612349101</v>
+        <v>-0.84563450621251146</v>
       </c>
       <c r="L114" s="1">
-        <v>1.77780898545233E-2</v>
+        <v>-0.2036445133330837</v>
       </c>
       <c r="M114" s="1">
-        <v>-1.0783836473117721</v>
+        <v>-0.3257294350408288</v>
       </c>
       <c r="N114" s="1">
-        <v>-1.3703162170856169</v>
+        <v>-3.71541094832121E-2</v>
       </c>
       <c r="O114" s="1">
-        <v>-1.8428650443367141</v>
+        <v>-0.24308797504573759</v>
       </c>
       <c r="P114" s="1">
-        <v>-1.6829764366707469</v>
+        <v>9.8386608552639296E-2</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="B115" s="1">
-        <v>-0.62061042482856876</v>
+        <v>0.34558336517471422</v>
       </c>
       <c r="C115" s="1">
-        <v>-1.7790816999848591</v>
+        <v>-0.66811901654318395</v>
       </c>
       <c r="D115" s="1">
-        <v>-1.8181818375425329</v>
+        <v>-0.79096534319224776</v>
       </c>
       <c r="E115" s="1">
-        <v>-1.9828819745007451</v>
+        <v>-1.112477184786957</v>
       </c>
       <c r="F115" s="1">
-        <v>-2.1280377435055522</v>
+        <v>-1.6322891224051641</v>
       </c>
       <c r="G115" s="1">
-        <v>-0.65076259995281793</v>
+        <v>0.30259936511744578</v>
       </c>
       <c r="H115" s="1">
-        <v>-1.824983380144279</v>
+        <v>-0.7246101912222922</v>
       </c>
       <c r="I115" s="1">
-        <v>-1.878161520895139</v>
+        <v>-0.84242737701638226</v>
       </c>
       <c r="J115" s="1">
-        <v>-2.06138006452723</v>
+        <v>-1.2282610573252859</v>
       </c>
       <c r="K115" s="1">
-        <v>-2.2110245417983569</v>
+        <v>-1.6511846199430149</v>
       </c>
       <c r="L115" s="1">
-        <v>-0.1237995346932543</v>
+        <v>-0.19610910625683431</v>
       </c>
       <c r="M115" s="1">
-        <v>-1.3835435331426471</v>
+        <v>-0.94010930392864367</v>
       </c>
       <c r="N115" s="1">
-        <v>-1.398038293642127</v>
+        <v>-1.119099117591893</v>
       </c>
       <c r="O115" s="1">
-        <v>-1.6178810587885071</v>
+        <v>-1.282091839796746</v>
       </c>
       <c r="P115" s="1">
-        <v>-1.763898129882935</v>
+        <v>-2.245417826980983</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B116" s="1">
-        <v>-0.56087137423652722</v>
+        <v>-0.28161625834654752</v>
       </c>
       <c r="C116" s="1">
-        <v>-1.32408955272669</v>
+        <v>-0.38510387725220879</v>
       </c>
       <c r="D116" s="1">
-        <v>-1.542819101130521</v>
+        <v>-1.0139253516642239</v>
       </c>
       <c r="E116" s="1">
-        <v>-1.4990591829204589</v>
+        <v>-0.98834022849308834</v>
       </c>
       <c r="F116" s="1">
-        <v>-1.9096202409321259</v>
+        <v>-0.92901525612982483</v>
       </c>
       <c r="G116" s="1">
-        <v>-0.63749067336308252</v>
+        <v>-0.33386711062369712</v>
       </c>
       <c r="H116" s="1">
-        <v>-1.4028165370468</v>
+        <v>-0.47486415084802241</v>
       </c>
       <c r="I116" s="1">
-        <v>-1.6151867398220829</v>
+        <v>-1.122779298258334</v>
       </c>
       <c r="J116" s="1">
-        <v>-1.566104974265986</v>
+        <v>-1.119137959022632</v>
       </c>
       <c r="K116" s="1">
-        <v>-1.8983376191639081</v>
+        <v>-1.068758927201606</v>
       </c>
       <c r="L116" s="1">
-        <v>-0.31459707066234088</v>
+        <v>-0.13703171176465939</v>
       </c>
       <c r="M116" s="1">
-        <v>-0.97096259590219824</v>
+        <v>-6.4511882055473396E-2</v>
       </c>
       <c r="N116" s="1">
-        <v>-0.95031415176630751</v>
+        <v>-0.60141605563597156</v>
       </c>
       <c r="O116" s="1">
-        <v>-0.70818942804091833</v>
+        <v>-0.4700366657715056</v>
       </c>
       <c r="P116" s="1">
-        <v>-0.164809347747469</v>
+        <v>-0.23207980025762959</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B117" s="1">
-        <v>-0.51603865820836503</v>
+        <v>-0.93236178384888602</v>
       </c>
       <c r="C117" s="1">
-        <v>-0.83382134920428075</v>
+        <v>-1.079712781941319</v>
       </c>
       <c r="D117" s="1">
-        <v>-0.81255518672680327</v>
+        <v>-1.035407378605975</v>
       </c>
       <c r="E117" s="1">
-        <v>-0.80585383830125701</v>
+        <v>-1.3330767532174921</v>
       </c>
       <c r="F117" s="1">
-        <v>-1.687336840502508</v>
+        <v>-1.4386096873247951</v>
       </c>
       <c r="G117" s="1">
-        <v>-0.53314615018184164</v>
+        <v>-0.93816058457758655</v>
       </c>
       <c r="H117" s="1">
-        <v>-0.78858221197655765</v>
+        <v>-1.0885406091969041</v>
       </c>
       <c r="I117" s="1">
-        <v>-0.73690353517933416</v>
+        <v>-1.062920937908947</v>
       </c>
       <c r="J117" s="1">
-        <v>-0.75223004475698529</v>
+        <v>-1.367733064258233</v>
       </c>
       <c r="K117" s="1">
-        <v>-1.6055298341942199</v>
+        <v>-1.4973891043553531</v>
       </c>
       <c r="L117" s="1">
-        <v>-0.90760251531968317</v>
+        <v>-0.13667804400437411</v>
       </c>
       <c r="M117" s="1">
-        <v>-0.68154611094852113</v>
+        <v>-0.37660742121047941</v>
       </c>
       <c r="N117" s="1">
-        <v>-0.87807171084880264</v>
+        <v>-0.47299019413172733</v>
       </c>
       <c r="O117" s="1">
-        <v>-1.3536811482457369</v>
+        <v>-0.81313792854016442</v>
       </c>
       <c r="P117" s="1">
-        <v>-0.98636987957546185</v>
+        <v>-1.0227093732580721</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="B118" s="1">
-        <v>-0.40297301917692202</v>
+        <v>0.24438603505839279</v>
       </c>
       <c r="C118" s="1">
-        <v>-1.7013492972126061</v>
+        <v>-0.47071867777749188</v>
       </c>
       <c r="D118" s="1">
-        <v>-1.09498451025163</v>
+        <v>3.3535030833844799E-2</v>
       </c>
       <c r="E118" s="1">
-        <v>-1.551251368905892</v>
+        <v>-0.88184391654646943</v>
       </c>
       <c r="F118" s="1">
-        <v>-0.95212058339148731</v>
+        <v>-1.2682791355081391</v>
       </c>
       <c r="G118" s="1">
-        <v>-0.41838024940109231</v>
+        <v>0.157820332388107</v>
       </c>
       <c r="H118" s="1">
-        <v>-1.717013146972352</v>
+        <v>-0.6617628446480035</v>
       </c>
       <c r="I118" s="1">
-        <v>-1.1325903906067269</v>
+        <v>-8.8287287789028696E-2</v>
       </c>
       <c r="J118" s="1">
-        <v>-1.577905161115404</v>
+        <v>-1.001801339170503</v>
       </c>
       <c r="K118" s="1">
-        <v>-1.0334094834066021</v>
+        <v>-1.427016842156124</v>
       </c>
       <c r="L118" s="1">
-        <v>-0.33461844727338419</v>
+        <v>-0.13414917145616059</v>
       </c>
       <c r="M118" s="1">
-        <v>-1.52151842437133</v>
+        <v>-0.61527620857544674</v>
       </c>
       <c r="N118" s="1">
-        <v>-0.78730849388602953</v>
+        <v>-0.25642526712659969</v>
       </c>
       <c r="O118" s="1">
-        <v>-1.1612928159877209</v>
+        <v>-1.044048719993222</v>
       </c>
       <c r="P118" s="1">
-        <v>-0.56082475047544078</v>
+        <v>-1.341649431751901</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B119" s="1">
-        <v>-0.38411163054835279</v>
+        <v>-0.62061042482856876</v>
       </c>
       <c r="C119" s="1">
-        <v>-0.67360749970857681</v>
+        <v>-1.7790816999848591</v>
       </c>
       <c r="D119" s="1">
-        <v>-0.64438017158689875</v>
+        <v>-1.8181818375425329</v>
       </c>
       <c r="E119" s="1">
-        <v>-0.90301834359309396</v>
+        <v>-1.9828819745007451</v>
       </c>
       <c r="F119" s="1">
-        <v>-0.75074770017664794</v>
+        <v>-2.1280377435055522</v>
       </c>
       <c r="G119" s="1">
-        <v>-0.41161028858832299</v>
+        <v>-0.65076259995281793</v>
       </c>
       <c r="H119" s="1">
-        <v>-0.72665437774385189</v>
+        <v>-1.824983380144279</v>
       </c>
       <c r="I119" s="1">
-        <v>-0.72262367799773253</v>
+        <v>-1.878161520895139</v>
       </c>
       <c r="J119" s="1">
-        <v>-0.98590315184325283</v>
+        <v>-2.06138006452723</v>
       </c>
       <c r="K119" s="1">
-        <v>-0.84563450621251146</v>
+        <v>-2.2110245417983569</v>
       </c>
       <c r="L119" s="1">
-        <v>-0.2036445133330837</v>
+        <v>-0.1237995346932543</v>
       </c>
       <c r="M119" s="1">
-        <v>-0.3257294350408288</v>
+        <v>-1.3835435331426471</v>
       </c>
       <c r="N119" s="1">
-        <v>-3.71541094832121E-2</v>
+        <v>-1.398038293642127</v>
       </c>
       <c r="O119" s="1">
-        <v>-0.24308797504573759</v>
+        <v>-1.6178810587885071</v>
       </c>
       <c r="P119" s="1">
-        <v>9.8386608552639296E-2</v>
+        <v>-1.763898129882935</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="B120" s="1">
-        <v>-0.28161625834654752</v>
+        <v>-1.7127682933796999</v>
       </c>
       <c r="C120" s="1">
-        <v>-0.38510387725220879</v>
+        <v>-1.5634920730493309</v>
       </c>
       <c r="D120" s="1">
-        <v>-1.0139253516642239</v>
+        <v>-2.7166211994372791</v>
       </c>
       <c r="E120" s="1">
-        <v>-0.98834022849308834</v>
+        <v>-1.802968676520188</v>
       </c>
       <c r="F120" s="1">
-        <v>-0.92901525612982483</v>
+        <v>-2.1904937486196649</v>
       </c>
       <c r="G120" s="1">
-        <v>-0.33386711062369712</v>
+        <v>-1.713175804934997</v>
       </c>
       <c r="H120" s="1">
-        <v>-0.47486415084802241</v>
+        <v>-1.686264903399199</v>
       </c>
       <c r="I120" s="1">
-        <v>-1.122779298258334</v>
+        <v>-2.7064405900193398</v>
       </c>
       <c r="J120" s="1">
-        <v>-1.119137959022632</v>
+        <v>-1.8874926462550521</v>
       </c>
       <c r="K120" s="1">
-        <v>-1.068758927201606</v>
+        <v>-2.0058614642259398</v>
       </c>
       <c r="L120" s="1">
-        <v>-0.13703171176465939</v>
+        <v>7.8029285741328998E-3</v>
       </c>
       <c r="M120" s="1">
-        <v>-6.4511882055473396E-2</v>
+        <v>-0.98639709532592545</v>
       </c>
       <c r="N120" s="1">
-        <v>-0.60141605563597156</v>
+        <v>-1.4210345571861269</v>
       </c>
       <c r="O120" s="1">
-        <v>-0.4700366657715056</v>
+        <v>-0.95808749810459004</v>
       </c>
       <c r="P120" s="1">
-        <v>-0.23207980025762959</v>
+        <v>-1.334359052749245</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B121" s="1">
-        <v>-0.27228946380636021</v>
+        <v>-0.63982995957533628</v>
       </c>
       <c r="C121" s="1">
-        <v>-2.2669917618711302</v>
+        <v>-1.384540859521088</v>
       </c>
       <c r="D121" s="1">
-        <v>-2.4281744550416771</v>
+        <v>-1.6179643291751771</v>
       </c>
       <c r="E121" s="1">
-        <v>-3.274071610571363</v>
+        <v>-1.928440935061956</v>
       </c>
       <c r="F121" s="1">
-        <v>-2.5784574455775999</v>
+        <v>-1.9126932856788541</v>
       </c>
       <c r="G121" s="1">
-        <v>-0.33906930840145327</v>
+        <v>-0.65529840762631042</v>
       </c>
       <c r="H121" s="1">
-        <v>-2.3454669441642499</v>
+        <v>-1.41313685973581</v>
       </c>
       <c r="I121" s="1">
-        <v>-2.503492588249959</v>
+        <v>-1.651255528200984</v>
       </c>
       <c r="J121" s="1">
-        <v>-3.3653495767418962</v>
+        <v>-1.969664623299558</v>
       </c>
       <c r="K121" s="1">
-        <v>-2.6713225605329072</v>
+        <v>-1.9421728612349101</v>
       </c>
       <c r="L121" s="1">
-        <v>-0.48948289018359431</v>
+        <v>1.77780898545233E-2</v>
       </c>
       <c r="M121" s="1">
-        <v>-2.3606386794537202</v>
+        <v>-1.0783836473117721</v>
       </c>
       <c r="N121" s="1">
-        <v>-2.5336594585121128</v>
+        <v>-1.3703162170856169</v>
       </c>
       <c r="O121" s="1">
-        <v>-3.3323456504576798</v>
+        <v>-1.8428650443367141</v>
       </c>
       <c r="P121" s="1">
-        <v>-2.6219471486812802</v>
+        <v>-1.6829764366707469</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B122" s="1">
-        <v>-0.2340099812205782</v>
+        <v>-0.69001485887015845</v>
       </c>
       <c r="C122" s="1">
-        <v>-0.16419149144296361</v>
+        <v>-0.49139089127008112</v>
       </c>
       <c r="D122" s="1">
-        <v>-0.38253664677235028</v>
+        <v>-1.102360751923495</v>
       </c>
       <c r="E122" s="1">
-        <v>-0.86957330446733372</v>
+        <v>-2.0158862628179901</v>
       </c>
       <c r="F122" s="1">
-        <v>-1.8243898874433691</v>
+        <v>-1.6642011810846951</v>
       </c>
       <c r="G122" s="1">
-        <v>-0.25886681138798928</v>
+        <v>-0.70318850157135138</v>
       </c>
       <c r="H122" s="1">
-        <v>-0.21505294847402881</v>
+        <v>-0.50710604891263811</v>
       </c>
       <c r="I122" s="1">
-        <v>-0.44762462153174082</v>
+        <v>-1.119632538804642</v>
       </c>
       <c r="J122" s="1">
-        <v>-0.95045252548476744</v>
+        <v>-2.037313696389019</v>
       </c>
       <c r="K122" s="1">
-        <v>-1.901730846119507</v>
+        <v>-1.6948039518944651</v>
       </c>
       <c r="L122" s="1">
-        <v>0.98105275190940511</v>
+        <v>4.0243036059228098E-2</v>
       </c>
       <c r="M122" s="1">
-        <v>1.825633533545429</v>
+        <v>0.79249319404074658</v>
       </c>
       <c r="N122" s="1">
-        <v>1.934521640588762</v>
+        <v>3.8961019433944297E-2</v>
       </c>
       <c r="O122" s="1">
-        <v>1.0917645065312021</v>
+        <v>-1.075841465882809</v>
       </c>
       <c r="P122" s="1">
-        <v>0.2288790725645207</v>
+        <v>-0.59128203756028053</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B123" s="1">
-        <v>-0.23292816967348531</v>
+        <v>3.2395694455569459</v>
       </c>
       <c r="C123" s="1">
-        <v>-1.4096922214768319</v>
+        <v>1.186505670071857</v>
       </c>
       <c r="D123" s="1">
-        <v>-1.5617914016111429</v>
+        <v>1.538861820067466</v>
       </c>
       <c r="E123" s="1">
-        <v>-1.936375419281452</v>
+        <v>0.8477336941657676</v>
       </c>
       <c r="F123" s="1">
-        <v>-1.537137853757004</v>
+        <v>1.428814133444156</v>
       </c>
       <c r="G123" s="1">
-        <v>-0.2417653961409458</v>
+        <v>0.94695671968672679</v>
       </c>
       <c r="H123" s="1">
-        <v>-1.438124410736062</v>
+        <v>-0.1097540147210192</v>
       </c>
       <c r="I123" s="1">
-        <v>-1.5990038165326721</v>
+        <v>0.18305131200060201</v>
       </c>
       <c r="J123" s="1">
-        <v>-1.981194373433899</v>
+        <v>-0.31790744402875032</v>
       </c>
       <c r="K123" s="1">
-        <v>-1.5800952405663149</v>
+        <v>5.5996321047630401E-2</v>
       </c>
       <c r="L123" s="1">
-        <v>2.423596561992055</v>
+        <v>4.8899992865286797E-2</v>
       </c>
       <c r="M123" s="1">
-        <v>-0.41570342649981812</v>
+        <v>-0.95646094753528632</v>
       </c>
       <c r="N123" s="1">
-        <v>-0.64707242078287341</v>
+        <v>-1.233585631849808</v>
       </c>
       <c r="O123" s="1">
-        <v>-1.0137412425408641</v>
+        <v>-1.4984915593499759</v>
       </c>
       <c r="P123" s="1">
-        <v>-0.61041449069942111</v>
+        <v>-1.758367367900519</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B124" s="1">
-        <v>-0.1819115032606595</v>
+        <v>7.6749029743925695E-2</v>
       </c>
       <c r="C124" s="1">
-        <v>-1.091027711179096</v>
+        <v>-0.88322030139180363</v>
       </c>
       <c r="D124" s="1">
-        <v>-1.11184577880756</v>
+        <v>-1.191219224579759</v>
       </c>
       <c r="E124" s="1">
-        <v>-1.6576334351401629</v>
+        <v>-1.6760634122453451</v>
       </c>
       <c r="F124" s="1">
-        <v>-1.5699699967277509</v>
+        <v>-2.0726187638532041</v>
       </c>
       <c r="G124" s="1">
-        <v>-0.22340681272726781</v>
+        <v>3.2734705361245398E-2</v>
       </c>
       <c r="H124" s="1">
-        <v>-1.1877640350473699</v>
+        <v>-0.94001991961854459</v>
       </c>
       <c r="I124" s="1">
-        <v>-1.2860249444529539</v>
+        <v>-1.254124299175027</v>
       </c>
       <c r="J124" s="1">
-        <v>-1.919985718576197</v>
+        <v>-1.7446903079768159</v>
       </c>
       <c r="K124" s="1">
-        <v>-1.96969912307787</v>
+        <v>-2.1518060722501851</v>
       </c>
       <c r="L124" s="1">
-        <v>-1.5569370575173509</v>
+        <v>0.1237174786738835</v>
       </c>
       <c r="M124" s="1">
-        <v>-1.9134708439400301</v>
+        <v>-0.78469612009012224</v>
       </c>
       <c r="N124" s="1">
-        <v>-1.7067898310314189</v>
+        <v>-1.0723417231417769</v>
       </c>
       <c r="O124" s="1">
-        <v>-1.991400677624112</v>
+        <v>-1.5434161742838159</v>
       </c>
       <c r="P124" s="1">
-        <v>-1.7688676364274849</v>
+        <v>-1.9137816453353931</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="B125" s="1">
-        <v>-0.12700936210017</v>
+        <v>-2.7849253731314878</v>
       </c>
       <c r="C125" s="1">
-        <v>0.55022754339439661</v>
+        <v>-2.1884326148731499</v>
       </c>
       <c r="D125" s="1">
-        <v>0.51029140555776176</v>
+        <v>-2.859215064014883</v>
       </c>
       <c r="E125" s="1">
-        <v>0.70760003005043293</v>
+        <v>-1.765462611114851</v>
       </c>
       <c r="F125" s="1">
-        <v>0.85067060845770481</v>
+        <v>-1.131730164022309</v>
       </c>
       <c r="G125" s="1">
-        <v>-0.20902663204462399</v>
+        <v>-2.699958231690009</v>
       </c>
       <c r="H125" s="1">
-        <v>0.34526226148231509</v>
+        <v>-2.0479048513079152</v>
       </c>
       <c r="I125" s="1">
-        <v>0.1996526362768376</v>
+        <v>-2.4716797085149391</v>
       </c>
       <c r="J125" s="1">
-        <v>0.25608702005016609</v>
+        <v>-1.723702571936339</v>
       </c>
       <c r="K125" s="1">
-        <v>0.34576145007562731</v>
+        <v>-1.1261308242191681</v>
       </c>
       <c r="L125" s="1">
-        <v>-2.1483619993946008</v>
+        <v>0.12954277076300311</v>
       </c>
       <c r="M125" s="1">
-        <v>-1.2221461891084979</v>
+        <v>-0.15259200605865589</v>
       </c>
       <c r="N125" s="1">
-        <v>-1.109413425062993</v>
+        <v>0.1220486354547575</v>
       </c>
       <c r="O125" s="1">
-        <v>-0.77210066417633327</v>
+        <v>-0.1041443686153502</v>
       </c>
       <c r="P125" s="1">
-        <v>-0.75115706345613109</v>
+        <v>1.024979467952438</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B126" s="1">
-        <v>-0.11783373352826899</v>
+        <v>-0.6613951427018544</v>
       </c>
       <c r="C126" s="1">
-        <v>-1.5125962101338359</v>
+        <v>-0.96316745019779448</v>
       </c>
       <c r="D126" s="1">
-        <v>-2.0858403989284322</v>
+        <v>-0.78526577325968361</v>
       </c>
       <c r="E126" s="1">
-        <v>-2.746537505724544</v>
+        <v>-1.307282587349901</v>
       </c>
       <c r="F126" s="1">
-        <v>-2.4294496573345921</v>
+        <v>-1.527227615572833</v>
       </c>
       <c r="G126" s="1">
-        <v>-0.15087531026379331</v>
+        <v>-0.68433356188122063</v>
       </c>
       <c r="H126" s="1">
-        <v>-1.5601072488365351</v>
+        <v>-0.99801277118531273</v>
       </c>
       <c r="I126" s="1">
-        <v>-2.1446652252409661</v>
+        <v>-0.84093262387623247</v>
       </c>
       <c r="J126" s="1">
-        <v>-2.8451523836775259</v>
+        <v>-1.3742662547258631</v>
       </c>
       <c r="K126" s="1">
-        <v>-2.5030944728763451</v>
+        <v>-1.633575710142545</v>
       </c>
       <c r="L126" s="1">
-        <v>-0.4610768656453168</v>
+        <v>0.15367966559683849</v>
       </c>
       <c r="M126" s="1">
-        <v>-1.594844029286562</v>
+        <v>-0.10315267155096911</v>
       </c>
       <c r="N126" s="1">
-        <v>-2.0123042283824999</v>
+        <v>0.18092671818667361</v>
       </c>
       <c r="O126" s="1">
-        <v>-2.5359503637773368</v>
+        <v>-0.32249214307909618</v>
       </c>
       <c r="P126" s="1">
-        <v>-2.1653712263480842</v>
+        <v>-0.68045875434413494</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B127" s="1">
-        <v>-0.1124867695709626</v>
+        <v>0.45185316984994439</v>
       </c>
       <c r="C127" s="1">
-        <v>-0.46558272916535498</v>
+        <v>-1.1488148251971699</v>
       </c>
       <c r="D127" s="1">
-        <v>-0.4432907522413031</v>
+        <v>-0.87736649994099336</v>
       </c>
       <c r="E127" s="1">
-        <v>-0.47166877991953549</v>
+        <v>-1.59537783007066</v>
       </c>
       <c r="F127" s="1">
-        <v>-0.49740609794870788</v>
+        <v>-0.74942656862899359</v>
       </c>
       <c r="G127" s="1">
-        <v>-0.216706104160898</v>
+        <v>0.40785556006684948</v>
       </c>
       <c r="H127" s="1">
-        <v>-0.54617642847752157</v>
+        <v>-1.208692853697368</v>
       </c>
       <c r="I127" s="1">
-        <v>-0.51390274794594559</v>
+        <v>-0.97023912551081026</v>
       </c>
       <c r="J127" s="1">
-        <v>-0.50403309433503241</v>
+        <v>-1.6786412889265749</v>
       </c>
       <c r="K127" s="1">
-        <v>-0.51954698831144386</v>
+        <v>-0.8722030757824446</v>
       </c>
       <c r="L127" s="1">
-        <v>-1.2645911860684509</v>
+        <v>0.1703863194001233</v>
       </c>
       <c r="M127" s="1">
-        <v>-1.9880114306337471</v>
+        <v>-1.140793709095167</v>
       </c>
       <c r="N127" s="1">
-        <v>-1.8710853689366089</v>
+        <v>-0.67663611720046957</v>
       </c>
       <c r="O127" s="1">
-        <v>-1.9657047345188849</v>
+        <v>-1.263224971896451</v>
       </c>
       <c r="P127" s="1">
-        <v>-1.8912119752345999</v>
+        <v>-0.21885524633659281</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="B128" s="1">
-        <v>-7.4809847882705005E-2</v>
+        <v>-1.787568062864622</v>
       </c>
       <c r="C128" s="1">
-        <v>-0.28318110251764678</v>
+        <v>-1.8936632425355731</v>
       </c>
       <c r="D128" s="1">
-        <v>-0.80840221947644697</v>
+        <v>-1.728275926335952</v>
       </c>
       <c r="E128" s="1">
-        <v>-0.52487128718967391</v>
+        <v>-1.577835377894006</v>
       </c>
       <c r="F128" s="1">
-        <v>-7.7260907812927895E-2</v>
+        <v>-1.4979253493193441</v>
       </c>
       <c r="G128" s="1">
-        <v>-0.16791345557649409</v>
+        <v>-1.775913846306366</v>
       </c>
       <c r="H128" s="1">
-        <v>-0.4152948260302356</v>
+        <v>-1.8899599495567161</v>
       </c>
       <c r="I128" s="1">
-        <v>-0.95643161876202165</v>
+        <v>-1.724564813104974</v>
       </c>
       <c r="J128" s="1">
-        <v>-0.63040618299935136</v>
+        <v>-1.569527703001308</v>
       </c>
       <c r="K128" s="1">
-        <v>-0.36175637449415349</v>
+        <v>-1.5071087757543129</v>
       </c>
       <c r="L128" s="1">
-        <v>-1.4998929529565159</v>
+        <v>0.47678760702802792</v>
       </c>
       <c r="M128" s="1">
-        <v>-1.86397951793979</v>
+        <v>-0.9761312670028679</v>
       </c>
       <c r="N128" s="1">
-        <v>-2.365981788306208</v>
+        <v>-0.88065855671221027</v>
       </c>
       <c r="O128" s="1">
-        <v>-4.3033614641270583</v>
+        <v>-0.63408462193277804</v>
       </c>
       <c r="P128" s="1">
-        <v>-2.668839934539565</v>
+        <v>-0.7426901311761398</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="B129" s="1">
-        <v>-2.45069591113239E-2</v>
+        <v>0.70282440290997839</v>
       </c>
       <c r="C129" s="1">
-        <v>-1.1624744566401479</v>
+        <v>-0.5770389383654343</v>
       </c>
       <c r="D129" s="1">
-        <v>-0.50647210615834237</v>
+        <v>-0.86452486099979065</v>
       </c>
       <c r="E129" s="1">
-        <v>-0.96979888470775899</v>
+        <v>-1.5157315704869361</v>
       </c>
       <c r="F129" s="1">
-        <v>-0.83600613563064852</v>
+        <v>-2.0218474145494429</v>
       </c>
       <c r="G129" s="1">
-        <v>-9.1736011464168002E-2</v>
+        <v>0.61669301130432519</v>
       </c>
       <c r="H129" s="1">
-        <v>-1.270716321118414</v>
+        <v>-0.66122406891515961</v>
       </c>
       <c r="I129" s="1">
-        <v>-0.64059367200570139</v>
+        <v>-0.9499946729819968</v>
       </c>
       <c r="J129" s="1">
-        <v>-1.1270585148612939</v>
+        <v>-1.587274212847414</v>
       </c>
       <c r="K129" s="1">
-        <v>-0.98671611648338342</v>
+        <v>-2.0889968453676859</v>
       </c>
       <c r="L129" s="1">
-        <v>1.06234398558962</v>
+        <v>0.50140400183211198</v>
       </c>
       <c r="M129" s="1">
-        <v>-0.32515071361736458</v>
+        <v>-0.62189701173534784</v>
       </c>
       <c r="N129" s="1">
-        <v>0.55418778978545025</v>
+        <v>-0.85098751773380321</v>
       </c>
       <c r="O129" s="1">
-        <v>0.12250887234775711</v>
+        <v>-1.440826116066658</v>
       </c>
       <c r="P129" s="1">
-        <v>0.83661570486024472</v>
+        <v>-1.895550838311221</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B130" s="1">
-        <v>2.8280441432243002E-2</v>
+        <v>-0.97851166843344595</v>
       </c>
       <c r="C130" s="1">
-        <v>-0.68131126257463492</v>
+        <v>-2.0773827306377992</v>
       </c>
       <c r="D130" s="1">
-        <v>-0.62481797380923443</v>
+        <v>-1.6772098684036461</v>
       </c>
       <c r="E130" s="1">
-        <v>-0.76867445310653215</v>
+        <v>-1.6388204683695959</v>
       </c>
       <c r="F130" s="1">
-        <v>-0.83163308105467848</v>
+        <v>-1.6524816564877161</v>
       </c>
       <c r="G130" s="1">
-        <v>1.17752693538397E-2</v>
+        <v>-0.98795326485631463</v>
       </c>
       <c r="H130" s="1">
-        <v>-0.70639064168462351</v>
+        <v>-2.0959564618114248</v>
       </c>
       <c r="I130" s="1">
-        <v>-0.66318410117598414</v>
+        <v>-1.6997249462688639</v>
       </c>
       <c r="J130" s="1">
-        <v>-0.8239966417000264</v>
+        <v>-1.6583570133046071</v>
       </c>
       <c r="K130" s="1">
-        <v>-0.90832719464185963</v>
+        <v>-1.664609099555824</v>
       </c>
       <c r="L130" s="1">
-        <v>-2.6399361697779948</v>
+        <v>0.52347975770368571</v>
       </c>
       <c r="M130" s="1">
-        <v>-2.8661860909549262</v>
+        <v>-1.4670466912278399</v>
       </c>
       <c r="N130" s="1">
-        <v>-2.8101262944433132</v>
+        <v>-0.90360226923199582</v>
       </c>
       <c r="O130" s="1">
-        <v>-2.7804591785606712</v>
+        <v>-0.68702280870365817</v>
       </c>
       <c r="P130" s="1">
-        <v>-2.627554327965484</v>
+        <v>-0.45935249781337112</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B131" s="1">
-        <v>3.48223257194148E-2</v>
+        <v>-0.91486445499008107</v>
       </c>
       <c r="C131" s="1">
-        <v>-0.67062031086842233</v>
+        <v>-1.188984895962262</v>
       </c>
       <c r="D131" s="1">
-        <v>-0.82301364467272375</v>
+        <v>-1.623818286674916</v>
       </c>
       <c r="E131" s="1">
-        <v>-2.4701526868383E-3</v>
+        <v>-1.815028042432504</v>
       </c>
       <c r="F131" s="1">
-        <v>-0.38615718716710878</v>
+        <v>-1.757463318818123</v>
       </c>
       <c r="G131" s="1">
-        <v>-0.22002120518939519</v>
+        <v>-0.91874391782344678</v>
       </c>
       <c r="H131" s="1">
-        <v>-0.81336684924801927</v>
+        <v>-1.1965922526171131</v>
       </c>
       <c r="I131" s="1">
-        <v>-0.92625021188543044</v>
+        <v>-1.636308103007055</v>
       </c>
       <c r="J131" s="1">
-        <v>-6.1430570050408202E-2</v>
+        <v>-1.825841322040884</v>
       </c>
       <c r="K131" s="1">
-        <v>-0.46604546858372559</v>
+        <v>-1.763658316461115</v>
       </c>
       <c r="L131" s="1">
-        <v>-0.29474801153578029</v>
+        <v>0.72383766635053004</v>
       </c>
       <c r="M131" s="1">
-        <v>-1.0355712424699079</v>
+        <v>-0.42124168857258132</v>
       </c>
       <c r="N131" s="1">
-        <v>-1.175604211609383</v>
+        <v>-1.0521428818079179</v>
       </c>
       <c r="O131" s="1">
-        <v>-0.37958518884539388</v>
+        <v>-1.05403689147026</v>
       </c>
       <c r="P131" s="1">
-        <v>-0.66416611411020554</v>
+        <v>-0.88494935017846899</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B132" s="1">
-        <v>4.0572082952265803E-2</v>
+        <v>-1.2177870861509901</v>
       </c>
       <c r="C132" s="1">
-        <v>-0.99345392543624056</v>
+        <v>-1.0901844241829961</v>
       </c>
       <c r="D132" s="1">
-        <v>-1.1547552896835049</v>
+        <v>-1.168182312498379</v>
       </c>
       <c r="E132" s="1">
-        <v>-1.005646789601</v>
+        <v>-1.5892111978347581</v>
       </c>
       <c r="F132" s="1">
-        <v>-0.91521802571544086</v>
+        <v>-1.858436871162418</v>
       </c>
       <c r="G132" s="1">
-        <v>-1.0084144965083999E-3</v>
+        <v>-1.215032066854562</v>
       </c>
       <c r="H132" s="1">
-        <v>-1.0786887398961851</v>
+        <v>-1.1008497674827551</v>
       </c>
       <c r="I132" s="1">
-        <v>-1.2731446887370439</v>
+        <v>-1.204790465836143</v>
       </c>
       <c r="J132" s="1">
-        <v>-1.2845636468196151</v>
+        <v>-1.674464705550244</v>
       </c>
       <c r="K132" s="1">
-        <v>-1.2924735486354171</v>
+        <v>-1.9746657638730889</v>
       </c>
       <c r="L132" s="1">
-        <v>2.3399548382403261</v>
+        <v>0.84084819189750559</v>
       </c>
       <c r="M132" s="1">
-        <v>0.72244741033573756</v>
+        <v>0.38368653134556591</v>
       </c>
       <c r="N132" s="1">
-        <v>0.71896803010604615</v>
+        <v>0.12647425324793979</v>
       </c>
       <c r="O132" s="1">
-        <v>4.58757394345801E-2</v>
+        <v>-0.56673424448604037</v>
       </c>
       <c r="P132" s="1">
-        <v>-0.31534991924995559</v>
+        <v>-0.85580129225960189</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B133" s="1">
-        <v>5.3496541667385801E-2</v>
+        <v>-0.81204816976902361</v>
       </c>
       <c r="C133" s="1">
-        <v>-1.135740644177885</v>
+        <v>-1.410333833214928</v>
       </c>
       <c r="D133" s="1">
-        <v>-0.91092644584042826</v>
+        <v>-1.4035784077647999</v>
       </c>
       <c r="E133" s="1">
-        <v>-1.203872011373597</v>
+        <v>-1.476326749742275</v>
       </c>
       <c r="F133" s="1">
-        <v>-1.4988753988853141</v>
+        <v>-1.56042493095202</v>
       </c>
       <c r="G133" s="1">
-        <v>3.1986681087267002E-2</v>
+        <v>-0.82122914357598409</v>
       </c>
       <c r="H133" s="1">
-        <v>-1.173415887004186</v>
+        <v>-1.431672249603319</v>
       </c>
       <c r="I133" s="1">
-        <v>-0.95948928075753215</v>
+        <v>-1.426040324825397</v>
       </c>
       <c r="J133" s="1">
-        <v>-1.266791369423832</v>
+        <v>-1.510862029716979</v>
       </c>
       <c r="K133" s="1">
-        <v>-1.599096859947938</v>
+        <v>-1.5788469923799131</v>
       </c>
       <c r="L133" s="1">
-        <v>2.3635957654564699</v>
+        <v>0.84328192010290159</v>
       </c>
       <c r="M133" s="1">
-        <v>0.15620509686817349</v>
+        <v>-0.33096475711243772</v>
       </c>
       <c r="N133" s="1">
-        <v>0.791639400982456</v>
+        <v>-0.14940036859138309</v>
       </c>
       <c r="O133" s="1">
-        <v>0.33726212113960591</v>
+        <v>-0.3024980053441233</v>
       </c>
       <c r="P133" s="1">
-        <v>-0.47374402458577131</v>
+        <v>-0.16149876101614891</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="B134" s="1">
-        <v>7.5226417018104799E-2</v>
+        <v>0.50740392664618106</v>
       </c>
       <c r="C134" s="1">
-        <v>0.46452659083169828</v>
+        <v>-1.72441296486577</v>
       </c>
       <c r="D134" s="1">
-        <v>4.9066201154519998E-2</v>
+        <v>-1.5937439680123091</v>
       </c>
       <c r="E134" s="1">
-        <v>0.56214674803582332</v>
+        <v>-1.7860411511212131</v>
       </c>
       <c r="F134" s="1">
-        <v>0.82404765749445619</v>
+        <v>-1.409655545525681</v>
       </c>
       <c r="G134" s="1">
-        <v>-0.1172985674627936</v>
+        <v>0.48087452935756098</v>
       </c>
       <c r="H134" s="1">
-        <v>1.19164756833547E-2</v>
+        <v>-1.784810838546399</v>
       </c>
       <c r="I134" s="1">
-        <v>-0.46479738264193038</v>
+        <v>-1.6788626291993769</v>
       </c>
       <c r="J134" s="1">
-        <v>-0.1718034409799255</v>
+        <v>-1.910760840422554</v>
       </c>
       <c r="K134" s="1">
-        <v>-0.17047114547948131</v>
+        <v>-1.5613863085365951</v>
       </c>
       <c r="L134" s="1">
-        <v>-1.1101791459605199</v>
+        <v>0.93445601461142302</v>
       </c>
       <c r="M134" s="1">
-        <v>-0.76742404682901644</v>
+        <v>-1.416726924425751</v>
       </c>
       <c r="N134" s="1">
-        <v>-1.1477882712587011</v>
+        <v>-1.2189749158850181</v>
       </c>
       <c r="O134" s="1">
-        <v>-0.74112701429268502</v>
+        <v>-1.4235942512859301</v>
       </c>
       <c r="P134" s="1">
-        <v>-0.38894723903810141</v>
+        <v>-0.95695211737659636</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="B135" s="1">
-        <v>7.6749029743925695E-2</v>
+        <v>-0.75742544000336887</v>
       </c>
       <c r="C135" s="1">
-        <v>-0.88322030139180363</v>
+        <v>-0.94742675086313966</v>
       </c>
       <c r="D135" s="1">
-        <v>-1.191219224579759</v>
+        <v>-0.93537248723025479</v>
       </c>
       <c r="E135" s="1">
-        <v>-1.6760634122453451</v>
+        <v>-0.63292612016244909</v>
       </c>
       <c r="F135" s="1">
-        <v>-2.0726187638532041</v>
+        <v>-0.60663348864055933</v>
       </c>
       <c r="G135" s="1">
-        <v>3.2734705361245398E-2</v>
+        <v>-0.76542129095960287</v>
       </c>
       <c r="H135" s="1">
-        <v>-0.94001991961854459</v>
+        <v>-0.98408432665402057</v>
       </c>
       <c r="I135" s="1">
-        <v>-1.254124299175027</v>
+        <v>-1.009835000688341</v>
       </c>
       <c r="J135" s="1">
-        <v>-1.7446903079768159</v>
+        <v>-0.77308723327512552</v>
       </c>
       <c r="K135" s="1">
-        <v>-2.1518060722501851</v>
+        <v>-0.76983777480884308</v>
       </c>
       <c r="L135" s="1">
-        <v>0.1237174786738835</v>
+        <v>0.93520370500280769</v>
       </c>
       <c r="M135" s="1">
-        <v>-0.78469612009012224</v>
+        <v>0.27689805128508033</v>
       </c>
       <c r="N135" s="1">
-        <v>-1.0723417231417769</v>
+        <v>0.23152103021176901</v>
       </c>
       <c r="O135" s="1">
-        <v>-1.5434161742838159</v>
+        <v>0.53383120170143861</v>
       </c>
       <c r="P135" s="1">
-        <v>-1.9137816453353931</v>
+        <v>0.8611160047361478</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B136" s="1">
-        <v>0.20568663526027059</v>
+        <v>-2.4695773038081068</v>
       </c>
       <c r="C136" s="1">
-        <v>-0.49863517593183648</v>
+        <v>-2.075556903282386</v>
       </c>
       <c r="D136" s="1">
-        <v>-0.39426121730494329</v>
+        <v>-2.1372483323420268</v>
       </c>
       <c r="E136" s="1">
-        <v>-0.64315082073006469</v>
+        <v>-2.1447312522184458</v>
       </c>
       <c r="F136" s="1">
-        <v>-0.63873735138177867</v>
+        <v>-2.0202904413701841</v>
       </c>
       <c r="G136" s="1">
-        <v>2.3171678897392401E-2</v>
+        <v>-2.3847611725607591</v>
       </c>
       <c r="H136" s="1">
-        <v>-0.77093449533511604</v>
+        <v>-1.9071710057666349</v>
       </c>
       <c r="I136" s="1">
-        <v>-0.55426390438525908</v>
+        <v>-1.8825056860933049</v>
       </c>
       <c r="J136" s="1">
-        <v>-0.70292465202319465</v>
+        <v>-1.8437489918171539</v>
       </c>
       <c r="K136" s="1">
-        <v>-0.61597625929028454</v>
+        <v>-1.7124975559339619</v>
       </c>
       <c r="L136" s="1">
-        <v>-1.721071379269749</v>
+        <v>0.9451601589150177</v>
       </c>
       <c r="M136" s="1">
-        <v>-1.70857750311457</v>
+        <v>0.22793692793578249</v>
       </c>
       <c r="N136" s="1">
-        <v>-1.662159151564244</v>
+        <v>0.70292648199011531</v>
       </c>
       <c r="O136" s="1">
-        <v>-2.0680965825858642</v>
+        <v>0.7676695313799794</v>
       </c>
       <c r="P136" s="1">
-        <v>-2.5501156185614779</v>
+        <v>0.91991679074547639</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B137" s="1">
-        <v>0.24438603505839279</v>
+        <v>-0.2340099812205782</v>
       </c>
       <c r="C137" s="1">
-        <v>-0.47071867777749188</v>
+        <v>-0.16419149144296361</v>
       </c>
       <c r="D137" s="1">
-        <v>3.3535030833844799E-2</v>
+        <v>-0.38253664677235028</v>
       </c>
       <c r="E137" s="1">
-        <v>-0.88184391654646943</v>
+        <v>-0.86957330446733372</v>
       </c>
       <c r="F137" s="1">
-        <v>-1.2682791355081391</v>
+        <v>-1.8243898874433691</v>
       </c>
       <c r="G137" s="1">
-        <v>0.157820332388107</v>
+        <v>-0.25886681138798928</v>
       </c>
       <c r="H137" s="1">
-        <v>-0.6617628446480035</v>
+        <v>-0.21505294847402881</v>
       </c>
       <c r="I137" s="1">
-        <v>-8.8287287789028696E-2</v>
+        <v>-0.44762462153174082</v>
       </c>
       <c r="J137" s="1">
-        <v>-1.001801339170503</v>
+        <v>-0.95045252548476744</v>
       </c>
       <c r="K137" s="1">
-        <v>-1.427016842156124</v>
+        <v>-1.901730846119507</v>
       </c>
       <c r="L137" s="1">
-        <v>-0.13414917145616059</v>
+        <v>0.98105275190940511</v>
       </c>
       <c r="M137" s="1">
-        <v>-0.61527620857544674</v>
+        <v>1.825633533545429</v>
       </c>
       <c r="N137" s="1">
-        <v>-0.25642526712659969</v>
+        <v>1.934521640588762</v>
       </c>
       <c r="O137" s="1">
-        <v>-1.044048719993222</v>
+        <v>1.0917645065312021</v>
       </c>
       <c r="P137" s="1">
-        <v>-1.341649431751901</v>
+        <v>0.2288790725645207</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B138" s="1">
-        <v>0.34558336517471422</v>
+        <v>-2.1129843496659939</v>
       </c>
       <c r="C138" s="1">
-        <v>-0.66811901654318395</v>
+        <v>-1.9762843902470799</v>
       </c>
       <c r="D138" s="1">
-        <v>-0.79096534319224776</v>
+        <v>-2.0541530602357829</v>
       </c>
       <c r="E138" s="1">
-        <v>-1.112477184786957</v>
+        <v>-1.8611059079846519</v>
       </c>
       <c r="F138" s="1">
-        <v>-1.6322891224051641</v>
+        <v>-1.9309028414985421</v>
       </c>
       <c r="G138" s="1">
-        <v>0.30259936511744578</v>
+        <v>-2.081595172287249</v>
       </c>
       <c r="H138" s="1">
-        <v>-0.7246101912222922</v>
+        <v>-1.9169524367700479</v>
       </c>
       <c r="I138" s="1">
-        <v>-0.84242737701638226</v>
+        <v>-1.9418662224741541</v>
       </c>
       <c r="J138" s="1">
-        <v>-1.2282610573252859</v>
+        <v>-1.726742224201298</v>
       </c>
       <c r="K138" s="1">
-        <v>-1.6511846199430149</v>
+        <v>-1.7521728054693599</v>
       </c>
       <c r="L138" s="1">
-        <v>-0.19610910625683431</v>
+        <v>1.0466878065933469</v>
       </c>
       <c r="M138" s="1">
-        <v>-0.94010930392864367</v>
+        <v>-9.6607426964856802E-2</v>
       </c>
       <c r="N138" s="1">
-        <v>-1.119099117591893</v>
+        <v>0.45344672683404802</v>
       </c>
       <c r="O138" s="1">
-        <v>-1.282091839796746</v>
+        <v>0.77685500844144395</v>
       </c>
       <c r="P138" s="1">
-        <v>-2.245417826980983</v>
+        <v>1.2416607424847179</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="B139" s="1">
-        <v>0.45185316984994439</v>
+        <v>-2.45069591113239E-2</v>
       </c>
       <c r="C139" s="1">
-        <v>-1.1488148251971699</v>
+        <v>-1.1624744566401479</v>
       </c>
       <c r="D139" s="1">
-        <v>-0.87736649994099336</v>
+        <v>-0.50647210615834237</v>
       </c>
       <c r="E139" s="1">
-        <v>-1.59537783007066</v>
+        <v>-0.96979888470775899</v>
       </c>
       <c r="F139" s="1">
-        <v>-0.74942656862899359</v>
+        <v>-0.83600613563064852</v>
       </c>
       <c r="G139" s="1">
-        <v>0.40785556006684948</v>
+        <v>-9.1736011464168002E-2</v>
       </c>
       <c r="H139" s="1">
-        <v>-1.208692853697368</v>
+        <v>-1.270716321118414</v>
       </c>
       <c r="I139" s="1">
-        <v>-0.97023912551081026</v>
+        <v>-0.64059367200570139</v>
       </c>
       <c r="J139" s="1">
-        <v>-1.6786412889265749</v>
+        <v>-1.1270585148612939</v>
       </c>
       <c r="K139" s="1">
-        <v>-0.8722030757824446</v>
+        <v>-0.98671611648338342</v>
       </c>
       <c r="L139" s="1">
-        <v>0.1703863194001233</v>
+        <v>1.06234398558962</v>
       </c>
       <c r="M139" s="1">
-        <v>-1.140793709095167</v>
+        <v>-0.32515071361736458</v>
       </c>
       <c r="N139" s="1">
-        <v>-0.67663611720046957</v>
+        <v>0.55418778978545025</v>
       </c>
       <c r="O139" s="1">
-        <v>-1.263224971896451</v>
+        <v>0.12250887234775711</v>
       </c>
       <c r="P139" s="1">
-        <v>-0.21885524633659281</v>
+        <v>0.83661570486024472</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="B140" s="1">
-        <v>0.46753072328644552</v>
+        <v>2.629659579546431</v>
       </c>
       <c r="C140" s="1">
-        <v>-0.39238174591548952</v>
+        <v>2.7191825797711471</v>
       </c>
       <c r="D140" s="1">
-        <v>-0.4107277500576233</v>
+        <v>3.2678775914513718</v>
       </c>
       <c r="E140" s="1">
-        <v>-0.81497957883953276</v>
+        <v>3.707424060533727</v>
       </c>
       <c r="F140" s="1">
-        <v>-1.714680349349909</v>
+        <v>2.2259410086416249</v>
       </c>
       <c r="G140" s="1">
-        <v>0.35362141399767139</v>
+        <v>1.651202337675334</v>
       </c>
       <c r="H140" s="1">
-        <v>-0.64233742877259281</v>
+        <v>1.456455095457593</v>
       </c>
       <c r="I140" s="1">
-        <v>-0.72506021884454164</v>
+        <v>1.3786397289691239</v>
       </c>
       <c r="J140" s="1">
-        <v>-1.175681177413622</v>
+        <v>1.444968912441672</v>
       </c>
       <c r="K140" s="1">
-        <v>-1.846686618405301</v>
+        <v>1.783135617738772</v>
       </c>
       <c r="L140" s="1">
-        <v>-0.48114466752640578</v>
+        <v>1.324265498817168</v>
       </c>
       <c r="M140" s="1">
-        <v>-0.65077912599267007</v>
+        <v>1.6578965208234639</v>
       </c>
       <c r="N140" s="1">
-        <v>-0.42766795791789092</v>
+        <v>2.788596678789137</v>
       </c>
       <c r="O140" s="1">
-        <v>-0.59608610791073513</v>
+        <v>5.1311197658857974</v>
       </c>
       <c r="P140" s="1">
-        <v>-1.326425245436901</v>
+        <v>0.82417568100075278</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B141" s="1">
-        <v>0.50740392664618106</v>
+        <v>-2.6596289998311411</v>
       </c>
       <c r="C141" s="1">
-        <v>-1.72441296486577</v>
+        <v>-4.6002777689998702</v>
       </c>
       <c r="D141" s="1">
-        <v>-1.5937439680123091</v>
+        <v>-3.0284719499577721</v>
       </c>
       <c r="E141" s="1">
-        <v>-1.7860411511212131</v>
+        <v>-0.98693397961087082</v>
       </c>
       <c r="F141" s="1">
-        <v>-1.409655545525681</v>
+        <v>-0.46406402094147647</v>
       </c>
       <c r="G141" s="1">
-        <v>0.48087452935756098</v>
+        <v>-2.552019773646343</v>
       </c>
       <c r="H141" s="1">
-        <v>-1.784810838546399</v>
+        <v>-4.5639051210764814</v>
       </c>
       <c r="I141" s="1">
-        <v>-1.6788626291993769</v>
+        <v>-3.174450241118846</v>
       </c>
       <c r="J141" s="1">
-        <v>-1.910760840422554</v>
+        <v>-1.4807829324470649</v>
       </c>
       <c r="K141" s="1">
-        <v>-1.5613863085365951</v>
+        <v>-1.0108533197763301</v>
       </c>
       <c r="L141" s="1">
-        <v>0.93445601461142302</v>
+        <v>1.410645231465961</v>
       </c>
       <c r="M141" s="1">
-        <v>-1.416726924425751</v>
+        <v>-1.541942197142617</v>
       </c>
       <c r="N141" s="1">
-        <v>-1.2189749158850181</v>
+        <v>-1.9818341412475109</v>
       </c>
       <c r="O141" s="1">
-        <v>-1.4235942512859301</v>
+        <v>-0.90956123896998142</v>
       </c>
       <c r="P141" s="1">
-        <v>-0.95695211737659636</v>
+        <v>-0.77800031766821909</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="B142" s="1">
-        <v>0.53209692448544688</v>
+        <v>-3.8673313455753289</v>
       </c>
       <c r="C142" s="1">
-        <v>-1.150394728542554</v>
+        <v>-2.274000068011905</v>
       </c>
       <c r="D142" s="1">
-        <v>-1.254958963397391</v>
+        <v>-2.4148233000882371</v>
       </c>
       <c r="E142" s="1">
-        <v>-1.708702346143921</v>
+        <v>-2.1013909333511691</v>
       </c>
       <c r="F142" s="1">
-        <v>-1.535794238777149</v>
+        <v>-2.2961732881105452</v>
       </c>
       <c r="G142" s="1">
-        <v>0.50548667096072886</v>
+        <v>-3.0347407014045831</v>
       </c>
       <c r="H142" s="1">
-        <v>-1.2418594266632139</v>
+        <v>-1.6743397388870249</v>
       </c>
       <c r="I142" s="1">
-        <v>-1.333027986384816</v>
+        <v>-1.833804566037212</v>
       </c>
       <c r="J142" s="1">
-        <v>-1.7927945569543271</v>
+        <v>-1.572169143795177</v>
       </c>
       <c r="K142" s="1">
-        <v>-1.586369902284708</v>
+        <v>-1.700870677743747</v>
       </c>
       <c r="L142" s="1">
-        <v>5.0270865823166551</v>
+        <v>1.814407350731736</v>
       </c>
       <c r="M142" s="1">
-        <v>-0.393865613940726</v>
+        <v>1.0035528657110101E-2</v>
       </c>
       <c r="N142" s="1">
-        <v>-0.31296051794669838</v>
+        <v>-0.40719461563317522</v>
       </c>
       <c r="O142" s="1">
-        <v>-1.2163907268279111</v>
+        <v>-0.37418855641720961</v>
       </c>
       <c r="P142" s="1">
-        <v>-0.65922000075389309</v>
+        <v>-0.38136329086674159</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B143" s="1">
-        <v>0.70282440290997839</v>
+        <v>-1.2280311960597441</v>
       </c>
       <c r="C143" s="1">
-        <v>-0.5770389383654343</v>
+        <v>-1.337586858025938</v>
       </c>
       <c r="D143" s="1">
-        <v>-0.86452486099979065</v>
+        <v>-1.436740103999284</v>
       </c>
       <c r="E143" s="1">
-        <v>-1.5157315704869361</v>
+        <v>-1.2197974641233491</v>
       </c>
       <c r="F143" s="1">
-        <v>-2.0218474145494429</v>
+        <v>-1.958571009451112</v>
       </c>
       <c r="G143" s="1">
-        <v>0.61669301130432519</v>
+        <v>-1.2273901902590021</v>
       </c>
       <c r="H143" s="1">
-        <v>-0.66122406891515961</v>
+        <v>-1.3330512688187841</v>
       </c>
       <c r="I143" s="1">
-        <v>-0.9499946729819968</v>
+        <v>-1.4344952176814381</v>
       </c>
       <c r="J143" s="1">
-        <v>-1.587274212847414</v>
+        <v>-1.2633036913529949</v>
       </c>
       <c r="K143" s="1">
-        <v>-2.0889968453676859</v>
+        <v>-2.0101837843667019</v>
       </c>
       <c r="L143" s="1">
-        <v>0.50140400183211198</v>
+        <v>2.2694009221221019</v>
       </c>
       <c r="M143" s="1">
-        <v>-0.62189701173534784</v>
+        <v>1.883486702225547</v>
       </c>
       <c r="N143" s="1">
-        <v>-0.85098751773380321</v>
+        <v>1.9182407949206459</v>
       </c>
       <c r="O143" s="1">
-        <v>-1.440826116066658</v>
+        <v>1.600715388311883</v>
       </c>
       <c r="P143" s="1">
-        <v>-1.895550838311221</v>
+        <v>1.3911201913560181</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="B144" s="1">
-        <v>0.74125470317426723</v>
+        <v>4.0572082952265803E-2</v>
       </c>
       <c r="C144" s="1">
-        <v>5.0881037301926613</v>
+        <v>-0.99345392543624056</v>
       </c>
       <c r="D144" s="1">
-        <v>4.3151638845854041</v>
+        <v>-1.1547552896835049</v>
       </c>
       <c r="E144" s="1">
-        <v>-8.30062761449602E-2</v>
+        <v>-1.005646789601</v>
       </c>
       <c r="F144" s="1">
-        <v>1.078545215844497</v>
+        <v>-0.91521802571544086</v>
       </c>
       <c r="G144" s="1">
-        <v>0.15543584534209401</v>
+        <v>-1.0084144965083999E-3</v>
       </c>
       <c r="H144" s="1">
-        <v>2.918534664016462</v>
+        <v>-1.0786887398961851</v>
       </c>
       <c r="I144" s="1">
-        <v>0.77270800760226999</v>
+        <v>-1.2731446887370439</v>
       </c>
       <c r="J144" s="1">
-        <v>-1.3085461145657731</v>
+        <v>-1.2845636468196151</v>
       </c>
       <c r="K144" s="1">
-        <v>-0.55468399384874301</v>
+        <v>-1.2924735486354171</v>
       </c>
       <c r="L144" s="1">
-        <v>-0.32133763453156028</v>
+        <v>2.3399548382403261</v>
       </c>
       <c r="M144" s="1">
-        <v>-1.673077684325365</v>
+        <v>0.72244741033573756</v>
       </c>
       <c r="N144" s="1">
-        <v>-0.76407493466297738</v>
+        <v>0.71896803010604615</v>
       </c>
       <c r="O144" s="1">
-        <v>-2.1851556514611912</v>
+        <v>4.58757394345801E-2</v>
       </c>
       <c r="P144" s="1">
-        <v>-1.452025698477593</v>
+        <v>-0.31534991924995559</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B145" s="1">
-        <v>0.86313583460101673</v>
+        <v>5.3496541667385801E-2</v>
       </c>
       <c r="C145" s="1">
-        <v>0.15862017846646401</v>
+        <v>-1.135740644177885</v>
       </c>
       <c r="D145" s="1">
-        <v>-0.43389904998461731</v>
+        <v>-0.91092644584042826</v>
       </c>
       <c r="E145" s="1">
-        <v>-0.27620818398610902</v>
+        <v>-1.203872011373597</v>
       </c>
       <c r="F145" s="1">
-        <v>-0.1128312171137377</v>
+        <v>-1.4988753988853141</v>
       </c>
       <c r="G145" s="1">
-        <v>0.46420264910093201</v>
+        <v>3.1986681087267002E-2</v>
       </c>
       <c r="H145" s="1">
-        <v>-0.19157602928563219</v>
+        <v>-1.173415887004186</v>
       </c>
       <c r="I145" s="1">
-        <v>-0.80111328338067056</v>
+        <v>-0.95948928075753215</v>
       </c>
       <c r="J145" s="1">
-        <v>-0.53263584373794992</v>
+        <v>-1.266791369423832</v>
       </c>
       <c r="K145" s="1">
-        <v>-0.32979620764743522</v>
+        <v>-1.599096859947938</v>
       </c>
       <c r="L145" s="1">
-        <v>-0.35965357546649318</v>
+        <v>2.3635957654564699</v>
       </c>
       <c r="M145" s="1">
-        <v>-1.124815715737834</v>
+        <v>0.15620509686817349</v>
       </c>
       <c r="N145" s="1">
-        <v>-1.463652613215195</v>
+        <v>0.791639400982456</v>
       </c>
       <c r="O145" s="1">
-        <v>-1.418892730742596</v>
+        <v>0.33726212113960591</v>
       </c>
       <c r="P145" s="1">
-        <v>-1.319541340971879</v>
+        <v>-0.47374402458577131</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B146" s="1">
-        <v>1.0418311551581281</v>
+        <v>-0.23292816967348531</v>
       </c>
       <c r="C146" s="1">
-        <v>1.1047914539659629</v>
+        <v>-1.4096922214768319</v>
       </c>
       <c r="D146" s="1">
-        <v>1.2643024652649</v>
+        <v>-1.5617914016111429</v>
       </c>
       <c r="E146" s="1">
-        <v>0.73774060989256929</v>
+        <v>-1.936375419281452</v>
       </c>
       <c r="F146" s="1">
-        <v>0.56783731239375679</v>
+        <v>-1.537137853757004</v>
       </c>
       <c r="G146" s="1">
-        <v>0.61523243710825315</v>
+        <v>-0.2417653961409458</v>
       </c>
       <c r="H146" s="1">
-        <v>0.27450782760691272</v>
+        <v>-1.438124410736062</v>
       </c>
       <c r="I146" s="1">
-        <v>8.7425641487687E-3</v>
+        <v>-1.5990038165326721</v>
       </c>
       <c r="J146" s="1">
-        <v>-0.3235354644247419</v>
+        <v>-1.981194373433899</v>
       </c>
       <c r="K146" s="1">
-        <v>-0.5374919058089791</v>
+        <v>-1.5800952405663149</v>
       </c>
       <c r="L146" s="1">
-        <v>-3.0047403699116022</v>
+        <v>2.423596561992055</v>
       </c>
       <c r="M146" s="1">
-        <v>-3.477504540396994</v>
+        <v>-0.41570342649981812</v>
       </c>
       <c r="N146" s="1">
-        <v>-3.4884296695168859</v>
+        <v>-0.64707242078287341</v>
       </c>
       <c r="O146" s="1">
-        <v>-3.7613246451760829</v>
+        <v>-1.0137412425408641</v>
       </c>
       <c r="P146" s="1">
-        <v>-3.6502349830032959</v>
+        <v>-0.61041449069942111</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B147" s="1">
-        <v>2.629659579546431</v>
+        <v>3.5382560068348532</v>
       </c>
       <c r="C147" s="1">
-        <v>2.7191825797711471</v>
+        <v>2.1494985071806072</v>
       </c>
       <c r="D147" s="1">
-        <v>3.2678775914513718</v>
+        <v>0.72839358335281845</v>
       </c>
       <c r="E147" s="1">
-        <v>3.707424060533727</v>
+        <v>0.62432386664525674</v>
       </c>
       <c r="F147" s="1">
-        <v>2.2259410086416249</v>
+        <v>4.6412728360211926</v>
       </c>
       <c r="G147" s="1">
-        <v>1.651202337675334</v>
+        <v>0.57161603808305805</v>
       </c>
       <c r="H147" s="1">
-        <v>1.456455095457593</v>
+        <v>1.5029955677926059</v>
       </c>
       <c r="I147" s="1">
-        <v>1.3786397289691239</v>
+        <v>1.702252580276411</v>
       </c>
       <c r="J147" s="1">
-        <v>1.444968912441672</v>
+        <v>2.7821276465632239</v>
       </c>
       <c r="K147" s="1">
-        <v>1.783135617738772</v>
+        <v>4.2972772280404206</v>
       </c>
       <c r="L147" s="1">
-        <v>1.324265498817168</v>
+        <v>2.6668156570131512</v>
       </c>
       <c r="M147" s="1">
-        <v>1.6578965208234639</v>
+        <v>4.2959319831669784</v>
       </c>
       <c r="N147" s="1">
-        <v>2.788596678789137</v>
+        <v>4.0632002080767542</v>
       </c>
       <c r="O147" s="1">
-        <v>5.1311197658857974</v>
+        <v>2.2443059467447259</v>
       </c>
       <c r="P147" s="1">
-        <v>0.82417568100075278</v>
+        <v>-1.0164397008472399</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B148" s="1">
-        <v>2.7455570923549741</v>
+        <v>-0.77693756196437302</v>
       </c>
       <c r="C148" s="1">
-        <v>-4.1319191048719723</v>
+        <v>-0.81570800361929685</v>
       </c>
       <c r="D148" s="1">
-        <v>-2.8417026925227762</v>
+        <v>-0.74828637936149078</v>
       </c>
       <c r="E148" s="1">
-        <v>-2.076548025358345</v>
+        <v>-0.98118944500052474</v>
       </c>
       <c r="F148" s="1">
-        <v>-1.884053831497787</v>
+        <v>-1.2780298448630369</v>
       </c>
       <c r="G148" s="1">
-        <v>2.2099366130102629</v>
+        <v>-0.77982259073321958</v>
       </c>
       <c r="H148" s="1">
-        <v>-5.0166868976599019</v>
+        <v>-0.84323354334692913</v>
       </c>
       <c r="I148" s="1">
-        <v>-2.6297863714486209</v>
+        <v>-0.80821903873758671</v>
       </c>
       <c r="J148" s="1">
-        <v>-1.8677729205257121</v>
+        <v>-1.089270084110078</v>
       </c>
       <c r="K148" s="1">
-        <v>-1.688839046648388</v>
+        <v>-1.425251506728906</v>
       </c>
       <c r="L148" s="1">
-        <v>9.1519511386795234</v>
+        <v>4.1925211233299233</v>
       </c>
       <c r="M148" s="1">
-        <v>-2.4021341885927279</v>
+        <v>2.7924230325181032</v>
       </c>
       <c r="N148" s="1">
-        <v>-0.64466960104055127</v>
+        <v>2.8667743477852849</v>
       </c>
       <c r="O148" s="1">
-        <v>-0.17141680657676231</v>
+        <v>2.3904206948063029</v>
       </c>
       <c r="P148" s="1">
-        <v>-0.13984986080173309</v>
+        <v>2.2651961561296772</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="B149" s="1">
-        <v>3.2395694455569459</v>
+        <v>0.53209692448544688</v>
       </c>
       <c r="C149" s="1">
-        <v>1.186505670071857</v>
+        <v>-1.150394728542554</v>
       </c>
       <c r="D149" s="1">
-        <v>1.538861820067466</v>
+        <v>-1.254958963397391</v>
       </c>
       <c r="E149" s="1">
-        <v>0.8477336941657676</v>
+        <v>-1.708702346143921</v>
       </c>
       <c r="F149" s="1">
-        <v>1.428814133444156</v>
+        <v>-1.535794238777149</v>
       </c>
       <c r="G149" s="1">
-        <v>0.94695671968672679</v>
+        <v>0.50548667096072886</v>
       </c>
       <c r="H149" s="1">
-        <v>-0.1097540147210192</v>
+        <v>-1.2418594266632139</v>
       </c>
       <c r="I149" s="1">
-        <v>0.18305131200060201</v>
+        <v>-1.333027986384816</v>
       </c>
       <c r="J149" s="1">
-        <v>-0.31790744402875032</v>
+        <v>-1.7927945569543271</v>
       </c>
       <c r="K149" s="1">
-        <v>5.5996321047630401E-2</v>
+        <v>-1.586369902284708</v>
       </c>
       <c r="L149" s="1">
-        <v>4.8899992865286797E-2</v>
+        <v>5.0270865823166551</v>
       </c>
       <c r="M149" s="1">
-        <v>-0.95646094753528632</v>
+        <v>-0.393865613940726</v>
       </c>
       <c r="N149" s="1">
-        <v>-1.233585631849808</v>
+        <v>-0.31296051794669838</v>
       </c>
       <c r="O149" s="1">
-        <v>-1.4984915593499759</v>
+        <v>-1.2163907268279111</v>
       </c>
       <c r="P149" s="1">
-        <v>-1.758367367900519</v>
+        <v>-0.65922000075389309</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B150" s="1">
-        <v>3.5382560068348532</v>
+        <v>2.7455570923549741</v>
       </c>
       <c r="C150" s="1">
-        <v>2.1494985071806072</v>
+        <v>-4.1319191048719723</v>
       </c>
       <c r="D150" s="1">
-        <v>0.72839358335281845</v>
+        <v>-2.8417026925227762</v>
       </c>
       <c r="E150" s="1">
-        <v>0.62432386664525674</v>
+        <v>-2.076548025358345</v>
       </c>
       <c r="F150" s="1">
-        <v>4.6412728360211926</v>
+        <v>-1.884053831497787</v>
       </c>
       <c r="G150" s="1">
-        <v>0.57161603808305805</v>
+        <v>2.2099366130102629</v>
       </c>
       <c r="H150" s="1">
-        <v>1.5029955677926059</v>
+        <v>-5.0166868976599019</v>
       </c>
       <c r="I150" s="1">
-        <v>1.702252580276411</v>
+        <v>-2.6297863714486209</v>
       </c>
       <c r="J150" s="1">
-        <v>2.7821276465632239</v>
+        <v>-1.8677729205257121</v>
       </c>
       <c r="K150" s="1">
-        <v>4.2972772280404206</v>
+        <v>-1.688839046648388</v>
       </c>
       <c r="L150" s="1">
-        <v>2.6668156570131512</v>
+        <v>9.1519511386795234</v>
       </c>
       <c r="M150" s="1">
-        <v>4.2959319831669784</v>
+        <v>-2.4021341885927279</v>
       </c>
       <c r="N150" s="1">
-        <v>4.0632002080767542</v>
+        <v>-0.64466960104055127</v>
       </c>
       <c r="O150" s="1">
-        <v>2.2443059467447259</v>
+        <v>-0.17141680657676231</v>
       </c>
       <c r="P150" s="1">
-        <v>-1.0164397008472399</v>
+        <v>-0.13984986080173309</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:P150">
-    <sortCondition ref="B2:B150"/>
+    <sortCondition ref="L2:L150"/>
   </sortState>
   <conditionalFormatting sqref="B1:F150">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
@@ -15882,7 +15865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P148"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
